--- a/data/CoronavirusUpdate_AllCountries_Public.xlsx
+++ b/data/CoronavirusUpdate_AllCountries_Public.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="25200" windowHeight="12045"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="25200" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Country Updates" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1146">
   <si>
     <t>Covid19 Update by Country</t>
   </si>
@@ -517,9 +517,6 @@
     <t>SWE</t>
   </si>
   <si>
-    <t>THA</t>
-  </si>
-  <si>
     <t>TUN</t>
   </si>
   <si>
@@ -529,21 +526,18 @@
     <t>USA</t>
   </si>
   <si>
-    <t>VNM</t>
-  </si>
-  <si>
     <t>ZAF</t>
   </si>
   <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>06-Apr-2020 (Last updated: 09-Apr-2020)</t>
+    <t>17-Apr-2020 (Last updated: 17-Apr-2020)</t>
   </si>
   <si>
     <t>* All persons entering Albania from the COVID-19 affected areas are required to be mandatorily self-quarantined for a period of 14 days from the date of entry into the border. 
-* March 19: pedestrians can only be outside at limited hours. Walking on the streets accompanied by other people is banned. 
-*The PM decreed a 'state of natural disaster' across the country, a measure that suspends some basic rights and allows authorities to seize private properties or raid homes if deemed necessary (the PM can maintain these measure for up to 30 days before calling a vote in Parliament to extend them). 
+* March, 19: pedestrians can only be outside at limited hours. Walking on the streets accompanied by other people is banned. 
+*March, 24: The PM decreed a 'state of natural disaster' across the country, a measure that suspends some basic rights and allows authorities to seize private properties or raid homes if deemed necessary (the PM can maintain these measure for up to 30 days before calling a vote in Parliament to extend them). 
 * Government deployed troops to enforce a 40-hour curfew as self-isolation has not been thoroughly implemented by citizens. 
 * Albania implemented a 16-hour curfew: individuals are only permitted to shop and go to work from 5:00 to 13:00, after which security forces will enforce the curfew. 
 *April, 5: The Prime Minister announced that the daily period for going out to buy food will be extended to 90 min throughtout the week and citizens will be allowed to use their personal car</t>
@@ -575,7 +569,9 @@
   </si>
   <si>
     <t xml:space="preserve">* The government will reschedule, in the second half of 2020 and onwards, the profit tax for all businesses up to the range of 2-14 million LEK (16 to 113 thousand euros) turnover. There will be a postponement of balance sheet submission for a period up to 1 June 2020 for businesses submitting balance sheets to NBCs online or directly.
-* The government promised it will pay the salaries of about 60 000 employees of small businesses or self-employed people, which will cost about 1.57 billion leks (13 million euros). </t>
+* The government promised it will pay the salaries of about 60 000 employees of small businesses or self-employed people, which will cost about 1.57 billion leks (13 million euros). 
+* April, 14: The Prime Minister announced an extended aid package that will support 100 000 employees in small businesses, which have been affected during the weeks of restricted movements; 66 000 employees in large businesses that have been affected during these weeks in their workplaces; 10 000 employees in the tourism sector. As of April 20, 176 000 families will receive a direct payment of 40 000 LEK ( 3 195 euros).  
+</t>
   </si>
   <si>
     <t xml:space="preserve">* The government will permanently erase late payment interests for active debtors who are current energy consumers, family or small business, with a financial effect of up to 15 billion LEK (121 million euros). 
@@ -584,18 +580,20 @@
 * Extension of the deadline of payment of loans to enterprises and households that may face difficulties during this period due to the coronavirus COVID-19. </t>
   </si>
   <si>
-    <t>* March 25: the Central Bank of Albania decided to further ease the monetary policy stance and the monetary and financial conditions in Albania, by (a) reducing the policy rate from 1% to 0.5%; (b) reducing the interest rate for the overnight lending facility from 1.9% to 0.9%; (c) maintaining the interest rate for the overnight deposit facility unchanged at 0.1%.</t>
+    <t xml:space="preserve">* March 25: the Central Bank of Albania decided to further ease the monetary policy stance and the monetary and financial conditions in Albania, by (a) reducing the policy rate from 1% to 0.5%; (b) reducing the interest rate for the overnight lending facility from 1.9% to 0.9%; (c) maintaining the interest rate for the overnight deposit facility unchanged at 0.1%. 
+* The Bank of Albania suspended dividend distribution for 2019 and 2020 for banks until the end of June in order to boost capital and support lending during this period. The Bank of Albania also halved the salaries of its supervisory board and top management for the duration of the pandemic. </t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>09-Apr-2020 (Last updated: 09-Apr-2020)</t>
-  </si>
-  <si>
-    <t>* March 26: the government announced a 15-day state of emergency that may be extended automatically. The measures include:
+    <t>09-Apr-2020 (Last updated: 17-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 26: the government announced a 15-day state of emergency that may be extended automatically. The measures include:
 • restrictions on movement within national territory. Citizens are only allowed to leave their home places to buy essential goods and services;
-• all commercial establishments are shut down, except those providing essential services - such as banks, telecommunications, press services and markets. "Informal street markets” are prohibited.</t>
+• all commercial establishments are shut down, except those providing essential services - such as banks, telecommunications, press services and markets. "Informal street markets” are prohibited.  *April 10: Angola extends state of emergency for two weeks, between 11 and 25 April.
+</t>
   </si>
   <si>
     <t>* March 18: Passengers and airline crew travelling from China (People's Rep.), France, Iran, Italy, Korea (Rep.), Portugal or Spain are not allowed land in Angola. Residents, airline crew and nationals of Angola who travel from these countries are allowed to land, but they are quarantined for 14 days.
@@ -615,40 +613,41 @@
   </si>
   <si>
     <t>* March 25: The Government is working on a package of measures to fight the coronavirus outbreak in the country and its economic fallout 
-* April 6: As part of the announced package of measures to tackle coronavirus, Angola reduces ministerial departments from 28 to 21, merges institutes and national directorates, freezes the recruitment of new civil servants, introduces exemptions on customs duties and VAT payments, and forbids the export of medical equipment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 31: The central bank announced the following measures: 
+* April 6: As part of the announced package of measures to tackle coronavirus, Angola reduces ministerial departments from 28 to 21, merges institutes and national directorates, freezes the recruitment of new civil servants, introduces exemptions on customs duties and VAT payments, and forbids the export of medical equipment. * Date: Additional health care spending to mitigate corona virus, estimated at US$40 million, was announced. Tax exemptions on humanitarian aid and donations were granted. Some delays on filing taxes for selected imports were granted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 27: the central bank (BNA) announced the equivalent of 0.5 percent of GDP to be provided as liquidity support to banks and created a liquidity line of US$186 million for the purchase of government securities from non-financial corporations. * March 30: financial institutions that carry out credit operations are now allowed to grant their clients a moratorium of 60 days for servicing the debt - measure with a duration of two months.  * March 31: The central bank announced the following measures: 
 • A liquidity line with a maximum value of KZ 100 billion will be established for the acquisition of government securities held by non-financial corporations; 
 • The interest rate on the liquidity absorption facility, with a seven-day maturity, has been reduced from 10% to 7%; 
 • Bank reserves will be used to extend credit to 54 producers in the agriculture, fisheries, and industry sectors that fall under the Prodesi export diversification programme; 
 • Restrictions to the import of basic foods and medicines are relaxed;
-• From April 1, oil companies and the National Oil and Gas Agency (ANPG) will be allowed to use the Bloomberg terminal for the sale of foreign currency to commercial banks.
+• From April 1, oil companies and the National Oil and Gas Agency (ANPG) will be allowed to use the Bloomberg terminal for the sale of foreign currency to commercial banks. 
+* April 3: BNA announced that the minimum allocation of credit to priorities products would increase from 2 percent to 2.5 percent of the commercial banks net assets.
 </t>
   </si>
   <si>
-    <t>14-Apr-2020 (Last updated: 16-Apr-2020)</t>
-  </si>
-  <si>
-    <t>The government has ordered complete confinement of the population from 20 March until 26 April. Police is controlling the streets and non-compliance with measures is prosecuted as criminal offence.</t>
-  </si>
-  <si>
-    <t>All borders are entirely closed from 27 March until 26 April.</t>
+    <t>27-Apr-2020 (Last updated: 27-Apr-2020)</t>
+  </si>
+  <si>
+    <t>The government has ordered complete confinement of the population from 20 March until 10 May. Police is controlling the streets and non-compliance with measures is prosecuted as criminal offence. As of 27 April, provincial governments have the authority to decide on exemptions to the national quarantine, if certain epidemiological criteria are fulfilled, but certain activities remain closed nation-wide (such as school classes, public events, shopping malls, restaurants and bars, recreational and touristic activities, and interregional public transport). Women and members of the LGBT community are explicitly exempt from the quarantine in case they need to report charges due to domestic violence.</t>
+  </si>
+  <si>
+    <t>All borders are entirely closed from 27 March until 10 May.</t>
   </si>
   <si>
     <t>All schools and universities closed as of March 16. Online schooling platforms were introduced.</t>
   </si>
   <si>
-    <t>All shops and public spaces are closed from March 20 until 26 April.</t>
-  </si>
-  <si>
-    <t>All shops and public spaces are closed from 20 March until 26 April, only supermarkets, small groceries shops, hardware stores and pharmacies as well as certain parts of public administration remain open. As of 3 April, the following additional activities are excluded from the mandatory quarantine: distribution of construction materials, mining, forestry, manufacturing of wood, furniture, leather as well as agricultural or construction machines, imports and exports of already produced items, nuclear fuel production, maintenance and desinfection services, as well as a minimum service of banks and savings and credit cooperatives. Notary services are excluded as of 8 April, and repair services for cars, personal care services, and home delivery of IT and office equipment as of 11 April. As of 6 April, a specific certificate is necessary for all workers and other individuals allowed to leave their household during the confinement.</t>
+    <t>All shops and public spaces are closed from March 20 until 10 May.</t>
+  </si>
+  <si>
+    <t>All shops and public spaces are closed from 20 March until 10 May, only supermarkets, small groceries shops, hardware stores and pharmacies, certain parts of public administration as well as essential production and services activities remain open. As of 3 April, the following additional activities are excluded from the mandatory quarantine: distribution of construction materials, mining, forestry, manufacturing of wood, furniture, leather as well as agricultural or construction machines, imports and exports of already produced items, nuclear fuel production, maintenance and desinfection services, as well as a minimum service of banks and savings and credit cooperatives. Notary services are excluded as of 8 April, and repair services for cars, personal care services, and home delivery of IT and office equipment as of 11 April. As of 6 April, a specific certificate is necessary for all workers and other individuals allowed to leave their household during the confinement. As of 20 April, retail activities through online platforms, doctor visits, and payment service centres are exempted from the quarantine. In some provinces, authorities have started to lift containment measures gradually.</t>
   </si>
   <si>
     <t>Public investment will be boosted by around 0.5% of GDP (USD 1.5 bn), mainly in road infrastructure, housing and school construction as well as infrastructure for tourism. Public credit subsidies for private housing construction will be reinstated and extended, providing opportunities to refurbish homes during confinement, with a focus on domestically produced materials. Other measures to mitigate the economic costs of the crisis for households and businesses are detailed below.</t>
   </si>
   <si>
-    <t>The construction of 8 new emergency hospitals has been announced. The government is cooperating with domestic equipment producers and laboratories to increase their supply and has started decentralised testing throughout the country as of 28 March. It has purchased 200,000 reagents for large-scale testing activities and the health system disposes of 8500 Intensive Care Units, which are supposed to be increased to 10,000. All workers in the health sector will receive a monthly bonus of 75 USD from April until July 2020. Prices for personal care, drugs and medical products have been fixed until the end of the health emergency situation. Exports of medical equipment necessary for the treatment of COVID infected patients require prior authorisation from the government. As of 1 April, imports of medical supplies and vaccines are exempted from import duties until the end of the emergency situation. Social security contributions for companies providing healthcare-related services are reduced by 95%.</t>
+    <t>The construction of 12 new emergency hospitals has been announced. The government is cooperating with domestic equipment producers and laboratories to increase their supply and has started decentralised testing throughout the country as of 28 March. It has purchased 200,000 reagents for large-scale testing activities and the health system disposes of 8500 Intensive Care Units, which are supposed to be increased to 10,000. All workers in the health sector will receive a monthly bonus of 75 USD from April until July 2020. Prices for personal care, drugs and medical products have been fixed until 20 May at their levels observed 6 March. Exports of medical equipment necessary for the treatment of COVID infected patients require prior authorisation from the government. As of 1 April, imports of medical supplies and vaccines are exempted from import duties until the end of the emergency situation. Social security contributions and some taxes for companies providing healthcare-related services are reduced during the health emergency situation.</t>
   </si>
   <si>
     <t xml:space="preserve">- Households that live from informal activities, self-employment or domestic work and have suffered income losses will receive a one-off bonus of USD 150 in April.
@@ -661,23 +660,28 @@
 - Public food programmes are expanded.
 - All workers in the health sector will receive a monthly bonus of 75 USD from April until July.
 - Workers in the security and public defense sector receive a one-off bonus of USD 75 in April. 
+- On 29 April, all households included in the conditional cash-transfer programme receive a one-off in-kind bonus of 62 USD or 93 USD (if more than one child), which is payed out through a specific credit card only usable for food purchases.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In sectors particularly affected by the lockdown such as entertainment, transport, restaurants and hotels, the government will exempt employers from social security contributions. A specific committee has been created to establish objective criteria for accessing these benefits (6 April). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In sectors particularly affected by the lockdown such as entertainment, transport, restaurants and hotels, the government will pay part of the salaries and exempt employers from social security contributions. A specific committee has been created to establish objective criteria for accessing these benefits (6 April). </t>
-  </si>
-  <si>
-    <t>- Households' installments of credits granted by the Social Security Agency corresponding to April and May have been postponed. 
-- Refunds for domestic taxes paid during the production process for exporting firms are accelerated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public banks will support private companies with working capital for up to 180 days. This measure targets firms most affected by the lockdown, especially small and medium size enterprises. Rates will be around half of current inflation, with an estimated fiscal cost of around 0.33% of GDP. Part of these credits will be directed to companies producing foodstuff, medicaments and hygienic articles as well as equipment necessary for teleworking. To protect banks, soft-credit lines will be guaranteed by the State through a Public Credit Guarantee Fund which has received additional resources from the government. </t>
-  </si>
-  <si>
-    <t>Public credit guarantees for bank lending to micro, small and medium enterprises (SMEs) producing food and basic supplies have been reinforced.</t>
+    <t>In sectors particularly affected by the lockdown such as entertainment, transport, restaurants and hotels, social security contributions and payroll taxes for employers are reduced or postponed. A specific committee has been created to establish objective criteria for accessing these benefits (6 April). 
+- Social security contributions and some taxes for companies providing healthcare-related services are reduced during the health emergency situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In sectors particularly affected by the lockdown such as entertainment, transport, restaurants and hotels, the government will pay part of the salaries. A specific committee has been created to establish objective criteria for accessing these benefits (6 April). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Households' installments of credits granted by the Social Security Agency corresponding to April and May have been cancelled. 
+- Refunds for domestic taxes paid during the production process for exporting firms are accelerated.
+- In sectors particularly affected by the lockdown social security contributions and payroll taxes for employers are reduced or postponed.
+- Due payments for taxes have been postponed for SMEs to 30 June. </t>
+  </si>
+  <si>
+    <t>- Public and private banks will support private companies with working capital for up to 180 days. This measure targets firms most affected by the lockdown, especially small and medium size enterprises. Rates will be around half of current inflation, with an estimated fiscal cost of around 0.33% of GDP. Part of these credits will be directed to companies producing foodstuff, medicaments and hygienic articles as well as equipment necessary for teleworking. To protect banks, soft-credit lines will be guaranteed by the State through a Public Credit Guarantee Fund which has received additional resources from the government. 
+- The public sector provides loans of up to 2300 USD with zero interest rates to self-employed workers whose revenues have strongly decreased due to the crisis. The amount of the loan is equivalent to the average monthly revenue of the self-employed and paid out over three months (with repayment in twelve quotas starting after 6 months). The total fiscal cost of the measure amounts to around 11 billion Pesos and loan guarantees of 26 billion Pesos have been provided by the government.</t>
+  </si>
+  <si>
+    <t>Public credit guarantees for bank lending to micro, small and medium enterprises (SMEs) affected by the emergency situation have been reinforced.</t>
   </si>
   <si>
     <t>Monetary policy has been loosened considerably with policy rates decreasing by 25 percentage points since January and strong increases in the monetary base in March and April.</t>
@@ -687,20 +691,19 @@
   </si>
   <si>
     <t>- During the health emergency, access to electricity, gas, water as well as internet will not be suspended for households unable to pay their bills.
-- All rent contracts are automatically prolonged until 30 September, rents are fixed at their March levels and tenants cannot be forced to leave apartments due to non-payment of rents (as of 29 March).
-- Until 30 April, banks are not allowed to close accounts due to bounced checks. 
+- All rent contracts are automatically prolonged until 30 September, rents are fixed at their March levels and tenants cannot be forced to leave apartments due to non-payment of rents (as of 29 March). 
+- Until 30 September, payments for mortgage loans related to the first residence are fixed at their March levels and foreclosures are suspended.
+- Until 30 April, banks are not allowed to close accounts due to bounced checks. Until 30 June charging commissions for the use of automatic cash machines are prohibited.
 - As of 1 April, road toll collection is suspended.
-- Prices for food, personal care, drugs and medical products have been fixed since 19 March until the end of the health emergency situation. Local mayors have the authority to conduct inspections and enforce the price controls as of 8 April.</t>
+- Prices for food, personal care, drugs and medical products have been fixed until 20 May at their levels observed 6 March. Local mayors have the authority to conduct inspections and enforce the price controls as of 8 April.
+- A program offering zero interest rates for the purchase of a wide range of products, such as food, medicaments and medical equipment, personal care and cleaning products, home appliances, wearing apparel and shoes, among others, using credit cards and up to 18 quotas was extended until 30 June.</t>
   </si>
   <si>
     <t>- During the health emergency, access to electricity, gas, water and internet will not be suspended for SMEs unable to pay their bills.
 - A stay on both bank account closures due to bounced checks and credit denial to companies with payroll tax arrears helps securing acess to banking services for affected companies.</t>
   </si>
   <si>
-    <t>03-Apr-2020 (Last updated: 14-Apr-2020)</t>
-  </si>
-  <si>
-    <t>From 9pm AEDT 20 March 2020, only Australian citizens, residents and immediate family members can travel to Australia. All travellers to Australia are required to self-isolate for 14 days. From 28 March, all travellers arriving in Australia will be required to undertake their mandatory 14 day self-isolation at designated facilities. Interstate travel is possible, but individual states have introduced a requirement to self isolate for 14 days after arrival. As from 29 March, gatherings are limited to two people. However, different States have introduced policies that are tailored to their situation. For example, Victoria, New South Wales and Tasmania are three states advising that residents should stay inside their homes unless for essential reasons (e.g. obtaining food, going to work or education, medical reasons, providing care or exercise).</t>
+    <t>From 9pm AEDT 20 March 2020, only Australian citizens, residents and immediate family members can travel to Australia. All travellers to Australia are required to self-isolate for 14 days. Since 28 March, all travellers arriving in Australia are required to undertake their mandatory 14 day self-isolation at designated facilities. Interstate travel is possible, but individual states have introduced a requirement to self-isolate for 14 days after arrival and restrictions on non-essential travel. As from 29 March, gatherings are limited to two people. However, different States have introduced policies that are tailored to their situation. For example, Victoria, New South Wales and Tasmania are three states advising that residents should stay inside their homes unless for essential reasons (e.g. obtaining food, going to work or education, medical reasons, providing care or exercise). On 26 April, Queensland and Western Australia announced that some restrictions would be lifted. For example, private outdoor picnics would be allowed in both states. In Western Australia, public gatherings of up to 10 people would begin to be allowed.</t>
   </si>
   <si>
     <t xml:space="preserve">Only Australian citizens, residents and immediate family members can travel to Australia. From 9pm AEDT 20 March 2020, only Australian citizens, residents and immediate family members can travel to Australia. All travellers to Australia are required to self-isolate for 14 days. From 28 March, all travellers arriving in Australia will be required to undertake their mandatory 14 day self-isolation at designated facilities. On 24 March, it was announced that Australians are not allowed to take a return trip overseas, unless in exceptional circumstances. Cruise ships from foreign ports have been banned.  
@@ -726,9 +729,11 @@
   </si>
   <si>
     <t xml:space="preserve">On 11 March, the Government committed an additional A$2.4 billion to support the health system to manage any further outbreak in Australia. The package provided support across primary care, aged care, hospitals, research and the National Medical Stockpile, along with a national communication campaign. The package also provided funding to ensure Australia had sufficient personal protective equipment and medicines in addition to infection control training and programs for health and aged care workers.
-On 15 March 2020, the Prime Minister announced that health services had moved into the ‘Targeted Action’ stage of the Australian Health Sector Emergency Response Plan for Novel Coronavirus (COVID-19). This included moving resources within hospitals to priority areas, establishing fever clinics which specialise in COVID-19, cancelling elective surgeries to free up capacity in public hospitals and adapting hospital resources (i.e. rooms and equipment) for use in priority areas, such as Intensive Care Units. 
+On 15 March 2020, the Prime Minister announced that health services had moved into the ‘Targeted Action’ stage of the Australian Health Sector Emergency Response Plan for Novel Coronavirus (COVID-19). This included moving resources within hospitals to priority areas, establishing fever clinics which specialise in COVID-19, cancelling non-urgent elective surgeries to free up capacity in public hospitals and adapting hospital resources (i.e. rooms and equipment) for use in priority areas, such as Intensive Care Units. 
 On 29 March, the Prime Minister announced an additional A$1.1 billion in funding for mental health services, domestic violence support, Medicare assistance for people at home (including through telehealth services) and emergency food relief.
 On 31 March, the Government announced a partnership with private health providers for their infrastructure, essential equipment, supplies, workforce and additional resources to be made available to the public health system. In return, the government would ensure the viability of these enterprises. In essence, this agreement will integrate the private and public health systems in the event that capacity in the public system is strained. 
+On 26 April, the government launched the new voluntary app, COVIDSafe. It is intended that the app will help with tracking and tracing COVID-19 infections. 
+On 27 April, the first phase in reinstating elective surgeries commenced. 
 </t>
   </si>
   <si>
@@ -765,10 +770,10 @@
     <t>On 7 April, the government introduced a mandatory code of conduct in relation to commercial tenancies. The Code imposes a set of good faith leasing principles for application to commercial tenancies (including retail, office and industrial) in circumstances where the tenant has annual turnover up to A$50 million and is eligible for the government’s JobKeeper programme. The Code includes rent reductions that are proportional to the tenant’s decline in turnover, in order to ensure that the burden is shared between landlords and tenants. On 9 April, Commonwealth and State governments agreed to a nationally consistent approach to hardship support across the essential services for households and small businesses. The principles for dealing with entities in financial stress are i) offering flexible payment options to all households and small businesses in financial stress; ii) Not disconnecting restricting supply/services to those in financial stress; iii) Deferring debt recovery proceedings and credit default listing; iv) Waiving late fees and interest charges on debt; and v) minimising planned outages for critical works, and provide as much notice as possible to assist households and businesses during any outage.</t>
   </si>
   <si>
-    <t>14-Apr-2020 (Last updated: 14-Apr-2020)</t>
-  </si>
-  <si>
-    <t>Besides a country-wide lockdown, authorities have enforced a strict quarantine in a number of municipalities across four Austrian regions. 
+    <t>23-Apr-2020 (Last updated: 23-Apr-2020)</t>
+  </si>
+  <si>
+    <t>Besides a country-wide lockdown, authorities enforced a strict quarantine in a number of municipalities across four Austrian regions. 
 Tyrol (external borders with DEI and ITA)
 • Two popular ski regions (Paznauntal, St. Anton/Arlberg) have been under quarantine since March 13.
 • The rest of Tyrol has been quarantined since March 19.
@@ -787,7 +792,7 @@
 • Official air and external train traffic is suspended.</t>
   </si>
   <si>
-    <t xml:space="preserve">Since March 16, all schools are closed at least until mid-May.  </t>
+    <t>Since March 16, all schools are closed. They are expected to open on May, 15.</t>
   </si>
   <si>
     <t xml:space="preserve">• Austrian authorities have enforced a country-wide lockdown since March 16. 
@@ -816,8 +821,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Due to the closed borders especially with Hungary and the Slovak Republic, maintaining 24h long-term care of the elderly is a major problem. Around 66,000 care-takers work in the labour-intensive 24h care. Austrians constitute only 1.6% of 24h care-takers. Around 50% of these care-takers come from Romania who currently cannot cross the Hungarian border and a further 30% from the Slovak Republic. Slovaks, the second largest group among care-takers, are only allowed to enter if their place of work is not more than 30km from the border. Though the Austrian government is in negotiations with its neighbours no solution has been reached so far. 
-For the moment, the government has introduced two immediate measures for the 460.000 persons in need of care. Firstly, the government is seeking former Civilian Servants who completed their service within the last five years to step in. While this pool amounts to around 45,000 persons, the government estimates that about 14.600 additional Civilian Servants can be mobilized this way. Secondly, federal provinces are setting up additional capacities for mobile and stationary care, financed through a EUR 100 million fund from the federal government. Another 60 million are granted to the health system and EUR 130 million are given to hospitals for equipment and to finance over-time payments. Lower Austria flied in 231 care-takes directly from Bulgaria and Romania. 
+    <t xml:space="preserve">Due to the closed borders especially with Hungary and the Slovak Republic, maintaining 24h long-term care of the elderly is a major problem. Around 66,000 care-takers work in the labour-intensive 24h care. Austrians constitute only 1.6% of 24h care-takers. Around 50% of these care-takers come from Romania who currently cannot cross the Hungarian border and a further 30% from the Slovak Republic. Slovaks, the second largest group among care-takers, are only allowed to enter if their place of work is not more than 30km from the border. 
+For the moment, the government has introduced two immediate measures for the 460.000 persons in need of care. Firstly, the government is seeking former Civilian Servants who completed their service within the last five years to step in. While this pool amounts to around 45,000 persons, the government estimates that about 14.600 additional Civilian Servants can be mobilized this way. Secondly, federal provinces are setting up additional capacities for mobile and stationary care, financed through a EUR 100 million fund from the federal government. Another 60 million are granted to the health system and EUR 130 million are given to hospitals for equipment and to finance over-time payments. Lower Austria flied in 231 care-takes directly from Bulgaria and Romania. From May on, train traffic through Hungary for Romanian care-takers will be resumed.
 From April 1 on, the government has introduced further measures to contain the propagation of the virus. Wearing masks is now mandatory in open spaces, including supermarkets. Vulnerable people have to work from home. 
 The government has started testing representative samples of Austrians for infection with Covid-19. A first test with 2,197 Austrians suggested a rather low rate of infection (around 1% of total population). Further testing with larger samples are planned in the near future.
 </t>
@@ -871,22 +876,22 @@
     <t>The ECB has committed to “do everything necessary within its mandate” to support the economy through this shock. To preserve bank lending and liquidity, the ECB will temporarily conduct additional longer-term refinancing operations (LTROs) and lower the interest rate applied in targeted longer-term refinancing operations (TLTRO III). On the supervisory front, the ECB has temporarily lowered bank capital requirements and introduced flexibility regarding the treatment of non-performing loans. Furthermore, the ECB has expanded its asset purchase programme by an overall EUR 870 billion (7.3% of euro area GDP) until the end of 2020, while opening the door to freeing its self-imposed limits. More details and additional measures are presented in the EU note.</t>
   </si>
   <si>
-    <t>30-Mar-2020 (Last updated: 14-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Containment measures were strengthened on March 18, which will remain in place until April 19. Citizens are required to stay at home, except for work and daily necessities (food shops, post office, bank, pharmacy, hospitals, etc.). </t>
-  </si>
-  <si>
-    <t>Non-essential travel outside Belgium is prohibited since March 18 until April 19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schools remain open, but classes and school activities are interrupted (schools take care of children, organised by internal staff, whose parents work in the care sector or essential public services or have no other care solution than their grandparents) since March 13 until April 19.  </t>
-  </si>
-  <si>
-    <t>All public gatherings are prohibited since March 13 until April 19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-essential shops and retail outlets are closed from 18 March. Firms are obliged to organise telework and, if this is not possible for certain employees, social distancing will be strictly respected. If firms cannot meet these obligations, they must be closed temporarily. These measures will apply until April 19. </t>
+    <t>15-Apr-2020 (Last updated: 21-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containment measures were strengthened on March 18, which will remain in place until May 3. Citizens are required to stay at home, except for work and daily necessities (food shops, post office, bank, pharmacy, hospitals, etc.). </t>
+  </si>
+  <si>
+    <t>Non-essential travel outside Belgium is prohibited since March 18 until May 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schools remain open, but classes and school activities are interrupted (schools take care of children, organised by internal staff, whose parents work in the care sector or essential public services or have no other care solution than their grandparents) since March 13 until May 3.  </t>
+  </si>
+  <si>
+    <t>All public gatherings are prohibited since March 13 until May 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-essential shops and retail outlets are closed from 18 March. Firms are obliged to organise telework and, if this is not possible for certain employees, social distancing will be strictly respected. If firms cannot meet these obligations, they must be closed temporarily. These measures will apply until May 3. </t>
   </si>
   <si>
     <t>• All payment deadlines for personal income tax, corporate income tax, VAT and withholding tax are automatically extended by two months. 
@@ -917,7 +922,7 @@
     <t>• A guarantee scheme by the federal government and the financial sector was set up (total EUR 50 billion, worth 10.6% of GDP), guaranteeing all new credits and credit lines with a maximum term of 12 months (excluding refinancing credits) provided until 30 September 2020. This was announced on 22 March</t>
   </si>
   <si>
-    <t xml:space="preserve">The National Bank of Belgium announced the decision to reduce the counter-cyclical buffer to zero, releasing approximately EUR 1 billion worth of capital available to Belgian banks to expand lending. It was announced on March 11.  A ban on short-selling stocks has been introduced since March 18. </t>
+    <t xml:space="preserve">The National Bank of Belgium announced the decision to reduce the counter-cyclical buffer to zero, releasing approximately EUR 1 billion worth of capital available to Belgian banks to expand lending. It was announced on March 11.  A ban on short-selling stocks has been introduced since March 18, until May 17. </t>
   </si>
   <si>
     <t xml:space="preserve">The payment of mortgages/credits and premiums for fire insurance and outstanding balance insurance for families, viable firms and the self-employed can be deferred until end September 2020 without charging any fee. It was announced on March 22.  </t>
@@ -926,74 +931,91 @@
     <t>BEN</t>
   </si>
   <si>
-    <t xml:space="preserve">* March 18: Identification and quarantine of all person travelling from an affected country; 
-* March 23: Quarantine for vulnerable persons (including people older than 60 years);
-* March 27: Establishment of a “cordon sanitaire” around the most exposed communes: Cotonou, Abome-Calavi, Allada, Ouidah, Tori, Ze, Sem-Prodji, Poto-Novo, Akpro-Missérété, Adjarra, So-Av et Aguégués starting March 30;
-* April 8: Citizens of communes within the "cordon sanitaire" are obliged to wear a mask.
+    <t>09-Apr-2020 (Last updated: 22-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 13: Extension of “Cordon sanitaire” set up around the following agglomerations: Cotonou, Abomey-Calavi, Allada, Ouidah, Tori-Bossito, Kpomassè, Toffo, Zè, Sô-Ava, Aguégués, Sèmè-Podji, Porto-Novo, Akpro-Missérété, Adjara, and Atchoukpa, until April 27.
+*April 7: Obligation to wear a mask in the agglomerations which have been cordoned off, starting April 8.
+*March 27: “Cordon sanitaire” set up around the following agglomerations: Cotonou, Abomey-Calavi, Allada, Ouidah, Sèmè-Podji, Porto-Novo, So-Ava, Aguégués, Akpro-Missérété, and Adjarra, starting March 30.
+*March 23: Quarantine for vulnerable persons and people over 60 years old.
+*March 18: Systematic and compulsory quarantine for all people arriving to Benin by air.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">* Benin introduced a compulsory quarantine for all flight passengers travelling to the country.
-* March 18: Movements across land borders are allowed only for situations of extreme necessity; issuance of VISA is suspended; official missions abroad are suspended.
-* March 23: Traffic of commercial flights is limited.
+    <t xml:space="preserve">
+*March 18: Limitations on entering/exiting the country via land borders.
+*March 18: Restriction on the issuance of visas and limitations on movement across land borders; suspension of official missions abroad.
 </t>
   </si>
   <si>
-    <t>*March 23: Closure of schools and universities for the Easter break from March 30 to April 30.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 18: Ban on all non-essentials public events;
-* March 18: Social distancing and sanitary controls become mandatory in banks, supermarkets, bars, restaurants and other public places;
-* March 23: Public gatherings in public places (including beaches) are limited;
-* March 23 : Closure of all places of worship in the affected zones. This measure has then been extended to the rest of the country starting from April 3 to April 19.
+    <t>*March 23: Closure of schools and universities for the Easter break from March 30 to April 13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 3: Closure of all places of worship in the affected zones, extended to the entire country from April 3 to April 19.
+*March 18: Social distancing and sanitary controls are mandatory in some public places (banks, supermarkets, bars, restaurants).
+*March 18: Suspension of all demonstrations and all other non-essential events of a sporting, cultural, religious, political and festive nature, including pilgrimage to Mecca preparations.
 </t>
   </si>
   <si>
-    <t>*March 31: The Ministry of Finance launches a fundraising initiative to collect voluntary contributions.</t>
-  </si>
-  <si>
-    <t>* March 21: The BCEAO (Central Bank of West African States) announced the following measures: 
-i) XOF 340 billion additional liquidity made available to banks. This measure brings the total available liquidity to XOF 4750 billion; 
-ii) 1,700 listed private companies can access through banks to additional resources amounting to XOF 1,050 billion. The concerned companies can negotiate better conditions for their loans; 
-iii) a framework to support firms with repayment difficulties is set up;
-*March 25: 
-i) Allocation of XOF 25 billion to the trust fund of the BOAD (West African Development Bank). This measure aims at increasing the amount of concessional loans to finance urgent investment and equipment expenses in eligible countries; 
-ii) a special programme for refinancing bank credits granted to SMEs is announced;
-iii) the use of electronic money is encouraged.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">*March 18: The State provides pharmacies, supermarkets and other structures with a stock of protective masks. The price is regulated to ensure accessibility to all citizens.
+*March 18: Mandatory masks and respect of safety distances for common carriers’ employees and passengers.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">*March 17: Mitigation and prevention measures amount to XOF10 billion (US$17 million or 0.1% GDP).
+*March 31: Fundraising initiative managed by the Ministry of Finance for voluntary contributions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*March 25: The West African Development Bank (BOAD) decided to grant the West African Economic and Monetary Union (UEMOA) member countries XOF120 billion in concessional loans (XOF15 billion per country) to be disbursed immediately; such loans are softened through the interest subsidy mechanism replenished by the Central Bank of West African States (BCEAO) and the UEMOA Commission for XOF25 billion and XOF15 billion, respectively.
+*March 23: The Central Bank of West African States (BCEAO) has raised liquidity made available to banks, allowing average refinancing rates to remain relatively close to the floor of the monetary policy corridor of 2.5%. This was followed by the adoption of a full allotment strategy at a fixed rate of 2.5% thereby allowing banks to satisfy their liquidity needs fully at a lower rate.
+*March 21: The Central Bank of West African States (BCEAO) announced the: i) extension of the collateral framework to access central bank refinancing to include bank loans to prequalified 1700 private companies; ii) set up a framework inviting banks to accommodate demands from firms with repayment difficulties; iii) introduced measures to promote the use of electronic payments.
+</t>
+  </si>
+  <si>
     <t>BIH</t>
   </si>
   <si>
+    <t>14-Apr-2020 (Last updated: 17-Apr-2020)</t>
+  </si>
+  <si>
     <t>* The government introduced a curfew on the whole territory of the country from 21h to 6 h. 
-* March, 17: The government declared a "state of natural or other disaster" in the territory of Bosnia and Herzegovina                                                                                                                                                           
-* April 3: The government in Bosnia and Herzegovina’s Federation entity announced to lift its ban on movement for everyone over the age of 65 and under the age of 18 (entering into effect as of April 5). The new curfew will allow the elderly to leave their homes every day between 8h and 12h from Monday to Friday, April 10, in order to get their pensions. Children under 18 will be able to move from one location to another with a vehicle or parental supervision. However, they are not allowed to be on the streets alone.
-* April 3, Authorities of Bosnia’s Serb-dominated entity, Republika Srpska, have introduced a weekend curfew for all citizens between Saturday noon to Sunday at 18h.</t>
+* March 17: The government declared a "state of natural or other disaster" in the territory of Bosnia and Herzegovina                                                                                                                                                           
+* April 3: The entity of the Federation of Bosnia and Herzegovina announced to lift its ban on movement for everyone over the age of 65 and under the age of 18 (entering into effect as of April 5). The new curfew will allow the elderly to leave their homes every day between 8h and 12h from Monday to Friday, April 10, in order to get their pensions. Children under 18 will be able to move from one location to another with a vehicle or parental supervision. However, they are not allowed to be on the streets alone.
+* April 3: The entity of the Republika Srpska introduced a weekend curfew for all citizens between Saturday noon to Sunday at 18h.</t>
   </si>
   <si>
     <t>* Restaurants, cafés, bars and shopping malls are closed to the public, but grocery stores are permitted to open. 
-* March, 30: The Council of Ministers took the Ministry of Security-proposed Decision on Temporary Closing of International Border Crossings in Air traffic for Passenger Travel in Bosnia and Herzegovina.Under the Decision, border crossings at airports are to be closed for passengers, with open border crossings for cargo transport only. 
-*April, 1: The goverment decided to close 20 border crossings with neighbouring Croatia in order to prevent the spread of the coronavirus.</t>
-  </si>
-  <si>
-    <t>* March, 10: Bosnia’s Serb-dominated entity, Republika Srpska, ordered all primary and secondary schools to shut for three weeks</t>
-  </si>
-  <si>
-    <t>* March,  24: The Council of Ministers introduced a tax exemption on equipment and resources granted by both domestic and international entities for the needs of prevention, containing and termination of the epidemics caused by COVID-19. These are face masks, gloves, disinfection means, and protection suits for medical staff, respirators and other necessary equipment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*April, 3: Bosnia's Federation entity adopted a law aimed at bolstering the economy amid the coronavirus crisis. The Bosnia's Federation will pay the minimum wage to all employees in the private sector, and secure additional funds for cantons and municipalities for activities that could boost the economy. 
+* March 30: The Council of Ministers took the Ministry of Security-proposed Decision on Temporary Closing of International Border Crossings in Air traffic for Passenger Travel in Bosnia and Herzegovina.Under the Decision, border crossings at airports are to be closed for passengers, with open border crossings for cargo transport only. 
+*April 1: The goverment decided to close 20 border crossings with neighbouring Croatia in order to prevent the spread of the coronavirus.</t>
+  </si>
+  <si>
+    <t>* March 10: The entity of Republika Srpska ordered all primary and secondary schools to shut for three weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 24: The Council of Ministers introduced a tax exemption on equipment and resources granted by both domestic and international entities for the needs of prevention, containing and termination of the epidemics caused by COVID-19. These are face masks, gloves, disinfection means, and protection suits for medical staff, respirators and other necessary equipment.
+* The two entity governments (Federation of Bosnia and Herzegovina  &amp; Republika Srpska) have allocated around KM 50 million (0.15 percent of GDP) for dealing with COVID-19, including purchasing medical equipment and supplies: (i) Federation of Bosnia and Herzegovina will transfer KM 30 million (0.1 % of GDP) to hospitals; (ii) Republika Srpska announced the health fund will cover health care costs for all patients. 
 </t>
   </si>
   <si>
-    <t>*April, 3: Bosnia's Federation entity adopted a law aimed at bolstering the economy amid the coronavirus crisis. Some 45 million EUR will be used by the Federation’s development bank to set up a guarantee fund to support the liquidity of small- and medium-sized businesses.</t>
-  </si>
-  <si>
-    <t>08-Apr-2020 (Last updated: 10-Apr-2020)</t>
+    <t>* The entity of the Federation of Bosnia and Herzegovina announced that total amount about KM 1 billion (3% of GDP) will be secured to support the economy, through: (1) setting up a special fund to stabilize the economy, mainly aimed at supporting exporting companies; (2) establishing a guarantee fund which will be serve to maintain and improve the liquidity of companies, and (3) tasking the Development Bank to establish a credit line for improving the liquidity of companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The entity of the Republika Srpska announced that the government will pay minimum salaries for all employees in these sectors in April ( KM 40 million, 0.12 % of GDP). 
+* The entity of the Federation of Bosnia and Herzegovina plans to subsidize contributions and taxes and pay minimum wages for all employees of the companies impacted by Covid-19. </t>
+  </si>
+  <si>
+    <t>* The entity of Republika Srpska has postponed payments for business tax from end-March to end-June, while speeding up tax and SSC refunds. 
+* The entity of Republika Srpska decided to cover PIT and SSC for about 40,000 workers in the sectors that are closed by the government decision from March to May (KM 50 million, 0.15 % of GDP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Banking Agencies have announced a six-month loan repayment moratorium for restructuring credit arrangements for individuals and legal entities which are found to have aggravated circumstances for loans repayments due to COVID-19. 
+* Banking Agencies have instructed banks to track clients and exposure portfolios affected by COVID-19. Banks are also instructed to consider additional customer relief, including reviewing current fees for services and avoiding charging fees to handle exposure modifications. 
+* All banks were ordered not to pay dividends or bonuses.
+</t>
+  </si>
+  <si>
+    <t>08-Apr-2020 (Last updated: 17-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">No nationwide lockdown. 23 of Brazil's 27 federative units (states) have imposed stronger confinement measures. </t>
@@ -1019,7 +1041,7 @@
 </t>
   </si>
   <si>
-    <t>Informal workers and the unemployed will receive, over 3 months, a temporary new benefit of USD 120 per month (USD 240 for single mothers) provided that they earn less than half a minimum wage and are not covered by other social benefits except Bolsa Família (27/3). The estimated fiscal cost is 1.3% of GDP. Additional spending of 0.04% of GDP on the conditional cash transfer programme Bolsa Familia aims at a rapid reduction of waiting lines for programme enrolment and could imply up to 1 million of additional beneficiaries. Formal workers and their employers can benefit from a new short-time work scheme with public income support from unemployment insurance. In return, employers guarantee employment for twice the period covered by the benefit. Benefit levels are 80% of earnings for those earning 1 minimum wage and capped at 1.8 minimum wages. All benefits are pro-rated for the reduction of working hours of the worker, which can be 25%, 50%, 70% or 100% in the case of suspension. The estimated fiscal cost is around 0.7% of GDP. Withdrawals from individual unemployment insurance accounts will become possible as of mid-June. School meals may be distributed directly to families of public school students while schools are closed. The disbursement of some social transfers has been brought forward.
+    <t>Informal workers and the unemployed will receive, over 3 months, a temporary new benefit of USD 120 per month (USD 240 for single mothers) provided that they earn less than half a minimum wage and are not covered by other social benefits except Bolsa Família (27/3). Among others, the transfer will benefit 6 million of female-headed single parent families. The estimated fiscal cost is 1.3% of GDP. Additional spending of 0.04% of GDP on the conditional cash transfer programme Bolsa Familia aims at a rapid reduction of waiting lines for programme enrolment and could imply up to 1 million of additional beneficiaries. Formal workers and their employers can benefit from a new short-time work scheme with public income support from unemployment insurance. In return, employers guarantee employment for twice the period covered by the benefit. Benefit levels are 80% of earnings for those earning 1 minimum wage and capped at 1.8 minimum wages. All benefits are pro-rated for the reduction of working hours of the worker, which can be 25%, 50%, 70% or 100% in the case of suspension. The estimated fiscal cost is around 0.7% of GDP. Withdrawals from individual unemployment insurance accounts will become possible as of mid-June. School meals may be distributed directly to families of public school students while schools are closed. The disbursement of some social transfers has been brought forward.
  The government will pay the first 15 days of sick leave for infected workers.</t>
   </si>
   <si>
@@ -1050,7 +1072,7 @@
     <t xml:space="preserve">Airlines have been granted 12 months to reimburse customers for cancelled flights. </t>
   </si>
   <si>
-    <t>15-Apr-2020 (Last updated: 15-Apr-2020)</t>
+    <t>15-Apr-2020 (Last updated: 23-Apr-2020)</t>
   </si>
   <si>
     <t>State of emergency declared on 13 March. National Assembly approved on 3 April a one-month extension of the state of emergency until 13 May.</t>
@@ -1059,7 +1081,7 @@
     <t xml:space="preserve">Bulgaria closed its borders to non-EU/EEA nationals on March 20. In addition, travellers from France, Germany, Italy, the Netherlands, Spain, Switzerland, and the United Kingdom cannot enter the country. On April 7, Bulgaria extended the ban so that citizens from Italy, Spain, France,Germany, the Netherlands, Switzerland, Austria, Belgium, Iceland, Liechtenstein, Luxembourg and the United Kingdom cannot enter the country. Bulgaria restricted non-essential travel between cities and towns as of 21 March. Bulgarian citizens and permanent residents and their families are exempt. Turkey closed its border to Greek and Bulgarian citizens on 18 March. </t>
   </si>
   <si>
-    <t>Nurseries, kindergartens, schools and universities closed. These measures are to remain in place until 13 April.</t>
+    <t>Nurseries, kindergartens, schools and universities closed. These measures are to remain in place until 13 May.</t>
   </si>
   <si>
     <t xml:space="preserve">Shops in shopping centres, restaurants, parks, amusement/gambling halls, bars and nightclubs shut. Banks, insurance offices, grocery stores and pharmacies remain open. Mass events stopped and sports, cultural and entertainment premises (cinemas, theatres, concerts, museums, conferences, symposia, sports centres, gyms, etc.) are to be closed. All employers, if possible, are to introduce remote work for their employees. </t>
@@ -1068,7 +1090,7 @@
     <t xml:space="preserve">Shops in shopping centres, restaurants, amusement/gambling halls, bars and nightclubs shut. Banks, insurance offices, grocery stores and pharmacies remain open. All employers, if possible, are to introduce remote work for their employees. </t>
   </si>
   <si>
-    <t xml:space="preserve">The priority has been to increase funding for the health sector response. The biggest measures to assist the private sector are the salary subsidy for workers whose jobs are under threat and programmes put in place to ensure firm liquidity. A State of Emergency declared from 13 March to 13 April. The total amount of government support to the private sector and households is estimated to be around BGN 4.6 billion (Eur 2.35 billion). This includes credit schemes and so the sum does not representative the budget cost of measures, but rather the sum of measures announced. The government indicated that the 2020 budget is likely to be updated. </t>
+    <t xml:space="preserve">The priority has been to increase funding for the health sector response. The biggest measures to assist the private sector are the salary subsidy for workers whose jobs are under threat and programmes put in place to ensure firm liquidity. A State of Emergency declared from 13 March to 13 April and then extended to 13 May. The total amount of government support to the private sector and households is estimated to be around BGN 4.6 billion (Eur 2.35 billion). This includes credit schemes and so the sum does not representative the budget cost of measures, but rather the sum of measures announced. The government indicated that the 2020 budget is likely to be updated. </t>
   </si>
   <si>
     <t xml:space="preserve">Routine medical consultations, examinations, immunizations, planned operations, and visits to all medical establishments have been stopped. Visits to nursing homes not allowed.
@@ -1099,40 +1121,73 @@
     <t>BFA</t>
   </si>
   <si>
-    <t>*March 20: Announcement of curfew from 7pm to 5am starting March 21. 
-*March 26: Declaration of the state of emergency;
-*March 26: Quarantine for the cities of Ouagadougou, Bobo-Dioulasso, Boromo and Dédougou.</t>
-  </si>
-  <si>
-    <t>* March 20: Ouagadougou and Bobo-Dioulasso airports are closed as of March 21 (except for internal and military flights) and for 2 weeks;
-* March 20: Closure of land borders starting on March 21; 
-* March 20: Issuing national identity cards suspended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 14: Closure of schools and universities starting on March 16. Measure was extended on March 26.   </t>
-  </si>
-  <si>
-    <t>* March 19: Suspension of prayers and religious ceremonies in places of worship  starting from March 20; 
-* March 20: Ban on gatherings of more than 50 people; closure of markets, restaurants, cinemas, and other entertainment centres; social distancing recommended;
-* March 24: Closure of markets in Ouagadougou.</t>
-  </si>
-  <si>
-    <t>* March 3: The government has prepared an emergency response plan of XOF9 milliard for the health sector: it focuses on strengthening human and technical capacities of public hospitals, increasing available hospital beds, expanding testing capacities and purchasing medical supplies to facilitate the implementation of hygiene measures.
-* March 20: The government has set up a Scientific Council under the President of Faso to monitor and guide the measures to be taken against the pandemic.</t>
-  </si>
-  <si>
-    <t>* April 2: Mobilization of nearly XOF 394 billion, representing 4.45% GDP. With these resources, the country aims at: supporting the provision of health care; ensuring the country's economic recovery; guaranteeing fiscal sustainability. Part of these resources (XOF 178 billion) will be used to support the global health response plan. Other fiscal measures include: 
-i) cancellation of penalties and fines; 
-ii) the suspension of on-the-spot control operations, except in proven cases of fraud; 
-iii) exemption from VAT on the sale of products used in the fights against coronavirus; 
-iv) exemption from taxes and customs duties on pharmaceutical products, medical consumables and equipment; 
-v) the cancellation of penalties for delays in the execution of public contracts at the level of the central State and local authorities.</t>
-  </si>
-  <si>
-    <t>* April 2: remission of direct taxes for certain extreme cases, as part of the XOF 394 billion package.</t>
+    <t>09-Apr-2020 (Last updated: 24-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*March 26: Declaration of the state of health alert.
+*March 26: Quarantine of the following agglomerations: Ouagadougou, Bobo-Dioulasso, Boromo, Houndé, Dédougou, Banfora, Manga and Zorgho, as well as all Burkinabè agglomerations with at least one COVID-19 positive case, starting March 27, for two weeks.
+*March 20: Curfew from 7pm to 5am, starting March 21.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*March 20: Closure of Ouagadougou and Bobo-Dioulasso airports from March 21 (except domestic and military flights and cargo), for 2 renewable weeks.
+*March 20: Closure of land and rail borders from March 21 (except freight), for 2 renewable weeks.
+*March 20: Suspension of biometric enrolment and of special operations of issuance of national identity cards.
+</t>
+  </si>
+  <si>
+    <t>*March 14: Closure of schools and universities, starting March 16, extended on March 26 for two weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*March 20: Ban on gatherings of more than 50 people; restrictions on opening of markets, restaurants, cinemas, and other entertainment centres; recommendations to follow basic protective measures and social distancing.
+*March 19: Suspension of religious ceremonies, starting March 20.
+*March 19: Restrictions of marriage celebrations in Ouagadougou, starting March 19.
+* Suspension of National Assembly plenary sessions, starting March 16.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 16: Obligation to wear masks, starting April 27.
+*April 2: Decree granting, on an exceptional basis, total remission of sentences to 1207 inmates.
+*March 20: Setting up of a Scientific Council to the President in order to monitor and guide the measures to be taken against the pandemic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 16: The President of Faso decided to waive his salary for 6 months to contribute to the COVID-19 Pandemic Response Support Fund, with the Prime Minister, Ministers of State and Ministers giving up 4, 2 and 1 month’s salary respectively, starting in April.
+*April 2: Establishment of an economic recovery fund for companies amounting to XOF100 billion; acquisition of agricultural inputs and livestock feed amounting to XOF30 billion; establishment of a solidarity fund benefitting the informal sector (including women) amounting to XOF5 billion; allocation of XOF15 billion to finance the research on infectious diseases and the production of medicines.
+*April 2: Revision of the 2020 budget to address the socio-economic impacts of the outbreak, requiring the mobilisation of nearly XOF394 billion (4.45% of GDP) that includes the global health response plan amounting to about XOF178 billion.
+The fiscal measures of the revised finance law include: 
+i) automatic reduction of penalties and fines due; 
+ii) suspension of on-site tax controls; 
+iii) exemption of contribution from micro-enterprises of the informal sector; 
+iv) exemption from VAT on the sale of products used in the fight against the coronavirus; 
+v) exemption from taxes and customs duties on pharmaceutical products, medical supplies and equipment; 
+vi) cancellation of penalties for delays in the execution of public contracts at the level of the central State and local authorities.
+</t>
+  </si>
+  <si>
+    <t>*April 2: The amended finance law provides for reduced taxes on an exceptional basis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 2: The amended finance law provides: 
+i) exemption of contributions from microenterprises in the informal sector; 
+ii) postponement of the deadline for payment of the vehicle tax to the end of June 2020; 
+iii) delivery of tax certificates to companies not in compliance with their tax obligation until June 2020; 
+iv) suspension of the Employers’ Apprenticeship Tax (TPA) on salaries, in favour of companies in the transport and hotel sectors; 
+v) suspension of proceedings for the recovery of tax debts and the collection of the minimum lump sum; the application of a reduced VAT rate of 10%; the reduction of 25% of the patent in favour of the companies working in the sector of passenger transport, hotels, restaurants and tourism; 
+vi) the abolition of charges and taxes imposed on the organization of cultural activities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*March 25: The West African Development Bank (BOAD) decided to grant the West African Economic and Monetary Union (UEMOA) member countries XOF120 billion in concessional loans (XOF15 billion per country) to be disbursed immediately; such loans are softened through the interest subsidy mechanism replenished by the Central Bank of West African States (BCEAO) and the UEMOA Commission for XOF25 billion and XOF15 billion, respectively.
+*March 23: The Central Bank for West African States (BCEAO) has raised liquidity made available to banks at its weekly and monthly auctions of March 23, allowing average refinancing rates to remain relatively close to the floor of the monetary policy corridor of 2.5%. This was followed by the adoption of a full allotment strategy at a fixed rate of 2.5% thereby allowing banks to satisfy their liquidity needs fully at a lower rate. 
+*March 21: The BCEAO announced: i) an extension of the collateral framework to access central bank loans to prequalified 1.700 private companies; ii) a framework inviting banks to accommodate demands from firms with COVID-19-related repayment difficulties to postpone for a 3 month renewable period debt service falling due, without the need to classify such postponed claims as NPL; and iii) measures to promote the use of electronic payments. 
+</t>
   </si>
   <si>
     <t>CIV</t>
+  </si>
+  <si>
+    <t>09-Apr-2020 (Last updated: 09-Apr-2020)</t>
   </si>
   <si>
     <t>March 16: Côte d'Ivoire announced a compulsory quarantine for all suspected cases.
@@ -1202,7 +1257,11 @@
 * March 24: Other measures include faster settlement of invoices and VAT refunds, extension of the tax payment period, payment in instalments for VAT and other withheld taxes, exemption for contributions to the Social Security Fund, and funding of an emergency plan with CVE 76 million through the reallocation of budgetary appropriations, to cover additional expenses for personnel, training and medical equipment.</t>
   </si>
   <si>
-    <t xml:space="preserve">Provinces and territories have, through the annoncement of legal states of emergency and other measures, introduced regulation on social distancing, compulsory closure of businesses and strong public health advice for people to remain at home. Most of the key meaures were taken mid to late of March 2020.  </t>
+    <t>23-Apr-2020 (Last updated: 27-Apr-2020)</t>
+  </si>
+  <si>
+    <t>Provinces and territories have, through the annoncement of legal states of emergency and other measures, introduced regulation on social distancing, compulsory closure of businesses and strong public health advice for people to remain at home. Most of the key meaures were taken mid to late of March 2020.  
+Saskatchewan unveils a reopening plan (23 April). It is the first  province to announce such a plan. The 5-phase reopening will start 4 May.  https://www.saskatchewan.ca/government/news-and-media/2020/april/23/reopen-saskatchewan-plan</t>
   </si>
   <si>
     <t xml:space="preserve">Tighter international travel restrictions introduced, including agreement with U.S. to ban all but essential border traffic (18 March). </t>
@@ -1223,18 +1282,20 @@
     <t>12 March package of meassures includes a boost to medical research funding and increase health spending transfers to provinces and territories.  </t>
   </si>
   <si>
-    <t xml:space="preserve">The largest measures (in fiscal terms) is likely to be the Canada Emergency Response Benefit (CERB) that will pay CAD 2 000 per month (for up to four months) to those who have lost income due to Covid-19 (estimated fiscal cost, CAD 24 billion, i.e. around 1% of GDP).
+    <t xml:space="preserve">The largest measures (in fiscal terms) is likely to be the Canada Emergency Response Benefit (CERB) that will pay CAD 2 000 per month (for up to four months) to those who have lost income due to Covid-19 (estimated fiscal cost, CAD 24 billion, i.e. around 1% of GDP). The application system began operating on 6th April. The scheme was extended to more groups, including seasonal workers, on 15 April. 
 Other measures include: 
 Boost to the GST credit (refundable) that targets lower income households (every adult who qualifies will receive up to $300 with $150 for every child).
 o More supportive sickness-insurance benefit, measures include waiving the one-week benefit waiting period for sickness-insurance pay out.  
 o Immediate financial assistance to those losing their jobs because of business closure, including self-employed and part-time workers unable to collect regular employment-insurance benefits.
 o Wider welfare support that includes, temporary boost to the Canada Child Benefit, a doubling of the Reaching Home Program that provides funding for the homeless, establishment of a new fund to help Indigenous communities and a six-month moratorium on repayment of student loans.
-o Help for those accessing pensions savings. To help retirees avoid realising losses on savings due to stock-market falls and other developments, the minimum required withdrawals from Registered Retirement Income Funds have been reduced by 25%.  </t>
+o Help for those accessing pensions savings. To help retirees avoid realising losses on savings due to stock-market falls and other developments, the minimum required withdrawals from Registered Retirement Income Funds have been reduced by 25%.
+o A nationwide top-up scheme for low-wage essential workers (for instance, low-earning hospital workers) (announced April 15)   </t>
   </si>
   <si>
     <t xml:space="preserve">The largest support scheme for business (in terms of fiscal spending) is likely to be the wage subsidy programme that will provide up to 75% wage subsidy for up to 3 months, retroactively to March 15 (estimated fiscal cost CAD 71 billion, i.e. a little under 3% of GDP).
 Other supports has included:
-Extension of the Work Sharing program from 38 to 76 weeks.
+Extension of the Work Sharing program from 38 to 76 weeks. 
+Targetted support includes schemes for the energy sector and innovative start-ups (announced 17 April).
 </t>
   </si>
   <si>
@@ -1242,13 +1303,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Increased credit to business through establishment of the Business Credit Availability Program (BCAP) (valued at CAD 70 billion).
-Additional CAN 10 billion in credit to business (announced 10 March) 
+    <t xml:space="preserve">The Business Credit Availability Program (BCAP) (valued at CAD 40 billion) includes a co-lending programme for small- and medium-sized enterprises that will lend up to CAD 6.25 million. 
+Canada Emergency Commercial Business Account. Interest-free loans up to CAD 40 000 for small business and not-for-profits. Eligibility conditions were widened April 16.
+The Canada Emergency Commercial Rent Assistance program, support for commercial property owners who commit to lowering or foregoing small-business rents. 
 Support to agriculture includes an additional CAD 5 billion in lending capaciy to producers, agribusinesses and food processors.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">March 27 Bank of Canada cuts policy rate from 0.75% to 0.25%, and announces:
+    <t xml:space="preserve">The Business Credit Availability Program (BCAP) (valued at CAD 40 billion) includes a loan guarantee programme for small- and medium-sized enterprises that will lend up to CAD 6.25 million. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 15. Bank of Canada announces further support through the purchase of government bonds and treasury bills, an additional corporate-bond purchases and enhancement of the term repo facility. 
+April 15. Department of Finance announces relief for federally regulated pension plan sponsors. The relief comprises moratorium on solvency payment requirements for defined benefit plans. 
+March 27 Bank of Canada cuts policy rate from 0.75% to 0.25%, and announces:
         • The establishment of the Commercial Paper Purchase Program (CPPP) that aims to alleviate strains in short-term funding markets and thereby support business funding.
         • That the Bank will begin acquiring Government of Canada securities in the secondary market. Purchases will begin with a minimum of $5 billion per week, across the yield curve. 
 'March 18 Bank of Canada urges retailers to continue accepting cash as means of payment
@@ -1264,6 +1331,9 @@
     <t>TCD</t>
   </si>
   <si>
+    <t>09-Apr-2020 (Last updated: 20-Apr-2020)</t>
+  </si>
+  <si>
     <t>* April, 2: Curfew in the provinces of West Logone, East Logone, West Mayo Kebbi, Mayo Kebbi and in the city of N’Djamena, from 7pm to 6am. 
 * March, 14: Quarantine for nationals returning from high risk countries and suspicious cases; systematic health checks at national borders.</t>
   </si>
@@ -1284,7 +1354,7 @@
   </si>
   <si>
     <t>* A hospital in N’Djamena was designated to receive COVID-19 infections.
-* An estimated XOF 15 billion (0.3 percent of non-oil GDP) of fiscal measures have been approved and are being implemented. Key measures include: (i) training of medical and technical staff, (ii) purchase of necessary medical equipment, (iii) construction of seven health centres in remote areas, (iv) construction of three mobile hospitals, and (v) securely managing entry points.</t>
+* An estimated XAF 15 billion (0.3% of non-oil GDP) of fiscal measures have been approved and are being implemented. Key measures include: (i) training of medical and technical staff, (ii) purchase of necessary medical equipment, (iii) construction of seven health centres in remote areas, (iv) construction of three mobile hospitals, and (v) securely managing entry points.</t>
   </si>
   <si>
     <t>* March, 24: The BEAC announced that it will suspend its main absorption operations on the monetary market for the coming week in order to better assess the impact of the COVID-19 pandemic on banking liquidity in CEMAC.</t>
@@ -1341,7 +1411,7 @@
 - In addition the Financial Market Commission announced a package of measures to facilitate the flow of credit to businesses and households</t>
   </si>
   <si>
-    <t>10-Apr-2020 (Last updated: 10-Apr-2020)</t>
+    <t>21-Apr-2020 (Last updated: 21-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">From 25 March the lockdown measures are lifted in Hubei Province and from 8 April in the provincial capital, Wuhan. On 31 March lockdown measures are reimposed on Jia County (ca. 600 000 inhabitants) in Pingdingshan City, Henan Province, just North of the border with Hubei as 4 previously unknown patients tested positive. On 7 April Suifenhe in Heilongjiang Province at he Russian border was sealed as dozens of citizens returning tested positive.
@@ -1390,7 +1460,10 @@
 - Extension of statutory tax filing to February 28.  - Government procurement of masks and other prevention materials once the outbreak is over (no sunset close as of now) - VAT for second-hand car dealers reduced by 0.5% from 1 May to end-2023</t>
   </si>
   <si>
-    <t>- 1 and 5-year benchmark rate lowered by 10bp in February, but unchanged in March
+    <t>Established a fund to invest in prefecture-level loan guarantee institutions with a target re-guarantee for CNY 400 billion, for loans below CNY 1 million, re-guarantee fees are waved, for above that halved during 2020</t>
+  </si>
+  <si>
+    <t>- 1 and 5-year benchmark rate lowered by 10bp in February, but unchanged in March, 1-year lowered by 20 bp and 5-year by 10 bp in April
 - China Development Bank issued the first batch of special bonds to fight the virus, equivalent of CNY 135 billion at 1.65% for the purpose of emergency funding for affected firms - From 16 March, the reserve requirement ratio is reduced in a targeted way, for two types of banks: 50-100 bp for banks meeting criteria of lending shares to SMEs, agriculture and entrepreneurs and 100 bp for selected joint-stock banks. Banks meeting both sets of criteria can cumulate the cuts. On 3 April another targeted reduction of the RRR for small and medium-size banks was announced: 50 bp from 15 April and an additional 50 bp from 15 May. Also, the interest paid on excess reserves has been cut to 0.35% from 0.72%. - Emphasis on access to loans recently, not just rolling over as most SMEs did not have loans in the first place. - Liquidity injections in February and end-March - Relending/rediscount loans of CNY 500 million 25 February, CNY 1 trillion decided at State Council meeting on 31 March to support SMEs. Support financial institutions in issuing CNY 300 billion to lend to SMEs, cut reserve requirement ratios further for smaller banks to increased lending to SMEs</t>
   </si>
   <si>
@@ -1403,43 +1476,55 @@
     <t>The policy statement also covers companies in those sectors most affected by the virus and that are under strain – such as wholesale/retail, accommodation, catering, tourism, logistics, transport, entertainment etc.</t>
   </si>
   <si>
-    <t>08-Apr-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
-    <t>The country has started a total lockdown on the 24th of March nationally, while in Bogotá, the capital, started on the 21st of March. Confinement has been extended till 26 of April. Confiment for people aged over 70 until 30 of May.</t>
-  </si>
-  <si>
-    <t>All borders are closed, and no foreigners are allowed to enter the country, and only those with a migrant visa, a courtesy visa, and diplomats will be able to do so; they also have to do 14 days of quarantine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All primary, secondary schools and higher education institutions will be closed from Monday  16 March for until May, 30.  Material was provided for students to work at home if possible and  advanced one week of the summer vacation period. </t>
+    <t>08-Apr-2020 (Last updated: 23-Apr-2020)</t>
+  </si>
+  <si>
+    <t>The country has started a total lockdown on the 24th of March nationally, while in Bogotá, the capital, started on the 21st of March. Confinement has been extended till 11 of May, even if on the 27 March public works, manufacturing and construction can go back to work under special sanitary protocols. Confiment for people aged over 70 until 30 of May.</t>
+  </si>
+  <si>
+    <t>Since 16th Match, all borders are closed, and no foreigners are allowed to enter the country, and only those with a migrant visa, a courtesy visa, and diplomats will be able to do so; they also have to do 14 days of quarantine. When lockdown starts being lift, land or air traffic is banned until the end of May, except for cargo, humanitarian or health purposes. Starting May 11 public transport in the cities must be under 35% of its capacity and only individuals using a mask will be accepted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All primary, secondary schools and higher education institutions will be closed from Monday 16 March for until May, 30.  Material was provided for students to work at home if possible and  advanced one week of the summer vacation period. </t>
   </si>
   <si>
     <t>Mass events should be limited to a maximum of 50 people; the closure of bars and clubs throughout the country.</t>
   </si>
   <si>
+    <t>From 27th of April public works, manufacturing and construction can go back to work under strict sanitory controls.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Government announced a fiscal package equivalent to 1.4% of GDP, COP 15 trillion (USD 4.7 billion), for the control of the pandemic, containment and palliative measures. The increased spending comes mainly from the Oil Savings and Stabilization Fund (80%); contributions from the National Fund for Pensions of Territorial Entities (20%); and other liquid assets from State entities. The Government has announced also that there is a total of COP 48 trillion (4.7% of GDP) to use in case of necessity, if the situation aggravates further. From mid-April public sector workers with salaries between 10 and 15 million pesos per month will contribute 10 percent, while salaries above 15 million will have to contribute 15 percent to finance COVID-19 related measures for 4 months.. </t>
   </si>
   <si>
     <t>From the 17th of March, a state of economic and social emergency has been declared. A broad package of measures has been announced. For the health system, the package includes increasing resources for the health sector: COP 1 trillion immediately sent to the sector and the announcement of more resources as needed. The resources should facilitate the acquisition of medical equipment, enlarge testing capacities and provide liquidity to the hospital network.</t>
   </si>
   <si>
-    <t>Reconnecting the water service to people who had it suspended for non-payment (benefits more than 1 million people), the price of water has been frozen; increasing the budget (USD 375 thousand) for all the existing subsidies to poor families (Elderly, Youth in Action, and Families in Action programmes) benefiting around 10 million of Colombians; new and temporal subsidy for informal workers not receiving other types of existing subsidies (on average of COP 160 thousand), the delivery of a food basket to vulnerable families; bringing forward to April (expected initially for 2021) the implementation of a measure that refunds VAT to vulnerable families and will benefit 1 million families; evictions are suspended and rental payments cannot be increased; poorest households can differ the payment of public services in 36 months without interests.</t>
-  </si>
-  <si>
-    <t>include: a period of grace and refinancing of credits for companies and individuals; change in the calendar for PIT payments; extension of payment deadlines of CIT; extension of VAT deadline payment for taxpayers providing hotel and commercial passenger air transport services, theatrical activities and live shows; for taxpayers providing hotel and commercial passenger air transport services, theatrical activities and live shows extension of payment deadlines of parafiscal contribution for the promotion of tourism; a financial relief to SMEs having difficulties with their credits in the next 2 months;eliminating VAT and import tariffs on health equipment and aviation; suspension of pension contributions (employer and employee) for 3 months</t>
+    <t>Reconnecting the water service to people who had it suspended for non-payment (benefits more than 1 million people), the price of water has been frozen; increasing the budget (USD 375 thousand) for all the existing subsidies to poor families (Elderly, Youth in Action, and Families in Action programmes) benefiting around 10 million of Colombians; new and temporal subsidy for informal workers not receiving other types of existing subsidies (on average of COP 160 thousand), the delivery of a food basket to vulnerable families; bringing forward to April (expected initially for 2021) the implementation of a measure that refunds VAT to vulnerable families and will benefit 1 million families; evictions are suspended and rental payments cannot be increased; poorest households can differ the payment of public services in 36 months without interests; mobile services under COP 71 214 will be exempt from taxes for 4 months since April.</t>
+  </si>
+  <si>
+    <t>A new solidarity tax for public employees for 3 months (May-July): those who earn between 10 and 20 million pesos will have a tax rate of 15%; $12.5 million and $15 million, 16%; $15 million to $20 million, 17% and those of $20 million, 20%.</t>
+  </si>
+  <si>
+    <t>include: a period of grace and refinancing of credits for companies and individuals; change in the calendar for PIT payments; extension of payment deadlines of CIT; extension of VAT deadline payment for taxpayers providing hotel and commercial passenger air transport services, theatrical activities and live shows; for taxpayers providing hotel and commercial passenger air transport services, theatrical activities and live shows extension of payment deadlines of parafiscal contribution for the promotion of tourism; a financial relief to SMEs having difficulties with their credits in the next 2 months;eliminating VAT and import tariffs on health equipment and aviation; suspension of social contributions (employer and employee) for 3 months</t>
   </si>
   <si>
     <t>new subsidized credit line with a capped quota of COP 250 billion aimed at the tourism, aviation and public events sectors and additional COP 350 billion for other sectors; reduction of the gasoline price; the Government injected 70 billion pesos (7% of GDP) into the National Guarantee Fund to channel loans to the companies and people most affected by the fall in their income</t>
   </si>
   <si>
-    <t xml:space="preserve"> a line of guarantees so that SMEs can cover salaries and reduce the risk of mass layoffs </t>
-  </si>
-  <si>
-    <t>Increased quotas of the daily auctions to increase liquidity in the market and announced an asset purchase program (public or corporate debt securities): COP 10 trillion program to purchase securities issued by credit institutions, and  COP 2 trillion in TES purchases; on the 27th of March the Central Bank cut the policy rate by 50 basic points to 3.75% and announced an auction of USD1000 million</t>
+    <t xml:space="preserve">Announced on 9 April, line of guarantees to finance 3 months salaries of MSMEs up to 5 minimum wages, as long as no worker is fired; and special credit line to own accountant workers.                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased quotas of the daily auctions to increase liquidity in the market and announced an asset purchase program (public or corporate debt securities); on the 27th of March the Central Bank cut the policy rate by 50 basic points to 3.75% </t>
+  </si>
+  <si>
+    <t>On April 15th, reduced required reserves, injecting liquidity by COP 9 trillion</t>
   </si>
   <si>
     <t>Vulnerable families can suspend the payment of public services for the month of April.</t>
+  </si>
+  <si>
+    <t>14-Apr-2020 (Last updated: 14-Apr-2020)</t>
   </si>
   <si>
     <t>- National state of emergency declared on 16 March, 10 days after the first case was reported.
@@ -1531,16 +1616,29 @@
 - A new law, No. 9831, regulates maximum commissions charged by service providers on the processing of transactions that use payment devices and the operation of the payment card system, to promote its efficiency and security, and guarantee the lowest possible cost for the affiliates. The central bank will be responsible for issuing the regulation of this law and monitoring its compliance.</t>
   </si>
   <si>
-    <t>14-Apr-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
-    <t>From 16 March the free movement of people within the country is banned, with some exceptions (travel to work, medical facilities, family and other necessary trips). 
+    <t>24-Apr-2020 (Last updated: 24-Apr-2020)</t>
+  </si>
+  <si>
+    <t>On April 23, the government has decided to accelerate the easing of emergency measures.
+From Friday, April 24, permitted outdoors exercise will be limited to a maximum of ten participants (unless they are family members or professional sportsmen). Distance of at least two meters will need to be respected. Churches can be attended with up to 15 people present. Association activities of no more than 10 people are permitted.
+The government has also decided to speed up the planned opening up of shops and establishments . From Monday April 27, in addition to the already announced smaller shops and establishments, larger retailers will be able to open, of up to 2,500 square meters of sales area. Gyms can also open, but without the possibility of using changing rooms and showers, and zoos and botanical gardens (except indoor parts). All operators will have to meet strict hygiene conditions and requirements, such as keeping a distance of at least two meters between customers, disinfection or shop equipment. 
+From Monday, new measures in education also apply and the rules for crossing state borders will change from Monday 27, allowing also EU citizens that come for work or university studies to enter the country.
+---
+On April 14 the government announced plans to start lifting restriction in 5 phases over the period until the 8 June, when even the largest places of business, shopping centres, indoor dining areas, theatres, castles and sporting events with attendance of up to 50 persons should be opened. The schools and univesrities will also gradually resume operations - under certain limitations - over the period until the end of June.
+Preliminary timeline for business and other activities:
+• as of 20 April – craft workshops, farmers' markets, car dealers, outdoor training activities of professional athletes, weddings of up to 10 people,
+• as of 27 April – business premises up to 200 m2,
+• as of 11 May – business premises up to 1 000 m2 (only if they are not in shopping malls over 5 000 m2), driving schools, gyms and fitness facilities (but without using locker rooms and showers),
+• as of 25 May – restaurants can open their gardens while serving food there, beauty services, museums, zoos (outdoor areas only),
+• as of 8 June - shopping centres, business premises over 1 000 m2, restaurants, accommodation services, taxi services, theatres, cultural events for up to 50 people, weddings, zoos (including indoor areas),
+• TBC in June – all the rest
+As of 7 April, individual outdoor sports are allowed (in groups of up to two persons), as long as safe distance with others is respected. Participants do not have to wear protective masks.
+-
+From 16 March the free movement of people within the country is banned, with some exceptions (travel to work, medical facilities, family and other necessary trips). 
 On March 12, the Government declared a state of emergency for 30 days (prolonged to April 30).                                                                                                                                             As of 13 March all citizens and foreigners with residence travelling from risk areas have to automatically undergo a 14-day quarantine upon their return to the Czech Republic.                                                                                                                                      
 As of 19 March, everybody needs to wear a face mask or otherwise cover their nose and mouth while outside of their residence.
 As of 25 March maximum of two persons can stay together at publicly accessible places in order to protect public health (exceptions to family members, job related activities etc.).                                                                  
-As of 30 March 2020, “smart quarantine” started in testing mode (mapping the contacts of positively tested individuals for COVID-19 using modern information technologies).
-Certain restrictions have stared to be relaxed:
-As of 7 April, individual outdoor sports are allowed (in groups of up to two persons), as long as safe distance with others is respected. Participants do not have to wear protective masks.</t>
+As of 30 March 2020, “smart quarantine” started in testing mode (mapping the contacts of positively tested individuals for COVID-19 using modern information technologies).</t>
   </si>
   <si>
     <t xml:space="preserve">All foreigners without residence are prohibited from entering the country and citizens and foreigners with a residence are prohibited from leaving the country (except for cross-border workers, who have a special regime). (from March 16) Everyone returning to the Czech Republic has to undergo a mandatory 2-weeks quarantine.
@@ -1567,10 +1665,12 @@
 </t>
   </si>
   <si>
-    <t>A revised budget bill was passed on March 25 for a budget balance to go from a planned deficit of CZK 40 bn to a deficit of CZK 200 bn (difference of CZK 160 bn). Debt to GDP is projected to increase from 29.1% in 2019 to 33.2% in 2020. according to the MoF.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ministry of Finance announced on March 4 that it would start regulating prices of protective respiratory masks (FFP3 class) and prohibited exporting the masks and their sale to the general public.                         
+    <t>On April 20, government approved raising budget deficit to CZK 300bn (from 200bn couple of weeks ago, and from 40bn planned before the onset of the crisis) (approved by parliament on April 22). 
+Ministry of Finance estimated on April 22 that the size of the support to the economy equals CZK 1.19 trillion (21.5% of GDP). Direct budget support equals 3.9% of GDP, deferred taxes and levies 0.4% of GDP and liquidity support and guarantees 17.2% of GDP. This does not include measures such as interest moratorium, deferral of electronic record of sales (ERS) or higher amounts for social assistance paid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 16 March 2020, the government has banned all doctors, dentists, pharmacists and medical staff from taking their leave during the emergency – recalled on April 09.
+The Ministry of Finance announced on March 4 that it would start regulating prices of protective respiratory masks (FFP3 class) and prohibited exporting the masks and their sale to the general public.                         
 All acute inpatient care facilities have been ordered to allocate maximum possible bed capacity to COVID-19 patients, including the provision of necessary staff and appropriate safety conditions. 
 Medical students in their last two years of studies and students in the last two years of nursing schools were called to assist in the provision of health services.
 Exports of drugs from the Czech Republic has been prohibited.
@@ -1601,7 +1701,8 @@
 It will also postpone the launch of the final phase of Electronic Sales Control System (EET) until 3 months after the end of the State of emergency.  </t>
   </si>
   <si>
-    <t>The government introduced the COVID I loan program for SMEs in the total amount of CZK 5bn (about 180m EUR, 0.1% of GDP). SMEs will be able to apply for a direct interest-free loan in the range of CZK 0.5 to 15m. Loans are granted up to 90% of eligible expenditure with a maturity of 2 years including the possibility of deferred repayment for up to 12 months.</t>
+    <t>The government introduced the COVID I loan program for SMEs in the total amount of CZK 5bn (about 180m EUR, 0.1% of GDP). SMEs will be able to apply for a direct interest-free loan in the range of CZK 0.5 to 15m. Loans are granted up to 90% of eligible expenditure with a maturity of 2 years including the possibility of deferred repayment for up to 12 months.
+COVID Prague is available from April 20 for Prague entreprenerus and SMEs (Since COVID II is funded by the EU, it is not possible to support projects in Prague). A total of CZK 600m was allocated for the COVID Prague.</t>
   </si>
   <si>
     <t>The government has further approved COVID II program with another 5bn CZK allocation in the form of guarantees for loans (CZK 10k to 15m) from commercial banks (with annual deferral of repayments), where the Czech-Moravian Guarantee and Development Bank will be subsidising the interest rate. This is expected to facilitate distribution of up to CZK 30bn among the programme participants.</t>
@@ -1626,70 +1727,86 @@
 On April 1 the government approved a proposal to declare a moratorium on the payment of loans and mortgages. Debtors - individuals as well as companies - will be able to interrupt their payments for a period of three or six months.</t>
   </si>
   <si>
-    <t>31-Mar-2020 (Last updated: 12-Apr-2020)</t>
-  </si>
-  <si>
-    <t>People returning from abroad are strongly encouraged to self-quarantine for two weeks.</t>
-  </si>
-  <si>
-    <t>- Borders are closed to non-citizens with no critical reason to enter (e.g. work or visit sick family member). EU border restrictions apply as well.
-- Air traffic is de facto shut down. 
-- Restrictions have been imposed on the number of passengers in public transport and capacity has been increased.
-- People returning from abroad are strongly encouraged to self-quarantine for two weeks.</t>
-  </si>
-  <si>
-    <t>All schools, childcare and education facilities are closed until 13 April. Teaching continues through online distance learning platforms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Gatherings of more than 10 people are banned (inside as well as outside). Does not apply in work places. 
+    <t>22-Apr-2020 (Last updated: 22-Apr-2020)</t>
+  </si>
+  <si>
+    <t>The government closed the border temporarily from 14 March (until 10 May). Danish citizens are always allowed to enter and entry is also allowed for non-citizens commuting to work or with a critical reason to visit (e.g. sick family member). Two week quarantine mandatory for people arriving from abroad.
+No restrictions apply to transportation of goods or capital flows.</t>
+  </si>
+  <si>
+    <t>Childcare and primary schools (until about age 12) closed from 13 March to 14 April. The youngest children were the first to have restrictions lifted. Gradual re-opening from 15 April, with measures to reduce group sizes and ensure physical distance.
+Upper primary school (above age 12), universities and other education facilities remain closed (13 March-10 May). Teaching continues through online distance learning platforms.</t>
+  </si>
+  <si>
+    <t>All public gatherings of 10+ people are banned, indoor as well as outdoor (from 18 March to 10 May). The government strongly encourages people to obey the same rule in private homes.
+All indoor cultural institutions, libraries etc. forced to close (13 March-10 May).</t>
+  </si>
+  <si>
+    <t>Shopping centres and shops that do not allow sufficient physical space are forced to close. Indoor sports facilities, fitness centres to close. Restaurants, cafes, bars etc. closed, but are allowed to provide take-away food. All closures in place from 18 March to 10 May.
+Personal services with close physical contact such as hairdressers, dentists and massage therapists were closed from 18 March to 19 April. Re-opening from 20 April.
+All public sector employees, except those with critical tasks (health, police etc.), are forced to work from home (13 March-10 May). Courts and research laboratories started re-opening from 20 March.
+The government encouraged the private sector to use telework where possible (13 March-14 April). From 15 April, the private sector was encouraged to restart work when possible, taking appropriate measures.</t>
+  </si>
+  <si>
+    <t>The economic support packages amount to around DKK 104 billion (4.5% of GDP) in fiscal measures (as of 18 April). In addition, the government has committed to provide the needed resources to the health sector (amount not quantified).
+Frontloading of investment in municipalities (announced 26 March). The government reached an agreement with municipalities to frontload investment in e.g. energy renovation and similar initiatives for around DKK 2.5 billion in 2020. The regular budget ceilings (for investment) were  suspended in 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reorganisation of the health system to increase ICU capacity initiated. Retired health staff, students and others with relevant training are encouraged to offer their help if needs arise (announced 10 March).
+Working time regulations temporarily eased to allow healthcare employees to work longer hours (announced 26 March). 
+Emergency legislation related to epidemics is being updated to covid-19, allowing e.g. use of forced isolation and forced vaccination if needed (presented 9 March, implemented 17 March).
+Subsidies provided to health research specifically related to covid-19 (announced 16 March, increased 30 March). DKK 150 million available to applications from public and private research institutions. </t>
+  </si>
+  <si>
+    <t>Job retention scheme (midlertidig loenkompensation) implemented (announced 15 March, revised 30 March, extended 18 April). The government and social partners established wage compensation to retain workers at risk of layoff. For firms experiencing large falls in demand and having to layoff at least 30% of workers (or minimum 50 people), the employees can be sent home (on furlough) and the government will cover 75% of the salary (maximum DKK 30 000). The firm has to promise not to lay off any workers for economic reasons during the period and should cover the remaining 25% to ensure employees can keep their full salary. For workers paid by the hour, the compensation rate is 90% (maximum DKK 30 000). Workers will also contribute by using five days of annual leave during the period. The scheme is so far available from 9 March to 8 July 2020. Take-up rate around 5% of the labour force (150 000 employees) on 19 April. Expected fiscal costs around DKK 6 billion.
+Short-time work scheme (arbejdsfordelingsordningen) made more flexible (announced 12 March). The existing scheme can be used immediately (no longer one week after reporting to job center) and employers are allowed to shift between the different types of reduced work. Working time should be reduced by at least two days per week or by one week followed by one week of work. The employee receives unemployment benefits on non-work days. Fiscal costs not quantified since this is an existing measure. 
+Support in case of large-scale dismissals (announced 12 March). Existing scheme offering job search courses or upskilling (varslingspuljen) provided additional resources of DKK 10 million.
+Distance VET scheme established (announced 22 March, extended 5 April). Existing funds for upskilling are used to offer low-skilled workers 30 days online training courses, with full wage compensation to employers.
+Increased access to unemployment benefits and sickness benefits (announced 19 March, revised 18 April). For recipients of unemployment benefits the period from 1 March to 30 June will not count as a period where the benefit has been received. For recipients of sickness benefits reaching the maximum period in the period from 9 March to 30 June, the sickness benefits will continue during the three months. Expected costs around DKK 277 million (fiscal implications until 2023).</t>
+  </si>
+  <si>
+    <t>Compensation scheme for companies’ fixed costs (announced 19 March, extended 18 April). The share of fixed costs that can be compensated is 80% (if the decrease in turnover is between 80-100%), 50% (if the decrease in turnover is between 60-80%), or 25% (if the decrease in turnover is between 35-60%). For companies that are required to close the share of fixed costs that be compensated is 100%. Available for the period from 9 March to 8 July, with expected fiscal costs around DKK 65.3 billion.
+Compensation scheme for self-employed (announced 19 March, extended 18 April). Self-employed and freelancers experiencing more than a 30% decrease in turnover will be entitled to 90% compensation (max DKK 23 000 per month). For self-employed forced to close, 100% compensation is provided. Available for the period from 9 March to 8 July, with expected fiscal costs around DKK 14.3 billion.
+Sickness benefit reimbursement (announced 12 March). Employers will receive sickness benefit reimbursement for wages and sickness benefits from the first day of absence rather than after 30 days, as under normal circumstances. For self-employed, the normal two-week waiting period is suspended. The measures only apply to sickness due to covid-19 and are available from 27 February to 1 January 2021 (estimated costs DKK 1.7 billion).
+Compensation scheme to event organiser companies for cancellation and postponement of major events in the period 6 March-9 June (announced 10 March, extended 1 April). 100% lost revenue covered by providing documentation. Estimated costs around DKK 300 million.
+Innovation subsidy scheme increased (announced 18 April). An Innobooster-programme administered by the Innovation Fund will be increased by DKK 350 million to support new projects.
+A range of minor support schemes established to support agents and businesses with cultural activities, sports and private education (announced 31 March to 7 April). In total amounting to around DKK 1.2 billion.</t>
+  </si>
+  <si>
+    <t>The government announced (10 March) deferral of monthly VAT payments for large firms by 30 days (estimated DKK 35 billion liquidity effect). 
+For all businesses, the payment of withheld income tax and labour market contributions concerning April, May and June 2020 is postponed by four months (estimated DKK 90 billion liquidity impact).
+Additional initiatives for SMEs and self-employed (announced 16 March, extended 18 April). VAT payments are deferred by combining two payment periods. For small enterprises’ tax period will be extended from 6 months to 12 months in 2020, while medium-sized enterprises’ tax periods will be extended from 3 months to 6 months for the first half of 2020 (estimated DKK 35 billion liquidity impact).
+VAT payments already made for second half and last quarter of 2019 (due 2 March 2020), are made available as interest free loans (estimated DKK 35.4 billion).  
+Provisional taxes for self-employed (B-taxes) are deferred, payment deadlines for April and May are postponed by 2 and 7 months respectively (estimated DKK 5 billion liquidity impact).
+Frontloading of payments by local governments to firms of around DKK 6.5 billion (announced 26 March). In addition, pre-payment up to DKK 1 million of deliveries until 1 July is encouraged. 
+Deferral of property taxes for firm with real estate (daekningsafgift) to municipalities (announced 26 March). Second rate payment deferred from 2020 to 2021. Expected to increase liquidity by DKK 1.1 billion.</t>
+  </si>
+  <si>
+    <t>Loans and equity provided to entrepreneurs and venture firms (announced 18 April). The state investment fund (Vaekstfonden) will provide risky capital to start-ups and venture firm, facing difficulties in financing as private investors withdraw from the market. Available for 2020 only and a total capacity of DKK 3.4 billion. 
+Borrowing capacity from the Danish students’ Loan Scheme temporarily extended (announced 19 March). The monthly borrowing ceiling increased three times for March and April. Expected increase in total loans around DKK 1.5 billion.</t>
+  </si>
+  <si>
+    <t>Loan guarantee scheme for large firms, DKK 35.7 billion (announced 12 March, revised 19 March). The government will guarantee 70% of the value of new loans to large companies that can demonstrate a fall in turnover of more than 30%. The scheme will be based on market conditions.
+Loan guarantee scheme for SMEs, DKK 25 billion (announced 12 March, revised 19 March). The government will guarantee 70% of the value of new loans to SMEs that can demonstrate a fall in turnover of more than 30%. A reserve of DKK 4.8 billion in expected losses is included in the reported budget impact. 
+Government guarantee for companies' trade and export activities (announced 18 April). The disruption of global trade causes liquidity and payment difficulties and prevents credit insurance companies to function on market terms. The government will provide guarantees of DKK 30 billion to insurance companies in 2020, similar to construction implemented in Germany. A reserve of DKK 5 billion in expected losses is included in the reported budget impact.  
+Increased access to export credit for SMEs (announced 19 March). The Danish Export Credit Agency (EKF) will establish a new liquidity guarantee worth DKK 1.25 billion in new loans to SMEs with export activities. Furthermore, EKF will cover up to 90% of credit insurance companies’ risk on new export activities. A reserve of DKK 100 million in expected losses is included in the reported budget impact.
+Travel Guarantee Fund strengthened (announced 19 March). The government provides a guarantee for the Travel Guarantee Fund worth DKK 1.5 billion, to be repaid by the travel industry in the coming years. The scope of the fund is expanded to also cover compensation for travel companies’ costs associated with refunds due to cancellations because of the coronavirus.
+Credit guarantee for Scandinavian Airlines (SAS) (announced 17 March). The Danish and Swedish governments have agreed to provide credit guarantees for SAS worth SEK 3.5 billion (Denmark accounts for 50% of the guarantees).</t>
+  </si>
+  <si>
+    <t>The policy interest rate was increased by 15 bps to -0.6% (from 20 March). This unusual move reflects the sole objective of the monetary policy to maintain the peg to the euro. Since October the exchange rate has gradually weakened, which intensified with the recent financial turmoil. With the increase the (negative) spread to the euro area has narrowed from 25 bps to 10 bps.
+The central bank has established an extraordinary lending facility (from 13 March, extended 19 March), providing 1-week and 3 months loans to banks at -0.35% interest rate instead of the regular rate of 0.05%.
+The central bank reactivated a swap line with the ECB (announced 20 March) and established a swap agreement with the Federal Reserve (announced 19 March) to ensure sufficient euro and US dollar liquidity to banks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The countercyclical capital buffer was released to free capital in commercial banks (announced 12 March). It is reduced from 1% to 0%, and was due to increase to 1.5% by June and to 2% by December. The reduction will increase lending capacity by around DKK 200 billion of capital in banks and mortgage banks.
 </t>
   </si>
   <si>
-    <t>- Only food stores, pharmacies and stores allowing sufficient physical distance are allowed to remain open. All restaurants, bars and clubs are closed (except for take-away). Personal services not allowing sufficient physical distance are required to close</t>
-  </si>
-  <si>
-    <t>Several economic packages have been passed with a combined fiscal support of around 2.7% of GDP and additional 10% of GDP in liquidity measures and government guarantees (off-balance sheet). Moreover, the government has committed to provide the needed resources to the health sector (amount not quantified).
-Investments by municipalities are being frontloaded to support economic activity and budget ceilings are temporarily suspended (EUR 0.3 billion).</t>
-  </si>
-  <si>
-    <t>The health sector has postponed treatment of all non-critical issues. The number of ICU spots is being increased as much as possible and nurses are receiving training to work in ICU. Currently 1 060 ICU spots with ventilators have been freed for patients with COVID-19 (18 per 100 000 population).
-Retired health staff, students and others with relevant training are encouraged to offer their help if needs arise. 
-Legislation has been passed to allow the health sector to focus on critically ill people only and use forced isolation and forced vaccination if needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Support to self-employed: Self-employed and freelancers experiencing a drop in turnover of more than 30% can get cash support amounting to 75% of the loss (max EUR 3 100 per month). The scheme runs for three months (expected cost EUR 1.3 billion).
-- Support to unemployed: For workers in unemployment or on sick leave benefits, the remaining entitlement period will be frozen for three months and all job search and activation requirements are cancelled. 
-- For students, that often have a part-time job in most affected sectors, the limit on the student loan facility has been increased (EUR 0.2 billion).
-- Sick leave benefits for people with COVID-19 will be fully covered by the government. Normally, employers pay the first 30 days of sick leave and self-employed have a two-week waiting period. Both are suspended (DKK 1.7 billion). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Support to firms: Firms with a drop in turnover of more than 40% can get cash support to cover part of their fixed costs (up to 80%), full compensation of fixed costs are provided to firms forced to temporarily close due to the lockdown. The scheme runs for three months (expected cost DKK 40 billion).
-- Support to employees at risk of layoff: A tripartite agreement on wage subsidies was reached with social partners on 15 March. For firms experiencing large falls in demand, the employees can be senT home and the government will cover 75% of the salary (maximum EUR 3 100), if the firm promises not to lay off any workers for economic reasons. Firms will also have to cover the remaining 25% to ensure employees can keep their full salary. For hourly workers the compensation rate is 90% (maximum EUR 3500). The scheme is so far available for three months (expected fiscal costs DKK 2.6 billion).
-- A short-time work scheme is available and has been made more flexible and allocated more resources (DKK 1.7 billion).
-- Compensation to organisers of events that are cancelled due to the ban on large public gatherings (DKK 100 million). 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- VAT and income tax payments have been deferred and is expected to boost liquidity by DKK 165 billion in total, of which DKK 40 billion are targeted SMEs; one of the preliminary payments of corporate income tax was due on 20 March 2020. The prepayment is based on the expected profits made in 2020. If the spreading of coronavirus is effecting the business in question, it is possible to reduce the expected profits for 2020 and consequently reduce the preliminary payment of tax. 
-</t>
-  </si>
-  <si>
-    <t>- Access to export credit for SMEs increased (DKK 1.3 billion in total).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Two loan guarantee schemes. One for large firms (market-based) and one for SMEs (DKK 5.4 billion resources reserved for expected losses). 
-- State guarentees to the travel industry (Travel Guarentee Fund) has been increased by DKK 1.5 billion and the scope is increased to also cover companies' costs associated with refunds due to cancellations related to the coronavirus.            
-- Government guarantee to SAS airlines of DKK 1 billion (Sweden and Norway providing similar amounts).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The policy interest rate was increased by 15 bps to -0.6% (20 March). This unusual move reflects the sole objective of the monetary policy to maintain the peg to the euro. Since October the exchange rate has gradually weakened, which intensified with the recent financial turmoil. With the increase the (negative) spread to the euro area has narrowed from 25 bps to 10 bps.
-An extraordinary lending facility has been established, allowing banks to borrow at -0.35% (1-week and 3-months loans) instead of the regular rate of 0.05%.
-Swap lines with the ECB and Federal Reserve have been agreed to ensure sufficient euro and US dollar liquidity to banks. </t>
-  </si>
-  <si>
-    <t>The countercyclical capital buffer has been released to free capital in commercial banks (down to zero from 1%, it was due to increase to 1.5% by June and to 2% by December). 
-A joint statement by the government and the financial sector commits banks and mortgage banks to support firms and households with additional loans and payment holidays.</t>
+    <t xml:space="preserve">A joint statement by the government and the financial sector commits banks and mortgage banks to support households with additional loans and payment holidays. Banks also commit to reconsider use of dividends and share buybacks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A joint statement by the government and the financial sector commits banks and mortgage banks to support firms with additional loans and payment holidays. Banks also commit to reconsider use of dividends and share buybacks. </t>
   </si>
   <si>
     <t>DOM</t>
@@ -1771,56 +1888,13 @@
     <t>* March, 24: Announcement of extraordinary deferrals of credit obligations, including those from public banks, and a requirement for additional generic provisioning on banks’ gross lending portfolio during 2020.</t>
   </si>
   <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>* March 17: Egypt placed over 300 families under quarantine in a Delta village to stem the spread of the new coronavirus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 16: Egypt is suspending all flights into and out of the country's airports.
-</t>
-  </si>
-  <si>
-    <t>* March 15: schools, universities, and colleges have been shut. 
-* March 24: closure of schools was extended (two extra weeks).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 24: Prime Minister Mostafa Madbouly announced the two-week closure of all malls, gyms, sporting clubs, restaurants and cafes, but noted that delivery services would continue during non-curfew hours. He added that all shops except for supermarkets, bakeries and pharmacies would have to close at 5 p.m. on weekdays and remain closed throughout the weekend (Fridays and Saturdays). 
-</t>
-  </si>
-  <si>
-    <t>* The authorities have taken a host of precautionary measures to improve testing as well as to limit the community spread of the virus, including setting up testing centres, temporarily closing places of worship, temporarily halting all air travel, and encouraging civil servants to work from home in non-essential sectors. The central bank and the government are actively implementing measures to contain economic implications of the epidemic. 
-* March 24: The Prime Minister instructed securing EGP 1 billion for the Ministry of Health to face the coronavirus pandemic. 
-* March 25: WHO delegation concludes COVID-19 technical mission to Egypt, as a result of which alternative mechanisms for testing patients were identified through the establishment of 27 laboratories across the country and additional 4 university laboratories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 22: The government has announced stimulus policies in the USD 6.4 billion package (EGP 100 billion, 2 percent of GDP) to mitigate the economic impact of COVID-19.  
-* March 16: the Central Bank of Egypt (CBE) slashed key policy rates by 300 bps at an emergency meeting.
-* April 2: the CBE kept key policy rates unchanged at its Monetary Policy Committee (MPC) meeting. Specifically, the overnight deposit rate is 9.25%, the overnight lending rate is 10.25%, and the main operation rate and the discount rate are 9.75%. </t>
-  </si>
-  <si>
-    <t>* March 22: the government announces that pensioners will get five overdue bonuses (amounting to 80% of the basic salary), as well as a 14% annual bonus as of the fiscal year 2020/2021.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 22: Energy costs have been lowered for the entire industrial sector; real estate tax relief has been provided for industrial and tourism sectors; subsidy pay-out for exporters has been stepped up. As part of the EGP 100 billion stimulus, EGP 50 billion has been announced for the tourism sector, which contributes close to 12% of Egypt’s GDP, 10% of employment, and almost 4% of GDP in terms of receipts, as of 2019. The moratorium on the tax law on agricultural land has been extended for 2 years. The stamp duty on transactions and tax on dividends have been reduced. Capital gains tax has been postponed until further notice. </t>
-  </si>
-  <si>
-    <t>* The central bank has announced a 300 basis point cut. The preferential interest rate on loans to SMEs, industry, tourism and housing for low-income and middle-class families, has been reduced from 10 percent to 8 percent. 
-* The limit for electronic payments via mobile phones has been raised to EGP 30,000/day and EGP 100,000/month for individuals, and to EGP 40,000/day and EGP 200,000/per week for corporations. 
-* A new debt relief initiative for individuals at risk of default has also been announced. It will waive marginal interest on debt under EGP 1 million if customers make a 50 percent payment. 
-The regulations issued last year requiring banks to obtain detailed information of borrowers have been relaxed.
-* The central bank has also launched an EGP 20 billion stock-purchase program. </t>
-  </si>
-  <si>
     <t>SLV</t>
   </si>
   <si>
-    <t>09-Apr-2020 (Last updated: 10-Apr-2020)</t>
-  </si>
-  <si>
-    <t>* March 14: State of Emergency declared and Certain Constitutional rights temporarily restricted by law.
+    <t>* March 14: State of Emergency declared, extended for 15 days on April 16. Certain Constitutional rights temporarily restricted by law for 30 days.
 * All non-essential public sector workers and all workers over 60, and all working pregnant women are to stay at home with remuneration since March 16
-* March 21: the government issued a nationwide stay-at-home order and closed all non-essential businesses. The first 30-day period was extended for a further 15 days on 30 March (Executive Decree No. 14). As part of these provisions, those violating the order can be placed in quarantine facilities.</t>
+* March 21: the government issued a nationwide stay-at-home order and closed all non-essential businesses. The first 30-day period was extended for a further 15 days on 30 March (Executive Decree No. 14) and a further 15 days on 13 April. As part of these provisions, those violating the order can be placed in quarantine facilities, vehicles violating the order can be seized for disinfection, and Ministry of Health staff can carry out in site inspections.
+* April 13: For businesses allowed to operate, specific distancing measures are specified including distance, handwashing, availability of alcoholic gel and wearing of facial masks.</t>
   </si>
   <si>
     <t>* Since January 31: Progressive prohibition to entry from China, Korea, Italy, Iran, France, Germany and Spain. 
@@ -1836,7 +1910,7 @@
   <si>
     <t>* March 13: a State of Emergency has been declared. A broad package of measures have been announced. They include increasing resources for the health sector to facilitate the acquisition of medical equipment, the construction and improvement of hospital facilities, enlarging testing capacity and providing liquidity to the hospital network. 
 * A temporary hospital is being built in the facilities of the Conference Centre in San Salvador, with the aim to house 300 intensive care units and 1000 hospital beds (announced cost: 70 million USD).
-* 800 hotel rooms have been habilitated as care facilities to confine COVIC-19 cases not requiring hospital care.
+* 800 hotel rooms have been habilitated as care facilities to confine COVID-19 cases not requiring hospital care.
 * As of 8 April: 105 quarantine ("contention") centres have been habilitated to house persons undergoing compulsory quarantine (e.g.: those arriving from outside the country).</t>
   </si>
   <si>
@@ -1885,73 +1959,108 @@
     <t>* March 24: BEAC announced that it will suspend its main absorption operations on the monetary market for the coming week in order to better assess the impact of the COVID-19 pandemic on banking liquidity in CEMAC. However, banks with financing needs will be able to satisfy their requests at the marginal lending facility under the usual conditions. Further measures are expected to be taken following the Monetary Policy Committee meeting scheduled on March 27.</t>
   </si>
   <si>
-    <t>26-Mar-2020 (Last updated: 11-Apr-2020)</t>
-  </si>
-  <si>
-    <t>The government declared an emergency situation on 12 March 2020 (until 1 May). Only two people at most can gather in public places. Most stores can remain open as long as sufficient distance is put between people. Restaurants, bars and other entertainment establishments must close at 10 pm.
-'Anybody entering Estonia is required to quarantine for 14 days.</t>
-  </si>
-  <si>
-    <t>The borders have been closed. Only citizens and people with a residence permit are allowed to enter (starting 17 March). There are no border restrictions on trade and capital.</t>
-  </si>
-  <si>
-    <t>All educational institutions (excl. kindergartens) have been closed (starting 16 March). The government is providing distance education through digital learning tools.</t>
-  </si>
-  <si>
-    <t>The government declared an emergency situation on 12 March 2020 (until 1 May). Only two people at most can gather in public places. Most stores can remain open as long as sufficient distance is put between people. Restaurants, bars and other entertainment establishments must close at 10 pm.</t>
-  </si>
-  <si>
-    <t>- The government is allocating the health system at least EUR 200 million over three months to cover the extraordinary costs of coronavirus.
-- Additional EUR 20 million has been earmarked for purchase of personal protective equipment, respirators and testing capabilities.
-- An increase in shifts, the opening of separate COVID-19 wards, and extraordinary salary increases for frontline staff in health care institutions are foreseen.</t>
-  </si>
-  <si>
-    <t>- The government will ensure sick pay to the employee for the first three days of sick leave for all sick leave certificates from March to May (normally unpaid).
-- The government will pay the advance payment of social tax for self-employed persons for the first quarter of 2020.
-- Contributions to the second pillar funds of the pension system have been temporarily suspended. This will increase net payment to employees by the former pension contribution (2%) that will not be withheld by the employer.
-- Support to employees at risk of layoff: Wage compensation for employees up to 70% from previous wage (max EUR 1 000 per month) paid by the Unemployment Insurance Fund, plus at least EUR 150 payable by the company to the employee. Available for companies with at least 30% fall in turnover, who does not have work for 30% of its employees and who have reduced employees' salaries by at least 30%. The scheme can be used for two months (expected fiscal costs EUR 250 million).</t>
-  </si>
-  <si>
-    <t>- The government will reimburse up to EUR 3 million of the direct costs of cultural and sporting events that were cancelled due to restrictions on public gatherings.</t>
-  </si>
-  <si>
-    <t>- Companies can defer income tax payments without penalty and with a lower interest rate on tax debt. Interest on corporate tax debt is suspended during the time of emergency situation (March-April), and afterwards reduced from 0.06% to 0.03% per day. Companies with deferred tax debt, can have interest rate reduced by up to 100% (normally 50% max).</t>
-  </si>
-  <si>
-    <t>- Operating loans to overcome the liquidity problems, including payment of bank loan payments, are provided (EUR 500 million). The maximum loan amount is EUR 5 million per company with 4% interest per annum.
-- Investment loans to take advantage of the new business opportunities created by the spread of coronavirus, and other new business opportunities are provided (EUR 50 million). The maximum loan amount is EUR 5 million per company with 4% interest per annum.
-- For rural and agricultural businesses, financial measures are offered by the Rural Development Foundation: loan guarantees (EUR 50 million), operating loans (EUR 100 million), land capital (EUR 50 million).</t>
-  </si>
-  <si>
-    <t>- The government will provide loan guarantees for bank loans already issued in order to allow for repayment schedule adjustments. The maximum guarantee amount is EUR 5 million per company.</t>
-  </si>
-  <si>
-    <t>The systemic risk buffer requirement applicable for all commercial banks will be lowered from 1% to 0% from 1 May. This will free up capital of EUR 110 million.</t>
+    <t>02-Apr-2020 (Last updated: 23-Apr-2020)</t>
+  </si>
+  <si>
+    <t>State of emergency declared from 13 March to 1 May 2020.
+From 25 March, a 2+2 rule was implemented. People are only allowed to move alone or in pairs in public and should keep at least 2 meters distance to other people.
+For two municipalities Saaremaa and Muhumaa (islands), lockdown and closures of shops were introduced from 28 March.</t>
+  </si>
+  <si>
+    <t>Border controls introduced from 17 March. Only citizens and residents are allowed to enter, as well as foreign citizens with family member in Estonia. Everybody entering from abroad are required to quarantine for two weeks.
+Commuting for work reasons between Latvia and Estonia allowed from 19 March.
+Sanitary inspections employed at the borders from 13 March.
+Restrictions on movement imposed on the islands of Hiiumaa, Saaremaa, Muhumaa, Vormsi, Kihnu and Ruhnu from 14 March, initially for two weeks. Only people who have a permanent residence on the islands are allowed to travel to the territories.</t>
+  </si>
+  <si>
+    <t>All schools, universities and educational institutions required to close and switch to remote teaching from 16 March. Closure of childcare facilities decided by local governments.</t>
+  </si>
+  <si>
+    <t>All public gatherings, cultural activities (concerts, museums etc.) and sport competitions prohibited from 13 March.
+Visiting ban imposed for hospitals, welfare institutions and detention facilities from 13 March.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All nightclubs and cinemas forced to close from 13 March.
+All sports clubs, gyms and children´s play rooms must remain closed from 14 March.
+Alcohol sale prohibited in bars, restaurants and hotels from 10 PM to 10 AM (from 17 March). This is an extension of a similar prohibition permanently in place for shops. The purpose is to limit alcohol abuse, which could overburden health system and police during the state of emergency.
+All shopping centres forced to close from 25 March, except for stores providing basic necessities (groceries, pharmacies, banks etc.). In addition, restaurants and bars should be closed at 10 PM. </t>
+  </si>
+  <si>
+    <t>An economic package containing state guarantees, loans, income support and tax measures was presented on 19 March.
+Additional resources to be allocated to the health sector announced on 25 March.
+Local governments will receive around EUR 100 million in additional support for investment and an additional EUR 30 million to cover additional costs related to the coronavirus (announced 2 April).
+Reconstruction of apartment buildings and private houses will be supported by EUR 100 million through the state-owned financial institution KredEx (announced 2 April). 
+A supplementary budget was adopted on 2 April, adding additional economic measures and bringing total initiatives related to the crisis to EUR 1.15 billion (4.1% of GDP).</t>
+  </si>
+  <si>
+    <t>The government is allocating the health system at least EUR 200 million over three months to cover the extraordinary costs of coronavirus (announced 25 March). Additional EUR 20 million has been earmarked for purchase of personal protective equipment, respirators and testing capabilities.
+An increase in shifts, the opening of separate COVID-19 wards, and extraordinary salary increases for frontline staff in health care institutions are foreseen.</t>
+  </si>
+  <si>
+    <t>Job retention scheme introduced, currently for March and April, administered through the Unemployment Insurance Fund (announced 19 March). Qualifying employers will receive wage subsidies covering 70% of employees' average salary over the last 12 months, with a maximum of EUR 1 000 per month. Available for companies with at least 30% decline in turnover, who does not have work for 30% of its employees and who have reduced employees' salaries by at least 30% (or to the minimum wage). Employees will receive the 70% reimbursement or max EUR 1 000 per month, plus at least EUR 150 paid by the employer. All taxes and allowances to be paid by the Unemployment Insurance Fund and the employer. Expected fiscal costs EUR 250 million.
+Paid sick leave (announced 19 March). The government will ensure sick pay to the employee for the first three days of sick leave for all sick leave certificates from March to May (normally unpaid). Expected fiscal costs EUR 7 million.
+Support to self-employed (announced 19 Marh). The government will pay the advance payment of social tax for self-employed persons for the first quarter of 2020. Estimated fiscal costs EUR 3.3 million.</t>
+  </si>
+  <si>
+    <t>Reduced pension contributions (announced 19 March). Contributions to the second pillar funds of the pension system have been temporarily suspended. This will increase net payment to employees by the former mandatory pension contribution (2% of gross salary) and employers will likewise have reduced costs (4% contribution rate). The government will also suspend its contributions as part of the social tax (4% of gross remuneration). Exceptions apply for people born from 1942 to 1960, who will continue to make regular payments until Nov 2020. From Oct 2020, individuals are free to decide if they will continue to contribute or not (2% of gross remuneration). For those continuing contributions, the government will increase contribution to 6% from 2023. Fiscal implications for 2020 estimated at EUR 142 million.
+Interest on corporate tax debt reduced (announced 19 March). Interest on corporate tax debt is suspended during the state of emergency (March-April), and afterwards reduced from 0.06% to 0.03% per day. Estimated fiscal costs EUR 7 million.
+Excise duty rate reductions (announced 2 April). From 1 May to 30 April 2022, excise duty rates on diesel, natural gas and electricity will be lowered. Estimated fiscal costs EUR 77 million.</t>
+  </si>
+  <si>
+    <t>Compensation to organisers of cancelled events (announced 19 March). The government will reimburse up to EUR 3 million of the direct costs of cultural and sporting events scheduled between March and April. Estimated costs EUR 25 million.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferral of corporate income tax payments without penalty for a longer period (announced 19 March).
+</t>
+  </si>
+  <si>
+    <t>The state-owned financial institution KredEx will provide loans to businesses affected by the covid-19 crisis (announced 19 March):
+- Operating loans to overcome liquidity problems, including payment of bank loans, are provided (EUR 500 million). The maximum loan amount is EUR 5 million per company with 4% interest per annum.
+- Investment loans to take advantage of the new business opportunities created by the spread of coronavirus, and other new business opportunities are made available (EUR 50 million). The maximum loan amount is EUR 5 million per company with 4% interest per annum.
+Expected losses included in budget amounts to around EUR 55 million.
+The Rural Development Foundation will provide additional financial measures for rural and agricultural businesses (announced 19 March): 
+- loan guarantees (EUR 50 million) 
+- operating loans (EUR 100 million)
+- land capital (EUR 50 million).
+Expected losses included in budget amounts to around EUR 17 million.</t>
+  </si>
+  <si>
+    <t>The government will provide loan guarantees for bank loans already issued in order to allow for repayment schedule adjustments (announced 19 March). The maximum guarantee amount is EUR 5 million per company and EUR 1 000 million loan guarantees in total. Expected losses of around EUR 100 million included in budget.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nordic Investment Bank (NIB) and the Estonian state signed a loan agreement of EUR 750 million to finance the economic measures to mitigate the effects of the coronavirus on 27 March. The repayment deadline for the loan is in the year 2035.
+</t>
+  </si>
+  <si>
+    <t>The central bank lowered the systemic risk buffer requirement applicable for all commercial banks from 1% to 0% from 1 May (announced 25 March). This will free up capital of EUR 110 million.</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
     <t>* All people travelling to Ethiopia are subject to a mandatory 14-day quarantine at designated hotels (at travellers' expense).
-* Social distancing measures have been introduced.</t>
-  </si>
-  <si>
-    <t>* March 23: The authorities have closed borders.
-* April 8: The government declared state of emergency.</t>
+* Social distancing measures have been introduced.                                                                                                      *8 April:  Prime Minister Abiy Ahmed declared a state of emergency under Article 93 of the constitution. Amongst other things, a state of emergency gives the federal government more authority and ability to work in coordination with regional governments, including their security apparatus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 23: The authorities have closed borders.
+</t>
   </si>
   <si>
     <t>* Schools have been shut down.</t>
   </si>
   <si>
     <t>* Public gatherings are prohibited.
-* April 1: The National Electoral Board postponed the parliamentary elections of 29 August 2020.</t>
-  </si>
-  <si>
-    <t>* The authorities have shut down nightclubs and entertainment outlets.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Ethiopia initially announced a Br 300 million package to bolster healthcare spending in early March. 
-* March 23: the Prime Minister announced the aid package announced earlier on would be increased to Br 5 billion (US$154 million or 0.15 percent of GDP) but details on the precise modalities of the assistance are not yet available. </t>
+* April 1: The National Electoral Board postponed the parliamentary elections of 29 August 2020.    *Date: Some schools - below seventh grade - have started broadcasting teaching via radio.</t>
+  </si>
+  <si>
+    <t>* The authorities have shut down nightclubs and entertainment outlets.                                                             *April 13: Launch of the door-to-door temperature screening in Addis Ababa. The activity started in 117 districts of the city. Addis Ababa city also launched its school feed programme with 1200 food banks (30,000 youth volunteers will be mobilised to deliver this programme).</t>
+  </si>
+  <si>
+    <t>* Ethiopia initially announced a Br 300 million package to bolster healthcare spending in early March. 
+* March 23: the Prime Minister announced the aid package announced earlier on would be increased to Br 5 billion (US$154 million or 0.15 percent of GDP) but details on the precise modalities of the assistance are not yet available.                                                                                                                                            *April 3: The GOE announced the Multi-Sectoral Preparedness and Response Plan, to be implemented over 3 months. The USD1.64 billion plan aims to support various economic sectors and population groups including: USD 635M for distribution of food to vulnerable population groups who are not covered by the national social protection programme; USD 430M to be allocated on health care response under assumed worst case scenario COVID-19 cases of over 100 000 cases of COVID 19, especially in urban areas; USD282M for provision of emergency shelter and non-food items; and USD 293M will be allocated to agriculture, nutrition , and protection of vulnerable groups such as refugees and site management support.</t>
+  </si>
+  <si>
+    <t>*April 8: Ethiopian government prohibits lay-offs of workers under the State of Emergency.</t>
   </si>
   <si>
     <t xml:space="preserve">* April 1: Central bank provided private banks with additional liquidity (Br 15 billion, or 0.45% of GDP) to prevent bankruptcies. </t>
@@ -1960,10 +2069,7 @@
     <t>EU</t>
   </si>
   <si>
-    <t>10-Apr-2020 (Last updated: 14-Apr-2020)</t>
-  </si>
-  <si>
-    <t>On March 17, EU member states agreed to restrict non-essential travel to the European Union for an initial period of 30 days, with exceptions mainly for EU and British citizens, long-time residents, cross-border commuters, health care workers and workers delivering goods. Movement of goods is not to be affected. With regard to internal border controls in the Schengen area, member states have endorsed the guidelines proposed by the Commission on border management, which call inter alia for proportionality and non-discrimination between own nationals and resident EU citizens.</t>
+    <t>On March 17, EU member states agreed to restrict non-essential travel to the European Union for an initial period of 30 days, prolonged until 15 May, with exceptions mainly for EU and British citizens, long-time residents, cross-border commuters, health care workers and workers delivering goods. Movement of goods is not to be affected. With regard to internal border controls in the Schengen area, member states have endorsed the guidelines proposed by the Commission on border management, which call inter alia for proportionality and non-discrimination between own nationals and resident EU citizens.</t>
   </si>
   <si>
     <t>• The EUR 37 billion Coronavirus Response Investment Initiative (CRII; proposed on 13 March, in force since 1 April) will accelerate the implementation of cohesion policy (total country allocations for the 2014-2020 period remain unchanged). Member States will not have to pay back to the EU budget unspent pre-financing received from structural funds (about EUR 8 billion). Instead, they will be able to use it as national co-financing for the next tranches of their structural fund allocations (about EUR 29 billion). Investment for fostering the crisis response capacities in public health services and some financing of working capital in SMEs will become eligible.
@@ -1975,27 +2081,27 @@
 • On 9 April, EU finance ministers decided to establish Pandemic Crisis Support credit lines within the framework of the European Stability Mechanism (ESM). Access granted will be 2% of the respective country’s GDP as of end-2019, as a benchmark (about €240 billion in total). The credit line will be available until the COVID 19 crisis is over. The only requirement to access the credit line is that euro area Member States requesting support would commit to use this credit line to finance direct and indirect healthcare, cure and prevention related costs due to the COVID 19 crisis.
 • The Commission intends to allow State aid for struggling businesses. In particular, the Commission considers that the impact of the COVID-19 outbreak is causing a serious disturbance to the entire EU economy (Article 107(3)(b) of the Treaty). In this context, the Commission adopted on 19 March a Temporary Framework, in place until end-2020, to enable Member States to use the full flexibility foreseen under State aid rules.
 • The European Investment Bank (EIB) Group announced on 16 March a plan (currently being deployed) to mobilize up to EUR 40 billion of financing to alleviate liquidity and working capital constraints for SMEs and mid-caps. This comprises dedicated guarantee schemes to banks based on existing programmes, dedicated liquidity lines to banks, and dedicated asset-backed securities (ABS) purchasing programmes to allow banks to transfer risk on portfolios of SME loans.
-• In addition to the above plan, EU finance ministers endorsed on 9 April an EIB proposal to create a EUR 25 billion guarantee fund, which will support up to EUR 200 billion of financing for companies (especially SMEs) throughout the EU. The scheme will be implemented by the EIB Group, in close partnership with national promotional banks and other financial intermediaries. 
+• In addition to the above plan, EU finance ministers endorsed on 9 April an EIB proposal to create a EUR 25 billion guarantee fund, which will support up to EUR 200 billion of financing for companies (especially SMEs) throughout the EU. The scheme will be implemented by the EIB Group, in close partnership with national promotional banks and other financial intermediaries. By guaranteeing parts of loan portfolios, operations under the guarantee fund will free up capital for the financial intermediaries involved to make further financing available for SMEs and mid-caps.
 • The Commission presented on 2 April a proposal for a new instrument for temporary Support to mitigate Unemployment Risks in an Emergency (SURE). SURE support will take the form of loans granted on favourable terms from the EU to Member States, to help them cover the costs directly related to the creation or extension of national short-time work schemes, and other similar measures for the self-employed, in the context of the current crisis. EUR 100 billion (0.7% of 2019 EU27 GDP) will be available for this instrument (with no pre-allocated national envelopes), backed by EUR 25 billion of guarantees voluntarily committed by Member States to the EU budget. SURE will have a temporary nature: its duration and scope are limited to tackling the consequences of the coronavirus pandemic. An instrument along these lines was endorsed by EU finance ministers on 9 April.</t>
   </si>
   <si>
     <t xml:space="preserve">• The Commission has been pursuing joint public procurements of protective equipment, which reinforces member states’ negotiating position towards the industry.
-• On 19 March, the Commission decided to create a European civil protection stockpile of medical equipment such as ventilators and protective masks. Member states wishing to host the stockpile will procure the equipment, financed with a 90% Commission grant. The initial EU budget of the stockpile is EUR 50 million, which the Commission has proposed to increase to EUR 80 million. Distribution of the equipment will be managed at EU level.
-• On 2 April, the Commission presented legislative proposals for an Emergency Support Instrument for the healthcare sector, with EUR 3 billion from the EU budget to directly purchase or procure emergency support on behalf of Member States, financially support and co-ordinate pressing needs such as the transportation of medical equipment and of patients in cross-border regions, and support the construction of mobile field hospitals.
+• On 19 March, the Commission decided to create a European civil protection stockpile of medical equipment such as ventilators and protective masks. Member states wishing to host the stockpile will procure the equipment, financed with a 90% Commission grant. The initial EU budget of the stockpile was EUR 50 million, subsequently increased to EUR 80 million. Distribution of the equipment will be managed at EU level.
+• On 2 April, the Commission presented a legislative proposal (in force since 15 April) to activate and extend the scope of the Emergency Support Instrument, with EUR 3 billion from the EU budget to directly purchase or procure emergency support on behalf of Member States, financially support and co-ordinate pressing needs such as the transportation of medical equipment and of patients in cross-border regions, and support the construction of mobile field hospitals.
 </t>
   </si>
   <si>
     <t xml:space="preserve">• The ECB took several measures to support bank lending and liquidity throughout the euro area:
 o 12 March: lowering the interest rate applied in targeted longer-term refinancing operations (TLTRO III) during the period from June 2020 to June 2021 (25 basis points below the average rate applied in the Eurosystem’s main refinancing operations).
 o 12 March: conducting additional longer-term refinancing operations (LTROs) temporarily (with an interest rate equal to the average rate on the deposit facility, -0.50% currently).
-o 18 March: easing collateral standards to give easier access to ECB liquidity, by adjusting the main risk parameters of the collateral framework.
+o 18 March, further detailed on 7 April: easing collateral standards to give easier access to ECB liquidity, by adjusting the main risk parameters of the collateral framework.
 • The ECB also took measures to reinforce the asset purchase programme (APP):
 o 12 March: adding a temporary envelope of additional net asset purchases of €120 billion until the end of the year.
 o 18 March: furthermore, launching a new temporary asset purchase programme of private and public sector securities (Pandemic Emergency Purchase Programme, PEPP) with an overall envelope of EUR 750 billion until the end of 2020. Together, both envelopes amount to 7.3% of euro area GDP. Some self-imposed purchase limits will not apply to the PEPP.
 o 18 March: expanding the range of eligible assets under the corporate sector purchase programme (CSPP) to non-financial commercial paper. </t>
   </si>
   <si>
-    <t xml:space="preserve">o Major banks (i.e. those directly supervised by the ECB) will be allowed to operate temporarily below the level of capital defined by the Pillar 2 Guidance (P2G), the capital conservation buffer (CCB) and the liquidity coverage ratio (LCR). The ECB considers that these temporary measures will be enhanced by the appropriate relaxation of the countercyclical capital buffer (CCyB) by the national macroprudential authorities (12 March). In addition, the ECB has introduced supervisory flexibility regarding the treatment of non-performing loans (NPLs), in particular to allow banks to fully benefit from public guarantees and moratoriums. Flexibility will also extend to banks’ implementation of NPL reduction strategies (20 March). Furthermore, the ECB has asked banks not to pay dividends until at least 1 October 2020 (27 March).
+    <t xml:space="preserve">o Major banks (i.e. those directly supervised by the ECB) will be allowed to operate temporarily below the level of capital defined by the Pillar 2 Guidance (P2G), the capital conservation buffer (CCB) and the liquidity coverage ratio (LCR). The ECB considers that these temporary measures will be enhanced by the appropriate relaxation of the countercyclical capital buffer (CCyB) by the national macroprudential authorities (12 March). In addition, the ECB has introduced supervisory flexibility regarding the treatment of non-performing loans (NPLs), in particular to allow banks to fully benefit from public guarantees and moratoriums. Flexibility will also extend to banks’ implementation of NPL reduction strategies (20 March). Furthermore, the ECB has asked banks not to pay dividends until at least 1 October 2020 (27 March), and announced a temporary reduction in capital requirements for market risk (16 April). 
 </t>
   </si>
   <si>
@@ -2012,7 +2118,7 @@
     <t xml:space="preserve">On 19 March, some public services (e.g. museums) were closed, and non-public sector service providers encouraged to follow suit. Public gatherings of more than 10 people were banned.  Visiting elderly homes as well as care homes was forbidden. The limitations do not apply to essential services, such as grocery stores and pharmacies. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The limitations do not apply to essential services, such as grocery stores and pharmacies. </t>
+    <t xml:space="preserve">On 24 March, cafés and restaurants were shut down except for takeaway services. The restrictions will stay in effect until 31 May 2020. The limitations do not apply to essential services, such as grocery stores and pharmacies. </t>
   </si>
   <si>
     <t xml:space="preserve">On 20 March, the government announced measures estimated at around EUR 15 billion to provide credit to businesses, ensure liquidity in the financial sector, and provide extra spending on healthcare. On 8 April, the government proposed additional spending of EUR 3.6 billion (i.e. EUR 1.5 billion to support the daily income of households; EUR 1billion to support companies; EUR 0.6 billion to further support the health sector; and EUR 0.5 billion to support the municipalities). </t>
@@ -2045,13 +2151,16 @@
     <t xml:space="preserve">On the supervisory front, the ECB has temporarily lowered bank capital requirements and introduced flexibility regarding the treatment of non-performing loans. </t>
   </si>
   <si>
-    <t>As of 17 March (at noon), stringent containment measures to slow the epidemics have been implemented. The containment measures will apply at the national level at least until 11 May. Going outside has been restricted to the bare essentials (medical appointments, commuting, grocery shopping, imperative family reasons, exercising close to home). People most at risk (including elderly people) have been encouraged to self-isolate.</t>
+    <t>25-Apr-2020 (Last updated: 25-Apr-2020)</t>
+  </si>
+  <si>
+    <t>As of 17 March (at noon), stringent containment measures to slow the epidemics have been implemented. The containment measures will apply at the national level until 11 May. Going outside has been restricted to the bare essentials (medical appointments, commuting, grocery shopping, imperative family reasons, exercising close to home). People most at risk (including elderly people) have been encouraged to self-isolate.</t>
   </si>
   <si>
     <t>Travel within towns, between regions and outside the country have been severely limited (need for a good reason and steep reduction of public transport availability). National long-distance transportation is being gradually reduced. EU and Schengen borders have been closed (for 30 days).</t>
   </si>
   <si>
-    <t xml:space="preserve">All educational institutions have been closed, except for the introduction of a basic day-care service in nurseries and schools for the underage children of medical staff.
+    <t xml:space="preserve">All educational institutions have been closed, except for the introduction of a basic day-care service in nurseries and schools for the underage children of medical staff. They are set to progressively reopen from 11 May.
 </t>
   </si>
   <si>
@@ -2078,13 +2187,12 @@
   </si>
   <si>
     <t xml:space="preserve">- Increased sick leave reimbursements for affected workers, as well as those facing school closures.
-- Short-time work schemes will help maintain household income despite partial business closures (see also firm-specific measures).Employees receive an allowance of 70% of their gross salary (approximately 84% of their net salary), and 100% for minimum-wage workers
 - Relaxation of the conditions for the firms to grant an exceptional purchasing power bonus
-- Extension of social rights (minimum welfare benefitfs, benefits for disabled people)
-- Extension of unemployment benefit
+- Extension of social rights (minimum welfare benefits, benefits for disabled people)
+- Extension of unemployment benefits
 - A "solidarity fund" will support income for the self-employed and entrepreneurs (see also firm-specific measures)
 - Postponement of part of the unemployment insurance reform (around EUR 0.5 billion)
-- encouraging the use of short time work schemes (by shortening procedures and a higher public coverage of firms’ costs). Strengthening the short-time work scheme for employees by making it retroactive from the application. The take up of short-time work schemes has reached 760,000 employees (on 25 March).           </t>
+- Additional transfer to the poorest households.    </t>
   </si>
   <si>
     <t>- Tax exemptions for bonuses in "essential" sectors. These bonuses can reach 1000 euros or 2000 euros in case of firm-level agreement.</t>
@@ -2107,7 +2215,7 @@
   <si>
     <t>Scheme enabling the State to guarantee EUR 300 billion in cash loans. The guarantee may cover 70 to 90% of the amount of the loan, depending on the size of the company
 - Activation of public reinsurance on outstanding credit insurance up to EUR 10 billion, which will help companies to keep the credit insurance cover they need in order to maintain their activity
-- Setting up of reinsurance for short-term export credits with the "Cap Francexport" public reinsurance scheme, launched in October 2018, will be extended to support French exporters. The cap on outstanding amounts reinsured by the State has been doubled to EUR 2 billion, and eligibility has been extended to more destination countries.</t>
+- Setting up of reinsurance for short-term export credits with the "Cap Francexport" public reinsurance scheme, launched in October 2018, will be extended to support French exporters. The cap on outstanding amounts reinsured by the State has been doubled to EUR 5 billion, and eligibility has been extended to more destination countries.</t>
   </si>
   <si>
     <t>The French High Council for Financial Stability has deciced to fully release banks’ countercyclical capital buffer on 18 March.  
@@ -2153,19 +2261,16 @@
     <t>* To ease liquidity conditions the central bank reduced its monetary policy rate by 50 basis points (value from end of February) to 12% and increased its standing deposit facility rate by the same margin to 3%. Further measures are under consideration to provide emergency liquidity support, and to supervise more tightly any potential source of financial instability.</t>
   </si>
   <si>
-    <t>06-Apr-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact ban for meetings of more than two individuals in public with exemption for household members have been decided on March 22 across the country for at least 14 days, extended until at least April 19 on April 1. The Federal States of Bavaria, Saarland and Saxony have introduced stricter lockdowns. </t>
-  </si>
-  <si>
-    <t>Reintroduction of border controls at the internal Schengen borders to France, Luxembourg, Switzerland, Denmark, Italia, Spain and Austria with restriction on entry since 16/19 March. Goods and commuters are allowed to cross border. On April 2, the government agreed to exceptionally allow seasonal agricultural workers to enter the country under strict requirements after seasonal workers have generally been denied entry from March 25 onwards. Travel warning for all countries in place until the end of April. In accordance with the decision at the European level, individuals from outside the EU with few exceptions cannot enter the country for at least 30 days starting March 18.</t>
-  </si>
-  <si>
-    <t> Most schools and day care centres closed until mid April.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants and personal services are now closed. Non-essential stores, leisure and cultural facilities have been closed since March 15/16. Larger events were cancelled already earlier. </t>
+    <t>Contact ban for meetings of more than two individuals in public with exemption for household members have been decided on March 22 across the country extended until at least May 4 on April 15. The Federal States of Bavaria, Saarland and Saxony have introduced stricter lockdowns. From the week of April 27 onwards, individuals will be required to wear a mask in stores an/or public transport in all states.</t>
+  </si>
+  <si>
+    <t>Reintroduction of border controls at the internal Schengen borders to France, Luxembourg, Switzerland, Denmark, Italia, Spain and Austria with restriction on entry since 16/19 March. Goods and commuters are allowed to cross border. On April 2, the government agreed to exceptionally allow seasonal agricultural workers to enter the country under strict requirements after seasonal workers have generally been denied entry from March 25 onwards. From April 10 onwards, indivuals entering the country have to go into self-quarantine for 14 days with exceptions for certain groups. Travel warning for all countries in place until the end of April. In accordance with the decision at the European level, individuals from outside the EU with few exceptions cannot enter the country for at least 30 days starting March 18.</t>
+  </si>
+  <si>
+    <t> Schools and day care centres closed until early May. From May 4 onwards, school will resume again some higher classes such as graduating students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants and personal services are now closed. Non-essential stores, leisure and cultural facilities have been closed since March 15/16. Larger events were cancelled already earlier and will continue to be cancelled until the end of August. As announced on April 15, smaller stores below 800 m2 as well as book stores, car dealerships and bike stores will be allowed to open under strict conditions starting on April 20. </t>
   </si>
   <si>
     <t xml:space="preserve">Restaurants and personal services are now closed. Non-essential stores, leisure and cultural facilities have been closed since March 15/16. </t>
@@ -2178,17 +2283,20 @@
     <t>The budget committee provided additional 800 million for protective equipment, equipment for intensive care and research on vaccines. Previously, around € 350 million were already agreed on for protective equipment and the WHO. Agreement of federal level and Länder to expand hospital capacities for COVID by e.g. postponing elective treatments. Additional funding for hospitals will be provided to balance losses due to rescheduled surgeries and to increase ICU capacity. Federal government will provide EUR 2.8 billion in 2020, additional funding will come from health insurance. Additional central procurement of special equipment on federal level, in addition to procurement of hospitals and private practices - participation in EU joint procurement. Derogation for the provision and use of biocidal products (Biocide Ordinance) allows pharmacists to produce and place on the market hand disinfectants. Insurance Physicians: Sick leave by telephone for up to 14 days for patients with minor illnesses.</t>
   </si>
   <si>
-    <t>Starting April 1, access to social benefits (basic income support for job-seekers and social assistance) will be eased for six months, with assets and apartment size not taken into consideration. Parents, who temporarily lose income, will be able to benefit from child allowance (Kinderzuschlag).</t>
+    <t>Starting April 1, access to social benefits (basic income support for job-seekers and social assistance) will be eased for six months, with assets and apartment size not taken into consideration. Parents, who temporarily lose income, will be able to benefit from child allowance (Kinderzuschlag). For individuals receiving unemployment benefits, the length of entitlement will be increased by three months if the entitlement would otherwise end between May and December 2020.</t>
+  </si>
+  <si>
+    <t>Starting on July 1, the reduced VAT rate of 7% will be applicable to restaurants for 12 months.</t>
   </si>
   <si>
     <t xml:space="preserve">- Short-time working schemes: The “short-time” work scheme will be easier to access temporarily as was the case during the financial crisis. 
-Firms will be able to request support for their workers under this scheme if 10% of their workforce are affected by cuts in working hours as opposed to one third under the usual regulation. In addition to compensating 60% of the difference in monthly net earnings due to reduced hours, the labour agency will now also cover 100% of social-security contributions for the lost work hours. This is an increase compared to the financial crisis, where only 50% of social-security contributions were subsidised and employers had to cover the other half. 
+Firms will be able to request support for their workers under this scheme if 10% of their workforce are affected by cuts in working hours as opposed to one third under the usual regulation. In addition to compensating 60% of the difference in monthly net earnings due to reduced hours, the labour agency will now also cover 100% of social-security contributions for the lost work hours. This is an increase compared to the financial crisis, where only 50% of social-security contributions were subsidised and employers had to cover the other half. On April 22, the government decided to increase the replacement rate of lost net earnings to 70% for childless workers and to 77% for workers with children from the fourth month of short-time work onwards if they have reduced their working time by at least 50%. In the seventh month, payments are increased further to 80% and 87% respectively. 
 - Direct support to self-employed and small businesses with fewer than 10 employees of up to EUR 15 000 per firm (total of EUR 50 billion foreseen). </t>
   </si>
   <si>
-    <t xml:space="preserve">The labour agency will cover 100% of social-security contributions for lost hours of short-time workers. This is an increase compared to the financial crisis, where only 50% of social-security contributions were subsidised and employers had to cover the other half.                                                                                      
+    <t>The labour agency will cover 100% of social-security contributions for lost hours of short-time workers. This is an increase compared to the financial crisis, where only 50% of social-security contributions were subsidised and employers had to cover the other half.                                                                                      
 - Tax deferrals are possible and tax prepayments can be adapted to expected lower income in 2020. Enforcement measures and penalty surcharges will be paused in 2020 if the enterprise is hit hard. 
-</t>
+- Loss carry-back for the 2020 tax year which will allow taxpayers to carry back their 2020 tax losses against advance tax payments from the previous year.</t>
   </si>
   <si>
     <t xml:space="preserve">- Providing liquidity to affected firms through programs of the KfW with unlimited credit. Firm size limitations for liquidity support will be adjusted upwards. Risk taken by the government will increase. The volume of guarantees provided by guarantee banks will be doubled to €2.5 billion. As announced on April 6, firms will be able to apply for immediate loans through the KfW with 100% government guarantee worth up to 25% of 2019 revenue, capped at EUR 500 000 and EUR 800 000 for firms with 10 to 50 employees and those with more than 50 employees, respectively. Screening will be eased and based on past profitability only, conditions comprise an interest rate of 3% and a maturity of ten years. Loans can be converted to regular KfW loans over time following usual risk screening measures by banks.    
@@ -2208,8 +2316,13 @@
     <t>GHA</t>
   </si>
   <si>
-    <t>*March 16: Mandatory quarantine for any Ghanaian citizen who has been to a country that has recorded at least 200 cases.
-*March 28: Partial lockdown (restriction on movement) for the Greater Accra Metropolitan Area and the Greater Kumasi Metropolitan Area for a period of 2 weeks, beginning March 30.</t>
+    <t>09-Apr-2020 (Last updated: 21-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 20: Lifting of the partial lockdown of Accra, Kumasi, Tema and Kasoa. 
+*March 28: Partial lockdown (restriction on movement) for the Greater Accra Metropolitan Area and the Greater Kumasi Metropolitan Area for a period of 2 weeks, starting March 30.
+*March 15: Mandatory quarantine for any Ghanaian citizen who has been to a country that has recorded at least 200 cases.
+</t>
   </si>
   <si>
     <t>* March 15: Ban on entry to those travelling from a country that has recorded at least 200 cases, except for nationals.
@@ -2222,21 +2335,21 @@
   </si>
   <si>
     <t>*March 15: Ban on public events; ban on gatherings including conferences, workshops, funerals, festivals, political rallies, church activities; social distancing in workplaces; increased hygiene conditions in marketplaces, public transport, shopping malls, restaurants nightclubs, hotels, drinking spots.
-* Ban on all public gatherings exceeding 25 people for four weeks.
-* March 21: Closure of all beaches.</t>
-  </si>
-  <si>
-    <t>* March 11: US$ 100 million set aside to combat virus-driven contagion. 
-* March 28: Additional funds have been earmarked to increase the availability of test kits, pharmaceuticals, equipment, and bed capacity. In particular, a COVID-19 fund has been earmarked to support vulnerable population through contribution and donations from the public. 
-* The cost of fund transfers through mobile money is lowered to encourage the use of mobile money rather than cash for hygiene reasons.</t>
-  </si>
-  <si>
-    <t>* March 18: reserve requirements for lenders are lowered to 8% from 10% in order to provide liquidity support to critical sectors.
-* March 18: Conservation buffer for banks is reduced to 1.5% from 3%, which effectively cuts the capital-adequacy ratio to 11.5% from 13%.
-* March 18: Monetary policy rate was reduced to 14.5% from 16% (eight year low).</t>
-  </si>
-  <si>
-    <t>13-Apr-2020 (Last updated: 15-Apr-2020)</t>
+*Ban on all public gatherings exceeding 25 people for four weeks.
+*March 21: Closure of all beaches.</t>
+  </si>
+  <si>
+    <t>*March 11: US$ 100 million set aside to combat virus-driven contagion. 
+*March 28: Additional funds have been earmarked to increase the availability of test kits, pharmaceuticals, equipment, and bed capacity. In particular, a COVID-19 fund has been earmarked to support vulnerable population through contribution and donations from the public. 
+*The cost of fund transfers through mobile money is lowered to encourage the use of mobile money rather than cash for hygiene reasons.</t>
+  </si>
+  <si>
+    <t>*March 18: reserve requirements for lenders are lowered to 8% from 10% in order to provide liquidity support to critical sectors.
+*March 18: Conservation buffer for banks is reduced to 1.5% from 3%, which effectively cuts the capital-adequacy ratio to 11.5% from 13%.
+*March 18: Monetary policy rate was reduced to 14.5% from 16% (eight year low).</t>
+  </si>
+  <si>
+    <t>13-Apr-2020 (Last updated: 23-Apr-2020)</t>
   </si>
   <si>
     <t>From March 23, only movements for prescribed purposes are permitted (essential employment, food shopping, health). 
@@ -2266,7 +2379,8 @@
 18 March:  A total of 108,000 public servants working in hospitals, National Emergency Aid Centre, National Organisation of Public Health and Civil Protection will receive an (extraordinary) Easter bonus.</t>
   </si>
   <si>
-    <t>20 March: Firms can reduce their employees’ work time to a minimum of 2 weeks per month, for at least 50% of all employees within a firm, on the condition that they do not dismiss any workers. The measure can be applied for up to 6 months.
+    <t>14 April: PM announces one-off allowance of EUR 400 for 155000 long-term unemployed. 
+20 March: Firms can reduce their employees’ work time to a minimum of 2 weeks per month, for at least 50% of all employees within a firm, on the condition that they do not dismiss any workers. The measure can be applied for up to 6 months.
 19 March: Extension of the regular unemployment benefit payment, as well as extension of the long-term unemployment benefit and the unemployment benefit to freelancers and self-employed workers, for two months.
 11 March: Allowance of 800 euros for self employed, freelancers, individual businesses and employers up to 5 employees and affected by the coronavirus crisis based on specific NACE codes
 Allowance of 800 euros for employees of firms affected by the coronavirus crisis, whose labour contracts have been suspended based on specific NACE codes. This covers 1.7 million private sector workers (81% of private sector employees). 
@@ -2279,9 +2393,9 @@
 </t>
   </si>
   <si>
-    <t>30 March: Economic support in the form of a training voucher of 600 euros for six scientific sectors (economists/accountants, engineers, lawyers, doctors, teachers and researchers, 180,390 beneficiaries).
-30 March: Support of the primary sector of the economy with 150 million to the Ministry of Rural Development and Food.
-30 March: The interest payment on performing loans of corporates affected by the coronavirus crisis for April, May and June will be paid by the state conditional to firms maintaining their job positions.</t>
+    <t>30 March: Economic support in the form of a training voucher of EUR 600 for six scientific sectors (economists/accountants, engineers, lawyers, doctors, teachers and researchers, 180,390 beneficiaries).
+30 March: Support of the primary sector of the economy with EUR 150 million to the Ministry of Rural Development and Food.
+30 March: Interest payments on performing loans of corporates affected by the coronavirus crisis for April, May and June will be paid by the state conditional to firms maintaining their employment levles.</t>
   </si>
   <si>
     <t>26 March; 3-month extension of the deadline for the payment of scheduled instalments of tax and contribution debts, due on March 31 and subsequent months. These payments will start as of 1 June 2020.
@@ -2290,8 +2404,8 @@
 2) Suspension of SSC payments due by the end-March until October 31 for businesses, self-employed persons and sole proprietorships affected by the coronavirus crisis based on specific NACE codes. Suspended payments will be paid in 4 installments of equal amount without interest and surcharges.</t>
   </si>
   <si>
-    <t xml:space="preserve">April 3: A scheme for the support of the economy through the issuance of guarantees by the Hellenic Development Bank has been approved under the E.U. temporary framework for state aid. The scheme will partially guarantee eligible working capital loans, with the total exposure of the Hellenic Development Bank capped at 40% of the volume of loans issued by a financial intermediary. The total size of the scheme will amount to EUR 2 billion.
-18 March:  Business financing in the form of a refundable advance payment. </t>
+    <t xml:space="preserve">April 3: A scheme for the support of the economy through the issuance of guarantees by the Hellenic Development Bank has been approved under the E.U. temporary framework for state aid. The scheme will partially guarantee eligible working capital loans, with the total exposure of the Hellenic Development Bank capped at 40% of the volume of loans issued by a financial intermediary. Solvent SMEs will receive grants of up to EUR 800 000 per company to cover interest on fixed-maturity loans, bonds, or overdrafts. The total size of the scheme will amount to EUR 2 billion.
+18 March:  Business financing supported through a refundable advance payment. </t>
   </si>
   <si>
     <t xml:space="preserve">The ECB has committed to “do everything necessary within its mandate” to support the economy through this shock. To preserve bank lending and liquidity, the ECB will temporarily conduct additional longer-term refinancing operations (LTROs) and lower the interest rate applied in targeted longer-term refinancing operations (TLTRO III). Furthermore, the ECB has expanded its asset purchase programme by an overall EUR 870 billion (7.3% of euro area GDP) until the end of 2020, while opening the door to freeing its self-imposed limits. Greece's government bonds are included as eligible assets for this programme. </t>
@@ -2486,34 +2600,37 @@
     <t xml:space="preserve">Rental fees are frozen in the hardest hit sectors. Moreover, evictions and confiscations have been suspended. </t>
   </si>
   <si>
-    <t>24-Mar-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
     <t>Voluntary quarantines</t>
   </si>
   <si>
     <t>No travel bans. Icelanders returning from abroad are requested to self-quarantine</t>
   </si>
   <si>
-    <t>Since 12 March secondary schools and universities are closed for four weeks. Primary and pre-schools remain open</t>
-  </si>
-  <si>
-    <t>Gatherings above 10 people prohibited</t>
-  </si>
-  <si>
-    <t>A package of both spending measures and tax deferrals has been decided on March 22, measuring 230bn krona or 1.5bn Dollar (8% of GDP)</t>
-  </si>
-  <si>
-    <t>No particular support measures. Mass tests are carried out at mobile stations outside hospitals. 1200 Test are carried out each day, bringing the country on top of the population share being tested</t>
+    <t>Since 12 March secondary schools and universities are closed. Primary and pre-schools remain open</t>
+  </si>
+  <si>
+    <t>Gatherings above 20 people prohibited. Stricter regulations in some areas</t>
+  </si>
+  <si>
+    <t>The government announced a second package of support measures on April  21, focusing on small enterprises, innovation and vulnerable groups</t>
+  </si>
+  <si>
+    <t>Health professionals working at the front get a one-off bonus</t>
   </si>
   <si>
     <t>Up to 75% of salary for short-term workers or unemployed; one-off child benefit payment; access to third pillar pensions (private savings)</t>
   </si>
   <si>
-    <t xml:space="preserve">financial support for tourism sector; </t>
-  </si>
-  <si>
-    <t>Deferral of tax payments; refund of VAT for construction projects. Public investment projects will be advanced.</t>
+    <t xml:space="preserve">Municipalities receive additional grants and can reimburse VAT for construction projects. </t>
+  </si>
+  <si>
+    <t>Companies forced to shut down receive subsidies of up to ISK 2.4m</t>
+  </si>
+  <si>
+    <t>Several measures  to support vulnerable groups: work against violence, counteract social isolation, support job-seekers, and children from low-income families. 3,000 temporary summer jobs for students aged 18 and over will be financed.</t>
+  </si>
+  <si>
+    <t>Non-indexed loans at the Central Bank’s key rate (currently 1.75%) is available to companies subsidised through this package</t>
   </si>
   <si>
     <t>Key policy rate lowered from 2.75% to 2.25 on March 11 and to 1.75% on March 18.</t>
@@ -2522,10 +2639,10 @@
     <t>Reduction of the countercyclical capital buffer on financial institutions from 2% to 0% and the deposit institutions average reserve requirement from 1% to 0%.</t>
   </si>
   <si>
-    <t>April 14: The nation-wide lockdown is extended till May 3. A conditional withdrawal of the lockdown will be considered in areas where the spread has either been contained or prevented. Some states had already extended the lockdown, including Maharashtra, Odisha, Punjab and Telangana till April 30. The detailed guidelines will be issued soon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ban on all international flights till April 15th, excluding approved all-cargo operations and flights (from March 26). Suspension of all visas, except for a few categories. (from mid-March) 
+    <t>April 14: The nation-wide lockdown is extended till May 3. A conditional withdrawal of the lockdown is allowed from April 20 where the virus spread has either been contained or prevented. Some states have announced that they wil not relax the lockdown -- including Delhi for at least one week and Telangana till May 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ban on all international flights (from March 26) till April 15th, excluding approved all-cargo operations and flights. Suspension of all visas (from mid-March), except for a few categories. 
 Ban on passenger flights on all domestic routes (from March 25). The country's rail network suspended most passenger services. All public transport services for roadways also suspended till April 15th.  
 </t>
   </si>
@@ -2540,7 +2657,7 @@
 </t>
   </si>
   <si>
-    <t>All activities are suspended since March 25 except shops dealing with essential commodities like perishables, groceries and dairy. The government is considering opening up some activities from April 20, including: agriculture related activities, transportation of goods, industries operating in rural areas, manufacturing and industrial units in special economic zones (SEZs) and export oriented units, construction of roads and for building projects in rural areas under the rural employment programme (MNREGA), IT and e-commerce companies. Exemptions given from April 20 will not be applicable in COVID-19 hotspots or containment zones.</t>
+    <t>All activities are suspended since March 25 except shops dealing with essential commodities like perishables, groceries and dairy. The government has announced a gradual exit strategy to mitigate the economic and social costs of the lockdown. Since 20 April, some parts of the economy, including agriculture, logistics, infrastructure, e-commerce and factories located in rural areas, plantation activities sucha as tea with maximum of 50% workers, have been allowed to return to work in areas where no covid-19 cases have been detected (so-called green zones). Construction activities for those roads, irrigation projects, buildings and industrial projects where workers are available on site have been allowed. The government has also allowed people to take up jobs under the National Rural Employment Guarantee Act (MGNREGA), a large rural public job programme targeting the poor in rural areas. Services provided by self-employed people such as electricians, electronics repairers, plumbers, motor mechanics and carpenters, have been allowed to operate. Exemptions given from April 20 are not applicable in COVID-19 hotspots or containment zones.</t>
   </si>
   <si>
     <t xml:space="preserve">On March 26, the central government a INR 1.7 trillion rupees (USD 23 billion) aimed at ensuring that families belonging to poor and lower to middle income groups are able to carry out their daily lives smoothly under the lockdown.
@@ -2549,11 +2666,12 @@
 have been making fund allocations as per their requirements. </t>
   </si>
   <si>
-    <t>The export restrictions on 26 pharma products (active pharma ingredients and formulations) introduced on March 3 were removed for 24 of them on April 5 - Paracetamol and Hydroxychloroquine are the two exceptions.  The government also placed restrictions on the export of most diagnostic testing kits.
+    <t>The export restrictions on 26 pharma products (active pharma ingredients and formulations) introduced on March 3 were removed for 24 of them on April 5. Paracetamol and Hydroxychloroquine are the two exceptions. On April 17, the government lifted export restrictions on paracetamol formulations with immediate effect. On April 5, the government placed restrictions on the export of most diagnostic testing kits.
 On March 19, hospitals were asked to defer elective surgeries and the government capped the price of sanitizer bottles and banned exports of masks, ventilator machines and also textiles used to make masks. 
 On March 24, the government announced an emergency health fund of INR 150 billion (USD 2 billion) for treating COVID-19 patients and strengthening the medical infrastructure of the country including for rapidly ramping up the number of testing facilities, Personal Protective Equipment (PPE), Isolation Beds, ICU beds, Ventilators and other essential equipment announced. Training of medical and paramedical manpower will also be undertaken. Some states (including Gujarat, Assam, Jharkhand, Rajasthan, Goa, Karnataka, MP and J&amp;K) are setting up hospitals dedicated for the management of COVID-19. A large number of laboratories have been included in the ICMR network of COVID-19 testing and private lab chains have registered with ICMR to increase testing capacity. On April 8, the Supreme court ruling ordered that all covid-19 tests must be provided for free. 
-'The March 26 central government includes insurance cover of INR 5 million per health worker fighting COVID-19 to be provided under Insurance Scheme.
-April 7: India lifted restrictions on exports of 24 drugs amid coronavirus and allowed limited exports of hydroxychloroquine and paracetamol. It also placed restrictions on the export of most diagnostic testing kits.</t>
+'The March 26 central government package includes insurance cover of INR 5 million per health worker fighting COVID-19 to be provided under Insurance Scheme.
+April 7: India lifted restrictions on exports of 24 drugs amid coronavirus and allowed limited exports of hydroxychloroquine and paracetamol. It also placed restrictions on the export of most diagnostic testing kits.
+April 10: The government launched a mobile app (Aarogya Setu) to help people identify their risk of contracting covid-19, by tracking and contact tracing, and to connect people to health care services.</t>
   </si>
   <si>
     <t xml:space="preserve">The central government package announced on March 26 largely focus on people, targeting low- and middle-income groups. Major provisions in the package includes :
@@ -2577,18 +2695,23 @@
     <t xml:space="preserve">- The Monetary Policy Committee of the Reserve Bank of India on March 27 delivered a 75 basis points reduction in the policy repo rate and announced an accommodative stance of monetary policy as long as necessary to revive growth, while keeping inflation within the target. 
 - The Reserve Bank of India announced on March 27 several liquidity measures to combat the adverse impacts of covid-19, including: long-term repo operations targeted to reduce banks’ cost of funds for up to INR 1 trillion, simultaneous purchase and sale of securities under open market operations, reduction in the cash reserve ratio requirements and exemption from cash reserve ratio (CRR) requirements to incentivise lending to specific sectors (retail loans for automobiles, residential housing and loans to micro, small and medium enterprises).
 - The Reserve Bank conducted two 6-month US Dollar/INR sell/buy swap auction on March 16 and March 23, 2020, which cumulatively provided dollar liquidity of USD 2.71 billion.
+On April 17, the Reserve Bank of India (RBI) announced additional measures to promote new lending and mitigate financial market stress:
+• It cut the reverse repo rate by 25bp from 4.0% to 3.75% to increase incentives for banks to lend more to businesses and individuals instead of letting their cash with the Reserve Bank.
+• It will conduct new targeted long-term repo operations, with the objective of making it easier for non-bank financial companies (which tend to lend more to small business and informal workers than banks) and micro-finance institutions to raise money. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- In a relief to small and medium enterprises facing the threat of insolvency because of COVID-19, the threshold for invoking insolvency has been raised 100-fold to INR 10 million. If the situation continues beyond 30th April, the government may consider suspending relevant sections under the Insolvency and Bankruptcy Code for six months to avoid companies from being forced into insolvency proceedings under such force majeure causes of default.
-- 3-months moratorium on debt-servicing of all term loans outstanding and deferment of interest to be paid on working capital loans for 3 months. Such deferment will not impact the credit history of the borrower
-</t>
-  </si>
-  <si>
-    <t>Regional quarantines in few provinces. From 10 April, there are large-scale social restrictions in Jakarta implying stricter rules for outdoor activities such as obligation of masks and reduced transportation. On 14 April, 10 more regions (mostly around Jakarta and one in Riau) are authorised to impose large-scale social restrictions.</t>
-  </si>
-  <si>
-    <t>After the suspension on 17 March of the free visal policy for 10 countries, from 2 April Indonesia bars foreign nationals from transiting through or entering the country. </t>
+    <t>- In a relief to small and medium enterprises facing the threat of insolvency because of COVID-19, the threshold for invoking insolvency has been raised 100-fold to INR 10 million. If the situation continues beyond 30th April, the government may consider suspending relevant sections under the Insolvency and Bankruptcy Code for six months to avoid companies from being forced into insolvency proceedings under such force majeure causes of default.
+- 3-months moratorium on debt-servicing of all term loans outstanding and deferment of interest to be paid on working capital loans for 3 months. Such deferment will not impact the credit history of the borrower.
+April 17: Regulatory norms are being softened, with a temporary reduction in the liquidity coverage ratio for banks and an extension in bankruptcy resolution timelines from 210 days to 300 days. The Resersve Bank of India (RBI) offered temporary forbearance, or moratoriums, on assets considered standard as of 1 March 2020. For those assets, the 90-day non-performing loan norm shall exclude the moratorium period, meaning that assets considered standard on 1 March 2020 would continue to be considered standard until 31 May 2020, even if no repayment is made during the period. Non-bank financial corporations can also grant such moratoriums on repayments
+• The RBI asked banks not to pay further dividends for the fiscal year 2019-20 (ending in March 2020).
+• The RBI increased the temporary loans limit of states by 60% from an already increased 30% (announced on 1 April 2020), providing states with an additional channel to borrow from the RBI, instead of relying on additional market borrowings.</t>
+  </si>
+  <si>
+    <t>From 10 April, there are large-scale social restrictions in Jakarta implying stricter rules for outdoor activities such as obligation of masks and reduced transportation. On 14 April, 10 more regions (mostly around Jakarta and one in Riau) are authorised to impose large-scale social restrictions. On 22 April, 23 areas are under large-scale social restrictions.</t>
+  </si>
+  <si>
+    <t>After the suspension on 17 March of the free visal policy for 10 countries, from 2 April Indonesia bars foreign nationals from transiting through or entering the country. On 22 April, President Jokowi announced his decision to ban the Idul Fitri mudik (exodus) to be effective from 24 April (with sanctions from 7 May) and imposed stricts restrictions on travels in and out of virus-hit zones.</t>
   </si>
   <si>
     <t>Schools in Jakarta have been closed since 16 March. Similar provisions have been introduced in most of the country</t>
@@ -2708,7 +2831,11 @@
     <t>ISR*</t>
   </si>
   <si>
-    <t>• Partial lockdown (since 20 March, further tightened since): People are ordered  to stay home except for essential trips (e.g.work, food, medical appointments) . Workplace restrictions with only around 15% of employees being physically allowed to go to work (from 1 April). 
+    <t>26-Apr-2020 (Last updated: 26-Apr-2020)</t>
+  </si>
+  <si>
+    <t>• Since 19 April, workplace restrictions eased with around 30% of employees in the private sector being physically allowed to go to work (from 15% since 1 April). Workplaces meeting certain standards (e.g. on hygiene and distancing) can employ a larger number of employees.
+• Partial lockdown (since 20 March, further tightened since): People are ordered  to stay home except for essential trips (e.g.work, food, medical appointments). 
 • As of 9 March all Israelis returning from abroad are ordered into a 14-day quarantine.</t>
   </si>
   <si>
@@ -2716,15 +2843,15 @@
 'Since 12 March all non-Israelis will be barred completely from entering Israel unless they can demonstrate that they have a place to self-isolate in Israel for 14 days. This extends previous measures that were confined to travellers from most affected countries in Asia and Europe. </t>
   </si>
   <si>
-    <t>Since 13 March all educational institutions including pre-schools and kindergartens are closed at least until the end of Passover (17 April)</t>
-  </si>
-  <si>
-    <t>• all non-essential commercial shops and entertainment venues are closed, including shopping malls, cinemas, bars and restaurants
-• all public gatherings are banned</t>
-  </si>
-  <si>
-    <t>• 'Workplace restrictions with only around 15% of employees being physically allowed to go to work (from 1 April).'
-• all non-essential commercial shops and entertainment venues are closed, including shopping malls, cinemas, bars and restaurants</t>
+    <t>Since 19 April special education programmes are allowed to operate. All other educational institutions including pre-schools and kindergartens are closed (since 13 March).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 19 April certain public gatherings, e.g. for weddings (up to 10 people), outdoor prayers (up to 19 people) are allowed. Beaches, parks, playgrounds and municipal sports areas remain closed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Since 26 April most shops on streets are allowed to open if they meet certain hygiene and social distancing standards. Restaurants take-aways are allowed. Shopping malls remain closed. 
+'• Since 19 April, workplace restrictions eased with around 30% of employees in the private sector being physically allowed to go to work (from 15% since 1 April). Workplaces meeting a defined standard ("purple badge", e.g. on hygiene and distancing) can employ a larger number of employees.
+</t>
   </si>
   <si>
     <t xml:space="preserve">The government announced two emergency aid packages totalling NIS 80 billion (NIS 10 billion on 11 March, NIS 70 billion on 30 March), including around NIS 11 billion for the health sector and civilian needs, NIS 20 billion to enhance the social security network and support households, NIS 41 billion aid for businesses and NIS 8 billion of measures to boost "growth engines" (e.g. accelerated infrastructure investment). Around NIS 49.5 billion (3.5% of GDP) are spending and revenue measures that will affect the budget, while NIS 30.5 billion (2.2% of GDP) are off-balance sheet measures (e.g. loan guarantees and payment deferrals). 
@@ -2738,11 +2865,14 @@
   <si>
     <t>• NIS 500 grant for each child up to fourth child per family, elderly people and people with disabilities (7 April)
 • Broadened eligibility to unemployment benefits. Employees put on involuntary unpaid leave for at least 30 days are entitled to unemployment benefits after 5 days (NIS 14 billion). The time required to have been employed to be eligible for unemployment benefits has been reduced to 6 months instead of 12 months (30 March).
-• Grant to self-employed (NIS 2.6 billion, extended to NIS 4 billion on 8 April): A grant of 70% of the average monthly taxable income up to NIS 10 500 for the self-employed that experience a 25% decrease in activity (as of April 8). 
-• Grant to people aged 67 and over: A grant of up to NIS 4000 in March and April for people aged 67 and over, who have lost their job during the crisis. Grants will be paid in addition to the old-age pension (30 March)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Local tax reductions (2.7 billion): 25% discount on municipal property tax for industries significantly affected by the crisis (effectively cancelation of property tax between March to May). </t>
+• Grant to self-employed (NIS 6.8 billion as of 24 April): A grant of 70% of the average monthly taxable income up to NIS 10 500 in April and May for the self-employed that experience a 25% decrease in activity (30 March and extended on 8 and  24 April). 
+• Grant to people aged 67 and over: A grant of up to NIS 4000 in March, April and May for people aged 67 and over, who have lost their job during the crisis. Grants will be paid in addition to the old-age pension (30 March, extended to May on 24 April)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Local tax reductions (2.7 billion): 25% discount on municipal property tax for industries significantly affected by the crisis (effectively cancelation of property tax between March to May) (30 March). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Grant for small businesses (up to NIS 20 million turnover) up to NIS 400 000 to cover fixed expenses (24 April). </t>
   </si>
   <si>
     <t>• Tax and payment deferrals (NIS 9 billion). Payment of VAT, municipal taxes, social security contributions, utility payments, government fees have been deferred for SMEs until the end of April.</t>
@@ -2767,13 +2897,14 @@
     <t>• Mortgage payment deferral: The Ministry of Finance instructed banks to allow for a 4-month postponement of mortgage payments (15 March)</t>
   </si>
   <si>
-    <t>10-Apr-2020 (Last updated: 16-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movements restrictions reinforced, with fewer exceptions and a limited range of industrial and commercial activities permitted to continue operating, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strict travel restrictions nation-wide, reinforced from March 23 to prohibit movements out of the municipality where individuals reside. </t>
+    <t>10-Apr-2020 (Last updated: 17-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On April 10, the government extended the lockdown to 3 May. People can only leave the home for prescribed, essential purposes. Movement out of the municipality of residence remains prohibited. 
+On March 23, movements restrictions reinforced, with fewer exceptions and a limited range of industrial and commercial activities permitted to continue operating, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict travel restrictions nation-wide, reinforced from March 23 and, on April 10, were extended to May 2. These prohibit movements out of the municipality where individuals reside. Non-nationals or residents cannot enter Italy except for limited, prescribed reasons. </t>
   </si>
   <si>
     <t>Closure of schools and universities from March 4 until April 3, extended to at least April 14.</t>
@@ -2848,8 +2979,11 @@
 - Moratorium on debt payments, including mortgages.</t>
   </si>
   <si>
-    <t>- Prime Minister declared a state of emergency based on the Act on Special Measures for Pandemic Influenza and New Infectious Diseases Preparedness and Response, covering the most affected 7 prefectures (Tokyo, Kanagawa, Saitama, Chiba, Osaka, Hyogo and Fukuoka).
-'- Prefectural Governors in the emergency zone issued stay-at-home requests to the local residents.</t>
+    <t>20-Apr-2020 (Last updated: 21-Apr-2020)</t>
+  </si>
+  <si>
+    <t>- On 7 April, the Prime Minister declared a state of emergency based on the Act on Special Measures for Pandemic Influenza and New Infectious Diseases Preparedness and Response, covering the most affected 7 prefectures (Tokyo, Kanagawa, Saitama, Chiba, Osaka, Hyogo and Fukuoka). The Prefectural Governors in the emergency zone issued stay-at-home requests to the local residents.
+- On 16 April, all other 40 prefectures were covered by the state-of-emergency declaration. 13 prefectures including the originally covered 7 prefectures were designated as the special caution zones, where containment measures should be focused.</t>
   </si>
   <si>
     <t>- Starting with Hubei Province of China on 1 February, refusal of entry has been extended by mid-March to cover the most affected areas in risk countries. 14-day quarantines have been enforced for entrants from China and Korea outside the most affected areas on 9 March, followed by extensions to other areas including Europe, Egypt and the United States. Refusal of entry was expanded in early April to cover 49 countries including the United States.
@@ -2863,57 +2997,58 @@
 - Level 2, Avoid Non-essential travel l; Japanese nationals are advised to avoid non-essential travel, and to stay alert to the security situation and to take appropriate safety measures should they decide to travel: All over the world.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Based on instructions or requests by the Governors, public schools in the emergency zone decided to close until 6 May. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Governors in the emergency zone asked non-essential businesses to close until 6 May. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- On 7 April, the government launched the Emergency Economic Measures of JPY 108.2 trillion (20% of GDP), which adds another JPY 29.2 trillion of public spending.
+    <t xml:space="preserve">- Based on instructions or requests by the Governors, public schools in the 7 prefectures originally covered by the state-of-emergency declaration decided to close until 6 May. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- On 26 February, the government asked large scale events and gatherings to be cancelled, postponed, or scale down for two weeks.
+- The government asked for continuing to postpone or scale down large-scale events until late March.
+- The state-of-emergency declaration under the law enables prefectural Governors to ask cencelling large scale events and getherings in their jurisdictions.
 </t>
   </si>
   <si>
-    <t>-7 April measures further increased health spending.</t>
-  </si>
-  <si>
-    <t>7 April measures include:
-- Cash transfer of JPY 6.0 trillion provided for households and small and medium sized business owners who experience a significant fall of their earnings between February and June.
-- Enhancement of the Employment Adjustment Subsidy including raising the sibsidy rates announced on 28 March.</t>
-  </si>
-  <si>
-    <t>7 April measures include a wide range of subsidies to strengthen the economic structure.</t>
-  </si>
-  <si>
-    <t>7 April measures include: 
-- Tax payments and social security charges for businesses negatively impacted by the COVID-19 outbreak can be deferred up to one year.</t>
-  </si>
-  <si>
-    <t>KAZ</t>
-  </si>
-  <si>
-    <t>01-Apr-2020 (Last updated: 09-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Declaration of the state of emergency.
-* March, 19: The government ordered a quarantine regime in the country’s two largest cities, Nur-Sultan and Almaty. The rules will limit movement in and out of the cities. </t>
-  </si>
-  <si>
-    <t>* Closure of borders until 15 April. Flights from coronavirus-affected countries are progressively suspended.</t>
-  </si>
-  <si>
-    <t>* Schools, except for kindergartens, are closed.</t>
-  </si>
-  <si>
-    <t>* The disinfection of the main cities is done by the army.</t>
-  </si>
-  <si>
-    <t>* March, 18 : VAT is to be scrapped for imports of agrarian goods. The government announced that it has begun taking steps to ensure duty-free import of "socially important food products".
-* March, 18: Around 7 000 producers of agricultural goods are to be exempted from land tax payments.
-* The government is setting aside KZT 300 billion (607 million EUR) for infrastructure spending to create 120 000 jobs, exclusively for Kazakh nationals.</t>
-  </si>
-  <si>
-    <t>* March, 17: Major retail outlets, cinemas, theatres, sports facilities and other businesses being forced to curtail activities will be exempted from property taxes for one year and interest on loans for one quarter.
-* March, 18: Banks will be required to allow businesses and entrepreneurs experiencing liquidity problems to defer repayment on loans until after June 15.</t>
+    <t xml:space="preserve">- Governors in the 7 prefectures originally covered by the state-of-emergency declaration asked non-essential businesses to close until 6 May. </t>
+  </si>
+  <si>
+    <t>- On 7 April, the government launched the Emergency Economic Measures of JPY 117 trillion (21.7% of GDP), which adds another JPY 38 trillion of public spending.
+- On 20 April, the Cabinet decided the FY 2020 supplementary budget proposal of JPY 25.7 trillion to finance the Emergency Economic Measures.</t>
+  </si>
+  <si>
+    <t>- On 28 January, the Cabinet issued a decree to list COVID-19 as a disease that the Infectious Disease Act and the Quarantine Act apply. With the decree enforced on 1  February, the authority can order the patients about forced hospitalisation and restrictions on work, mandate immigrations to take laboratory tests, and provide medical care with the costs shouldered by the government.
+- On 14 February, the government decided the use of the contingent funds included in the FY 2019 budget to finance a package of immediate measures including increasing the testing capacity, subsidising production of masks and antiseptic solutions, and promoting development of therapeutic drug. 
+- On 17 February the Ministry of Health, Labour and Welfare (MHLW) asked people with cold symptoms, a fever 37.5 Celsius degree or over, a strong feeling of weariness or shortness of breath to isolate themselves at home and wait four days before contacting a doctor.
+- The Basic Policy announced on 25 February prioritised the provision of medical service to vulnerable people such as the elderly and those with underlying diseases.
+- The second measures launched on 10 March included measures for containment in childcare and long-term care facilities, support for the supply of masks, expansion of PCR testing and medical care capacity and development of therapeutic drug.
+-7 April measures further increased health spending.</t>
+  </si>
+  <si>
+    <t>- On 14 February, the government eased the qualifications for the Employment Adjustment Subsidy, which provides SMEs and large corporations a financial support that covers 2/3 and 1/2 of the cost of special paid leaves, respectively.
+- The second measures launched on 10 March included responses to the temporary school closures, such as support for parents’ work leaves due to closure of their children’s school, and employment support. 
+- On 28 March, the government announced to raise the subsidy rates of the Employment Adjustment Subsidy from 2/3 to 9/10 for SMEs and from 1/2 to 3/4, respectively, for those do not dismiss employees between April and June.
+- 7 April measures include:
+1) Cash transfer of JPY 12.8 trillion (2.4% of GDP) provided for every resident (JPY 100 thousand (USD 931) per person) and JPY 2 trillion (0.4% of GDP) for small and medium sized business owners who experience a significant fall of their earnings between February and June.
+2) Enhancement of the Employment Adjustment Subsidy including raising the sibsidy rates announced on 28 March.</t>
+  </si>
+  <si>
+    <t>- 7 April measures include a wide range of subsidies to strengthen the economic structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- On 27 February, the National Tax Agency announced:
+1) Deadline extension (from mid-March to mid-April) for tax return filing and payment of personal income tax, gift tax, and consumption tax (for the self-employed):
+2) Deferments on tax payments for individuals and businesses negatively impacted by the COVID-19 outbreak on taxpayers’ request.
+7 April measures include: 
+- Tax payments and social security charges for businesses negatively impacted by the COVID-19 outbreak can be deferred up to one year.
+</t>
+  </si>
+  <si>
+    <t>- The first prompt measures announced on 13 February included JPY 500 billion (0.1% of GDP) of emergency loans and credit guarantees for SMEs such as the tourism industry. 
+- The second measures launched on 10 March included financial measures of JPY 1.6 trillion from the Japan Finance Corporation and other institutions, primarily focusing on micro, small and medium-sized business operators. Financial measures included a COVID-19 special loan program which enables  unsecured interest-free loans to affected firms.</t>
+  </si>
+  <si>
+    <t>- On 2 March, the Governor of the Bank of Japan (BoJ) announced that the Bank would strive to provide ample liquidity and ensure stability in financial markets through appropriate market operations and asset purchases. 
+-  On 16 March, the BoJ decided to enhance monetary easing through three measures: 1) actively purchasing ETFs and J-REITs at annualised paces of up to about JPY 12 trillion (2.2% of GDP) and JPY 180 billion (0.03% of GDP), respectively; 2) facilitating corporate financing through (a) increasing the upper limit to purchase commercial paper and corporate bonds by JPY 2 trillion (0.4% of GDP) in total and (b) introducing a new operation to provide loans against corporate debt as collateral at 0% interest rate with maturity up to one year; and 3) providing further ample funds through various means including purchases of Japanese government bonds (JGBs) and U.S. dollar funds-supplying operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- On 17 March, the Financial Service Agency (FSA) issued a public communication that reassures that regulatory capital and liquidity buffers can be used, as needed, to support the businesses affected by the Covid-19 outbreak. </t>
   </si>
   <si>
     <t>KEN</t>
@@ -2923,16 +3058,16 @@
 *March 27: A daily curfew from 7 p.m. to 5 a.m. in the territory of the Republic of Kenya, for all persons not authorized to do so, or not being medical professionals, health workers, critical and essential services providers. </t>
   </si>
   <si>
-    <t xml:space="preserve">*March 15: Kenya suspended all inbound travel from countries with coronavirus. Only Kenyan citizens and foreigners with valid visas are allowed in Kenya for next 30 days. Persons who arrived in Kenya in past 14 days must self-quarantine. Those presenting with symptoms, such as fever present themselves to nearest health facility for testing. 
+    <t>*March 15: Kenya suspended all inbound travel from countries with coronavirus. Only Kenyan citizens and foreigners with valid visas are allowed in Kenya for next 30 days. Persons who arrived in Kenya in past 14 days must self-quarantine. Those presenting with symptoms, such as fever present themselves to nearest health facility for testing. 
 *March 15: Hospitals and shopping malls to provide water soap and hand sanitisers plus disinfected.
-*March 25: Suspension of all international flights. </t>
+*March 25: Suspension of all international flights.                                                                                        *April 6: Kenyan authorities announced the end of all road, rail or air traffic to and from Nairobi, with immediate effect and for a period of 21 days. Same measures will apply from 8 April for the coastal towns and counties of Kwale, Kilifi and Mombasa.</t>
   </si>
   <si>
     <t>*March 15: Closure of schools and universities.</t>
   </si>
   <si>
     <t>*March 15: Citizens to avoid crowds, including at weddings, funerals, churches and shopping malls. Limited visits to hospitals. 
-*March 22: All religious gatherings are suspended.</t>
+*March 22: All religious gatherings are suspended.                                                                                              * 1 April: the Independent Electoral and Boundaries Commission announced the postponement of by-elections for Members of both county and national assemblies in a number of Kenyan counties (date TBD).</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2941,7 +3076,7 @@
 *March 25: The government announced the disbursement of KES 1 billion for the recruitment of additional medical personnel.</t>
   </si>
   <si>
-    <t xml:space="preserve">March 25: The president of the Republic of Kenya outlined the tax interventions the Government intends to make to “cushion” the country against the economic effects of the COVID-19. These measures are proposals only at this point and will enter into force after the approval from the National Assembly. He noted that his Administration has offered a voluntary reduction in the salaries of the senior ranks of the National Executive, as follows: The President &amp; Deputy President – 80%; Cabinet Secretaries – 30%; Chief Administrative Secretaries – 30%; Principal Secretaries – 20%. 
+    <t xml:space="preserve">March 12: the Ministry of Tourism and Wildlife announced that it has set aside USD5 million to support Tourism Sector for its post Covid-19 recovery plan. March 25: The president of the Republic of Kenya outlined the tax interventions the Government intends to make to “cushion” the country against the economic effects of the COVID-19. These measures are proposals only at this point and will enter into force after the approval from the National Assembly. He noted that his Administration has offered a voluntary reduction in the salaries of the senior ranks of the National Executive, as follows: The President &amp; Deputy President – 80%; Cabinet Secretaries – 30%; Chief Administrative Secretaries – 30%; Principal Secretaries – 20%. 
  </t>
   </si>
   <si>
@@ -2955,7 +3090,9 @@
     <t xml:space="preserve">March 24: The Central Bank rolled out the following measures: (i) lowered its policy rate by 100 bps to 7.25%; (ii) lowered banks’ cash reserve ratio by 100 bps to 4.25% to provide additional liquidity of KES 35 Billion to commercial banks to directly support borrowers that are distressed as a result of the economic effects of the COVID-19 pandemic; (iii) increase the maximum tenor of repurchase agreements from 28 to 91 days; and (iv) announced flexibility to banks regarding loan classification and provisioning for loans that were performing on March 2, 2020, but were restructured due to the pandemic. </t>
   </si>
   <si>
-    <t xml:space="preserve">No lockdown has been imposed on any city or region. However, the government has urged citizens to comply with social distance and encouraged employees to work from home. Moreover, the authorities have requested that people stay at home and avoid meetings for the time being. The government extended ''social distancing campaign'' through April 19. 
+    <t xml:space="preserve">No lockdown has been imposed on any city or region. However, the government has urged citizens to comply with social distance and encouraged employees to work from home. 
+On 22 March, the authorities started the strong social distancing campaign which has strongly advised that people stay at home and avoid mass congregations for two weeks. The government extended this ''high-intensity social distancing campaign'' through April 19. 
+On 20 April, the government phased out some stringent physical distancing measures, while social distancing campaign will last till 5 May. 
 Meanwhile, the government has supported most infected region with special quarantine measure and public resources.
 -The government designated Daegu and the neighbouring region, severely infected area with around 82% of all cases, as special management zone on 23 February. 
 -On 15 March the authorities also designated those regions as “special disaster zones” to allow the release of subsidies.
@@ -2974,11 +3111,12 @@
     <t xml:space="preserve">The new semester for schools and kindergartens, which were supposed to start on 2 March, has been postponed to 8 April. Courses for elementary and high schools are to resume online. First and second graders in elementary school are set to use educational TV programmes.  
 -From 9 April, the new academic year is scheduled to begin gradually with online class
 - Middle and high school started online classes on 9 April or 16 April. 
-- Elementary schools will open remote education on 20 April   </t>
+- Elementary schools was open remote education on 20 April   </t>
   </si>
   <si>
     <t xml:space="preserve">-The government has enforced guidlines for densely populated workplaces, such as call centres.
--The government has also recommended people to avoid religious meetings, indoor sports and entertainment facilities. </t>
+-Under the stringent social distancing program since 22 March, the government has also urged people to avoid religious meetings, indoor sports and entertainment facilities. 
+- From 20 April, the government decided to permit religious meetings and some social activities as far as people abide by the hygine guidelines. The Korean government plans to  assess the infection situation every two weeks to decide the level of social distancing. </t>
   </si>
   <si>
     <t xml:space="preserve">The Korean government has so far introduced a total of KRW 141 trillion (USD 115 billion, 7.4% of GDP) support measures to mitigate the impact of the Covid-19 virus including liquidity provisions and credit guarantees. 
@@ -3000,7 +3138,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The government has tested more than 480 000 people by 8 April, over 14 000 tests per day. 
+    <t xml:space="preserve">The government has tested more than 570 000 people by 21 April, over 14 000 tests per day. 
 -To facilitate massive testing and protect medical staff and hospitals, innovative "drive-through testing" and "phone booth testing" have been introduced. 
 </t>
   </si>
@@ -3061,20 +3199,23 @@
     <t>XKX**</t>
   </si>
   <si>
-    <t>* March, 13: Kosovo confirmed the first two cases of COVI-19 and the government immediately prohibited all travel in and out of both municipalities
-* March, 17: The President signed a decree to call a state of emergency, but it has not yet been ratified by MPs
-* March, 24: The circulation is limited between 10h and 16h and 20h and 6h00, except for medical purpose. Gatherings are limited up to 2 persons only. 
-* March, 28 : Kosovo’s government has tightened the country’s curfew from 17h to 6h.                   *March, 31: The Constitutional Court of Kosovo has ruled that the government's decision to impose a curfew is unconstitutional and violates a number of articles including the fundamental rights and freedoms, freedom of movement, right to privacy and family life, and freedom assembly of association. The Decision will enter into force on April 13, invalidating the government's mandate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 12 :  imposed mandatory 14 days self-quarantine periods on all travellers entering the country from high and medium-risk regions. 
-* March, 16 : The government suspended flights into the country and closed all land borders (however, all Kosovar citizens wishing to return, were allowed to do so.)  </t>
-  </si>
-  <si>
-    <t>* March, 12 : The government suspended all education institutions</t>
-  </si>
-  <si>
-    <t>* March, 13: Kosovo confirmed the first two cases of COVID-19 and the government immediately suspended all public transportation services, closed all cafés, bars, restaurants, sporting/cultural venues and non-essential stores, and obliged all private sector employees to work from home.</t>
+    <t>* March 13: Kosovo confirmed the first two cases of COVI-19 and the government immediately prohibited all travel in and out of both municipalities
+* March 17: The President signed a decree to call a state of emergency, but it has not yet been ratified by the parliament. 
+* March 24: The circulation is limited between 10h and 16h and 20h and 6h00, except for medical purpose. Gatherings are limited up to 2 persons only. 
+* March 28 : Kosovo’s government has tightened the country’s curfew from 17h to 6h.                  
+ *March 31: The Constitutional Court of Kosovo has ruled that the government's decision to impose a curfew is unconstitutional and violates a number of articles including the fundamental rights and freedoms, freedom of movement, right to privacy and family life, and freedom assembly of association. The Decision will enter into force on April 13, invalidating the government's mandate.</t>
+  </si>
+  <si>
+    <t>* March 12 :  Mandatory 14 days self-quarantine periods on all travellers entering the country from high and medium-risk regions. 
+* March 16 : The government suspended flights into the country and closed all land borders (however, all Kosovar citizens wishing to return, were allowed to do so.)  
+* April 15: The circulation of citizens over the age of 16 is allowed, only for 1 and a half hour per day, according to the set weekly schedule in function of their personal ID number. The same applies for foreign citizens in function of their passport number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 12 : The government suspended all the educational institutions. </t>
+  </si>
+  <si>
+    <t>* March 13: Suspension of all public transportation services, closure of all cafés, bars, restaurants, sporting/cultural venues and non-essential stores. 
+* March 13:  Obligation for all private sector employees to work from home.</t>
   </si>
   <si>
     <t xml:space="preserve">* March, 11: The government introduced measures prohibiting the export of medicine and medical equipment that may be used to treat COVID-19
@@ -3082,20 +3223,40 @@
 * Allocation of 6 million EUR to the Health Ministry. </t>
   </si>
   <si>
-    <t xml:space="preserve">* March, 11: The government allocated 10 million EUR to fund efforts to contain the spread of the virus.
-* March, 20:  The government announced that the deadline to file and pay tax liabilities and pension contributions would be extended until 30 April.
+    <t xml:space="preserve">* March 11: The government allocated 10 million EUR to fund efforts to contain the spread of the virus.
+* March 20:  The government announced that the deadline to file and pay tax liabilities and pension contributions would be extended until 30 April.
 * Removal of VAT on imports of wheat and flour.
-* Deferred payment: public utilities payments until end of April. </t>
-  </si>
-  <si>
-    <t>* Advancing payments for social assistance schemes by additional one month's amount (from one month to two months) to support families in need. 
-* March, 27 : The Minister of Finance et Transfers, Besnik Bislimi announced that the government will pay a minimum wage of 170 EUR for the next two months up to a max. cost of 41 million EUR. The government will also cover pension contributions for the next two months for those who will benefit from the minimum wage of 170 EUR. The decision amounts to 170. 6 million EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 27: The government decided to subsidize company rents up to a max. of 50% for SMEs for the next two months. </t>
-  </si>
-  <si>
-    <t>* The Kosovo Central Bank permitted loan repayments for both individuals and businesses to be suspended until at least 30 April, 2020. This measure could be extended.</t>
+* Deferred payment: public utilities payments until end of April. 
+* April 3: Increasing the budget for grants and subsidies for the Ministry of Agriculture, Forestry and Rural Development to increase agricultural production, amounting to EUR 5,000,000. 
+* April 3: Providing extra financial support to the Municipalities of the Republic of Kosovo that have been affected, amounting to EUR 10,000,000. 
+* April 3: Increasing the budget for grants and subsidies to the Ministry of Culture, Youth and Sports due to the impact on sports and cultural activities, amounting to EUR 5,000,000. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Advancing payments for social assistance schemes by additional one month's amount (from one month to two months) to support families in need. 
+* March 27: The government will cover pension contributions for the next two months for those who will benefit from the minimum wage of 170 EUR. This amounts to EUR 170,600,000
+*April 3: Double payment of the social scheme value for all beneficiaries of social schemes for April and May, amounting to EUR 7,650,000, including the realized payment for March.
+* April 3: Extra payment in the amount of EU 30 per month to all beneficiaries of social and pension schemes receiving monthly payments lower than EUR 100 for April, May and June, provided that they are beneficiaries of only one scheme; as well as for the beneficiaries whose benefit rights have not been renewed in the period January - March 2020. This measure is worth up to EUR 13,000,000. 
+*April 3: Extra payment of EUR 100 for employees of grocery stores, bakeries and pharmacies for April and May, amounting to EUR 3,000,000
+* April 3: Payment of monthly assistance up to EUR 130 for citizens who have lost their jobs April, May and June, amounting to EUR 4,000,000.
+*April 3: Support initiatives and projects aiming at improving lives of small communities, amounting to EUR 2,000,000. 
+* April 3: Payment of monthly assistance of EUR 130 for citizens with severe social conditions, declared as unemployed at the competent institution, who are not beneficiaries of any monthly revenue from the budget of Kosovo for April, May and June, amounting to EUR 3,000,000.
+April 3: Wage allowance of up to EUR 300 for the field workers and who are directly exposed to the risk of infection in their work (not the entire personnel of the institution): Medical personnel (doctors and nurses), police officers of Kosovo Police, Correctional Service officers (Guards), officers (firefighters) of the Emergency Management Agency, KSF personnel (soldiers), workers working in the quarantine - Student Center of Pristina, officials (inspectors) of the Inspectorate of Labor, officials (inspectors) of the Tax Administration of Kosovo, Officials (custom officers) of Kosovo Customs, officials (inspectors) of the Market Inspectorate, officials (inspectors) of the relevant municipal inspectorates, officials of the Inspectorate of Labor Medicine, for the month of April and May. This measures amount to EUR 15,000,000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* April 3: Financial support for companies that are in financial difficulties as a result of decrease of their activities: (i) Cover monthly wage expenses of employees in the amount of EUR 170, for April and May, amounting to EUR 41,000,000; (ii) Subsidise lease up to 50% of the value of the lease for small and medium enterprises for April and May, amounting up to EUR 12,000,000; (iii) Cover the value of pension contributions for wages related to the measures foreseen by this decision for April and May, up to EUR 8,000,000.  
+* April 3: Interest free loans for public enterprises that have financial difficulties due to the public health emergency situation, in order to ensure their temporary liquidity, amounting to EUR 20,000,000.  
+*April 3: Ensuring financial liquidity for: (i) Micro-enterprises and self-employed through programs stipulated by Kosovo Credit Guarantee Fund up to EUR 10,000 for period of 24 months, amounting to EUR 15,000,000; (ii) Commercial/Authorized Companies that provides basic services (similar to those of public enterprises).
+*April 3: Provide support to exporters amounting to EUR 10,000,000. 
+*April 3: Financial support for commercial companies that hire employees with an employment contract of at least one year during the period of public health emergency situation, covering EUR 130 of their salary for the next two months after the employment registration, up to EUR 6,000,000. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The Kosovo Central Bank permitted loan repayments for both individuals and businesses to be suspended until at least 30 April, 2020. This measure could be extended.
+</t>
+  </si>
+  <si>
+    <t>08-Apr-2020 (Last updated: 15-Apr-2020)</t>
   </si>
   <si>
     <t>Starting March 29, only two people at most can gather in public places, except for the holding of funeral ceremonies outdoors, and people must keep two metres apart. The state of emergency has been extended to May 12.</t>
@@ -3173,18 +3334,18 @@
 </t>
   </si>
   <si>
-    <t>12-Apr-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    - All travellers from all countries have to undergo mandatory quarantine for two weeks upon arrival, except from: members of official delegations, diplomats and special couriers working on transit trains and who have no COVID-19 symptoms; crew members, who are employed in Lithuanian companies engaged in international commercial transportation, or engaged in international commercial transportation by all the means of transport, and who have no COVID-19 symptoms (isolation is mandatory from the day of arrival in Lithuania until the day of departure from its territory, but not longer than 14 days). 
+    <t>18-Apr-2020 (Last updated: 18-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - All travellers from all countries have to undergo mandatory quarantine for two weeks upon arrival, except from: members of official delegations, diplomats and special couriers working on transit trains and who have no COVID-19 symptoms; crew members, who are employed in Lithuanian companies engaged in international commercial transportation, or engaged in international commercial transportation by all the means of transport, and who have no COVID-19 symptoms (isolation is mandatory from the day of arrival in Lithuania until the day of departure from its territory, but not longer than 14 days). 
  - The National Center for Public Health under the Ministry of Health is organising a screening for symptoms of COVID-19 of all persons returning from foreign countries at the international crossing points.
 - Self-quarantine for those infected, with symptoms and who have had contacts with infected.
-- For those who do not have a safe place for self-isolation, municipalities may provide facilities.                                                           </t>
+- For those who do not have a safe place for self-isolation, municipalities may provide facilities.                                                      - A new tool was introduced (a virtual conversation robot) to facilitate the provision of reliable and up-to-date information on emergency, quarantine and coronavirus.                                                     </t>
   </si>
   <si>
     <t xml:space="preserve"> - Foreigners are not allowed to enter the country. Exceptions include crews employed in Lithuanian companies engaged in international commercial transport or engaged in international commercial transport by any means of transport (unless they are found to have COVID-19 symptoms), foreigners who are immediate family members (parents, children, spouses, foster parents) to Lithuanian citizens, persons entitled to reside in Lithuania, diplomatic staff, NATO personnel.                                                                                                                                                            - Cruise ship access to Klaipeda seaport is prohibited.                                                                                                                                                                                      - From April 4 2020,  it is prohibited to transport passengers and/or passenger cars to Lithuania by ferries, except for the ferry on the route Kiel (Germany)/Klaipėda (Lithuania)/Kiel (Germany).  In exceptional cases,  the decision on the permit shall be made by the government.                                                                                                                                                       - From 4 April 2020 flights for the carriage of passengers to, and from international airports of Lithuania, shall be performed only upon obtaining a permit.                                                                     - Lithuanian consulates worldwide suspended acceptance and processing of visa applications, including visa applications in representation of another Schengen states.
 - Transit through the territory of Lithuania of persons returning to their country of residence and of crew members performing international commercial transport activities in all types of vehicles without the required stop is permitted. 
-- A temporary ban on intercity travel over the Easter weekend was introduced. People will not be able to enter municipalities other than their place of residence (with some exceptions).                                                                                    The above restrictions are in effect between 16 and 27 April 2020. </t>
+                                                                                                                                                                                                                                                                                                                                                                                               The above restrictions are in effect between 16 and 27 April 2020.</t>
   </si>
   <si>
     <t xml:space="preserve"> - On 12 March 2020 the government decided to close all educational institutions, announcing compulsory two-week school holidays in educational institutions (kindergartens, schools, universities, colleges, non-formal education institutions, etc.) for a period of 14 days as a precautionary measure (from 13 March – as a recommendation; from 16 March till 30 March – compulsory suspension/obligatory measure).                                                                                                - On 30 March distance learning was introduced in Lithuania. The period of distance learning in schools, vocational education and higher education institutions depends on the quarantine period (prolonged to 27th April). Distance learning is recommended for preschool and pre-primary education institutions but some kindergartens can operate and provide services for parents/families in need (i.e., doctors, police officers), upon municipality  decision.</t>
@@ -3195,7 +3356,8 @@
 </t>
   </si>
   <si>
-    <t>- All shops are closed (with the exemption of supermarkets and pharmacies).</t>
+    <t xml:space="preserve">- All shops are closed with the exemption of supermarkets, pharmacies and certain small businesses that fall under the provisional framework for easing quarantine measures. The government approved on 15 Apri the first stage of easing quarantine measures for businesses, with the provisional timeline for other stages to be confirmed at a later date. Measures apply to small businesses, including non-food retailers and shops providing certain services such as  key makers; shoe repair services; laundry shops and dry-cleaners and rental shops. The shops will need to have direct access from the street, service providers should limit face-to-face contact to 20 minutes, and ensure a density of one client per 10 square metres. Only one person can be served at a time.
+</t>
   </si>
   <si>
     <t>The government introduced on 16 March 2020 a fiscal package of EUR 2.5 billion (including EUR 0.5 billion for health) under the action plan to mitigate the impact of COVID-19. The measures aim to:                                                                                                                                                                                                        - Ensure the effective functioning of the health care system: the funds are dedicated, in particular, to the acquisition of equipment, finance additional health care costs, including bonuses to health care workers, and ensure subsidiary social guarantees for employees infected by a contagious disease.                                                                                                                                                                                                                                                                                                                                                                                                    - Help safeguard jobs and incomes, including subsidies wages, benefits for self-employed and funds to ensure the payment of sickness benefits of carers.                                                                                                                           -  Help business to save liquidity, including postponement of the payments date of tax arrears for the affected taxpayers.                                                                                                                                                                                 - Stimulate the economy including through  the acceleration of investment programmes (EUR 1.2 billion); reallocation of the EU investment funds to health, employment and business areas;  acceleration  of the use of the State budget appropriations for current expenditure; permission to use all funds of the Climate Change Programme, Road Maintenance and Development Programme, and to speed up the multi-apartment building renovation programme; and by offering possibilities for municipalities to implement the investment projects by extending lending targets and to ensure the emergency liquidity assistance.
@@ -3222,25 +3384,24 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">   - Rcommendation for municipalities to exempt the taxpayers from taxes levied on business property and land.</t>
+    <t xml:space="preserve">   - Recommendation for municipalities to exempt the taxpayers from taxes levied on business property and land.</t>
   </si>
   <si>
     <t xml:space="preserve">The fiscal package under the action plan to mitigate the impact of COVID-19 includes the following measures:
 - Postponement of the payments date of tax arrears for the affected tax payers.
-- Exemption from fines and default interest for failure to comply with tax obligations on time.                                                                                                                                   - - Postponement of submission (and payment of) personal income tax returns and advanced corporate income tax returns.                              
+- Exemption from fines and default interest for failure to comply with tax obligations on time.                                                                                                                                   -  Postponement of submission (and payment of) personal income tax returns and advanced corporate income tax returns.                              
  - Relief from import duties and VAT exemption on importation granted for goods needed to combat the effects of the COVID-19 outbreak pursuant to Commission’s decision.                                                                                                                                                                                    -  Possibility for business customers to defer or arrange the payments in instalments to the public provider of electricity and gas.
- - Recommendation for the municipalities to offer the possibility of deferring or arranging the payment of public utility charges and payments for heat in instalments. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems:  EUR 287 million for loans; EUR 145 million for risk capital investment;  EUR 23 million for compensations of loans and leasing contracts interests (during the payment holiday up to 6 months); EUR 100 million for a Business Support Fund, and EUR 50 million for payable invoices loans.
-</t>
+ - Recommendation for the municipalities to offer the possibility of deferring or arranging the payment of public utility charges and payments for heat in instalments.                                             -  A draft law on the COVID-19 impact on insolvency of legal persons was submitted to Parliament on 8 April. The law includes: suspension of the debtor's duty to file for bankruptcy or restructuring proceedings for the period of three months after the end of quarantine period; creditor’s right to file for bankruptcy or restructuring proceedings is limited for the quarantine period; suspended calculation of term when the debtor is not able to carry out the approved restructuring plan and as a result the restructuring could be terminated – for the period of three months after the end of quarantine period.                                                                                  -  On 14 April the government approved the temporary provision of rental subsidies to business. The subsidies are to be paid during the quarantine period and the two months thereafter. The total amount available for rental subsidies is estimated up to EUR 100 million.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems:  EUR 287 million for loans; EUR 145 million for risk capital investment;  EUR 23 million for compensations of loans and leasing contracts interests (during the payment holiday up to 6 months); EUR 100 million for a Business Support Fund, and EUR 50 million for payable invoices loans.                                                          - A new borrowing instrument enables SMEs to apply for soft loans on the condition that they have run out of working capital due to disruptions in settlements with purchasers whose activities have been terminated or restricted due to quarantine. The maximum loan amount will be up to EUR 100 thousand.</t>
   </si>
   <si>
     <t>-  Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems: EUR 851 million for state guaranties
 - The guarantee limit for the Agricultural Credit Guarantee Fund and ceiling for INVEGA (promoting the development of small- and medium-sized enterprises) guarantee are set to increase by EUR 500 million.</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Monetary policy measures have been taken jointly with the ECB.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+    <t xml:space="preserve">   - The Bank of Lithuania has implemented a number of monetary policy measures adopted by the Eurosystem in response to the COVID-19 crisis. In this context, the central bank has significantly increased government bonds purchases and implemented collateral easing measures.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                         </t>
   </si>
   <si>
     <t xml:space="preserve">   - In order to boost corporate and household lending, the Bank of Lithuania released the countercyclical capital buffer, reducing the rate from 1% to 0% on 18 March 2020.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              - The Bank of Lithuania will also take a more flexible approach in terms of some capital and liquidity requirements imposed on banks. This would allow banks to provide additional EUR 2 billion in loans to businesses and residents. Systemic risk buffer has not been applied so far in Lithuania. Additional measures to increase liquidity will be implemented via joint ECB/Eurosystem efforts.
@@ -3343,40 +3504,94 @@
     <t>- Temporary suspension of refunds for cancelled package holidays in support of travel agents.</t>
   </si>
   <si>
-    <t>25-Mar-2020 (Last updated: 15-Apr-2020)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 16 March, the government decided to impose a nation-wide lockdown (the Movement Cotrol Order) from 18 March to 31 March.
-On 25 March, the Movement Control Order was extended until 14 April. </t>
-  </si>
-  <si>
-    <t>All international travellers are banned to enter the country from 18 March to 31 March. Before that, Malaysia imposed entry bans on travellers from certain areas (Korea, Italy, Iran, Denmark and some cities of China and Japan). Some state governments imposed stricter bans than the national level.
-On 25 March, the entry bans were extended until 14 April.</t>
-  </si>
-  <si>
-    <t>Schools are also closed from 18 March to 31 March.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass gatherings and international conferences have been prohibited until 30 April (announced on 13 March).
-On 16 March, the government decided to impose a nation-wide lockdown (the Movement Cotrol Order) from 18 March to 31 March.
-On 25 March, the Movement Control Order was extended until 14 April. </t>
-  </si>
-  <si>
-    <t>The first package was annouced on 20 February. It includes the deferment of income tax payment, reduction of social contribution, among others.
-The second package was annouced on 16 March. It includes a monthly allowance to workers forced to take unpaid leave (from March to August) and a 15% electricity discount to the tourism industry and 2% discount to the commercial, industrial and agriculture sectors and domestic users (from April to September).</t>
-  </si>
-  <si>
-    <t>The second package was annouced on 16 March. It includes a monthly allowance to workers forced to take unpaid leave (from March to August)</t>
-  </si>
-  <si>
-    <t>The first package was annouced on 20 February. It includes the deferment of income tax payment, reduction of social contribution, among others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 3 March, Bank Negara Malaysia cut its policy rate by 25bps to 2.5%.
-On 19 March, the central bank reduced its statutory reserve rate from 3.00% to 2.00% to provide sufficient liquidity to financial institutions. </t>
-  </si>
-  <si>
-    <t>The second package was annouced on 16 March. It includes a 15% electricity discount to the tourism industry and 2% discount to the commercial, industrial and agriculture sectors and domestic users (from April to September).</t>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>* March 13: The municipalities of Debar and Centar Zupa, early hotspots for the pandemic, are under lockdown for 30 days. These restrictions were lifted on April 13.
+* March 18: A "State of emergency" of 30 days is declared.
+* Mid-March: a curfew is introduced between 16h00 and 05h00 on weekdays; citizens older than 65 may only leave the house between 10h00-12h00 on weekdays; person younger than 18 may only leave the house between 13h00-15h00. Curfew violators could face up to one year in prison.
+* April 3: the government has launched a new specialised web page (koronavirus.gov.mk), that offers comprehensive guidelines, an overview of the number of infections, and the measures the country is taking to stop the spread of the pandemic.
+* April 13: the government launches the app "StopKorona!". The app uses short-range Bluetooth communications to establish a voluntary contact-tracing network, and thus keep data on phones that have been in close proximity with each other. Users can: report to the Ministry of Health if they have been diagnosed with COVID-19; be alerted to whether they were in close contact with an infected person.
+* April 14: An extended curfew is introduced over the Orthodox Easter holiday and lasts from 16h00 on April 17 through 05h00 on April 21.
+* April 16: A new 30-day "State of emergency" has been announced.</t>
+  </si>
+  <si>
+    <t>* The government has developed an online learning portal where students can access recorded classes, live lessons and play-based learning activities. In partnership with UNICEF, the government has established an online database of free picture books, worksheets and teaching materials in multiple languages available to all parents and teachers. Finally, the government has an online library with materials specifically designed for pre-school and early primary school aged children available in Macedonian, Albanian, Turkish and Bosnian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The General elections planned for April 12, are postponed. No new date has yet been set. </t>
+  </si>
+  <si>
+    <t>*April, 3: A field hospital is being built by the army adjacent to the Skopje Infectious Diseases Clinic and equipped to receive some 130 patients early next week. 
+* The government has implemented price controls on medicines, disinfection products, and abolished import duty on medical supplies.
+* Ban of export of medical devices and material needed for tackling COVID-19 crisis, unless authorised by Ministry of Health.
+* The government has requisitioned all the masks available from private companies to redistribute them to medical personnel.</t>
+  </si>
+  <si>
+    <t>* North Macedonia opened a “solid COVID-19 fund” to collect donations from the civil society. 
+* The government implemented a fiscal package (0.2% of GDP) to help address firms’ liquidity problems and protect jobs, targeted to affected sectors such as transport, hotel and restaurants for three months starting in April.</t>
+  </si>
+  <si>
+    <t>* Monthly allowance of 50% of the average monthly net salary for the last 24 months distributed to employees who lost their job due to COVID-19. 
+* Unemployed or part of the informal economy:
+- will have fast access to the social protection system from April to May. 
+- will receive an average of 7,000 (EUR113) dinars per household (20,000 households are targeted)
+* The payment of rent for social housing and the payment of rent will be postponed for all users.</t>
+  </si>
+  <si>
+    <t>* Support to salaries and firm liquidities: the government of North Macedonia initiated support on salaries by subsidizing contributions to employees of companies, for the months of April, May and June of 2020. The support takes different forms according to the sector of activity. 
+* The government issued various decisions supporting the tourism sector in conjunction with the creation of the Tourism Fund, which is currently valued at a total of 74 million dinars (EUR 1.2 million).
+* Bankruptcy Debtors will not be subject to bankruptcy proceedings for the duration of the state of emergency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March, 16: The National Bank Operational Monetary Policy Committee (OMPC) decided to cut the policy rate by 0.25 percentage points to 1.75%. 
+* March, 20: Additional measures were taken by OMPC, mainly promoting more favourable credit standards for the companies affected of the COVID-19 crisis and easing the standards for household and corporate loans restructuring. Loans are interest-free. </t>
+  </si>
+  <si>
+    <t>- On 16 March, the government announced that the Movement Control Order would be imposed from 18 March to 31 March.
+- On 25 March, the Movement Control Order was extended until 14 April. 
+- On 10 April, the Movement Control Order (MCO) was extended until 28 April.
+- On 23 April, the Movement Control Order (MCO) was extended until 12 May.</t>
+  </si>
+  <si>
+    <t>- Under the MCO, all international travellers were banned to enter the country from 18 March to 31 March. Before that, Malaysia imposed entry bans on travellers from certain areas (Korea, Italy, Iran, Denmark and some cities of China and Japan). Some state governments imposed stricter bans than the national level.
+- On 25 March, the Movement Control Order was extended until 14 April. 
+- On 10 April, the Movement Control Order (MCO) was extended until 28 April.
+- On 23 April, the Movement Control Order (MCO) was extended until 12 May.</t>
+  </si>
+  <si>
+    <t>- Under the MCO, schools are also closed from 18 March to 31 March.
+- On 25 March, the Movement Control Order was extended until 14 April. 
+- On 10 April, the Movement Control Order (MCO) was extended until 28 April.
+- On 23 April, the Movement Control Order (MCO) was extended until 12 May.</t>
+  </si>
+  <si>
+    <t>- Mass gatherings and international conferences have been prohibited until 30 April (announced on 13 March).
+- On 16 March, the government imposed the Movement Control Order from 18 March to 31 March.
+- On 25 March, the Movement Control Order was extended until 14 April. 
+- On 10 April, the Movement Control Order (MCO) was extended until 28 April.
+- On 23 April, the Movement Control Order (MCO) was extended until 12 May.</t>
+  </si>
+  <si>
+    <t>- On 27 February, the government announced a stimulus package amounting to 1.3% of GDP. The package include the deferment of income tax payment, the reduction of social contribution, among others.
+- On 16 March, the government announced supplementary fiscal measures amounting to 0.04% of GDP, which includes a monthly allowance to workers forced to take unpaid leave (from March to August) and a 15% electricity discount to the tourism industry and 2% discount to the commercial, industrial and agriculture sectors and domestic users (from April to September).
+- On 27 March, the government announced the second stimulus package amounting to 17% of GDP. This includes cash assistant to low-income households until May.
+- On 6 April, the government announced new measures (RM 10 billion, 0.7% of GDP) to support SMEs, which also includes an enhanced wage support scheme.</t>
+  </si>
+  <si>
+    <t>The second package was announced on 16 March. It includes a monthly allowance to workers forced to take unpaid leave (from March to August)</t>
+  </si>
+  <si>
+    <t>The first package was announced on 20 February. It includes the deferment of income tax payment, reduction of social contribution, among others.</t>
+  </si>
+  <si>
+    <t>- On 3 March, Bank Negara Malaysia cut its policy rate by 25bps to 2.5%.
+- On 19 March, the central bank reduced its statutory reserve rate from 3.00% to 2.00% to provide sufficient liquidity to financial institutions.
+- On 25 March, the central bank requested a 6-month deferment of bank loans to individuals and SMEs affected by the outbreak. The central bank also allowed banking institutions to reduce the capital conservation buffer.
+- On 27 March, the central bank announced that it would enhance the existing financing facilities for SMEs by increasing the funding allocation.</t>
+  </si>
+  <si>
+    <t>The second package was announced on 16 March. It includes a 15% electricity discount to the tourism industry and 2% discount to the commercial, industrial and agriculture sectors and domestic users (from April to September).</t>
   </si>
   <si>
     <t>MLI</t>
@@ -3435,7 +3650,7 @@
     <t>*March 20: A period of confinement for two weeks has been announced. 
 *March 23: A curfew is in place from 20:00 to 08:00 local time until further notice. People are not permitted to be in the streets during those hours except for emergency purposes. 
 *March 30: The period of confinement was extended to April 15.
-*March 31: The Government announced the reopening of supermarkets and shops ounder strict sanitary conditions will take place on 2 April.</t>
+*March 31: The Government announced the reopening of supermarkets and shops ounder strict sanitary conditions will take place on 2 April.                                                                                                             *April 13: nationwide lockdown has been extended to May 4.</t>
   </si>
   <si>
     <t>*January 23: All passengers travelling from Wuhan city will be placed in observation at the New Souillac hospital. People travelling from elsewhere in China will be placed under surveillance for 14 days.  
@@ -3446,7 +3661,7 @@
     <t>*March 18: The Government announced that all schools and universities would be shut until further notice.</t>
   </si>
   <si>
-    <t>*March 24: The authorities closed all supermarkets, bakeries and shops (until 2 April). Only essential services including police, medical, and fire rescue are permitted to operate. Pharmacies and banks are operating with reduced hours and additional regulations. The Ministry of Commerce and the Mauritius Chamber of Commerce and Industry have established a website for the distribution of essential goods.</t>
+    <t>*March 24: The authorities closed all supermarkets, bakeries and shops (until 2 April). Only essential services including police, medical, and fire rescue are permitted to operate. Pharmacies and banks are operating with reduced hours and additional regulations. The Ministry of Commerce and the Mauritius Chamber of Commerce and Industry have established a website for the distribution of essential goods. *  8 April: The election of Counsellors of French living abroad and of Consular Delegates scheduled for 16-17 May has been postponed (date TBD). Four out of the 443 Counsellors are elected in the capital city of Port-Louis for a 6-year term.</t>
   </si>
   <si>
     <t xml:space="preserve">*January  23-27: Operational Plan on COVID -19 was prepared by the Ministry of Health and Wellness and was circulated to all stakeholders inclusive of the media, private sector, ministries and departments, the port and the airport. 
@@ -3455,6 +3670,9 @@
 </t>
   </si>
   <si>
+    <t>*March 20:  the Mauritius Revenue Authority issued a communique stating that taxpayers who are unable to submit returns or effect payment of tax due to the lockdown will not be charged any penalty or interest for late submission or payment. No cut-off date has as of yet been communicated on this grace period.</t>
+  </si>
+  <si>
     <t>*March 23: The government announced a Special Foreign Currency (USD) Line of Credit ($300 million) - targeting operators having foreign currency earnings, including SMEs and a swap arrangement to support import-oriented businesses (initial amount $100 million). 
 *March 31: The Minister of Finance Economic Planning and Development announced the Wage Assistance Scheme whereby enterprises will be entitled to receive an amount equivalent to the 15 days’ basic wage bill for all of its employees drawing a monthly basic wage of up to Rs 50,000 subject to a cap of Rs 12,500 per employee. This money will be credited to their account and if they do not have a bank account, they will receive same by post. All eligible persons are requested to register with the MRA online or contact the MRA on the dedicated hotline. 
 *The Government decided to implement a Self-Employed Assistance Scheme (SEAS) through the Mauritius Revenue Authority (MRA) to assist Eligible Self-Employed individuals will receive a financial support of Rs 5,100 (i.e. 50% of Guaranteed Income) for the period March 16 to April 15 2020.</t>
@@ -3463,191 +3681,188 @@
     <t xml:space="preserve"> *March 13: The Bank of Mauritius issued five responses to keep credit flowing to the economy: (i) Cut its cash reserve ratio by a percentage point to 8%; (ii) Release of $130 million to fund businesses struggling with the impact of the virus; (iii) Instruct banks to suspend capital repayments on loans for affected businesses; (iv) Ease supervisory guidelines on handling credit impairments. 
 *March 23: The Bank of Mauritius is introduced a 2.5% Two-Year Bank of Mauritius 2020 Savings Bond for an amount of Rs 5 billion.
 *March 23: The Bank of Mauritius (BOM) announced additional support measures: i) support to households - six-month moratorium on household loans at commercial banks, while BOM will bear interest payments for households with the lowest income.
-*March 23: During the national confinement period, fees applicable on shared ATM services have been waived.</t>
-  </si>
-  <si>
-    <t>- On 23 March, the Ministry of Public Administration ordered that federal elderly employees, employees with chronic diseases or compromised immune systems, breastfeeding and pregnant women telework during the sanitary emergency. It also allowed for alternate work days for public servants with children less than 12 years old and staggered entry times for federal officials.
-- As Mexico entered into phase 2 of the pandemic, on 24 March, the Federal government intensified its wide-reach campaign on public media and social networks to promote basic measures of hygiene and social distancing, and urging citizens to stay at home. The private sector was invited to suspend non-essential activities and join teleworking. The government of Mexico City and all state governments have taken similar measures.
-- On 28 March, in a nation-wide address broadcasted via YouTube, the President of Mexico addressed the public making an urgent call to stay home and leave only for essential activities, such as buying first necessity products and caring of vulnerable persons. The President also re-affirmed the suspension of the Federal government non-essential work, and encouraged teleworking.  encouraged the private sector to join these efforts. 
-- As a follow up to the above measures, based on the Declaration of Sanitary Emergency issued by the Council for Public Health on 30 March, the Federal government, through the Ministry of Health, ordered the immediate suspension of non-essential activities of the public, private and social sectors. Exempted activities (i.e. essential activities) from the former restrictions include, among others, medical and sanitary services, public security and fundamental activities to keep the economy running. The operation of the government social programs and critical infrastructure for the distribution of first necessity goods and services are also exempted.
-- The aforementioned declaration calls for all persons residing in Mexican territory, including those arriving from abroad thereto, who are not involved in essential activities, to responsibly observe home confinement until 30 April, by voluntarily limiting their mobility, remaining at home the longest possible time. People over 60 years old, those suffering from hypertension, heart or lung disease, or immunocompromised, pregnant or breastfeeding women are instructed to strictly observe home confinement.   
-- On 31 March, the Ministry of the Interior made public the Governability and National Unit Agreement to fight COVID-19, by which the Federal government and the State governments will coordinate to observe the Declaration of Sanitary Emergency (see above). Through this Agreement, States, within their own jurisdictions, will implement the measures put in place by the Federal Health Ministry to face the crisis.</t>
-  </si>
-  <si>
-    <t>- To this day, no travel bans have been adopted by the Mexican government.
-- Some airlines, such as Aeromexico imposed 14-day quarantine to passengers arriving from Europe and China, before being able to fly to the United States. Other airlines recommend passengers arriving from high-contagious-rate countries to voluntary quarantine for a two-week period.
-- Mexico and the United States agreed to restrict non-essential border crosses (including for tourism and shopping purposes) through their common border, in order to keep bilateral trade flow during the sanitary crisis. Besides commercial exchanges, workers authorized to work on both sides of the border, as well as medical and emergency services are exempted from the aforementioned restrictions.
+*March 23: During the national confinement period, fees applicable on shared ATM services have been waived.                                                                                                                                                                                         *April 2: the Stock Exchange of Mauritius (SEM) announced that it remained closed until further notice. The SEM initially suspended trading activities on 20 March.</t>
+  </si>
+  <si>
+    <t>25-Apr-2020 (Last updated: 27-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- On 23 March, the Ministry of Public Administration ordered that vulnerable federal employees: elderly, with chronic diseases or compromised immune systems, breastfeeding and pregnant women go teleworking during the sanitary emergency. It also allowed for alternate work days for public servants with children less than 12 years old and staggered entry times for federal officials.
+- As Mexico entered into phase 2 of the pandemic, on 24 March, the Federal government intensified its wide-reach campaign on public media and social networks to promote basic measures of hygiene and social distance, urging citizens to stay at home. The private sector was invited to suspend non-essential activities and join teleworking. The government of Mexico City and all state governments have taken similar measures.
+- On 28 March, the President of Mexico addressed the public making an urgent call to stay home and leave only for essential activities, such as buying first necessity products and caring of vulnerable persons. The President also re-affirmed the suspension of the Federal government non-essential work and go teleworking, and encouraged the private sector to join these efforts.
+- On 30 march, a Sanitary Emergency was declared by the Council for Public Health and the suspension period of non-essential activities was extended until 30 April. The immediate suspension of non-essential activities of the public, private and social sectors; with exemption of medical and sanitary services, public security and fundamental activities to keep the economy running was ordered. The operation of the government social programs and critical infrastructure for the distribution of first necessity goods and services are also exempted.
+- The aforementioned declaration calls for all persons residing in Mexican territory, including those arriving from abroad thereto, who are not involved in essential activities, to responsibly observe home confinement until 30 April, by voluntarily limiting their mobility, remaining at home the longest possible time. People over 60 years old, those suffering from hypertension, heart or lung disease, or immunocompromised, pregnant or breastfeeding women are instructed to strictly observe home confinement.
+- On 31 March, the Ministry of the Interior made public the Governability and National Unit Agreement to fight COVID-19, by which the Federal government and the State governments will coordinate to observe the measures established by the Sanitary Emergency.
+- On 20 April, The General Health Council (CSG) announced Phase 3 of COVID-19 epidemic, establishing the extension of the National Strategy "Sana Distancia" and the suspension of non-essential activities until 30 May in order to mitigate the spread and transmission of the virus in national territory. Additionally, to attend the growing number of COVID-19 cases in Mexico City and in the State of Mexico, the Ministry of Health has started an infrastructure reconversion plan to add up to 950 beds to the hospitals where these cases are attended.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- As of this date, the Mexican Government has not imposed any restrictions on the entry, transit or exit of foreign persons due to COVID-19 outbreak, nevertheless in addition to regular migratory procedures they will be ask to fill a questionnaire according to the specifications of the Ministry of Health. 
+- Foreigners in migratory stations who are subject to an administrative migration procedure by the Mexican State, will be provided by medical assistance if needed.
+- Some airlines imposed 14-day quarantine to passengers arriving from Europe and China, before being able to fly to the United States. Other airlines recommend passengers arriving from high-contagious-rate countries to voluntary quarantine for a two-week period.
+- Mexico and the United States agreed to restrict non-essential border crosses (including for tourism and shopping purposes) through their common border, in order to keep bilateral trade flow during the sanitary crisis. Besides commercial exchanges, workers authorized to work on both sides of the border, as well as medical and emergency services are excluded from those measures.
 - On 17 March, Guatemala closed its border with Mexico for an initial period of 15 days and Belize limited all border crossing with Mexico on 21 March, except for the freight-transport sector.
-- As of April 7th, the Mexican Government has not imposed any restrictions on the entry, transit or exit of foreign persons due to COVID-19 outbreak, nevertheless migratory authorities will apply in the migration filter, in addition to regular migratory procedures, a questionnaire according to the specifications of the Ministry of Health. Finally, as provided by the Mexican Law, all persons enjoy the Human Rights recognised in the Constitution, thereby foreigners who are housed in migratory stations and who are subject to an administrative migration procedure by the Mexican State will be provided by medical assistance if needed.</t>
+</t>
   </si>
   <si>
     <t>- On 16 March, the Ministry of Public Education ordered the suspension of classes in preschool, primary and secondary schools. 
 - On 17 March, the Autonomous National University of Mexico (UNAM) suspended classes. State and private universities, as well as independent high-education institutions took similar measures before or after that date.
-- The educational contents for students of the levels from pre-school and until high school will be transmitted through the public communication systems. The contents are based on the plans and study programs of the Secretariat of Public Education. A telephone line “Your Teacher online” has been activated for offering mentoring to students of basic education level; same as massive courses online, certifications, teleseminars, and teleconferences aimed to improve teachers´digital abilities.
-- As of 30 March, a program for capacity building online is available to the professors of the National Education System in the website of the Ministry of Education created especially to provide support to teachers during the containment period.</t>
-  </si>
-  <si>
-    <t>- At national level, public events of 100 50 people or more are temporarily cancelled until 19 30 April.  
-- The mayor of Mexico City announced the closure of parks, shopping centers and department stores in the city, restaurants are limited to providing take-out to customers.</t>
-  </si>
-  <si>
-    <t>- On 30 March, the Ministry of Health declared COVID-19 sanitary emergency. New measures implemented include an extension of the suspension period of non-essensial activities until 30 April.
-- Malls and restaurants are temporarily closed in Mexico City and the State of Mexico until 30 April.</t>
+- The educational contents for students of the levels from pre-school and until high school will be transmitted through the public communication systems.
+- A phone number, “Your Teacher online” has been activated for offering mentoring to students of basic education level; same as massive courses online, certifications, teleseminars, and teleconferences aimed to improve teachers' digital abilities.
+- As of 30 March, a program for capacity building online is available to provide support to teachers during the containment period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- At national level, public events of 50 people or more are temporarily cancelled until 30 April.
+- The Mexico City Government announced the closure of parks, shopping centres and department stores in the city. Restaurants are limited to providing take-out to customers.
+</t>
+  </si>
+  <si>
+    <t>- On 30 March, the Ministry of Health declared COVID-19 sanitary emergency. New measures implemented include an extension of the suspension period of non-essential activities until 30 April.
+- Malls and restaurants are temporarily closed in Mexico City and the State of Mexico until 30 April.
+- On 20 April, the General Health Council (CSG) announced Phase 3 of COVID-19 epidemic, establishing the extension of the National Strategy "Sana Distancia" and the suspension of non-essential activities until 30 May in order to mitigate the spread and transmission of the virus in national territory. Additionally, to attend the growing number of COVID-19 cases in Mexico City and in the State of Mexico, the Ministry of Health has started an infrastructure reconversion plan to add up to 950 beds to the hospitals where these cases are attended.</t>
   </si>
   <si>
     <t>- On 24 March, the extraordinary budget was allocated to the Ministry of National Defence (up to MXN 4 billion/USD 160 million) and to the Ministry of the Navy (up to MXN 500 million/USD 20.5 million), to reinforce the Plan DN-III and Plan Marina in response to the COVID emergency.
-- The Health Institute for Wellbeing (Instituto de Salud para el Bienestar) authorized MXN 4.5 billion to buy medical devices, medicine and health equipment.
-- Through the Health and the Wellbeing Institute, States will receive transfers up to MXN 15.3 billion (USD 629 million). In addition, States will have advance funding for MXN 10 billion (USD 411 million).   
+- The Health Institute for Wellbeing (Instituto de Salud para el Bienestar/INSABI) authorized MXN 4.5 billion to buy medical devices, medicine and health equipment.
+- Through INSABI, States will receive transfers up to MXN 15.3 billion (USD 629 million). In addition, States will have advance funding for MXN 10 billion (USD 411 million).   
 - Various States have been taken fiscal measures such as deferral of tax payments, discounts in payroll taxes and property taxes, or reduction in special taxes like vehicular ownership, etc. as well as postponements of tax inspection.</t>
   </si>
   <si>
-    <t xml:space="preserve">- On 24 March, the Federal Government announced a hospital conversion to better coordinate and integrate available space in hospitals and other infrastructures to treat patients with COVID-19. This will include the use of the military health system, as well as the Plan DN-III and Plan Marina for catastrophic events. 
-- The estimated human resources for the three stages of hospital conversion are the following:
-First stage: 1 025 available beds, 4 337 nurses and 1 811 doctors. 
-Second stage: the number of available beds that can adapt a ventilator is 5 059, with 18 873 nurses and 6 845 doctors. 
-Third stage: the number of extra beds available is 2 342, with additional 9 908 nurses and 3 982 doctors. 
-- On April 1, the Ministry of Health announced the launch of the app called “COVID-19MX”, that seeks to reinforce knowledge and promote health on the matter of COVID-19, as well as to facilitate exchange of information between health officials and citizens. The app gathers data on the health status of its users and determines whether they belong to risk groups. Additionally, users can use this app for self-diagnosis purposes.
-</t>
-  </si>
-  <si>
-    <t>- The elderly will receive, in advance, two bimonthly payments of their universal pension. 
+    <t>- On 24 March, the Federal Government announced a hospital conversion to better coordinate and integrate available space in hospitals and other infrastructures to take care of COVID-19 patients. These measures include the use of the military health system, as well as the infrastructure for natural disasters or other catastrophic events (Plan DN-III and Plan Marina). 
+- The resources available for the three stages of hospital conversion are:
+• First stage: 1,025 extra beds, 4,337 nurses and 1,811 doctors.
+• Second stage:  5,059 extra beds with adapted ventilators, 18,873 nurses and 6,845 doctors.
+• Third stage: 2,342 extra beds, 9,908 nurses and 3,982 doctors. 
+- Government launched a call to recruit 43,000 additional health personnel, including nurses, doctors and specialists, to support the response to the health crisis, including in marginalised areas.
+- On 30 March, the National Health Emergency Agreement (Acuerdo de Emergencia Sanitaria) was published. It includes the role of different government Secretaries to assure the availability of tests, equipment and medicines to deal with the crisis. 
+- On 1 April, the Ministry of Health launched the app “COVID-19MX”, which seeks to reinforce knowledge, to promote measures of prevention on COVID-19 and to facilitate exchange of information between health officials and citizens. The app also gathers health data from users to determine their risk levels and enables them to self-diagnose.
+- On 7 April, Mexico established an air bridge with China that will consist of 30 flights to buy medical equipment. On the first five flights, Mexico has already purchased 600,000 goggles, 1,180,000 masks (KN95), 5,680,000 surgical masks (ear hanging type), 484,000 surgical masks (YB.WKZ.X3), 370,000 medical face shields and 10.1 tons of gloves and masks.
+- On 13 April, the Government of Mexico signed an agreement with 146 private hospitals from 27 States, whose 50% of its beds could be used by the Federal Government to take care of patients not affected by COVID-19 in order to reduce pressure to the public hospitals, which could concentrate up to 12,500 patients with the coronavirus.</t>
+  </si>
+  <si>
+    <t>- The elderly and the disabled will receive, in advance, two bimonthly payments of their universal pension. 
 - The National Banking and Securities Commission (CNBV) issued provisions to support financial costumers. These measures consist of partial or total deferral of capital and/or interest payments for up to 4 months, with possibility to extend this period for two additional months. Balances could be frozen if the credit was considered a performing loan as of 28 February 2020. This measure will apply to consumption, housing and commercial loans.
 - The National Institute for Workers' Housing (INFONAVIT) will cover up to 3 months of credit payments for workers who become unemployed. This extension will continue up to 6 months without additional charges.
 - Some states have put in place financial support to self-employed, rural workers (corn producers), family businesses and vulnerable groups (women, indigenous people).</t>
   </si>
   <si>
+    <t xml:space="preserve">- Fiscal credits to hydrocarbons assignees that will have reductions in their productions value, up to USD 2.6 billion. The measure applies also for those that realise monthly interim payments. These provisions will not be applicable if there is a favourable balance in the shared profit in the tax declaration of provisional payment. The provisions apply to the 2020 fiscal year.
+</t>
+  </si>
+  <si>
     <t>- Some States are taking different actions to support SMEs in the formal and informal sectors: Discounts on payroll taxes for SME’s and credit lines for payment of payrolls or supply merchandise for SMEs, among others</t>
   </si>
   <si>
-    <t>- The Federal Government, through the development bank Nacional Financiera (Nafin), will support SMEs up to MXN 36.3 billion (USD 1 billion). Out of one million credit products of MXN 25 000 each (USD 1 000); 500 000 of them will be provided to the formal economy and 500 000 loans will be extended to the informal economy. The loans will be settled over a period of 3 years, with no payment in the first three months and further monthly payments of MXN 1 000 (USD 42), at an average rate of 6.5% per year. The Government will further boost the economy by providing new financing of at least MXN 24.8 billion via other development banks. 
+    <t>- On 22 April, the Mexican Tax Administration extended the deadline to file the tax declaration of individual persons from 30 April to 30 June, 2020.</t>
+  </si>
+  <si>
+    <t>- The Federal Government, through the development bank Nacional Financiera (Nafin), will support SMEs up to MXN 36.3 billion (USD 1.4 billion). Out of one million credit products of MXN 25 000 each (USD 1 000); 500 000 of them will be provided to the formal economy and 500 000 loans will be extended to the informal economy. The loans will be settled over a period of 3 years, with no payment in the first three months and further monthly payments of MXN 1 000 (USD 42), at an average rate of 6.5% per year. The Government will further boost the economy by providing new financing of at least MXN 24.8 billion via other development banks. 
 - In some states, many credits will be settled over a period of 2 years, with no payment during the first three or four months and low interest rates.</t>
   </si>
   <si>
-    <t xml:space="preserve">- On 20 March, Banco de México decided to bring forward its scheduled March monetary policy decision and lowered the overnight interbank interest rate target by 50 basis points to 6.5%.
-- In collaboration with Ministry of Finance, Banco de México is strengthening the Market Makers Program for government securities. Banco de México, acting as the Federal Government’s financial agent, will 1) allow market makers to unwind their short positions in Banco de México’s government securities lending facility with other government securities available in the market and 2) extend by one day the exercise period of the green-shoe option. 
-- Banco de México and the US Federal Reserve established a temporary US dollar swap line of USD 60 billion on 19 March. This swap line will fund US dollar auctions carried out by Banco de México among credit institutions to increase the availability of USD funding for the private sector.
+    <t xml:space="preserve">- On 20 March, Mexico's central bank cut its policy rate by 50 bp to 6.5%, then on 21 April, for the second time since the outbreak, Banco de México lowered its policy rate by an additional 50 bp to 6%.
+- In collaboration with Ministry of Finance, Banco de México is strengthening the Market Makers Program for government securities with the following measures: 1) allow market makers to unwind their short positions in Banco de México’s government securities lending facility with other government securities available in the market and 2) extend by one day the exercise period of the green-shoe option. 
+- Banco de México and the FED established a temporary US dollar swap line of USD 60 billion on 19 March. This swap will fund US dollar auctions carried out by Banco de México among credit institutions to increase the availability of USD funding for the private sector.
 - As a response to worsening market conditions in the Mexican peso, the Foreign Exchange Commission announced on 9 March a USD 10 billion increase in the total amount available of the Non-Deliverable Forward (NDF) program, from USD 20 billion to USD 30 billion.
 - Banco de México reduced by MXN 50 billion the amount of the Monetary Regulation Deposit (DRM) to support active transactions of commercial and development banks, thus improving their liquidity and their capacity to grant credits and to maintain or expand their credit lines.
-- To strengthen commercial banks’ financing alternatives and to ensure the necessary liquidity to perform their operations adequately, Banco de México adjusted the Ordinary Additional Liquidity Facility interest rate from a factor of 2-2.2 to 1.1 times Banco de México’s target for the overnight interbank interest rate. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- The National Banking and Securities Commission (CNBV) published temporary accounting criteria for banks, credit unions and institutions related to popular finance so as to facilitate the maintenance of credit lines. 
-- In addition, CNBV issued a recommendation letter to banks to avoid share-buybacks or any other compensation measure for shareholders, coupled with dividend distribution restriction for 2019 and 2020 tax years. The recommendation aims to redirect resources and strengthen the institutions to be able to support the economy.
+- To strengthen commercial banks’ financing alternatives and to ensure the necessary liquidity to perform their operations adequately, Banco de México adjusted the Ordinary Additional Liquidity Facility interest rate from a factor of 2-2.2 to 1.1 times the policy rate.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">- The National Commission of Banking and Securities (CNBV) published temporary accounting criteria for banks, credit unions and institutions related to popular finance so as to facilitate the maintenance of credit lines.
+- In addition, CNBV issued a recommendation letter to banks to avoid share-buybacks or any other compensation measure for shareholders, coupled with dividend distribution restriction for 2019 and 2020 fiscal years. The recommendation aims to redirect resources and strengthen the institutions to be able to support the economy.
+- On 21 April, Banco de México approved ten additional measures to provide MXN liquidity to improve the functioning of domestic markets, strengthen the economy's credit channels, and foster an orderly functioning of the debt and foreign exchange markets in Mexico:
+1. Increasing liquidity during trading hours to facilitate the optimal functioning of financial markets and payment systems. This excess liquidity is sterilised daily.
+2. Extending eligible securities for the Ordinary Additional Liquidity Facility (FLAO), foreign Exchange hedging programme operations, and USD credit operations. 
+3. Extending access to FLAO to development banks for them to obtain liquidity through collateralised credits or repos, with the cost of 1.1 times the policy rate.
+4. Government securities term repurchase window. Open a facility to repurchase government securities at longer terms than those of regular open market operations.
+5. Temporary securities swap window. Under this facility, eligible institutions may deliver debt securities to Banco de México in exchange for government securities.
+6. Corporate Securities Repurchase Facility (FRTC) through credit institutions to provide liquidity to short-term corporate securities and long-term corporate debt that have observed lower liquidity and impaired trading conditions in the secondary market.
+7. Open a financing facility for commercial and development banks up to MXN250bn to allow them to channel resources to MSMEs and individuals affected by the COVID-19 pandemic.
+8. Open a financing facility up to MXN 100 bn for commercial banks, using as collateral credits to corporates that issue public debt, so that this financing can be channelled to MSMEs.
+9. Swap of LT government securities (10 years and longer) for others with maturities up to 3 years.
+10. Foreign exchange hedges extend to entities domiciled abroad to operate during the hours when Mexican markets are closed but when the currency still trades given it has 24/7 liquidity.
+</t>
+  </si>
+  <si>
     <t>MNE</t>
   </si>
   <si>
-    <t>* The government mandated closures catering businesses, leisure activities, non-essential shops and cultural establishments. 
-*March, 30: the National Coordination Body for Infectious Diseases announced a curfew from 19h to 5h, while on the weekends, it extends from Saturday at 13h to Monday at 5h00.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* The government decided to ban all entry to foreign citizens except those with permanent or temporary residence in Montenegro. Montenegrin citizens also face travel restrictions to several countries with a strong prevalence of COVID-19. Self-isolation is compulsory for all travellers coming from abroad.                                                                                                                                                         *April, 1: The government in Montenegro extended its ban on entry for foreign nationals until April 15. </t>
-  </si>
-  <si>
-    <t>* Schools closure
-*April, 1: The government in Montenegro extended the decision to close schools, cafes, restaurants, shopping malls, sports centres and most stores (until April 15).</t>
+    <t xml:space="preserve">* The government mandated closures catering businesses, leisure activities, non-essential shops and cultural establishments. 
+* March 30: the National Coordination Body for Infectious Diseases announced a curfew from 19h to 5h, while on the weekends, it extends from Saturday at 13h to Monday at 5h00.
+* April 15: The National Coordination Body for Communicable Diseases agreed to extend the application of several temporary measures adopted in last month, including: prohibition for foreigners to enter the country, compulsory self-isolation for all Montenegrin nationals, as well as for foreigners who have permanent or temporary residence in Montenegro, ban on providing catering services, closure of catering facilities. The curfew is maintained. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The government decided to ban all entry to foreign citizens except those with permanent or temporary residence in Montenegro. Montenegrin citizens also face travel restrictions to several countries with a strong prevalence of COVID-19. Self-isolation is compulsory for all travellers coming from abroad.
+* April 1: The government in Montenegro extended its ban on entry for foreign nationals until April 15. 
+</t>
+  </si>
+  <si>
+    <t>* Schools closure.
+* The government developed the #UciDoma (learn from home) initiative to provide students with distance learning and online courses due to school closures related to the COVID-19 crisis. The initiative provides students distance learning materials via a number of mediums, including over 300 online courses and televised lessons in a number of subjects on three national TV channels. All courses will also be made available on a dedicated YouTube channel.</t>
   </si>
   <si>
     <t>* Public transportation suspended.
-*March, 30: Authorities banned outdoor sporting activities. Children under the age of 12 can only be outside with their parents.</t>
-  </si>
-  <si>
-    <t>* Payment of lease of state-owned real estate is postponed for a period of 90 days
-* Restrictions and controls of budget spending have been introduced as appropriate, with the prohibition of initiating all public procurement except those necessary for the functioning of the health system.
-* Advance payments have been made to service providers and contractors on started capital projects with the provision of a bank guarantee in the value of advance payment to ensure their liquidity and maintain continuity of works, where this does not endanger the health of citizens.</t>
-  </si>
-  <si>
-    <t>* The government allocates an overall sum of EUR 1 million to support pensioners with the lowest pensions and beneficiaries of material assistance, payments would amount to EUR 50 per person
-* Postponement of payment of taxes and contributions on personal earnings have been introduced.</t>
-  </si>
-  <si>
-    <t>* March, 19: The Government announced the creation of a new investment and development fund credit line intended to improve the liquidity of entrepreneurs, SMEs and large enterprises up to a maximum amount of EUR 3 million per beneficiary with an interest rate of 1.5%.</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>*March 20: Morocco entered a “Health State of Emergency,” which will remain until April 20. During this period, movement during the day should be restricted to buying essential supplies or seeking medical assistance, including from pharmacies. Movement to and from work is permitted only with written permission from the Moroccan authorities. Non-essential public spaces, including cafés, restaurants, movie theatres, concert halls, sports clubs, and public baths are closed. However, markets and shops selling necessity goods, as well as restaurants with delivery services, remain open. A curfew has also been put into place. During the 6 p.m. to 6 a.m. curfew, movement restrictions will be strictly enforced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*March 13: The suspension of all air, sea, and land links with some European countries, as well as with Algeria. 
-*March 15: All international commercial flights were banned “until further notice” and closure of the only land border between Africa and the European Union at Ceuta and Melilla.
-*March 20: Train and intra-city bus service has been suspended.
-</t>
-  </si>
-  <si>
-    <t>*March 16: The closure of all schools and universities and the launch of a Remote Learning Programme.</t>
-  </si>
-  <si>
-    <t>*March 16: The Government announced the cancellation and prohibition of gatherings exceeding 50 people, including mosque prayer times and football matches.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*March 27: The Head of Government, Saad Dine El Otmani, declared that the health authorities are making efforts to counter the effects of the coronavirus, through the strengthening of the intensive care units (estimated at 1,640 beds). This number should reach about 3.000 beds in the coming weeks along with the acquisition of a number of artificial respiratory devices.
-</t>
-  </si>
-  <si>
-    <t>*March 16: The creation of a Covid-19 fund of MAD 10bn ($1bn) targeted at improving health infrastructure, as well as supporting vulnerable economic sectors. 
-*March 28: The fund and donations addressed to the Covid-19 Fund exceeded MAD 32.7 billion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*March 19: Employees who are affiliated to the National Social Security Fund (CNSS) will benefit from a monthly fixed allowance of MAD 2,000 net, family allowances and compulsory health insurance benefits (AMO) - this will be provided by the Special Fund for the Coronavirus Pandemic Management. These salaried employees will also benefit from the postponement of payment of the maturities of bank credits, namely consumer credit and purchaser credit, until next June 30. 
-*April 3: To support informal sector workers, the government is providing between $80 and $120 per month to families in need. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*March 19: SMEs and liberal professions in difficulty will benefit from a suspension of payment of social contributions until June 30. They will also benefit from a moratorium for the repayment of the maturities of banking credits and leasings until June 30 without payment of fees or penalties and the activation of an additional operating credit line granted by the banks and guaranteed by the Caisse centrale de garantie (CCG). 
-*Companies with an annual turnover in 2019 of less than MAD 20 million can, if they wish, benefit from a deferral of filing of tax declarations until at the end of June with a suspension of tax audits until June 30.
-</t>
-  </si>
-  <si>
-    <t>*March 17: The Bank al-Maghrib (BAM) decided to cut key policy rates by 25 bps to 2.0% at its first meeting of 2020. 
-*April 7: The Moroccan authorities drew on all available resources (about US$ 3 billion or 240% of quota and about 3 percent of GDP) under the Precautionary and Liquidity Line (PLL) arrangement with the IMF.</t>
-  </si>
-  <si>
-    <t>On 23 March, the Dutch government announced economy-wide measures including:  
-- Ban of all social events until 28 April, excluding gatherings like funerals and weddings
-- Mayors receive powers to close areas where people gather in larger groups, such as parks and beaches
-Exemption from restrictions are:
-- Travelling to and from work, but only where this is absolutely necessary and the work cannot be done from home
-- Shopping for basic necessities 
-- A daily exercise alone, including running, walking, or cycling</t>
+* March 30: Authorities banned outdoor sporting activities. Children under the age of 12 can only be outside with their parents.</t>
+  </si>
+  <si>
+    <t>* Creation of a new Investment and Development Fund of Montenegro credit line designed to improve the liquidity of self-employees, micro, small, medium and large companies up to a maximum amount of 3 million EUR per user. Procedures are simplifeid, there is no approval fee and the interest rate amounts only to 1.5%.
+* Deferral of loan repayment at the request of the individual or business with all banks, micro-credit institutions and the Investment and Development Fund of Montenegro for a period of 90 days.</t>
+  </si>
+  <si>
+    <t>* One-off financial support in the amount of EUR 50 to beneficiaries of material assistance and beneficiaries of pension and disability insurance who receive the minimum pension.
+* During the shut-down of schools and kindergartens, one parent of a child not older than 11 years of age is entitled to a paid leave from work, with the exception of healthcare employees, and employees in certain state institutions
+* Sick leave was allowed to be extended to 30 April 2020 by GPs (normally, a committee is required for this long extension).</t>
+  </si>
+  <si>
+    <t>* Deferral of the payment of personal income tax and social security contributions as well as other tax liability (free of interest charge or any other sanctions for late payment).</t>
+  </si>
+  <si>
+    <t>On 23 March, the Dutch government announced economy-wide shutdown. Exemption from restrictions are 1) travelling to and from work, but only where this is absolutely necessary and the work cannot be done from home, 2) shopping for basic necessities, and 3) a daily exercise alone, including running, walking, or cycling.</t>
   </si>
   <si>
     <t>EU-wide temporary restriction on non-essential travel to the EU from 16 March until at least 15 May. Health screenings on arrivals at Dutch airports. Air France-KLM announced grounding of up to 90% of its planes through April and May. </t>
   </si>
   <si>
-    <t>Schools remain closed from 16 March until 3 May. Universities were closed on 13 March. Free childcare is available for parents who work in ‘vital sectors’ such as e.g. healthcare (see list of professions: https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/cruciale-beroepsgroepen). </t>
-  </si>
-  <si>
-    <t>Ban of all public events that require permits from March 23 until at least June 1. All other gatherings are also banned with an exception in place for events that are required by law (such as the running of parliament), essential get-together to ensure the continuity of a firm (both of max 100 people), funerals and wedding ceremonies (max 30 people) and religious get-togethers (max 30 people). Bars, restaurants, sport clubs and coffee shops are closed until 28 April. Supermarkets remain open.</t>
-  </si>
-  <si>
-    <t>Bars, restaurants, sport clubs and coffee shops are closed until 28 April. Supermarkets remain open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall: According to Finance Minister Wopke Hoekstra the budget surplus gives room for additional public spending of up to EUR 90 billion (or 11.6% of GDP). Measures announced so far are estimated to cost EUR 15.6bn, or 2% of GDP; </t>
+    <t xml:space="preserve">- Schools remain closed from 16 March until 3 May. Universities were closed on 13 March. Free childcare is available for parents who work in ‘vital sectors’ such as e.g. healthcare (see list of professions: https://www.rijksoverheid.nl/onderwerpen/coronavirus-covid-19/cruciale-beroepsgroepen). 
+- Primary schools and childcare day centres will reopen on 11 May (21 April). </t>
+  </si>
+  <si>
+    <t>- Ban of all public events that require permits from March 23 until at least June 1. All other gatherings are also banned with an exception in place for events that are required by law (such as the running of parliament), essential get-together to ensure the continuity of a firm (both of max 100 people), funerals and wedding ceremonies (max 30 people) and religious get-togethers (max 30 people). Bars, restaurants, sport clubs and coffee shops are closed until 28 April. Supermarkets remain open.
+- All public events remain cancelled unto 1 September. This is an extension from the previous date of 1 June (22 April).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bars, restaurants, sport clubs and coffee shops are closed until 28 April. Supermarkets remain open (23 March).
+- Hospitality businesses will remain closed at least until 20 May. On that day, the cabinet will once again decide on keeping in place or lifting the various measures (22 April). </t>
+  </si>
+  <si>
+    <t>Overall: According to Finance Minister Wopke Hoekstra the budget surplus gives room for additional public spending of up to EUR 90 billion (or 11.6% of GDP). Measures announced so far are estimated to cost EUR 20 billion (or 2.5% of GDP) (27 April).</t>
   </si>
   <si>
     <t>925 Intensive care beds are available in a normal situation. This number has been increased to 2400, of which 1900 are planned for Covid-19 patients.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Temporary compensation of wage costs, up to 90% of wage bill, conditional on at least 20% fall in turnover in the months March to May compared to 2019 (EUR 10bn). 
+    <t xml:space="preserve">- Temporary Emergency Bridging Measure for Sustained Employment (NOW): Temporary compensation of wage costs, up to 90% of wage bill, conditional on at least 20% fall in turnover in the months March to May compared to 2019 (EUR 10bn). 
 - In addiiton to the wage scheme, the government will cover 30% of pension contributions and the employers' premium (1 April)
 - Self-employed and independent entrepreneurs without staff can receive social assistance benefits for theree months through an accelerated procedure, where asset tests and tests on partner income are skipped. Loans at reduced interest rates are available under the same scheme (EUR 2bn).
-- Self-employed (without employees) hit by the corona crisis are to receive monthly 1,050 'euros over the next three months, irrespective of their savings. For married couples or couples with children a maximum of EUR 1,500 a month will apply (30 March). 
+- Temporary bridging measure for self-employed professionals (Tozo): Self-employed (without employees) hit by the corona crisis are to receive monthly 1,050 'euros over the next three months, irrespective of their savings. For married couples or couples with children a maximum of EUR 1,500 a month will apply (30 March). 
 - Ban on forced home sales of homeowners who are temporarily unable to meet their mortgage obligations due to the corona crisis until 1 July (7 April). Automatic extension of temporary rent contracts until the end of June (8 April)
 - Childcare Compensation for parents who continue paying for childcare during the lockdown (EUR 175 Million) (8 April)
+- Parents’ Childcare Contribution will be reimbursed in the period from 16 March to 28 April at a cost to the budget of EUR 175 million (21 April).
+Funding  goes mostly to the (NOW) and to help businesses (TOGS) and self-employed without staff or ZZPs (TOZO). 
 </t>
   </si>
   <si>
-    <t>-  Firms that needed to close due to the coronavurus can receive a one-off lump sum allowance of EUR 4000 (TOGS scheme) (30 March). In a first instance, this included firms in the hospitality sector, hairdressers and the travel industry. On 31 March, the emergency desk was extended to retailers. On 9 April, it was further extended to include tattoo shops, taxi companies, dentists, physiotherapists, and suppliers of the hospitality industry or events.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tax collection of VAT, income, corporate, wage and turnover taxes will be halted immediately upon application to defer tax payments from companies. The estimated size of this support is between EUR 45-60 bn (5.8%-8.4%) of GDP in 2020. Companies get more time to provide documentation. The interest rate on tax debts is reduced from 4% to close to 0%. On April 6, the tax holiday was extended to excise duties, environmental tax, and gambling and insurance tax (at least until 19 June) </t>
-  </si>
-  <si>
-    <t>Interest rates are also lowered for a publicly backed microcredit scheme (Qredits).
+    <t>- Firms that needed to close due to the coronavurus can receive a one-off lump sum allowance of EUR 4000 (TOGS scheme) (30 March). In a first instance, this included firms in the hospitality sector, hairdressers and the travel industry. On 31 March, the emergency desk was extended to retailers. On 9 April, it was further extended to include tattoo shops, taxi companies, dentists, physiotherapists, and suppliers of the hospitality industry or events.
+- EUR 650 million support package for agricultural and horticultural businesses and EUR 300 million grants for the culture sector, including museums and theatres (17 April)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tax collection of VAT, income, corporate, wage and turnover taxes will be halted immediately upon application to defer tax payments from companies. The estimated size of this support is between EUR 45-60 bn (5.6%-7.4%) of GDP in 2020. Companies get more time to provide documentation. The interest rate on tax debts is reduced from 4% to close to 0%. On April 6, the tax holiday was extended to excise duties, environmental tax, and gambling and insurance tax (at least until 19 June). On 16 April, the government announced that tax deferrals can be extended by another three months if companies can demonstrate that their sales are hit by the corona crisis.  
+- VAT payments in the medical sector are temporarily exempted from VAT payments. VAT on online sports lessons is reduced from 21 to 9 percent (16 April).
+</t>
+  </si>
+  <si>
+    <t>- Interest rates are also lowered for a publicly backed microcredit scheme (Qredits).
 - Separate credit option for start-ups and scale-ups, who can apply as Regional Development Companies (EUR 100 million) (9 April)</t>
   </si>
   <si>
@@ -3658,10 +3873,14 @@
 - The government increased export credit insurance for firms through the credit insurer Atradius. The share of the working capital that companies need for their export production was raised from 80 to 95 percent (30 March)</t>
   </si>
   <si>
-    <t xml:space="preserve">Macroprudential regulation: De Nederlandsche Bank (DNB) reduced systemic buffers from the current 3% of global risk-weighted exposures to 2.5% for ING, 2% for Rabobank and 1.5% for ABN Amro. In addition, the planned introduction of a risk weight floor for mortgage loans has been postponed.
-It is expressly intended that this released capital is used to support lending, as opposed to paying dividends or buying back own shares.
-When the situation has normalized again, DNB will compensate for the reduction of the systemic buffers by gradually building up the countercyclical capital buffer to a level of 2% of the Dutch risk-weighted exposures. 
+    <t xml:space="preserve">Macroprudential regulation: 
+- De Nederlandsche Bank (DNB) reduced systemic buffers from the current 3% of global risk-weighted exposures to 2.5% for ING, 2% for Rabobank and 1.5% for ABN Amro. In addition, the planned introduction of a risk weight floor for mortgage loans has been postponed.
+- It is expressly intended that this released capital is used to support lending, as opposed to paying dividends or buying back own shares.
+- When the situation has normalized again, DNB will compensate for the reduction of the systemic buffers by gradually building up the countercyclical capital buffer to a level of 2% of the Dutch risk-weighted exposures. 
 </t>
+  </si>
+  <si>
+    <t>- The Insolvency Mediation Foundation (SIM) is a new instrument to support courts to promote mediation as a means of solving disputes in bankruptcies and support corporate restructuring. It will be operative from 1 May (21 April).</t>
   </si>
   <si>
     <t xml:space="preserve">- The banking sector has responded by giving an aoutomatic 6-month payment holiday (interest and amortisation) for all business loans of less than 2.5 million euros. On 30 March, the bank ABN Amro raised the ceiling to EUR 50 million to extend the loan repayment pause to bigger enterprises. </t>
@@ -3779,40 +3998,19 @@
     <t xml:space="preserve">*The Central Bank of Nigeria (CBN) has created a 50 billion naira ($136 million) targeted credit facility for households and small and medium size enterprises (Credit). </t>
   </si>
   <si>
-    <t>MKD</t>
-  </si>
-  <si>
-    <t>* The President Stevo Pendarovski declared a "State of emergency" of 30 days. 
-* The government launched new restrictions: persons older than 65 can go out between 5h00 and 11h and young people under 18 between 12h00 and 21h. 
-*April 3, the government has launched a new specialised web page (koronavirus.gov.mk), that offers comprehensive guidelines, an overview of the number of infections, and the measures the country is taking to stop the spread of the pandemic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* The General elections planned for April 12, are postponed. No new date has yet been set. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*April, 3: A field hospital is being erected by the army adjacent to the Skopje Infectious Diseases Clinic and equipped to receive some 130 patients early next week. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 19 : The government imposed a ban on exports of wheat and flour, in order to provide sufficient quantities of flour in the country amid growing market demand for these products and set up highest prices of certain products of first necessity in the wholesale and retail trade (including: bread, salt, sugar, oil, milk and dairy products, eggs, flour, meat, pasta, medicines, personal protective equipment, personal hygiene products and disinfectants). </t>
-  </si>
-  <si>
-    <t>* The government launched a support program for companies in the payment of salaries by subsidising contributions to employees of companies in the sectors of tourism, transport, catering and other affected companies, for the months of April, May and June, with a subsidy on contributions to an employee up to 50% of the average salary paid in 2019, provided if the company does not reduce the number of employees below the number of employees in February 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 16: The National Bank Operational Monetary Policy Committee (OMPC) decided to cut the policy rate by 0.25 percentage points to 1.75%. 
-* March, 20: Additional measures were taken by OMPC, mainly promoting more favourable credit standards for the companies affected of the COVID-19 crisis and easing the standards for household and corporate loans restructuring. Loans are interest-free. </t>
-  </si>
-  <si>
     <t>Confinement measures were mainly estabilshed in a package of emergency measures announced 12 March. National self-isolation and quarantine rules apply. Breaches of quarantine or self-isolation rules are subject to fines. There is overall strong public health advice on social distancing, promotion of teleworking and similar.</t>
   </si>
   <si>
     <t>Measures (largely announced in the package of emergency measures on 12 March) have included, restrictions on stays outside resident municipality, and border control measures on incoming foreigners. The restrictions for incoming EEA citizens were lightened on 9 April.</t>
   </si>
   <si>
-    <t xml:space="preserve">Schools and universities closed from 13 March </t>
+    <t xml:space="preserve">Schools and universities were closed 13 March. As part of an initial package of derestictions (announced 8 April), has seen reopening of daycare centres between the 20th and 27th April and reopening of primary schools and out-of-school programmes 27th April. </t>
   </si>
   <si>
     <t xml:space="preserve">Curtailment of public events/gatherings. </t>
+  </si>
+  <si>
+    <t>As part of an initial package of derestictions (announced 8 April), as of 20th April health services where there is one-to-one contact, such as psychologists and physiotherapists, resumed more normal operations. Similarly non-health hervices where there is one-to-one contact, such as hairdressers and skin care professionals, will have been able  to re-open since 27th April.</t>
   </si>
   <si>
     <t xml:space="preserve">3 April: government announces a further package of measures. This includes extension of the guarantee scheme for bank loans to companies with more than 250 employees, temporary discretion on whether laid off employees can continue as members of pension schemes and additional support (comparatively small-scale fiscally) for a wide range of groups and sectors, including: students, apprentices, kindergartens, immigrants, brewery industry, fuel industry, horse racing, and reindeer herding.
@@ -3847,7 +4045,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">-        A financial support scheme has been announced (27 March) that will cover a portion of the fixed cost for companies facing a large turnover decrease related to Covid-19, the scheme is expected payout between NOK 10 and 20 billion per month and is initially slated to run for two months.
+    <t xml:space="preserve">-        A financial support scheme has been announced (27 March) that will cover a portion of the fixed cost for companies facing a large turnover decrease related to Covid-19, the scheme is expected payout between NOK 10 and 20 billion per month and is initially slated to run for two months. The scheme opened for appications on April 18. 
 -       The various support for the air travel sector includes purchase of domestic air routes where there is no basis for commercial operations.
 -    A range of support has been announced for innovative and research-oriented businesses (mainly announced in 27 March package) This includes: grants for young growth companies, innovation loans, interest-payment support, grants for private innovation groups, business-oriented research support, captial for funding and matching investments.
 -     A special support programme for culture, sport and voluntary sectors has been announced (quoted value, NOK 900 million)
@@ -3855,7 +4053,7 @@
 </t>
   </si>
   <si>
-    <t>. Deferral of income tax and VAT payments
+    <t>. Deferral of income tax and VAT payments (furher extensions were announced 16 April)
 -    The various support for the air travel sector incldues suspension of the tax on air passengers for flights until 31 October 2020    Suspension of payments of aviation charges until 31 June 2020.AN6</t>
   </si>
   <si>
@@ -3924,7 +4122,8 @@
 </t>
   </si>
   <si>
-    <t>* March 31 : National Assemby approves draft legislation n. 295 for the temporal suspension of the payments of energy, internet, and fixed and mobile telephone bills for four months without interests for own-account workers, owners of bars, restaurants and other small businesses affected by the coronavirus crisis.</t>
+    <t>* March 31 : National Assemby approves draft legislation n. 295 for the temporal suspension of the payments of energy, internet, and fixed and mobile telephone bills for four months without interests for own-account workers, owners of bars, restaurants and other small businesses affected by the coronavirus crisis.
+* April 8: Suspension of the payment of rents in the Colon Free Zone for the months of April, May and June 2020. The measure will not apply to those firms showing exporting activities.</t>
   </si>
   <si>
     <t>* March 13: Authorisation for the Ministry of Finance to request a temporal suspension of the financial limits over social fiscal responsibility established by law 34 of 2008, modified by law 102 of 2019, before the National Assembly, if necessary. 
@@ -3983,49 +4182,7 @@
 * March, 30: Creation of a liquidity window for entities for a term of up to 12 months, for a value equivalent to USD 760 million.</t>
   </si>
   <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>* March 15: the government declared the "state of emergency" and issued an order to stay at thome, with all non-essential businesses closed. While initially lasting for 15 days, it was extender until the 12th of April.
-* April 8: extension of the "state of emergency" until the 26th of April</t>
-  </si>
-  <si>
-    <t>* March 15: The decree of national emergency involves the closing of national borders, restrictions to interprovincial movement, and daily curfews from 6pm to 5 am.</t>
-  </si>
-  <si>
-    <t>* March 15: all schools closed following the decree of national emergency, until further notice</t>
-  </si>
-  <si>
-    <t>* March 15: all public events and public places closed following the decree of national emergency, until further notice</t>
-  </si>
-  <si>
-    <t>* March 22: approval of around $260 million package for health-related measures, including the support for health services, desinfection efforts in transport and educational sector, and the suspension of tariffs for imports of medicines
-* April 4: transfer of PEN 720 (around $215) to workers in the medical sector supporting the emergency</t>
-  </si>
-  <si>
-    <t>*March 28: The government announced an overall package of around PEN 90,000mn (around $26 billion), equivalent to 12% of GDP, including two main areas of intervention: 1) contain the impact of the shock, supporting the most vulnerable and protecting payment chains worth 8% of GDP (including  the joint action with the BCRP to guarantee loans to SMEs, worth 4% of GDP); 2) a second phase aimed at supporting the recovery after the shock.                                     * Temporary suspension of the fiscal rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 28: PEN 380 bonus (around $ 110) to support around 3 million vulnerable families  
-* Advance payments in the Contigo and Pension 65 pension programmes, which benefit people with severe disabilities and those over 65 in situations of poverty.
-* PEN 380 bonus (around $ 110) to support independent workers, reaching around 800,000 vulnerable households                                                                                                                                                                        * In-kind support: a package worth PEN 200 million (around $60 million) of transfers to municipalities to support most vulnerable locals with basic products                                                                                   
-* Right to withdraw individual savings from the CTS  up to a level of PEN 2400 (around $700). 
-* Suspension of the 10% social security contribution to AFP (private administrators of pension funds). The government is granting flexibility to households in the repayment of tax liabilities
-* Right to withdraw up to PEN 2000 (around $590) from invidivual accounts in AFP (private administrators of pension funds) for individuals who haven't contributed in the last 6 months * Workers affected by the temporary suspension with no compensation will have the right to access their CTS by up to a level equivalent to their gross monthly remuneration for each month of suspension  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*March 24: The government has approved a three-month extension for the income tax declaration for SMEs and is granting flexibility to enterprises in the repayment of tax liabilities. *March 28: Creation of the "Fondo de Ayuda Empresarial" to support SMEs to secure working capital and/or refinance debts, worth PEN 300 million ($ 87 million)
-* 90% expansion of Fondo Crecer to allow SMEs to access capital: measures have been taken to speed up the expansion of the Crecer Fund, which has $ 225 million allocated to allow SMEs to access capital;
-* Support with the payment of 35% of payrolls of workers earning up to PEN 1500 a month.
-* Approval of the Plan Reactívate Peru, to support access to credit for SMEs with guarantees up to PEN 30000 mn. (around $9000mn) to access credit to sustain the payments chains and payrolls. Liquidity will be injected through the Central Bank to commercial banks, and credits will be guaranteed by the State.                                                                                                                  * Possibility for firms that cannot implement teleworking modalities or are in a particularly tough situation to suspend employment temporarily, for a maximum period of 90 days, without breaking the contract and without having to pay compensations to workers
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March 19: The central bank (BCRP) has cut the policy rate by 100 basis points, from 2.25 to 1.25 percent. BCRP has provided liquidity to the financial system through repo operations. BCRP also reduced the interest rates of operations in national currency with the financial system, under the modality of window, such as overnight deposits to 0.25% per year and operations of direct reporting of securities and currency, and loans of monetary regulation at 1.80% per year. Reserve requirements for commercial banks have been reduced, both in domestic and foreign currency, to release around 2000 million Peruvian soles (around almost $600 million).                                                                                                                                                               * March 29: The President of the BCRP declared that they are seriously considering a further reduction of the interest rate of reference of 25 basis points to 1% .
-* The BCRP has announced a plan to support firms and the payments chain,  via loans guaranteed by the Ministry of Economy and Finance, worth PEN 30,000mn (3.9% of GDP, and equivalent to around $8.700mn).  This could benefit 350,000 firms, of which 314,000 are micro entreprises. 
-* The BCRP will lend to banks at a rate of 1.25%. The guarantee of 100% from the government will apply for SMEs. The guarantee for larger companies will range between 90%-95%. 
-</t>
+    <t>15-Apr-2020 (Last updated: 15-Apr-2020)</t>
   </si>
   <si>
     <t>Public containment has been implemented on the 24th of March and iIt will last until 19.04. Mandatory 14-day quarantine for all people coming from abroad. On 31 March, these measures were tightened further, notably by closing hotels, temporary accommodation services, hairdressers and public parks, by reducing the number of allowed customers in shops, and by dedicating specific hours for the shopping of older households. On 9 April, Polish authorities introduced compulsory face covering in public from 16 April.</t>
@@ -4079,12 +4236,12 @@
 - On 16 March, the Central Bank announced the provision of liquidity-providing repo operations to the banking system, the provision of TLTRO-type refinancing of non-financial corporate loans and large scale Treasury-bond purchases.  - On 16 March, the Systemic Risk Board waived banks' contributions to the systemic risk buffer, reducing bank capital requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">Public containment has been implemented on the 19th of March after the announcement of the State of Emergency on the 18th of March. Initally it was supposed to last until the 2nd of April but was extended on the 3rd of April. More than two people are allowed to go outside without restrictions (i.e. for a short walk, for physical exercise, for basic goods shopping or to go to the pharmacy) if they don't belong to the risk group (+70 years old/severe diseases). People also may go to work, if it’s not possible to work from home. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Border control with Spain through mutual agreement started on 17th of March. Suspended air, rail and river connections until 15th of April. 
+    <t xml:space="preserve">Public containment has been implemented on the 19th of March after the announcement of the State of Emergency on the 18th of March. It was extended on the 03/04 and again on the 16/04. More than two people are allowed to go outside without restrictions (i.e. for a short walk, for physical exercise, for basic goods shopping or to go to the pharmacy) if they don't belong to the risk group (+70 years old/severe diseases). People also may go to work, if it’s not possible to work from home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Border control with Spain through mutual agreement started on 17th of March. Suspended air, rail and river connections. 
 -Movement of goods and authorized persons at only 9 border points, including nationals and residents returning home, family reunion and cases of access to health units in bilateral health care agreements. Boat traffic on both Minho and Guadiana rivers and train traffic is only allowed for circulation of goods.
-- Flights to and from Italy are also suspended from 11th of March.
+- Flights to and from Italy are also suspended from 11/04 until 21/04.
 - Suspension of flights from/to extra-EU on 19th of March. Exceptions: flights to countries with strong presence of PT communities (CA, US, UK, ZA), with all PT-speaking countries, EEA (NO, IS, LI, CH).
 - 14-day isolation period for all passengers on flights to the Azores and Madeira, since 14th of March.
 - Temperature control sensors in airports (Lisbon, Porto, Faro, Madeira, Ponta Delgada), 20th of March.
@@ -4092,7 +4249,9 @@
 </t>
   </si>
   <si>
-    <t>Suspension of all face-to-face school activities (teaching and non-teaching) from 16th of March which was extended on the 9th of April.</t>
+    <t xml:space="preserve">Suspension of all face-to-face school activities (teaching and non-teaching) from 16/03. It was re-assessed on 9/4: 1) classes restarted on 14/04 for high school exam-takers (exam period 6-23 July) while distance teaching remains at place for primary schools.
+- TV-schooling for primary level education through RTP Memória, starting on 20/4.
+</t>
   </si>
   <si>
     <t>Closure of non-essential shops (i.e. nightclubs, bars, and restaurants) 
@@ -4100,10 +4259,10 @@
 Suspension of religious and cult celebrations.</t>
   </si>
   <si>
-    <t>Closure of non-essential shops (i.e. nightclubs, bars, and restaurants). Hospitality anf tourism sector heavily affected by reduced economic activity (total contribution to GDP 19.1%).</t>
-  </si>
-  <si>
-    <t>On March 13th, the government announced a package of measures, including an initially 200 million EUR credit line to support firms’ liquidity (which increased to 400 million EUR by 02/04), a 60 million EUR credit line to support micro-companies in the tourism sector, and the deferral on fulfilment of fiscal obligations and reporting requirements regarding CIT and payment on account, additional payment on account and special payment on account. As of 14th April, total fiscal measures are worth 13.4 billion EUR and include: i) €1 billion per month (0.5% GDP) in financial support for those temporarily furloughed by their employer; ii)  €6.2 billion (3.2% of GDP) of state-guaranteed credit lines for medium, small and micro enterprises in affected sectors, operated through the banking system (initially €3.7 billion)  iii) €6.2 billion (3.2% GDP) of (within-year) tax and social security contribution deferrals for companies and employees. Additional financial support transferred to the health system.</t>
+    <t xml:space="preserve">Closure of non-essential shops (i.e. nightclubs, bars, and restaurants). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On March 13th, the government announced a package of measures, including an initially 200 million EUR credit line to support firms’ liquidity (which increased to 400 million EUR by 02/04), a 60 million EUR credit line to support micro-companies in the tourism sector, and the deferral on fulfilment of fiscal obligations and reporting requirements regarding CIT and payment on account, additional payment on account and special payment on account. As of 20/04, a €13 billion liquidity scheme, approved by European Commission, is available to provide direct grants and public guarantee loans to companies. Key fiscal measures include: i) €1 billion per month (0.5% GDP) in financial support for those temporarily furloughed by their employer; ii)  €3.7 billion (3.2% of GDP) of state-guaranteed credit lines for medium, small and micro enterprises in affected sectors, operated through the banking system (initially €3 billion)  iii) €6.2 billion (3.2% GDP) of (within-year) tax and social security contribution deferrals for companies and employees. </t>
   </si>
   <si>
     <t>On March 12th, the authorities unlocked 296 million EUR to increase the capacity of the health sector. Other health-related measures include: a) suspension of overtime limits; b) simplifying the hiring of workers; c) worker mobility; d) hiring retired doctors without being subject to age limits.
@@ -4112,7 +4271,8 @@
 - Mandatory curfew to all tested positive or in active surveillance (in hospital, or at home). 
 - General call to avoid unnecessary displacements and to promote social distancing.
 - National Contingency and Response Plan for Disease. 
-- Extensive testing implemented across the country, and proactive tracing of potential positives.
+- Extensive testing implemented across the country, and proactive tracing of potential positives. 
+- Specific programme for nursing homes testing since 30/3. Two new diagnostic centres have been established since 30/3.
 - Measures to support mental health and tackle domestic violence.
 - Research 4 COVID-19: support to innovative solutions of rapid implementation in the NHS in response to the pandemic (1.5 million EUR).
 - AI 4 COVID: Data Science and Artificial Intelligence in Public Administration (3 million EUR).
@@ -4120,13 +4280,16 @@
 - The Portuguese government has been developing three areas of action, the commitment with the Joint Procurement Agreements developed by the European Commission, the purchase of protective equiment on international markets and the use of the national capacity and availability in production of protective equipment and medical equipment to support the breathing of patients.</t>
   </si>
   <si>
-    <t>-'“Temporary lay-off scheme” for firms with activity severely affected by the epidemic. Severely affected firms are those who show a decline in turnover of 40% compared to the previous three months or those that started their business less than 12 months ago. Workers will receive 2/3 of their gross income, up to 1905€ per month. Firms pay 30% of that sum while the social security pays the remaining 70%. This can last up to 6 months maximum. The social security is fully covering the costs of workers who are under a 14 days quarantine, i.e. exempting companies from paying salaries. 
+    <t xml:space="preserve">-'“Temporary lay-off scheme” for firms with activity severely affected by the epidemic. Severely affected firms are those who show a decline in turnover of 40% compared to the previous three months or those that started their business less than 12 months ago. Workers will receive 2/3 of their gross income, up to 1905€ per month. Firms pay 30% of that sum while the social security pays the remaining 70%. This can last up to 6 months maximum. The social security is fully covering the costs of workers who are under a 14 days quarantine, i.e. exempting companies from paying salaries. 
 - Parents who need to stay home to take care of their kids (up to 12 years old) and who cannot telework cannot be laid-off for unjustified leave but will receive 2/3 of their salary during that period. These 2/3 of salary will be paid half-half by the employer and the social security. Thus, the employer pays 1/3, the social security pays 1/3, and the individual pays 1/3.
 - Justified absences scheme for families. 
 - Training subsidy of 50% of prior earnings, up to minimum wage, plus the cost of training, for workers without occupation as a result of the Covid-19 crisis.
 - The equivalent of 14 days sick absence leave for workers who have to self-isolate or isolate their children or grandchildren, as a prophylactic measure with 100% renumeration.
-- A temporary rent payment scheme has been proposed by the government on 31/03. 
-- Extraordinary extension of unemployment benefits and all benefits of the Social Security system which lasts until the end of containment measures.</t>
+- Extraordinary extension of unemployment benefits and all benefits of the Social Security system which lasts until the end of containment measures.
+- Social benefits for those supporting social and health entities (re-insertion social programmes).
+- Reinforced powers of Authority for Labour Conditions (ACT) to act against irregular dismissals.
+- Suspension of social security lien foreclosures for 3 months.
+</t>
   </si>
   <si>
     <t>Postponing the payments of social security contributions and taxes, granting guaranteed treasury loans of 400 million EUR for SMEs, 60 million for micro enterprises in the tourism sector and encouraging the use of short-time work schemes (by shortening procedures and a higher public coverage of firms’ costs). 
@@ -4136,19 +4299,25 @@
 - Suspension of tax or contributory enforcement proceedings for 3 months</t>
   </si>
   <si>
-    <t>3.7 billion state-backed credit guarantees are provided by firms which was extended on 14/04 to €6.2 billion (3.2% of GDP). 
--Direct state guaranteed credit support to companies that are most affected (increased to €400 million from initially €200 million) and for microenterprises in the tourism sector (€60 million). 
--State guaranteed credit through the banking system: for restaurants (€600 million, €270 million for SMEs), tourism (€200 million, €75 million for SME), tourism accommodation (€900 million, €300 million for SME), industry (€ 1.300 million, €400 million for SME), fishing and aquiculture sectors (€20 million).
-- Increased ceilings for export credit insurance schemes for metallurgic, mould, metal and mechanical industries (€100 million), construction abroad (€100 million), short-term exports (€50 million).</t>
-  </si>
-  <si>
-    <t>Smaller credit institutions, under the supervision of Banco de Portugal and not the ECB, can temporarily operate with a lower level of minimum capital requirements and lower levels of liquidity than usual.
+    <t xml:space="preserve">3.7 billion state-backed credit guarantees are provided by firms in total out of which:
+- €400 million are direct state guaranteed credit support to companies that are most affected (increased from initially €200 million) and for microenterprises in the tourism sector (€60 million). 
+- state guaranteed credit through the banking system: for restaurants (€600 million, €270 million for SMEs), tourism (€200 million, €75 million for SME), tourism accommodation (€900 million, €300 million for SME), industry (€ 1.300 million, €400 million for SME), fishing and aquiculture sectors (€20 million).
+- Increased ceilings for export credit insurance schemes for metallurgic, mould, metal and mechanical industries (€100 million), construction abroad (€100 million), short-term exports (€50 million). 
+- Suspension of termination of rental contracts and possible moratorium in case of income loss.
+- Suspension of termination of essential services (water, electricity, natural gas, telecom).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smaller credit institutions, under the supervision of Banco de Portugal and not the ECB, can temporarily operate with a lower level of minimum capital requirements and lower levels of liquidity than usual.
 -Rescheduling of banking loans, with maturities extended due in the next 6 months until 30/9, with a moratory on capital and interest, and maturities extended for extra 6 months, applicable to: 1) housing credit for families most affected (unemployed, laid-off, in prophylactic isolation or ill due to COVID-19); 2) loans to firms, self-employed and social institutions. Exceptions apply. 
-- Suspension of taxes for businesses on POS payments by main banks (digital payments with no minimum value for transaction). Higher max limit for contactless transactions.</t>
+- Suspension of taxes for businesses on POS payments by main banks (digital payments with no minimum value for transaction). Higher max limit for contactless transactions.
+- Banco de Portugal has decided that new personal credit with maturities of up to two years, granted from 1 April until 30 September 2020, and duly identified as intended to mitigate households’ temporary liquidity shortage situations will not have to comply with the DSTI ratio threshold and is also exempted from the recommendation of regular principal and interest payments.
+- Banco de Portugal has approved a Circular Letter implementing the Guidelines of the EBA on legislative and non-legislative moratoria on loan repayments  (EBA/GL/2020/02). </t>
   </si>
   <si>
     <t>On 26th of March, the Portuguese government announced that people who are repaying a housing loan/mortgage can delay their repayments until September 30 2020 without consequences. 
--The Lisbon Town Hall is suspending the payment of all social housing rents until 30 June 2020. After that, households will have 18 months to repay the rents that were suspended progressively, without any penalty or interest being charged.</t>
+-The Lisbon Town Hall is suspending the payment of all social housing rents until 30 June 2020. After that, households will have 18 months to repay the rents that were suspended progressively, without any penalty or interest being charged.
+- On 15th of April, the government implemented the rent repayment scheme. Households with a 20% drop in income and rents more than 35% of income can apply for an interest-free credit from the Housing and Urban Rehabilitation Institute to pay their rents. Landlords can also apply for that financial support if tenants stop paying their rent. For that, landlords need to show that they have lost 20% or more of their household income with the loss of rents. Landlords’ income also needs to be lower than the minimum social income (438.91€). Landlords will also need to repay that loan as soon as tenants re-start paying the rent.</t>
   </si>
   <si>
     <t>10-Apr-2020 (Last updated: 15-Apr-2020)</t>
@@ -4215,34 +4384,34 @@
     <t>SMEs obtaining an emergency certificate can benefit from an extension of the payment deadlines for utilities services (electricity, natural gas, water, telephone and internet services) and rents. Penalties related to delays in the execution of public contracts are suspended during the state of emergency period.</t>
   </si>
   <si>
-    <t>26-Mar-2020 (Last updated: 10-Apr-2020)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Several regions, including the most affected Moscow and St. Petersburg regions, have ordered a curfew. No countrywide lockdown </t>
   </si>
   <si>
     <t>Borders closed to all foreign nationals except diplomatic and related personnel</t>
   </si>
   <si>
-    <t>All schools and university closed until April 12</t>
+    <t>All schools and universities closed</t>
   </si>
   <si>
     <t>All gatherings of  more than 50 people prohibited</t>
   </si>
   <si>
-    <t>The government has created an anti-crisis fund of 300 billion roubles or $4.05 billion, which is around 1.2% of GDP, to support households and firms. On March 25 the government specified the measures</t>
-  </si>
-  <si>
-    <t>Construction has started on a new coronavirus treatment facility outside Moscow to be completed within weeks. Other local authorities are also expanding clinical capacity, and ordered more respiratory ventilators. Starting 16 March, coronavirus tests are available free in St. Petersburg. In Moscow, residents older than 55 receive additional financial support if they self-isolate</t>
-  </si>
-  <si>
-    <t>Sickness benefit increased to the level of the minimum wage. In Moscow, citizens above 55 receive additional sickness benefits (4000 roubles) if they self-isolate</t>
+    <t>The government has created an anti-crisis fund of 300 billion roubles or $4.05 billion, which is around 1.2% of GDP, to support households and firms. On March 25 the government specified the measures. In April the government announced a package of 200 billion rubles ($2.6 billion) to support  regional budgets.</t>
+  </si>
+  <si>
+    <t>Local authorities expanded treatment facilities. Coronavirus tests are available free in St. Petersburg. In Moscow, residents older than 55 receive additional financial support if they self-isolate. Medical staff working with COVID patients will receive additional pay and some will also receive insurance guarantees similar to those provided to military personnel</t>
+  </si>
+  <si>
+    <t>Sickness benefit increased to the level of the minimum wage. Unemployment benefits set at the maximum level (12,130 roubles/month) through June. 
+Child benefit of 3,000 rubles ($40) per month for each child in the family. Simplified/expedited procedures for payment of “maternal capital” and other benefits to families with children.
+Automatic extension of social benefits and entitlements over the next six months 
+In Moscow, citizens above 55 receive additional sickness benefits (4000 roubles) if they self-isolate</t>
   </si>
   <si>
     <t>13% tax on investment income above 1m roubles</t>
   </si>
   <si>
-    <t>Direct support to the tourism and aviation industry</t>
+    <t>Direct support to the tourism industry. Support worth at least 23 billion rubles ($307 million) for airlines. From 18 May, SMEs that have retained 90% of their employees will receive wages subsidies equivalent the minimum wage (RUR 12,130) per employee per month</t>
   </si>
   <si>
     <t>Postponement of all taxes except VAT for SMEs for 6 months; postponement of insurance and social payments for microbusinesses for the same period; credit repayment holidays of 6 months for SMEs in difficulty; tax breaks for airlines and firms in the tourism sector; 15% dividend tax to payments made to offshore accounts; 13% tax on income from investments over RUR 1m. Possibility for businesses to get preferential loans</t>
@@ -4275,7 +4444,12 @@
 * March 13: the first patient of COVID-19 was diagnosed in Rwanda.</t>
   </si>
   <si>
-    <t xml:space="preserve">* March 29: The government’s emergency response plan including support to approx. 20,000 vulnerable households started in the form of regular in-kind transfers of basic food stuffs (door-to-door provision of rice, beans, and flour every three days). </t>
+    <t xml:space="preserve">*March 20: Rwanda Revenue Authority (RRA) released a public notice providing short term measures to support taxpayers. These measures include: 1) Suspension of Tax Audit (effective 18 March), post - clearance and comprehensive tax audits have been put on hold for a period of 30 days, exception is made to desk audits which remain as planned. 
+2) Extension of Financial Statements Certification:  The revenue authority has provided a relief to taxpayers required to submit certified financial statements on 31 March 2020 by granting an extension to file the certified accounts by 31 May 2020. 
+3) For taxpayers seeking for amicable settlements of their tax obligations arising from audits, the Tax Authority has waived the down payment requirement of 25% of the outstanding tax liability that ought to be paid before the case is accepted by the RRA.                                                                                                             * March 29: The government’s emergency response plan including support to approx. 20,000 vulnerable households started in the form of regular in-kind transfers of basic food stuffs (door-to-door provision of rice, beans, and flour every three days).                                                                                    *April 6: The salaries of top civil servants for the month of April will be redirected to welfare programs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*April 8: The Rwanda Revenue Authority announced an extension of the deadlines for submitting tax returns and remitting payment of corporate income tax for financial year 2019 in response to the coronavirus (COVID-19) pandemic. The filing deadline for “larger taxpayers” is extended by 15 days, while the filing deadline for “small and medium-sized taxpayers” is extended by one month.           *Date: Support to firms is envisaged in the form of subsidised loans from commercial banks and is expected to target SMEs and hard-hit sectors such as the hospitality industry. </t>
   </si>
   <si>
     <t>March 18: the central bank announced liquidity support measures: (i) an extended lending facility worth RWF 50 billion available to liquidity-constrained banks for the next six months. Under this facility, banks can borrow at the policy rate and benefit from longer maturity periods; (ii) Treasury bond purchases through the rediscount window for the next six months; and (iii) lowering of the reserve requirement ratio by 100 basis points, from 5 to 4 percent, effective from April 1. Loan repayment conditions were also eased for impacted borrowers, and charges on electronic money transactions waived for the next three months. The central bank is also working closely with the Minister of Economy and Planning to provide support to microfinance institutions.</t>
@@ -4345,44 +4519,55 @@
     <t>SRB</t>
   </si>
   <si>
-    <t xml:space="preserve">* March, 15: Serbia declared State of Emergency 
-* March, 20: The government introduced a curfew for all residents (with few exceptions) from 20h to 5h. Citizens over 65 in urban areas and 70 in rural areas are banned from leaving their homes. 
-* March, 22: Adoption of ban movement and curfew for all residents between 5:00 pm and 5:00 am, except on Sundays, when citizens over the age of 65 can leave their homes from 3 am to 8 am to buy groceries. Leaving home during the curfew is only possible in case of medical urgency.  
-* March, 28: The government announced that the curfew will be from 15h to 5h over the weekends and the mandatory self-isolation period for all citizens returning from abroad was increased to 28 days.                                                                                                                                                         
-*April, 1: The Serbian government adopts new measures, that include self-isolation period for health workers, prison guards, members of the Ministry of the Interior The military has been shortened to 2 weeks instead of the mandatory 28 days.                                                                                                                                                         
-*April, 3: The Serbian Army has called upon 60 members of the reserve forces to Belgrade and Novi Sad to assist with preparations to fight against the coronavirus outbreak (e. g. non medical tasks in military-medical institutions). </t>
-  </si>
-  <si>
-    <t>* March, 19: International passenger traffic is suspended from Belgrade Nikola Tesla Airport. Only cargo and diplomatic travel is allowed. Local public transportation is reduced and intercity public transportation is suspended.</t>
-  </si>
-  <si>
-    <t>* March, 15: Closure of schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 22: Public transports stopped to operate. Spending time in all parks and public spaces intended for recreation and sport is prohibited. The prohibition of public gatherings in a closed space has been made stricter, not allowing more than 5 persons to stay in a closed space. 
-* March, 17: The Electoral commission adopted a decision to suspend of all pre-elections activities.                                                                                                                                                      * April, 1: The Serbian government adopts new measures, that include a complete ban on all activities that involve close physical contact including hair salons and gyms, as well as all betting sites and casinos.                                                                                                                                                
-*April 2, the President announced that all public gathering of more than two people are forbidden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 26: The government agreed that the delivery of protective masks, delivered by the Republican Health insurance Fund to wholesalers, is exempted from VAT. 
-* March, 22: Drugs from the list of prescription drugs, during the validity period of the decision to declare COVID-19 infectious disease, will be issued to health insurers without paying a fixed participation fee. 
-* March, 31: The Serbian government decided to increase salaries of all healthcare workers by 10% as of April 1. “This increase applies to all employees of health and military healthcare institutions, employees of health care services in social care institutions, as well as to doctors in prisons.”
-* March, 24: The government decided to turn Belgrade Exhibition Hall into Makeshift Hospital (capacity 3 000 beds). 
-* March, 22: Creation of the Programme “Point of return” with the support of UNDP. The programme invites free medical worker abroad to apply if they are ready to temporarily return to Serbia if necessary and help with their knowledge  and experience to combat COVID-19.                                                                                                                                                                                                            * March, 31: The Serbian government decided on Tuesday to increase salaries of all healthcare workers by 10 per cent starting April 1.“This increase applies to all employees of health and military healthcare institutions, employees of health care services in social care institutions, as well as to doctors in prisons,” the government announced in a press release.                                                                                                                                                                                              *April, 1: Serbian Government announced the availability of an online COVID-19 test to all health insurance carriers in Serbia. Once taken, the findings are automatically sent to a physician working in the country’s 24-hour Health Centres.The portal is to function as a self-assessment tool from which users can receive follow-up information and directly communicate and ask questions of medical professionals.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 12: The government decided to invest additional RSD 24 billion (204 million EUR) in capital infrastructure projects in order to stimulate growth and accelerate the implementation of the Serbia 2025 programme. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 22: All legal and natural persons are allowed to defer payment of tax debt during the state of emergency. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* March, 22: All legal persons, farmers and entrepreneurs are allowed to defer payment of tax debt during the state of emergency. </t>
-  </si>
-  <si>
-    <t>* March, 11: The National Bank of Serbia lowered its benchmark interest rate to 1.75% and decided to narrow its core interest rate corridor from ±1.25 percentage points to ±1.0 percentage point over the reference interest rate.  </t>
+    <t>* March 15: Serbia declared State of Emergency 
+* March 20: The government introduced a curfew for all residents (with few exceptions) from 20h to 5h. Citizens over 65 in urban areas and 70 in rural areas are banned from leaving their homes. 
+* March 22: Adoption of ban movement and curfew for all residents between 17h00 and 5h00, except on Sundays, when citizens over the age of 65 can leave their homes from 3h00 am to 8h00 am to buy groceries. Leaving home during the curfew is only possible in case of medical urgency.  
+* March 28: The government announced that the curfew will be from 15h00 to 5h00 over the weekends and the mandatory self-isolation period for all citizens returning from abroad was increased to 28 days.                                                                                                                                                         
+*April 1: The Serbian government adopts new measures, that include self-isolation period for health workers, prison guards, members of the Ministry of the Interior The military has been shortened to 2 weeks instead of the mandatory 28 days.                                                                                                                                                         
+*April 3: The Serbian Army has called upon 60 members of the reserve forces to Belgrade and Novi Sad to assist with preparations to fight against the coronavirus outbreak (e. g. non medical tasks in military-medical institutions). 
+* April 14: exceptional curfew during Orthodox Easter. No one will be allow to leave the house from 17h00 on Friday 17/4 to 5h00 on Tuesday 21/4.</t>
+  </si>
+  <si>
+    <t>* March 19: International passenger traffic is suspended from Belgrade Nikola Tesla Airport. Only cargo and diplomatic travel is allowed. Local public transportation is reduced and intercity public transportation is suspended.</t>
+  </si>
+  <si>
+    <t>* March 15: Closure of schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 22: Public transports stopped to operate. Spending time in all parks and public spaces intended for recreation and sport is prohibited. The prohibition of public gatherings in a closed space has been made stricter, not allowing more than 5 persons to stay in a closed space. 
+* March 17: The Electoral commission adopted a decision to suspend of all pre-elections activities.                                                                                                                                                      * April 1: The Serbian government adopts new measures, that include a complete ban on all activities that involve close physical contact including hair salons and gyms, as well as all betting sites and casinos.                                                                                                                                                
+*April 2: the President announced that all public gathering of more than two people are forbidden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* March 26: The government agreed that the delivery of protective masks, delivered by the Republican Health insurance Fund to wholesalers, is exempted from VAT. 
+* March 22: Drugs from the list of prescription drugs, during the validity period of the decision to declare COVID-19 infectious disease, will be issued to health insurers without paying a fixed participation fee. 
+* March 31: The Serbian government decided to increase salaries of all healthcare workers by 10% as of April 1. 
+* March 24: The government decided to turn Belgrade Exhibition Hall into Makeshift Hospital (capacity 3 000 beds). 
+* March 22: Creation of the Programme “Point of return” with the support of UNDP. The programme invites free medical worker abroad to apply if they are ready to temporarily return to Serbia if necessary and help with their knowledge  and experience to combat COVID-19.                                                                                                                                                                                                            * March 31: The Serbian government decided on Tuesday to increase salaries of all healthcare workers by 10 per cent starting April 1.
+* April 1: Serbian Government announced the availability of an online COVID-19 test to all health insurance carriers in Serbia. Once taken, the findings are automatically sent to a physician working in the country’s 24-hour Health Centres.The portal is to function as a self-assessment tool from which users can receive follow-up information and directly communicate and ask questions of medical professionals.
+* Increased healthcare spending (about RSD 12bn).                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>* March 12: The government decided to invest additional RSD 24 billion (204 million EUR) in capital infrastructure projects in order to stimulate growth and accelerate the implementation of the Serbia 2025 programme. 
+* Price controls for certain products, such as food items (e.g. wheat, yogurt and milk).</t>
+  </si>
+  <si>
+    <t>* March 22: three-month moratorium on enforcement and interests on tax debt under rescheduling agreements and 10 percentage points reduction of the interest rate on tax debt. 
+* Payment of 50 percent of the net minimum wage for three months for employees in large private sector companies and for employees who are currently not working (RSD 4bn).
+* Universal cash transfer of EUR 100 to each citizen over 18 years old (about RSD 70bn)
+* One-off payment to all pensioners (RSD 7bn).</t>
+  </si>
+  <si>
+    <t>Companies that have not reduced the number of their employees by more than 10% since the declaration of the "state of emergency" (15 March) can have access to the following measures:
+* Three-month deferment of labor taxes and social security contributions starting from April and until 2021 for all private companies, to be repaid in 24 installments in 2021 (RSD 140bn). 
+* The payment of advances on corporate income tax will be suspended during the second quarter of 2020.
+* Wage subsidies, including payment of minimum wages for all SME employees and entrepreneurs for three months (RSD 93bn).
+* Enterprises can have access to soft loans through the Republic of Serbia Development Fund, or through commercial banks by providing guarantees (RSD 24 bn). Loans are subject to a number of conditions, such as: repayment at 36 months with 12 months grace period, and an annual interest rate of 1%.</t>
+  </si>
+  <si>
+    <t>* March 12: The National Bank of Serbia lowered its benchmark interest rate from 2.25% to 1.75% and decided to narrow its core interest rate corridor from ±1.25 percentage points to ±1.0 percentage point over the reference interest rate.
+* April 9: The National Bank of Serbia cut the policy rate from 1.75% to 1.5%. It has also provided liquidity (both in dinars and euros) to banks through additional EUR/RSD swap auctions and repo purchase auctions of dinar government securities at 0.75% (equal to the deposit facility rate—the lowest rate of the NBS interest rate corridor).
+* The National Bank of Serbia introduced a 3-months moratorium on all repayments under bank loans and financial leasing agreements.</t>
   </si>
   <si>
     <t>SLE</t>
@@ -4438,7 +4623,7 @@
     <t>• Government loan guarantees to banks will amount to half a billion euros for employers, to be able to finance their business.</t>
   </si>
   <si>
-    <t>30-Mar-2020 (Last updated: 15-Apr-2020)</t>
+    <t>30-Mar-2020 (Last updated: 27-Apr-2020)</t>
   </si>
   <si>
     <t>On 30 March, movements of people were restricted to their home municipality</t>
@@ -4457,7 +4642,8 @@
 Grocery shops must be open from 8am to 8pm. Until 10 am, priority must be given to vulnerable groups, including the elderly, pregnant women and disabled persons.</t>
   </si>
   <si>
-    <t>A stimulus package of nearly 1% of GDP has been introduced to mitigate the impact on the economy, mostly containing indirect measures, such as tax deferrals, state guarantees and credit lines.</t>
+    <t xml:space="preserve">The government has introduced measures with a total budgtary impact of 4.35% of GDP.The majority of new spending is within the field of labour market and social security contributions. 
+In addition, the government has issued guarentees to banks that cannot surpass EUR 2.2 billion. </t>
   </si>
   <si>
     <t>An army filed hospital has been deployed in Ljubljana. In addition, health professionals are prohibited from travelling abroad and their right to leave and strike is restricted.
@@ -4465,11 +4651,11 @@
   </si>
   <si>
     <t>The government will until the end of May pay compensation for temporary lay-offs and trade restrictions for agriculture and food products, including for the self-employed, and reimburse employees in companies that are forced to fully or partially suspend their operations their lost salaries. 
-The government will pay all social security contributions for firms that continue operations during the crisis, and co-finance 20% of employees’ net compensation. 
+The government will cover two and a half months of pension contributions to all private sector employees that are working during the crisis. Their salaries will be automatically increased by 200 Euro net. The rest of the paid contributions goes to the companies as a liquidity assistance.  
 For Covid-19 patients, the national health insurance fund will finance employers’ obligation to pay sick leave for the first 30 days of sickness for people falling sick during the crisis.
-Measures for public employees include performance based salary increases (up to 200%) in areas that are key to overcome the epidemic (such as health care, security, etc.).  Salaries of state officials at the national level and of members of SOE boards are reduced by 30% for the duration of epidemic.
+Measures for public employees include performance based salary increases (up to 100%) in areas that are key to overcome the epidemic (such as health care, security, etc.).  Salaries of state officials at the national level and of members of SOE boards are reduced by 30% for the duration of epidemic.
 Unemployed are entitled to benefits from the first day of unemployment. Self-employed have been guaranteed a minimum income of 70% of the net minimum wage and no longer subject to social security contributions.
-The government provides 40% co-financing of wage compensation for temporary layoffs and for employees that cease to work because of force majeure factors to secure 80% compensation. The measure will be valid for two months.  In case of quarantine, the state covers 80% of wages.
+The government provides 80% co-financing of wage compensation for temporary layoffs and for employees that cease to work because of force majeure factors to secure 80% compensation. The measure will be valid for two and a half months.  In case of quarantine, the state covers 80% of wages.
 Parents who stay home to care for their children are entitled to a 50% wage compensation. 
 A crisis bonus is available to pensioners and the most vulnerable groups of the population.</t>
   </si>
@@ -4483,6 +4669,9 @@
   </si>
   <si>
     <t>The state-owned export and development bank will make additional funding, totaling 2¾ % of GDP, available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government has issued guarantees to banks and savings banks for loans granted in the period between March 12 and end of 2020. The purpose of the guarantees is to finance working capital, repayment of liabilities and new or complete existing investments into fixed assets. Only companies not in insolvency procedures are eligible to a guarantee, which will be limited to 10% of annual revenue and annual expenses. Each guarantee will amount to 70% of the loan principal of a large enterprise and 80% of the loan principal of a micro, small or medium-sized enterprise. </t>
   </si>
   <si>
     <t>15-Apr-2020 (Last updated: 16-Apr-2020)</t>
@@ -4556,12 +4745,12 @@
     <t xml:space="preserve">2. Commercial banks have been exempted from provisions of the Competition Act to enable them to develop common approaches to debt relief and other necessary measures. </t>
   </si>
   <si>
-    <t>• Mandated nation-wide quarantine for at least 15 days since March 15th, which has been further extended until April 11th and then to April 26th. 
-• Suspension of all non-essential work from March 30 to April 9, inclusive.</t>
+    <t>• Mandated nation-wide quarantine for at least 15 days initially introduced in March 15th, and gradually extended until May 9th. 
+• Some slight relaxation of the restrictions on the mobility of children under 14, who were not allowed to go outside during the state of emergency, from April 27 for a restricted number of activities (e.g. they can accompany adults in short shopping trips).</t>
   </si>
   <si>
     <t>• Land borders are closed except for Spanish citizens, residents and land transportation of goods (March 16). 
-• Airport and port border restrictions have been introduced for 30 days (March 23). 
+• Airport and port border restrictions have been introduced for 30 days (March 23), extended to May 15 (April 21). 
 • Ban on direct flights from Italy (March 11) except for flights transporting Spanish citizens or residents.</t>
   </si>
   <si>
@@ -4572,25 +4761,27 @@
 </t>
   </si>
   <si>
-    <t>• Ban on all non-essential work from March 30 to April 9, inclusive.</t>
-  </si>
-  <si>
-    <t>March 31: Third package (no estimate of value)
-March 17: Second package: EUR 5 billion in additional public expenditure, and up to EUR 100 billion in public guarantees, estimated to mobilise up to EUR 200 billion in liquidity for companies and SMEs.
-March 12: First package: EUR 18.225 billion (including liquidity measures of EUR 14 billion).</t>
+    <t>Suspension of all non-essential work from March 30 to April 9, inclusive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR 134 billion (of which EUR 102 billion is loan guarantees and EUR 18.6 billion refers to increased liquidity from tax deferrals, etc). Health (EUR 4.6 billion), labour market measures (EUR 3.8 billion), social measures (EUR 1.2 billion) and the rest of the economic measures (EUR 4.3 billion), which amounts to around 1.1% of GDP. </t>
   </si>
   <si>
     <t xml:space="preserve">• Making public and private clinical diagnostic laboratories available to regions for extensive covid19 testing and introducing the possibility of adopting the necessary measures to regulate the prices of these tests. (April13)
-'• Exemption of fees in procedures for authorisation of clinical trials for research for medicines related to Covid19. (April 7)
+• Exemption of fees in procedures for authorisation of clinical trials for research for medicines related to Covid19. (April 7)
 • EUR 110 million for R&amp;D for the development of drugs and vaccines for COVID-19. (March 17)  
 • EUR 1 billion for the Ministry of Health to cover expenditures related to healthcare needs. (March 12)
 • EUR 2.8 billion advance payment to the regions to meet increased healthcare needs. (March 12)
-• Price intervention: possibility for the Government to set, in an exceptional public health situation, a maximum price for medicines and certain products. (March 12)
-• Easing of public procurement and hiring  rules in the health field and centralisation of the purchase of relevant medical goods.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 7: Temporary flexibility measures in hiring of temporary workers in the agriculture sector during the state of emergency.
-March 31: 
+• Price intervention: possibility for the government to set, in an exceptional public health situation, a maximum price for medicines and certain products. (March 12)
+• Easing of public procurement and hiring rules in the health field and centralisation of the purchase of relevant medical goods.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 21 package:
+• Increase in the scope of the use of temporary employment adjustment schemes (ERTEs) due to force majeure to to be applicable in sectors considered essential but having nevertheless suffered a reduction in revenues due to confinement measures.  
+• Extension of the unemployment benefit to cover workers whose contracts under trial period have been terminated since March 9th, and for workers who voluntarily terminated their contract since March 1st because they had a firm job offer that has been withdrawn.
+• Reduction of the contributions for certain agricultural workers during periods of inactivity in 2020 and simplification of the procedure for deferring Social Security debt.
+April 7: Temporary flexibility measures in hiring of temporary workers in the agriculture sector during the state of emergency.
+March 31 package: 
 • A temporary allowance for temporary workers whose contracts (with at least two months duration) expires during the state of emergency and have not reached the minimum contribution period to receive UB (around EUR 430). 
 • A temporary subsidy for household employees affected by the crisis (70% of the regulatory base).  
 • Extension of the temporary contracts of university teachers and research staff during the state of emergency.
@@ -4603,13 +4794,17 @@
 • Additional budgetary funds of EUR 300 million to ensure the provision of assistance to dependent persons.  
 • Automatic extension of the social benefit for energy provision (‘bono social’) until September 15 (expanded on March 31).
 • Broadened scope for protected families in the supply of water and energy. Telecommunication services are also guaranteed. (expanded on March 31).
-• Increased flexibility of working conditions, encouragement of telework and adjustment of working times. Reduced working times are permitted for workers having to take care of children, elderly or dependent persons. 
+• Increased flexibility of working conditions, encouragement of telework and adjustment of working times. Reduced working times are permitted for workers having to take care of children, elderly or dependent persons (extension to 2 months after the end of state of emergency on April 21). 
 • March 12: Supplemental credit of EUR 25 million to cover meal allowances to ensure the basic access to food for vulnerable children affected by the suspension of educational activity in schools.                                                                                                                                                                                                         
 • March 10: Increased sick pay for coronavirus infected workers or those quarantined, from 60 to 75 percent of the regulatory base, paid by the social security budget.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">March 17 package:
+    <t xml:space="preserve">April 21 package:
+• Measures to align the tax bases to the current situation to bring EUR 1.1 billion of liquidity: the use of the ‘direct estimation method’ by self-employed workers for the calculation of certain personal income tax and VAT payments, which will allow to adjust these payments during the state of alarm to the real income received; the adjustment of advance corporate tax payments to the estimated revenues in 2020.
+• Reduction of VAT applicable to the supply of medical equipment from national producers to public entities, non-profit organizations and hospital centres to 0%, in line with the EU.
+• Reduction the VAT on electronic books, newspapers to align them with that on paper ones.
+'March 17 package:
 • Exemption of social security contributions by impacted firms that maintain employment under ERTE: 100% for SMEs, 75% of employer’s social security contributions for other companies. 
 'March 12 package:
 • 50% exemption from employers social security contributions, from February to June 2020, for workers with permanent discontinuous contracts in the tourism sector and related activities. </t>
@@ -4619,7 +4814,8 @@
 • Support to the digitalisation of small and medium companies through grants and loans to finance investment in digital equipment or solutions for remote working conditions (programme ACELERA PYME). </t>
   </si>
   <si>
-    <t xml:space="preserve">April 14: Extension of deadlines for filing tax returns in April to May for SMEs and the self-employed (liquidity of 3.5 billion). 
+    <t xml:space="preserve">April 21:The possibility to suspend the enforcement periods for payment of certain tax debts if companies are financing their payment through the State Guarantee Line.
+'April 14: Extension of deadlines for filing tax returns in April to 20 May for SMEs and the self-employed (liquidity of EUR 3.5 billion). 
 March 31  package:
 • Budget flexibility to enable transfers between budget lines and for local governments to use budget surplus from the previous years for supporting measures in the area of housing.
 • Give Social Security the power to grant moratoriums on the payment of SSC of companies and the self-employed.
@@ -4642,10 +4838,15 @@
 • Deferral of the repayment of principal and/or interest of loans received from the Ministry of Industry, Trade and Tourism. </t>
   </si>
   <si>
-    <t xml:space="preserve">March 31 package: 
+    <t xml:space="preserve">April 21 package:
+• Allocate EUR 1.2 billion from the existing loan guarantee line to the guarantee of loans for tenants (announced on March 31).
+• Expand the coverage of the previously announced  guarantee line to Alternative Fixed Income Market commerical paper.
+• Strengthen counter-guarantees granted by CERSA to increase the capacity of regional mutual guarantee entitites.
+• Authorise the Insurance Compensation Consortium to act as a reinsurer of credit insurance risks to strengthen the channelling of resources to commercial credit.
+'March 31 package: 
 'A microcredit guarantee scheme for 0% interest loans for an amount up to 6 months rent (repayment period of up to 10 years), or direct aid (EUR 900/month) to help pay rent.
 March 17 package:
-• A new line of guarantees via the national development bank (ICO) of up to EUR 100 billion. The main features of the first tranche of guarantees (EUR 20 billion): 50% of the tranche will cover loans to SMEs and self-employed workers, for whom the guarantee will cover 80% of new loans and loan renewals. For the rest of firms, the guarantee will cover 70% of new loans and 60% of loan renewals (made available on April 6).
+• A new line of guarantees via the national development bank (ICO) of up to EUR 100 billion. The first tranche of guarantees (EUR 20 billion): 50% of the tranche will cover loans to SMEs and self-employed workers, for whom the guarantee will cover 80% of new loans and loan renewals. For the rest of firms, the guarantee will cover 70% of new loans and 60% of loan renewals (made available on April 6). The second tranche of guarantees (EUR 20 billion) for SMEs and self-employed only, for whom the guarantee will cover 80% of new loans and renewals. (made available on April 10).
 • Additional guarantees of up to EUR 2 billion through the Spanish Export Insurance Credit Company (CESCE) for exporting firms.
 • Guarantees for loan maturity extensions to farmers using credit lines under the special 2017 drought credit line. </t>
   </si>
@@ -4655,19 +4856,25 @@
   <si>
     <t xml:space="preserve">No macroprudential measures taken at the national level.
 Other related measures:
-The National Securities Market Commission  (CNMV) issued a ban on transactions which might constitute or increase net short positions in shares admitted to trading to Spanish trading venues for which the CNMV is the competent authority. This measure will expire after the end of the trading session on April 17th.
+The National Securities Market Commission  (CNMV) issued a ban on transactions which might constitute or increase net short positions in shares admitted to trading to Spanish trading venues for which the CNMV is the competent authority until April 17th, which was then extended to May 18. 
 </t>
   </si>
   <si>
-    <t>March 31 package: 
+    <t>April 21 package: Reduction of notary fees associated with changes in non-mortgage credits.
+'March 31 package: 
 • The suspension of rent for vulnerable groups for 6 months, the extension of current rental housing contracts due to expire for 6 months, automatic moratorium of rent payments (up to 4 months) for vulnerable groups with “large” (10 or more properties) landlords. 
 • A three-month credit moratorium on the payment non-mortgage loans and credits, including consumer credits, by vulnerable groups.
 • More flexibility for workers to access savings from their pension plans.
 • Three-month credit postponement on mortgage payments for the most vulnerable. (initially introduced for 1 month on March 17).</t>
   </si>
   <si>
-    <t>March 31 package: 
+    <t>April 21 package:
+• Establishment of a mechanism for reducing the costs of renegotiating and deferring rent payments for businesses to large owners or public companies. For other owners, deposits will be facilitated as payment mechanism. 
+'March 31 package: 
 • A three-month moratorium on mortgage payments to the self-employed affected by the crisis.</t>
+  </si>
+  <si>
+    <t>14-Apr-2020 (Last updated: 15-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">Since early March, everyone with symptoms of respiratory infection, even mild ones, was urged to avoid social contacts, both at work and in private, and throughout the country. On 16 March, the health authority (Folkhälsomyndigheten) recommended as much as possible isolating people over 70 and working from home. </t>
@@ -4792,28 +4999,29 @@
     <t xml:space="preserve">On March 25, the Confederation, the SNB and the Swiss Financial Market Supervisory Authorities  announced a package of measures together with the banks. In this context, the SNB is introducing the new SNB COVID-19 refinancing facility (CRF). This measure is aimed at strengthening the supply of credit to the Swiss economy by providing the banking system with additional liquidity.  In these refinancing operations, the government-guaranteed bank loans serve as collateral. The CRF thus operates in conjunction with the federal government’s guarantees for corporate loans. The setup is such that banks should be able to provide loans to small and medium enterprises within a day or two, starting March 26.On March 25, the SNB announced that it had recommended to the Confederation the deactivation of the anticyclical capital buffer. The deactivation should further enhance corporate credit supply by banks. </t>
   </si>
   <si>
-    <t>23-Mar-2020 (Last updated: 09-Apr-2020)</t>
-  </si>
-  <si>
-    <t>As of 23 March, four countries (China (including Macao and Hong Kong), Korea, Italy and Iran) are considered as risk zones and travellers from those countries need to undertake a fortnight quarantine. Ten countries including France and some cities in Japan are considered as “on-going local transmission” zones and travellers from those areas recommended taking self-quarantine. Travellers from these areas must submit health certificates that show no COVID-19 infection in advance of their trips. Thailand also halted issuance of visa on arrival for some other countries.</t>
-  </si>
-  <si>
-    <t>All schools have been closed since 18 March until further notice.</t>
-  </si>
-  <si>
-    <t>In Bangkok and its vicinity, leisure and sport facilities, such as boxing arenas, pubs, among others, have suspend their businesses for 14 days until the end of March. In addition, the Bangkok Metropolitan Government announced on 21 March that most of non-essential commercial services, including shopping malls, restaurants and sport facilities, among others, should be closed from 22 March to 12 April.
-A national holiday, Songkran holiday (13-15 April), is postponed.</t>
-  </si>
-  <si>
-    <t>In addition, the Bangkok Metropolitan Government announced on 21 March that most of non-essential commercial services, including shopping malls, restaurants and sport facilities, among others, should be closed from 22 March to 12 April.</t>
-  </si>
-  <si>
-    <t>In February, a brief relief package for the tourism industry was announced. 
-The "phase one" package was annouced on 11 March. It includes tax cuts, the reduction of social security contribution payments, among others.</t>
-  </si>
-  <si>
-    <t>The Bank of Thailand reduced its policy rate from 1.25% to 1.00% on 5 February, and further to 0.75% on 20 March, the latter of which was off-cycle. 
-The central bank also has injected liquidity to the financial markets through outright bond purchase operation amounting to more than 100 billion THB between 13 March and 20 March.</t>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>17-Apr-2020 (Last updated: 22-Apr-2020)</t>
+  </si>
+  <si>
+    <t>March 23: All travelers whether foreigners or returning residents arriving from COVID-19 most affected countries, will be subjected to mandatory isolation for 14 days at their own cost at designated facilities identified by the Government.
+March 25: suspension of international flights by Air Tanzania. March 25: travel bans to and from Zanzibar
+April 1: formulated plans to shut down all tourist hotels
+April 12: Tanzanian authorities have suspended all flights to and from Tanzanian International Airports effective immediately.</t>
+  </si>
+  <si>
+    <t>March 17: schools are closed for 30 days</t>
+  </si>
+  <si>
+    <t>March 17: Government has banned all forms of public gatherings for 30 days</t>
+  </si>
+  <si>
+    <t>The government encouraged improved hygiene practices through the use of face masks,
+handwashing, and hand sanitisers in public places. March 16: the Government confirms its first case.</t>
+  </si>
+  <si>
+    <t>March 20: A 2.5 billion TND emergency plan ($0.8 billion or 2 percent of GDP) was announced.</t>
   </si>
   <si>
     <t>TGO</t>
@@ -4857,36 +5065,121 @@
 </t>
   </si>
   <si>
-    <t>* March 21: President Kaïs Saïed ordered an “obligatory confinement period”.</t>
-  </si>
-  <si>
-    <t>* March, 17: Commercial flights between Tunisia and all other countries were suspended at 11.59pm. 
-* March, 23: Passengers who have been in or transited through China, Egypt, France, Germany, Iran, Italy, Korea (Rep.), Spain or the United Kingdom in the past 14 days are not allowed to transit through or enter Tunisia. This does not apply to nationals of Tunisia, their partners and children, who in turn will be put on quarantine for 14 days, in the event of travelling to or transiting through any of the above countries.</t>
-  </si>
-  <si>
-    <t>* March, 18: All schools and nurseries are closed, as are all cafés and restaurants.</t>
-  </si>
-  <si>
-    <t>* March, 18: A curfew from 6pm to 6am is introduced.</t>
-  </si>
-  <si>
-    <t>* March, 21: An expansion of the budget allocation for health expenses as well as the creation of a 100 TND Million fund for the acquisition of equipment for public hospitals is announced.</t>
-  </si>
-  <si>
-    <t>* March 21: A 2.5 billion TND emergency plan ($0.8 billion or 2 percent of GDP) is announced.</t>
-  </si>
-  <si>
-    <t>* March, 21: An emergency plan is announced that includes cash transfers for low income households, disabled and homeless people (150 TND million). The plan also includes a support for those who will be on temporary unemployment because of the COVID-19 shock (300 TND million).</t>
-  </si>
-  <si>
-    <t>* March, 20: the BCT announced a package to support the private sector, by asking banks to defer payments on existing loans and suspended all fees for electronic payments and withdrawals. Besides, the government announced a set of financial measures including the creation of investment funds (600 million TND), a state guarantee for new credits (500 million TND) and the activation of a mechanism for the state to cover the difference between the policy rate and the effective interest rate on investment loans within a cap of 3 percent.</t>
-  </si>
-  <si>
-    <t>* March, 17: The Central Bank of Tunisia (BCT) reduced its policy rate by 1%, to 6.75%.</t>
+    <t>- March 21: A 2-week nationwide lockdown is announced.
+- March 31: Extension of the lockdown has been announced until April 20.
+- April 17: The government adopts a decree-law to fix fines in case of violation of the curfew or confinement. This fine is TND 50 (around 16 EUR) but could increase to TND 100 in the event of recurrence and should be paid within a period not exceeding ten days. The same legislative decree will also make it possible to take additional measures concerning the movement of people and putting them under surveillance in the event of contamination or suspected contamination. Fines for not respecting these provisions are between TND 1,000 and 5,000 and could double in the case of recurrence.
+- April 19: Extension of the lockdown has been announced until May 03. The government plans a progressive easing of the confinement restrictions depending on sectors, regions and other specificities after May 03. A few industrial sectors will be allowed to resume operations at the end of the confinement, such as the automotive, textile and ago-food sectors.
+- April 23: The Ministry of Local Affairs announces that additional sanitary measures will been taken during the holy month of Ramadan (starting April 24) to ensure hygiene in markets and businesses operating in the open air.
+- April 25: The Minister of Commerce announces that clothing shops will be among the shops to open again after May 04, taking into account the sanitary restrictions.</t>
+  </si>
+  <si>
+    <t>- March 13: Maritime borders are closed. 14 days of quarantine for travellers coming from specific countries (e.g., China, Italy, Iran, France and several other countries).
+- March 16: Aerial and land borders are closed. Borders remain open for repatriation of Tunisian citizens and trade in goods.
+- April 08: Further confinement measures are adopted by the government: These measures will improve the process of granting traffic circulation permits during the confinement period; In addition, all travelling between governorates is prohibited.</t>
+  </si>
+  <si>
+    <t>- March 12: Schools have been closed and remain closed since then.</t>
+  </si>
+  <si>
+    <t>- March 13: The government announces the following measures: banning of all gatherings in crowded places, workdays are shortened to five hours, all sports events are suspended, and the use of smoking pipes is prohibited.
+- March 17: a night curfew (from 18 hr in the evening until 6 hr in the morning) is announced starting on March 18.
+- April 08: Further confinement measures are adopted by the government: Stricter fining of citizens that do not respect confinement rules; The isolation of virus-affected clusters announced by the Ministry of Health; April 10 is, exceptionally, decreed to be a day off to limit circulation.
+- April 19: The head of the government announces that the hours of the night curfew will be eased during the holy month of Ramadan (from 20 hr in the evening until 6 hr in the morning).</t>
+  </si>
+  <si>
+    <t>- March 24: The Ministry of Industry and SMEs announces that companies can submit a request to obtain special authorisation to continue operations under a limited format (15% maximum of employees) to perform or produce only essential services and goods for the economy, for example within the energy, food, cargo transportation, health and medecines sectors.</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces a series of economic and fiscal measures amounting to an estimated TND 2,500 million.
+- March 25: Italy provides a EUR 50 million (around TND 157 million) loan to the BCT to support Tunisian companies and cushion the socio-economic impact of the crisis.
+- March 31: The EBRD announces an allocation of EUR 400 million (around TND 1,280 million) to support Tunisia’s financial companies, SMEs and public institutions.
+- April 03: The government announces a series of complementary economic and fiscal measures to an estimated TND 500 million.
+- April 03: The World Bank announces to make an envelope available of TND 40 million (around EUR 13 million) for Tunisia to be used by the Ministry of Health for the acquisition of medical treatment and equipment to the fight the Covid-19 virus.
+- April 06: The EU will strengthen the "Health / Essaha Aziza" program by tripling the funds (donations) allocated to it from EUR 20 million to EUR 60 million for all governorates.
+- April 10: The IMF announces the approval of the USD 745 million (around TND 2,200 million) emergency assistance loan to provide additional resources for the health sector, social safety nets, and businesses hit by the crisis. It will also ensure an adequate level of international reserves.
+- April 15: The Ministry of Professional Training and Employment announces that the French l’Agence francaise de développement (AFD) will make an envelope available of USD 9 million (around TND 26 million) to support employment.
+- April 17: US AID announces to make a total envelope available of TND 1 billion (around EUR 315 million) for the coming five years to support Tunisia's economy and its democracy.
+- April 22: The European Commission adopts a macro-financial assistance (MFA) package of EUR 3 billion for 10 partner countries. The amount allocated to Tunisia will be EUR 600 million (TND 1.9 billion). The MFA funds will be made available for 12 months in the form of loans on highly favourable terms to help cover immediate, urgent financing needs. The first instalment could be as soon as possible, whereas the second instalment is expected to take place in 2020Q4 or 2021Q1.</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces that an envelope of TND 500 million will be created to strengthen the strategic reserves of, among other things, medicines.
+- The government also announces the creation of a TND 100 million special fund to purchase equipment for public health establishments.
+- March 23: The Central Bank of Tunisia (BCT) authorised a TND 50 million loan (EUR 15.5 million) to the Ministry of Health to buy medical equipment to fight the Covid-19 crisis.
+- March 26: The Ministry of Health announces to make 2,000 ICU beds available to cope with the Covid-19 crisis.
+- March 28: The Minister of Health announces the purchase of 500,000 test kits.
+- April 06: The Ministry of Industry and SMEs calls for industries specializing in the textile sector to support the national effort to manufacture reusable masks also to prepare for the period after the confinement ends and the wearing of masks is assumed to become mandatory.
+- April 07: The Ministry of Defence announces that a first military plane has left to China to transport medical equipment back to Tunisia.
+- April 08: Further confinement measures are adopted by the government: The training of a work team at the level of the Ministry of Industry and SMEs to organize the manufacturing of medical masks, distribute these and fix their prices.
+- April 11: A commercial airplane comes back from China with 27 tonnes of medical equipment of which 5 million masks.
+- April 19: The head of the government announces that 200,000 test kits will be available the coming week to perform targeted testing on a larger scale.
+- April 20: The Tunisian Hotel Federation announces that 6,230 hotel rooms, in hotels across the country, are made available to the Ministry of Health for medical teams and repatriated Tunisians citizens who are put into a sanitary isolation.
+- April 23: The Ministry of Industry and SMEs announces the start of a new online platform to register supply and demand needs for medical equipment. Tunisian companies can register and indicate their help to produce medical equipment and their potential capacity.
+- April 25: The Ministry of Health announces the launch of a digital training and learning platform on the coronavirus, for the benefit of healthcare professionals and the general public. This is a joint collaboration between the Ministry of Health and the World Health Organization (WHO).</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces an envelope of TND 150 million for social assistance.
+- March 31: The Ministry of Finance announces the extension of the payment period for car vignettes (from 5 April to 30 April).
+- March 31: The Director General for Protection and Social Integration announces that the first beneficiaries of social measures are families with children (without family support under the supervision of the National Institute for Child Protection) and/or families with old people. These families will benefit from an aid of TND 200 dinars (around EUR 64).
+- April 03: The government announces an additional social aid of TND 100 million (on top of the TND 150 million announced on March 21) to the most vulnerable people. Employees in technical unemployment will receive up to TND 200 per month, while retirees who receive a pension ≤ TND 180 will receive financial assistance of TND 100 per month. Poor families and those with a dependent disabled person will benefit from TND 200 in social assistance, distributed as of April 03.
+- April 06: The Ministry of Energy, Mines and the Energy Transition announces a downward adjustment in the price of certain petroleum products starting on midnight April 07. This is the result of the announcement of the Ministry of Finance, at the end of March, for the establishment of a new mechanism for fixing fuel prices at the pump to reflect the reductions in the price of a barrel of oil.
+- April 14: The signing of a wage agreement to maintain the payment of private sector wages for the month of April between the Ministry of Social Affairs, the General Union of Tunisian Labour (UGTT) and the Tunisian Union of Industry, Commerce and crafts (UTICA)). The State will transfer TND 200 whereas the remainder of the wage will be taken into charge by the companies. The agreement also provides assistance to employees not declared to the National Social Security Fund (CNSS), provided that the employer declares them within a period not exceeding 30 days, starting from the date of entry in force of the decree-law.
+- April 19: The government announces a new tranche of social assistance. This second tranche is directed to poor families, disadvantaged categories and certain retirees. TND 60 (around EUR 20) will be granted to poor families for the holy month of Ramadan and TND 200 will be paid to the more fragile classes. Exceptional social assistance will also be paid to retirees starting from May. In total, 140,000 retirees with a pension below TND 180 will benefit from exceptional social assistance of TND 100.
+- April 22: A wage payment agreement is signed between the Ministry of Tourism and Handicrafts, the Tunisian Hotel Federation (FTH) and the Tunisian General Labour Union (UGTT). For the month April, the state will pay hotel employees an exceptional contribution of TND 200 (around EUR 64). Employers will pay 65% (or the equivalent of 17 working days) of the employees' actual salary. A similar agreement is signed on April 23 between UGTT and the Tunisian Federation of Travelling and Tourism Agencies (FTAV).
+- April 24: The Office for Tunisians Abroad (OTE) announces that an aid of TND 400,000 will be made available to Tunisians abroad to help cope with the impact of the Covid-19 crisis. This mostly concerns Tunisians stranded abroad, students without scholarships and migrants. Disbursements are treated on a case-by-case basis.</t>
+  </si>
+  <si>
+    <t>- April 13: The government adopts a first series of decree-laws to cope with the Covid-19 crisis, such as social measures to support companies and their employees, as well as exceptional measures for self-employed individuals. These include:
+- The deduction of one working day for the year 2020 for the benefit of the state's budget. This contribution concerns individuals among employees and pensioners of Tunisian nationality, excluding those annual net income is below TND 5,000 (around EUR 1,580) and private sector employees of companies affiliated to the CNSS and whose activity is temporarily interrupted because of total lockdown.</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces the following economic and fiscal support measures for businesses, in particular SMEs:
+- Creation of a support fund for SMEs of TND 300 million.
+- The decision to take charge by the State of part of the interest rate (until 3%) on investment loans.</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces the following series of economic and fiscal measures mostly for firms:
+Support measures for businesses, in particular SMEs, include:
+- The postponement of the filing of corporate tax declarations until the end of May 2020 (originally due March 25), except for companies subject to the company tax of 35%. Reduction of the deadlines for refunding tax credits to a maximum of one month.
+- For the most affected companies, there is an allowance to reschedule tax debts over a period of up to 7 years while cancelling the application of penalties in the case of delayed payments for a period of 3 months; allow the refund of the VAT credit within a maximum of one month.
+For the public health sector:
+- Exemption from VAT for drug distributing companies.
+- April 02: The government announces the launch of web portals to help crisis-affected artisans, traders, SMEs and other companies. The companies concerned must be affiliated to the National Social Security Fund, or will be affiliated within a maximum period of one month from the date of government publication. The conditions require that the company's employees be registered and their wages declared to the National Social Security Fund for the fourth quarter of 2019 or the first quarter of 2020. The companies concerned must also provide the necessary documents proving financial difficulties, the decline in activity and liquidity difficulties. Maintaining employees, whether indefinite or fixed-term, of the entire workforce of the company whose employment contracts are in force on the date of the government decree coming into force, is one of the conditions.
+- April 03: The government announces the additional measure of TND 100 million to cover partial unemployment for the benefit of artisans and SMEs.
+- April 13: The government adopts a first series of decree-laws to cope with the Covid-19 crisis, such as social measures to support companies and their employees, as well as exceptional measures for self-employed individuals. These include:
+- The temporary social measures to protect businesses and their employees affected by the total lockdown: provisional and exceptional indemnities as well as the deferral of payment of contributions payable by employers in the statutory social security scheme for 2020Q2, for three months without penalties for a delay. This decree-law defines affected companies as being those companies affiliated to the National Social Security Fund (CNSS) and whose activity is temporarily interrupted because of total lockdown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- March 21: The government announces the following economic and fiscal support measure for businesses, in particular SMEs, include:
+- Creation of an investment fund of TND 500 million to strengthen companies’ capital and safeguard jobs and another TND 100 million fund to facilitate share redemption.
+- April 17: The government announces a reform plan for the public airline company Tunisair, including financial support, to prepare it to the post Covid-19 era.
+</t>
+  </si>
+  <si>
+    <t>- March 21: The government announces the following series of economic and fiscal measures mostly for firms:
+Support measures for businesses, in particular SMEs, include:
+- For hotels, travel agencies, tourist restaurants, crafts, transport and cultural activities: implementation of exceptional management credit procedures until December 31, 2020, with the possibility of reimbursement over 7 years. A fund of TND 500 million will be allocated to these credits.
+'- April 18: The government adopts a decree-law to launch the guarantee mechanism of TND 500 million (announced on March 21) for management and operating credits granted by banks to businesses affected by Covid-19 crisis. The fund guarantees new credits granted during the period from March 01 - December 31 2020, provided that these credits are reimbursed during a period of 7 years with a two-year grace period.</t>
+  </si>
+  <si>
+    <t>- March 17: The Central Bank of Tunisia (BCT) cuts its main policy rate by 100 basis points to 6.75%.
+- April 17: The BCT publishes a circulaire in which it is stated that, under exceptional circumstances, banks are allowed to submit assets as collateral for refinancing operations that do not meet usual eligibility criteria. This is to assure adequate refinancing operations for the banking system as a whole.</t>
+  </si>
+  <si>
+    <t>- March 19: The BCT announces measures to smoothen payment systems: no commission for interbank cash withdrawals from ATMs; the suspension of any commission applied to electronic payments for transaction less than or equal to TND 100 (about EUR 32); the provision of free prepaid bank cards by banks. It also recommended local banks and financial institutions to reschedule annuities on company loans whose maturity is between March 17 - September 30, 2020, on a case-by-case basis. Finally, loan-to-deposit ratio requirements for the banking sector are being eased.
+- March 25: The BCT announces to postpone repayment of bank credits (principal and interest) due in the period March 1 - 30 September 2020 for non-professional loans granted to customers with a monthly income below TND 1,000 (EUR 317).
+- April 01: The BCT announces the following measures:
+- Banks are allowed, for 3 months, to extend the principal and interest payments on loans due during the period from April - June 2020, to individuals whose monthly net income exceeds TND 1,000 dinars (initially was only for individuals with net income &lt; TND 1,000).
+- The BCT will make money transfers, in advance, to students studying abroad and professionals following training abroad to cover the subsistence costs for schooling and professional training for the months May - June.
+- The BCT authorizes banks and financial institutions that cannot organize their general assembly meetings, to postpone it beyond the legal deadline set on April 30, 2020.
+- The BCT calls for banks and financial institutions to suspend all dividend distribution measures for the 2019 financial year and to refrain from carrying out any operation to buy back shares.
+- April 13: The BCT calls for the application of a uniform and transparent standardized method for all banks for the postponement in repayment of clients' credits. No increase in the monthly reimbursement charge or additional costs should occur.</t>
+  </si>
+  <si>
+    <t>26-Apr-2020 (Last updated: 27-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">All travellers entering Turkey from virus-affected countries are taken under quarantine for 14 days, irrespective of nationality. Pilgrims coming back from Saudi Arabia will be kept under quarantine for one additional week. As of 4 April 15.756 persons were under quarantine in 78 converted student dormitories. From 22 March a curfew was applied to all citizens above 65 and for people with chronic illnesses. From 4 April this is extended to youth below 20 (with an exception for young workers between 18-20). From 31 March, 41 towns, villages and neighborhoods in 18 provinces have been taken under quarantine. From 4 April, 30 metropolitan areas, including Istanbul, Ankara and Izmir and the town of Zonguldak are also under quarantine. All exits from and entries to these zones are  banned (under administrative authorisation for special cases). From 4 April, wearing a protective masks is made compulsory in all public places. On 6 April the government announced that it will distribute, to all citizens between 20-65 placing a request via the e-government portal, 5 free protective masks per week via postal delivery. On 9 April an extension of distribution channels to pharmacies was announced. Commercial sales of protective masks are also prohibited. 
-From 6 April quarantines are also enforced at neighborhood, street and building-level and on 9 April the Ministry of Interior announced that by that date 180 localities with a total population of 122.500 were taken under quarantine. On 10 April the government announced a 2-day long curfew in 30 metropolitan areas over the week-end. 
+From 6 April quarantines are also enforced at neighborhood, street and building-level and on 9 April the Ministry of Interior announced that by that date 180 localities with a total population of 122.500 were taken under quarantine. On 10 April the government announced a 2-day long curfew in 30 metropolitan areas over the week-end. On 14 April week-end curfews were made regular. The curfew was applied for four days between 23-26 April (to cover a national holiday on 23 April).
     </t>
   </si>
   <si>
@@ -4905,7 +5198,7 @@
     <t xml:space="preserve">Restaurants, cafés, sport and cultural facilities and services are closed. Grocery stores and supermarkets' opening hours are restricted, with a maximum of one customer for every 10 square metres of  space. </t>
   </si>
   <si>
-    <t xml:space="preserve">On 18 March the President announced the "Economic Stability Shield Program" in order to balance the adverse affects of the coronavirus outbreak. The Program consists a set of 21 measures. Additional social transfers to low-income families and workers losing their job were announced on 7 April  without a public announcement of their fiscal cost. </t>
+    <t xml:space="preserve">On 18 March the President announced the "Economic Stability Shield Program" in order to balance the adverse affects of the coronavirus outbreak. The Program consists a set of 21 measures. Additional social transfers to low-income families and workers losing their job were announced on 7 April  without a public announcement of their fiscal cost.                                                      On 17 April the Parliament adopted a package of tax deferal, labour legislation and subsidy measures in support of businesses affected by the Coronavirus crisis. Their fiscal cost have not been publicly estimated. </t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health (MoH) launched a country-wide public awereness campaign against Covid-19 and set up a call center for consultations to check prelimanry symptoms of corona before referring to hospitals, It increased the number of certified test centers and rapid diagnostic kits to raise the daily test capacity above 10.000 and started to recruit 32,000 additional health staff. Masks produced in Turkey will not be exported and ventilators are subject to export control. In-patient visits in hospitals are suspended during working hours and are limited to only one visitor after business hours. A periodic follow-up program including social services and home healthcare is introduced for seniors over 80 years of age and living alone. Protective masks and colognes are being distributed to all persons above 65 in Istanbul and Ankara. Comprehensive health surveillance of seniors residing in public nursing homes (more than 400 nursing homes, 153 out of which are public) is ensured and a "Coronavirus Information Guide for Nursing Homes" was distributed to all nursing homes. Preventive measures are  taken in women's shelters and in nursing homes for children under state protection. Daily disinfection activites are ongoing in public spaces and transportation facilities. On 6 April, the construction of two specialised COVID-19 hospitals was announced in Istanbul (one of them in the facilties of the old airport), with 1000 beds each and a targeted completion period of 45 days. </t>
@@ -4924,13 +5217,17 @@
 • Flexible working and remote-working  are also encouraged in the private sector. 
 • On 7 April, additional social transfers (of 1000 TL, 154 US$) to 2.3 million households which had not qualified for the 18 March measures (with a fiscal cost of 2.3 billion TL), and to workers losing their job without qualifying for short-term working arrangements or unemployment insurance were announced.
 • From 7 April, households in need ineligible for other programmes can apply for special support from the National Solidarity Fund. 
-• On 12 April the government announced that a package combining the extension of  'unpaid leave' options for firms with public transfers to the workers concerned is under preparation.</t>
-  </si>
-  <si>
-    <t>• Firms established in technoparks will be exempt of rents for two months.
+• On 12 April the government announced that a package combining the extension of  'unpaid leave' options for firms with public transfers to the workers concerned is under preparation.
+• On 17 April, a new law legalised unpaid leave arrangements. A fix allocation of 1170 TL (170$, the floor of of unemployment insurance compensation) will be allocated to the workers covered by the Unemployment Insurance Fund.
+• From 17 April, student rents in public residences are deferred for three months, extensible for an additional three months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Firms established in technoparks will be exempt of rents for two months.
 • Firms producing disinfectants, medical masks and other protection material for health workers will receive a grant of 6 million TL by firm.
 • The SME Agency (KOSGEB) will offer project grants to SMEs specialised in disinfectants, cologne and other protection material.
-• Turkish Airlines, which is heavily affected by the pandemic and continues to fulfill public services will be supported "as needed".</t>
+• Turkish Airlines, which is heavily affected by the pandemic and continues to fulfill public services will be supported "as needed".
+•  From  17 April, all rents due by businesses and municipalities on government-owned real estate will be postponed for three months, extensible by an additional three months (applicable  from 1 April).
+• From 17 April, agricultural cooperatives' debt payments to public entities are postponed for one year. </t>
   </si>
   <si>
     <t>• April, May and June VAT and social security contributions are postponed for six months in  retail trade (including shopping malls), iron and steel, automotive, logistics and transportation, cinema, theatre, accommodation, food and beverage, textile and garment, and event organization sectors. (Concerning over 2 million taxpayers, 54 billion liras (USD 9,8B postponed).
@@ -4946,7 +5243,8 @@
 • Additional liquidity (up to 3 months' staff expenses) will provided to enterprises paying their salaries from public banks and preserving their level of employment.
 • KOSGEB’s SME support contracts will be extended for 4 months upon request.
 • KOSGEB is postponing its claims in various ongong loan contracts for 3 to 6 months.
-• On 31 March, exporters were granted a 90-day extension for the repayment of their outstanding “export rediscount credits” (financed by the Central Bank) and were given access to additional credits with maturities extended from 120 to 240 days for short-term loans and up to 720 days for long-term loans.</t>
+• On 31 March, exporters were granted a 90-day extension for the repayment of their outstanding “export rediscount credits” (financed by the Central Bank) and were given access to additional credits with maturities extended from 120 to 240 days for short-term loans and up to 720 days for long-term loans.
+• From 17 April 2020,Turkish Sovereign Wealth Funds’ legal capacity to invest in the equity capital of private firms was reinforced. The goal is to protect national ownership and control of  private firms of strategic interest,</t>
   </si>
   <si>
     <t>• The Credit Guarantee Fund increased  its limits for SME loans from 3.8 to 7.7 billion US$. 850 thousand additional credit applications will therefore be facilitated.
@@ -4954,40 +5252,71 @@
   </si>
   <si>
     <t xml:space="preserve">• On 16 March, Turkey’s Central Bank (CBRT) introduced a range of “Measures Against the Likely Economic and Financial Impacts of the Coronavirus”. They included a cut in the bank’s main policy rate from 10.75% to 9.75%, an announcement that  it “will provide banks with as much liquidity as they need, through intraday and overnight standing facilities”, and specific commitments and actions:  1) the Bank is ready to inject liquidity through repo auctions with maturities of up to 91 days, 2) Liquidity limits of Primary Dealers in Open Market Operations (OMOs) were increased, 3) Foreign exchange reserve requirement ratios were reduced by 500 basis for banks meeting CBRT’s real credit growth conditions, 4)  banks were offered additional liquidity facilities “to secure uninterrupted credit flow to the corporate sector”, and 5) a number of improvements were granted in the provision of rediscount credits for exporters and foreign exchange earning services.
-• On 31 March CBRT introduced “Additional Measures against the Economic and Financial Impacts of the Coronavirus”. They included additional flexibility for CBRT in conducting its open market operations, an extension of securities accepted as collateral in transactions with banks, an increase in the limits of liquidity facilities supporting uninterrupted credit flow to the corporate sector, and an extension of available rediscount credits for exporters (with a 70% allocation to SMEs in export credits intermediated by banks). </t>
+• On 31 March CBRT introduced “Additional Measures against the Economic and Financial Impacts of the Coronavirus”. They included additional flexibility for CBRT in conducting its open market operations, an extension of securities accepted as collateral in transactions with banks, an increase in the limits of liquidity facilities supporting uninterrupted credit flow to the corporate sector, and an extension of available rediscount credits for exporters (with a 70% allocation to SMEs in export credits intermediated by banks). 
+• On 17 April, CBRT increased the maximum limit available for open market operations (OMO) in its balance sheet from 5% to 10%, to facilitate its purchases of Government Domestic Debt Securities (GDDS) from Primary Dealers. This will facilitate the indirect financing new fiscal measures. </t>
   </si>
   <si>
     <t xml:space="preserve">• On 17 March the Banking Regulation and Supervision Agency (BRSA) introduced a set of measures in response to new conditios: 1) it requested banks to revise their plans to avoid any interruption in business continuity and to limit reputational risks for businesses; 2) the number of days to be passed in the delay period for classifying a loan as non-performing was increased from 90 days to 180 days; 3) flexibility was granted to banks for not classifying a performing forborne loan under probation as non-performing “even though additional forbearance measures are applied or it becomes more than 30 days past due”; 4) forbearance measures were applied to the measurement of the Capital Adequacy Ratio, of the Foreign Exchange Net General Position, and of the Own Funds of Banks; 5) customers’ principal and interest payments were to be postponed for at least three months upon request, and 5) Loans to Collateral ratio on mortgage loans was increased from 80% to 90%. A range of flexibilities were granted for the operation of bank branches under special conditions.
 • Firms that have fallen into default in April, May and June will be given a “force majeure” note in their credit registry. 
 • On 30 March, BRSA reduced the minimum front payment ratio in credit card transactions from 30% to 20%, and authorised card holders under debt restructuring arrangements to postpone their reimbursements until December 2020.
 • On 23 March, the Banking Association of Turkey invited member banks to 1) rapidly evaluate and process the loan requests of corporations, SMEs and individual clients; 2) improve credit access opportunities and conditions; 3) keep credit channels open; 4) provide flexibility in terms of maturity, repayment, installment payments and collateral requirements, and 5) finalize restructuring requests in a short period of time.      
-• With successive measures on 28 February, 13 March and 23 March, the Capital Markets Board of Turkey (CMB) 1) introduced a ban on short selling to control price volatility; 2) tightened circuit breakers; 3) allowed extra flexibility for margin trading transaction; and 4) announced new conditions for issuers to buy back their shares without limitations. The reporting periods of financial reports by portfolio management companies, mutual funds and capital market instruments traded on a stock exchange or other organized marketplaces were also extended.                                                                                                           </t>
+• With successive measures on 28 February, 13 March and 23 March, the Capital Markets Board of Turkey (CMB) 1) introduced a ban on short selling to control price volatility; 2) tightened circuit breakers; 3) allowed extra flexibility for margin trading transaction; and 4) announced new conditions for issuers to buy back their shares without limitations.
+• On 18 April, BRSA, "to help minimise the negative impact  of the Coronavirus epidemic on output and employment", introduced a new Active Ratio (AR) to be complied with by all banks from May, which will lead to an expansion of their credits, domestic security holdings, and swap operations with the Central Bank.      
+                                                                                                       </t>
   </si>
   <si>
     <t xml:space="preserve">• Municipalities, including in Ankara and Istanbul, introduced solidarity schemes funded by local residents to provide cash and food aid to local households in need.
-• On 30 March, President Erdogan launched a national solidarity campaign to help citizens in difficulty, inviting businesses and households to contribute generously. As of 6 April, 1.5 billion TL were collected in this National Sloidarity Fund.                                                       </t>
+• On 30 March, President Erdogan launched a national solidarity campaign to help citizens in difficulty, inviting businesses and households to contribute generously. As of 6 April, 1.5 billion TL were collected in this National Solidarity Fund.                                               • From 17 April, employment contracts in vigorin business firms cannot be discontinued for a periodof three months.
+• Telecommuniction operators, in addition to free internet services made available to health workers and families with children, will offer 1 GB of free internet services to the entire population during the Ramadan month (24 April-23 May).                                            </t>
   </si>
   <si>
     <t xml:space="preserve">• Flexible working and remote-working are encouraged in the private sector. </t>
   </si>
   <si>
-    <t>Economy-wide lockdown since 23 March.</t>
-  </si>
-  <si>
-    <t>Borders remain open. People, trade and capital can enter and exit the country. The government advised British tourists currently abroad to return to the country, and advised against all non-essential travel worldwide. The warning is in place initially for 30 days.</t>
-  </si>
-  <si>
-    <t>Schools are closed except for children of key workers (16 March).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social distancing is in place. A ban is in place on all social events and gatherings. Permitted is (1) travelling to and from work, but only where this cannot be done from home, (2) shopping for basic necessities, (3) daily exercise, and (4) attending any medical need, to provide care or to help a vulnerable person. 
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>March 30: country lockdown measures and restrictions to movement of people for 14 days. April 1:  all non-food shops (stores) must also close. Only shops (stores) selling food, agricultural products, veterinary products, detergents and pharmaceuticals should remain open. April 8: In his address to the nation, President  Yoweri Museven announced tightened measures after COVID-19 cases rise, including banning people from exercising in public. The president has also instructed that no boda-bodas, or motorcycle taxis, are to be seen on roads after 2 p.m. He also ordered the arrest of politicians giving out food to people because it endangers the lives of Ugandans by undermining the measures put in place against the coronavirus. 
+April 14: President Yoweri Museveni announced a three-week extension of the nationwide lockdown, including all other measures previously announced. The lockdown, which commenced on April 1, is now to end on May 5. Uganda’s lockdown is among the harshest in East Africa and includes a ban on both private and public transport vehicles; airport and border closures; a complete shutdown of all businesses except those that provide essential goods and services; as well as a nationwide curfew from 7 p.m. to 5 a.m</t>
+  </si>
+  <si>
+    <t>March 25: closure of airports and country borders</t>
+  </si>
+  <si>
+    <t>March 18: Closure of all education institutions</t>
+  </si>
+  <si>
+    <t>18 March: Restricting public gatherings, suspending refugee reception services, and instituting guidelines on social distancing, public health facilities and public transport.
+18 March: Weddings and large religious gatherings banned. April 7:  the public night vigils and the annual Walk to Remember that have traditionally marked Rwanda's genocide commemorations were cancelled.</t>
+  </si>
+  <si>
+    <t>* DATE: The authorities have used part of their Contingency Fund in the FY2019/20 budget to finance approximately 1/5 of the Ministry of Health Preparedness and Response Plan from January to June 2020 (about USD1.3 million from a total of USD7 million). They are working closely with the private sector and other stakeholders and will suggest support measures, which are likely to include recapitalizing the Uganda Development Bank so it can provide financing for manufacturing and import substitution. The Uganda Revenue Authority has granted an extension on tax paying deadlines. Government will also increase health expenditure and is mobilizing external support.</t>
+  </si>
+  <si>
+    <t>March 31: National Social Security Fund (NSSF) has put in place measures to ease the cash flow burden of affected employers/ businesses in the private sector. In its notice, NSSF indicated that effective 31 March 2020, it will allow Ugandan businesses facing economic distress to reschedule their NSSF contributions for three (3) months without accumulating any penalty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 March: Bank of Uganda (BoU) issued a statement on March 20th listing the following measures: (i) BoU’s commitment to provide exceptional liquidity assistance for a period of up to one year to financial institutions that might need it; (ii) ensuring that the contingency plans of the supervised financial institutions guarantee the safety of customers and staff; (iii) putting in place a mechanism to minimise the likelihood of sound business going into insolvency due to lack of credit; (iv) waiving limitations on restructuring of credit facilities at financial institutions that may be at risk of going into distress. BoU has also worked with mobile money providers and commercial banks to ensure they reduce charges on mobile money transactions and other digital payment charges. April 6: At the April Monetary Policy Committee (MPC) meeting, the Bank of Uganda (BoU), as expected, cut the Central Bank Rate (CBR) by 100 bps to an all-time low of 8%. This rate cut forms part of the central bank’s broader monetary policy stimulus aimed at softening the impact of Covid-19 on the economy. Other concrete measures introduced include: (i) Directing that all Supervised Financial Institutions (SFIs) defer the payments of dividends and bonus for at least 90 days effective March 2020 to ensure adequate capital buffers are maintained; (ii) provision of liquidity to commercial banks for a longer period through issuance of reverse Repurchase Agreements (REPOs) of up to 60 days at the CBR, with opportunity to roll over; (iii) Purchase of Treasury Bonds held by Microfinance Deposit taking Institutions (MDIs) and Credit Institutions (CIs) in order to ease their liquidity distress; (iv) Grant exceptional permission to SFIs to restructure loans of corporate and individual customers that have been affected by the pandemic, on a case by case basis effective April 2020. </t>
+  </si>
+  <si>
+    <t>• Economy-wide lockdown since 23 March.</t>
+  </si>
+  <si>
+    <t>• Borders remain open. People, trade and capital can enter and exit the country. The government advised British tourists currently abroad to return to the country, and advised against all non-essential travel worldwide. The warning is in place initially for 30 days.</t>
+  </si>
+  <si>
+    <t>• Schools are closed except for children of key workers (16 March).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Social distancing is in place. A ban is in place on all social events and gatherings. Permitted is (1) travelling to and from work, but only where this cannot be done from home, (2) shopping for basic necessities, (3) daily exercise, and (4) attending any medical need, to provide care or to help a vulnerable person. 
 </t>
   </si>
   <si>
-    <t>All schools, cafes, pubs, restaurants, cinemas, gyms and shops selling non-essential goods remain closed from 23 March. The public is allowed to leave home for work but only if that work cannot be carried out at home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The UK government has announced a GBP 401.5 billion fiscal package (18.1% of GDP) to counter the impacts of coronavirus, in addition to the Coronavirus Job Retention Scheme and the Self-Employed Income Support Scheme. This includes over GBP 330 billion of state loans and guarantees for struggling businesses, through the Coronavirus Corporate Financing Facility (20 March) and the Coronavirus Business Interruption Loan Scheme (17 March). VAT payments of around GBP 30 billion (1.4% of GDP) for the second quarter of 2020 are deferred until 2021 (20 March). GBP 330 billion of state loan and guarantees and the deferral of VAT payments do not represent a fiscal cost. There is also GBP 41.5 billion (1.9% of GDP) of further fiscal measures announced on 11 March, 17 March, 20 March and 26 March, which do represent fiscal costs. This includes GBP 5 billion to support the NHS and other public services, GBP 30.5 billion for business support and GBP 6 billion for welfare support. In addition, the Coronavirus Job Retention Scheme and the Self-Employed Income Support Scheme are estimated at add around GBP 14.7 billion (0.7% of GDP) if the take up is 3.5 million people (or 10% of employees) over three months. 
+    <t>• All schools, cafes, pubs, restaurants, cinemas, gyms and shops selling non-essential goods remain closed from 23 March. The public is allowed to leave home for work but only if that work cannot be carried out at home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The UK government has announced a GBP 401.5 billion fiscal package (18.1% of GDP) to counter the impacts of coronavirus, in addition to the Coronavirus Job Retention Scheme and the Self-Employed Income Support Scheme. This includes over GBP 330 billion of state loans and guarantees for struggling businesses, through the Coronavirus Corporate Financing Facility (20 March) and the Coronavirus Business Interruption Loan Scheme (17 March). VAT payments of around GBP 30 billion (1.4% of GDP) for the second quarter of 2020 are deferred until 2021 (20 March). GBP 330 billion of state loan and guarantees and the deferral of VAT payments do not represent a fiscal cost. 
+• There is also GBP 41.5 billion (1.9% of GDP) of further fiscal measures announced on 11 March, 17 March, 20 March and 26 March, which do represent fiscal costs. This includes GBP 5 billion to support the NHS and other public services, GBP 30.5 billion for business support and GBP 6 billion for welfare support. In addition, the Coronavirus Job Retention Scheme and the Self-Employed Income Support Scheme are estimated at add around GBP 14.7 billion (0.7% of GDP) if the take up is 3.5 million people (or 10% of employees) over three months. 
 </t>
   </si>
   <si>
@@ -5011,7 +5340,11 @@
 • In England, 100% relief of business rates on property for all properties in retail, hospitality or leisure, irrespective of rateable value. </t>
   </si>
   <si>
-    <t>GBP 330 billion (14.9% of GDP) of temporary state loans and guarantee scheme for businesses. This includes the Coronavirus Corporate Financing Facility (20 March) and the Coronavirus Business Interruption Loan Scheme (CBILS) (17 March). CBILS provides a partial government-backed guarantee for the loan repayments to encourage more lending. It will back loans of up to GBP 5 million for small and medium-sized businesses. No personal guarantees are required for facilities under GBP 250,000 and the government covers the first 12 months of interest payments and any lender-levied charges. In addition, the Coronavirus Large Business Interruption Loan Scheme (CLBILS) will provide a government guarantee of 80% to enable banks to make loans of up to GBP 25 million to larger firms with an annual turnover of between GBP 45 million and GBP 500 million (3 March). Loans backed by a guarantee under CLBILS will be offered at commercial rates of interest.</t>
+    <t xml:space="preserve">• In a move to bolster high-tech start-ups, the new GBP 500 million Future Fund provides between 125k and 5m for UK based-business as long as the cash is matched by private investors (i.e. government is committing 250 million, with the other 250 million expected to be raised by the private sector). Start-ups must have previously raised at least 250k from private within the last 5 years investors to be eligible. The scheme will be launched in May, is initially open until September and will be delivered by the British Business Bank (20 April). If the government loan is not repaid within three years, it gets automatically converted into an equity stake at 20 percent discount to the valuation set in the next founding round. 
+• Smaller businesses focused on R&amp;D can also apply for an additional GBP 750 million in grants and loans (20 April). </t>
+  </si>
+  <si>
+    <t>• GBP 330 billion (14.9% of GDP) of temporary state loans and guarantee scheme for businesses. This includes the Coronavirus Corporate Financing Facility (20 March) and the Coronavirus Business Interruption Loan Scheme (CBILS) (17 March). CBILS provides a partial government-backed guarantee for the loan repayments to encourage more lending. It will back loans of up to GBP 5 million for small and medium-sized businesses. No personal guarantees are required for facilities under GBP 250,000 and the government covers the first 12 months of interest payments and any lender-levied charges. In addition, the Coronavirus Large Business Interruption Loan Scheme (CLBILS) will provide a government guarantee of 80% to enable banks to make loans of up to GBP 25 million to larger firms with an annual turnover of between GBP 45 million and GBP 500 million (3 March). Loans backed by a guarantee under CLBILS will be offered at commercial rates of interest.</t>
   </si>
   <si>
     <t xml:space="preserve">• Policy rate reductions: From 0.75% to 0.15% in two steps on 11 and 19 March.
@@ -5023,8 +5356,9 @@
 - The Term Funding scheme for Small and Medium-sized Enterprises (TFSME) (11 March): Funding for banks will be provided at interest rates close to the Bank Rate of 0.1%, with lending to SMEs incentivised. Initially envisaged at a size of GBP 100 billion in 2020 (5% of GDP), the BoE recognised on 20 March that additional funding would be required. </t>
   </si>
   <si>
-    <t>• Easing of capital requirements (17 March): The countercyclical capital buffer rate was cut to 0%, which is expected to support the ability of banks to supply additional credit of around GBP 190 billion.
-• The Prudential Regulation Authority set out expectations that banks should not increase dividends or bonuses in response to the BoE's policy actions (17 March).</t>
+    <t>• Macroprudential policies:
+- Easing of capital requirements (17 March): The countercyclical capital buffer rate was cut to 0%, which is expected to support the ability of banks to supply additional credit of around GBP 190 billion.
+- The Prudential Regulation Authority set out expectations that banks should not increase dividends or bonuses in response to the BoE's policy actions (17 March).</t>
   </si>
   <si>
     <t>• Businesses and self-employed people will also be able to negotiate bespoke 'Time to Pay' arrangements with HMRC in the event that they may otherwise struggle, or need more time, to pay their taxes (11 March).</t>
@@ -5128,21 +5462,6 @@
   </si>
   <si>
     <t xml:space="preserve">*The Central Bank temporarily reduced the reserve requirements for commercial banks. </t>
-  </si>
-  <si>
-    <t>On 9 March, the government tightened entry restrictions: no tourist visa is issued for Schengen countries, the UK and some US states; Only business and diplomatic entries are still allowed, but those travellers have to submit health certificate/questionnaire; All foreign and national travellers coming from infected countries have to be quarantined for a fortnight. Before that, only visitors from China and Korea were required to undertake quarantine.
-On 17 March, the government announced that it stops visa issuance to foreign visitors for 30 days from 18 March, except for some specific cases, such as diplomats/officials.
-From the week of 23 March, all international flights have been suspended until the end of April, except some special occasional flights to bring back Vietnamese nationals.</t>
-  </si>
-  <si>
-    <t>Schools have not been open after the lunar New Year holiday (beginning of February 2020).</t>
-  </si>
-  <si>
-    <t>On 6 March, the government annouced mitigation measures. Financial institutions are requested to facilitate credit access, shorten loan applications, and reduce/exempt interest rates for customers in trouble related to the outbreak. Delayed tax payments for 5 months are also arranged. No real budget allocation is involved.
-On 18 March, the government decided to reduce the services fees by 10%-50% for nine categories of stock market transactions and waive fees for six other services, which is effective until 31 August 2020 and could be extended if needed.</t>
-  </si>
-  <si>
-    <t>On 16 March, the State Bank of Viet Nam decided to reduce its policy rate from 17 March. The refinancing rate, the most important policy rate, is now at 5.00 % down from 6.00 %. Other policy rates were also lowered.</t>
   </si>
   <si>
     <t xml:space="preserve">General territorial footnote 
@@ -6116,42 +6435,42 @@
     </row>
     <row r="6" spans="1:20" s="27" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="E6" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
@@ -6159,29 +6478,29 @@
     </row>
     <row r="7" spans="1:20" s="31" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -6190,7 +6509,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
@@ -6201,58 +6520,58 @@
         <v>54</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="G8" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="I8" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="K8" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="L8" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="P8" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="Q8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="R8" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="S8" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6260,52 +6579,52 @@
         <v>53</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="F9" s="40" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>150</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="S9" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="Q9" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="R9" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="S9" s="42" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6313,48 +6632,48 @@
         <v>55</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="I10" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="J10" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>165</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>169</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R10" s="36"/>
       <c r="S10" s="38"/>
@@ -6364,79 +6683,79 @@
         <v>56</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="F11" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="G11" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="H11" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="I11" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="J11" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>179</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P11" s="40"/>
       <c r="Q11" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R11" s="40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S11" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>187</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>189</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J12" s="43"/>
       <c r="K12" s="43"/>
@@ -6445,7 +6764,7 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -6453,25 +6772,27 @@
     </row>
     <row r="13" spans="1:20" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="E13" s="40" t="s">
         <v>195</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>196</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="I13" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>198</v>
@@ -6483,7 +6804,9 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="40"/>
+      <c r="P13" s="40" t="s">
+        <v>200</v>
+      </c>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
       <c r="S13" s="42"/>
@@ -6493,58 +6816,58 @@
         <v>58</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P14" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6552,114 +6875,118 @@
         <v>57</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P15" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q15" s="40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:20" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" s="37"/>
+        <v>240</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>241</v>
+      </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
-      <c r="P16" s="36"/>
+      <c r="P16" s="36" t="s">
+        <v>242</v>
+      </c>
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="38"/>
     </row>
     <row r="17" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -6668,7 +6995,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="40" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -6676,33 +7003,33 @@
     </row>
     <row r="18" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="37" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J18" s="37"/>
       <c r="K18" s="37" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
@@ -6718,73 +7045,75 @@
         <v>59</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="41" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K19" s="41"/>
       <c r="L19" s="41" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M19" s="41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N19" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="O19" s="41"/>
+        <v>270</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>271</v>
+      </c>
       <c r="P19" s="40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="R19" s="40"/>
       <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G20" s="36"/>
       <c r="H20" s="37"/>
       <c r="I20" s="36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
@@ -6793,7 +7122,7 @@
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="36" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
@@ -6804,39 +7133,39 @@
         <v>61</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="41" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="K21" s="41"/>
       <c r="L21" s="41"/>
       <c r="M21" s="41" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
       <c r="P21" s="40" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -6847,52 +7176,54 @@
         <v>62</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="37" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="37" t="s">
+        <v>303</v>
+      </c>
       <c r="P22" s="36" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6900,47 +7231,53 @@
         <v>63</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" s="40"/>
+        <v>312</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>313</v>
+      </c>
       <c r="H23" s="40" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="K23" s="40"/>
+        <v>316</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>317</v>
+      </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="P23" s="40"/>
+        <v>320</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>321</v>
+      </c>
       <c r="Q23" s="40" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="R23" s="40" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="S23" s="42"/>
     </row>
@@ -6949,52 +7286,52 @@
         <v>64</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="36" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="36" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="R24" s="36"/>
       <c r="S24" s="38" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7002,58 +7339,58 @@
         <v>65</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="P25" s="40" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="40" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="S25" s="42" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -7061,92 +7398,94 @@
         <v>67</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>345</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C26" s="36"/>
       <c r="D26" s="36" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="K26" s="43"/>
       <c r="L26" s="43" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="38"/>
+        <v>370</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="27" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="5" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="40" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -7154,42 +7493,42 @@
     </row>
     <row r="28" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="37" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="36" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
@@ -7197,42 +7536,42 @@
     </row>
     <row r="29" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="41" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
       <c r="O29" s="41"/>
       <c r="P29" s="40" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
@@ -7240,42 +7579,36 @@
     </row>
     <row r="30" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>394</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="E30" s="36"/>
       <c r="F30" s="36" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="43" t="s">
-        <v>397</v>
-      </c>
+      <c r="H30" s="43"/>
       <c r="I30" s="36" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="K30" s="43" t="s">
-        <v>399</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="K30" s="43"/>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
       <c r="P30" s="36" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
@@ -7283,117 +7616,119 @@
     </row>
     <row r="31" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>401</v>
+        <v>69</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>116</v>
+        <v>411</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" s="40"/>
+        <v>413</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>414</v>
+      </c>
       <c r="F31" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="I31" s="40" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="P31" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q31" s="40"/>
+        <v>425</v>
+      </c>
+      <c r="Q31" s="40" t="s">
+        <v>426</v>
+      </c>
       <c r="R31" s="40"/>
       <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>408</v>
+        <v>114</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>412</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="G32" s="36"/>
       <c r="H32" s="43" t="s">
-        <v>192</v>
+        <v>433</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="K32" s="43"/>
-      <c r="L32" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="O32" s="43" t="s">
-        <v>418</v>
-      </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36" t="s">
-        <v>419</v>
-      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="38"/>
     </row>
     <row r="33" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>421</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C33" s="40"/>
       <c r="D33" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>424</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="5" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -7402,377 +7737,383 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q33" s="40"/>
+        <v>440</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>441</v>
+      </c>
       <c r="R33" s="40"/>
       <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>428</v>
+        <v>70</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="C34" s="36"/>
+        <v>103</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>442</v>
+      </c>
       <c r="D34" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>446</v>
+      </c>
       <c r="H34" s="37" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
+        <v>448</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>450</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>452</v>
+      </c>
       <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="O34" s="37" t="s">
+        <v>453</v>
+      </c>
       <c r="P34" s="36" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="R34" s="36"/>
       <c r="S34" s="38"/>
     </row>
     <row r="35" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>439</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="G35" s="40"/>
       <c r="H35" s="41" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="N35" s="41"/>
+        <v>466</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>467</v>
+      </c>
       <c r="O35" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="P35" s="40" t="s">
-        <v>447</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="P35" s="40"/>
       <c r="Q35" s="40" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="R35" s="40"/>
-      <c r="S35" s="42"/>
+      <c r="S35" s="42" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="36" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>71</v>
+        <v>471</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="37" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>455</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="N36" s="37" t="s">
-        <v>459</v>
-      </c>
-      <c r="O36" s="37" t="s">
-        <v>460</v>
-      </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36" t="s">
-        <v>461</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
-      <c r="S36" s="38" t="s">
-        <v>462</v>
-      </c>
+      <c r="S36" s="38"/>
     </row>
     <row r="37" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
-        <v>463</v>
+        <v>66</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="G37" s="40"/>
+        <v>482</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>483</v>
+      </c>
       <c r="H37" s="41" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+        <v>485</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>490</v>
+      </c>
       <c r="O37" s="41"/>
-      <c r="P37" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="42"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="R37" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="S37" s="42" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="38" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
-        <v>66</v>
+        <v>494</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>477</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>479</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="J38" s="36"/>
       <c r="K38" s="36"/>
-      <c r="L38" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>482</v>
-      </c>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="R38" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="S38" s="38" t="s">
-        <v>485</v>
-      </c>
+      <c r="P38" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="38"/>
     </row>
     <row r="39" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
-        <v>486</v>
+        <v>73</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+        <v>506</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>508</v>
+      </c>
       <c r="I39" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+        <v>509</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>514</v>
+      </c>
       <c r="O39" s="40"/>
       <c r="P39" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="42"/>
+        <v>515</v>
+      </c>
+      <c r="Q39" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="S39" s="42" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>73</v>
+        <v>518</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="G40" s="36" t="s">
-        <v>498</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="G40" s="36"/>
       <c r="H40" s="36" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>505</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="S40" s="38" t="s">
-        <v>508</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="38"/>
     </row>
     <row r="41" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>510</v>
+        <v>244</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
-        <v>516</v>
-      </c>
+      <c r="H41" s="40"/>
       <c r="I41" s="40" t="s">
-        <v>515</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>518</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
@@ -7780,678 +8121,706 @@
     </row>
     <row r="42" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>520</v>
+        <v>74</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>116</v>
+        <v>536</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+        <v>540</v>
+      </c>
+      <c r="G42" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>542</v>
+      </c>
       <c r="I42" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q42" s="36"/>
+        <v>543</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36" t="s">
+        <v>550</v>
+      </c>
       <c r="R42" s="36"/>
-      <c r="S42" s="38"/>
+      <c r="S42" s="38" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="43" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>532</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="G43" s="40"/>
       <c r="H43" s="40" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="J43" s="40" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="L43" s="40" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="M43" s="40" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="N43" s="40" t="s">
-        <v>539</v>
-      </c>
-      <c r="O43" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="P43" s="40"/>
+        <v>562</v>
+      </c>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40" t="s">
+        <v>563</v>
+      </c>
       <c r="Q43" s="40" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="R43" s="40"/>
-      <c r="S43" s="42" t="s">
-        <v>542</v>
-      </c>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>543</v>
+        <v>154</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="G44" s="36"/>
+        <v>568</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>569</v>
+      </c>
       <c r="H44" s="36" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36" t="s">
-        <v>551</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L44" s="36"/>
       <c r="M44" s="36" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="Q44" s="36" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
       <c r="R44" s="36"/>
       <c r="S44" s="38"/>
     </row>
     <row r="45" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="G45" s="58" t="s">
-        <v>559</v>
+        <v>580</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>581</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="I45" s="40" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="J45" s="40" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="L45" s="40"/>
+        <v>585</v>
+      </c>
+      <c r="L45" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="M45" s="40" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="Q45" s="40" t="s">
-        <v>566</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
       <c r="S45" s="42"/>
     </row>
     <row r="46" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>326</v>
+        <v>589</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="L46" s="36" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
+        <v>600</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>602</v>
+      </c>
       <c r="P46" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="38"/>
+        <v>167</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="47" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
-        <v>77</v>
+        <v>605</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="I47" s="40" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="J47" s="40" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="L47" s="40" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="M47" s="40" t="s">
-        <v>590</v>
-      </c>
-      <c r="N47" s="40" t="s">
-        <v>591</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N47" s="40"/>
       <c r="O47" s="40" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="P47" s="40" t="s">
-        <v>170</v>
+        <v>619</v>
       </c>
       <c r="Q47" s="40" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="R47" s="40" t="s">
-        <v>594</v>
-      </c>
-      <c r="S47" s="42" t="s">
-        <v>592</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="S47" s="42"/>
     </row>
     <row r="48" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>157</v>
+        <v>622</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>604</v>
-      </c>
-      <c r="L48" s="36"/>
+        <v>631</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>632</v>
+      </c>
       <c r="M48" s="36" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="36" t="s">
-        <v>606</v>
-      </c>
-      <c r="P48" s="36" t="s">
-        <v>607</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="P48" s="36"/>
       <c r="Q48" s="36" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="R48" s="36" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="S48" s="38"/>
     </row>
     <row r="49" spans="1:20" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="K49" s="40" t="s">
-        <v>619</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="K49" s="40"/>
       <c r="L49" s="40" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="M49" s="40" t="s">
-        <v>621</v>
-      </c>
-      <c r="N49" s="40"/>
+        <v>646</v>
+      </c>
+      <c r="N49" s="40" t="s">
+        <v>647</v>
+      </c>
       <c r="O49" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="P49" s="40"/>
+        <v>647</v>
+      </c>
+      <c r="P49" s="40" t="s">
+        <v>648</v>
+      </c>
       <c r="Q49" s="40" t="s">
-        <v>622</v>
-      </c>
-      <c r="R49" s="40" t="s">
-        <v>623</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="R49" s="40"/>
       <c r="S49" s="42"/>
       <c r="T49" s="39"/>
     </row>
     <row r="50" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>80</v>
+        <v>650</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>527</v>
+        <v>114</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>626</v>
-      </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40" t="s">
-        <v>627</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="G50" s="40"/>
       <c r="H50" s="40" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="J50" s="40" t="s">
-        <v>630</v>
-      </c>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="M50" s="40" t="s">
-        <v>632</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
+      <c r="P50" s="40" t="s">
+        <v>659</v>
+      </c>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
       <c r="S50" s="42"/>
       <c r="T50" s="39"/>
     </row>
-    <row r="51" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
-        <v>633</v>
+        <v>81</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>634</v>
+        <v>292</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>637</v>
-      </c>
-      <c r="F51" s="40"/>
+        <v>662</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>663</v>
+      </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="I51" s="40" t="s">
-        <v>638</v>
-      </c>
-      <c r="J51" s="40"/>
+        <v>665</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>666</v>
+      </c>
       <c r="K51" s="40" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
       <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
+      <c r="M51" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="N51" s="40" t="s">
+        <v>669</v>
+      </c>
       <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
+      <c r="P51" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>671</v>
+      </c>
       <c r="R51" s="40"/>
-      <c r="S51" s="42"/>
+      <c r="S51" s="42" t="s">
+        <v>672</v>
+      </c>
       <c r="T51" s="39"/>
     </row>
-    <row r="52" spans="1:20" ht="357" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
       <c r="N52" s="40"/>
       <c r="O52" s="40"/>
       <c r="P52" s="40" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
       <c r="S52" s="42"/>
       <c r="T52" s="39"/>
     </row>
-    <row r="53" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="306" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>493</v>
+        <v>683</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>658</v>
-      </c>
-      <c r="L53" s="40"/>
+        <v>691</v>
+      </c>
+      <c r="L53" s="40" t="s">
+        <v>692</v>
+      </c>
       <c r="M53" s="40" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="N53" s="40" t="s">
-        <v>660</v>
-      </c>
-      <c r="O53" s="40"/>
+        <v>694</v>
+      </c>
+      <c r="O53" s="40" t="s">
+        <v>695</v>
+      </c>
       <c r="P53" s="40" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="Q53" s="40" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
       <c r="R53" s="40"/>
-      <c r="S53" s="42" t="s">
-        <v>663</v>
-      </c>
+      <c r="S53" s="42"/>
       <c r="T53" s="39"/>
     </row>
-    <row r="54" spans="1:20" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="G54" s="40"/>
-      <c r="H54" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="K54" s="40" t="s">
-        <v>672</v>
-      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
       <c r="N54" s="40"/>
       <c r="O54" s="40"/>
-      <c r="P54" s="40" t="s">
-        <v>673</v>
-      </c>
+      <c r="P54" s="40"/>
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
       <c r="S54" s="42"/>
       <c r="T54" s="39"/>
     </row>
-    <row r="55" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>299</v>
+        <v>703</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="G55" s="40"/>
+        <v>707</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>708</v>
+      </c>
       <c r="H55" s="40" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="J55" s="40" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="K55" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="L55" s="40" t="s">
-        <v>682</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="L55" s="40"/>
       <c r="M55" s="40" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="N55" s="40" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="O55" s="40" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="P55" s="40" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="Q55" s="40" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="R55" s="40"/>
       <c r="S55" s="42"/>
@@ -8459,214 +8828,202 @@
     </row>
     <row r="56" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>688</v>
+        <v>83</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>116</v>
+        <v>718</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>692</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+        <v>722</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="J56" s="40" t="s">
+        <v>726</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="L56" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="N56" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="O56" s="40" t="s">
+        <v>731</v>
+      </c>
+      <c r="P56" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q56" s="40" t="s">
+        <v>733</v>
+      </c>
       <c r="R56" s="40"/>
-      <c r="S56" s="42"/>
+      <c r="S56" s="42" t="s">
+        <v>734</v>
+      </c>
       <c r="T56" s="39"/>
     </row>
     <row r="57" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
-        <v>82</v>
+        <v>735</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>693</v>
+        <v>154</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>694</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>695</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="D57" s="40"/>
       <c r="E57" s="40" t="s">
-        <v>696</v>
+        <v>737</v>
       </c>
       <c r="F57" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>698</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="G57" s="40"/>
       <c r="H57" s="40" t="s">
-        <v>699</v>
+        <v>740</v>
       </c>
       <c r="I57" s="40" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="J57" s="40" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="K57" s="40" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="L57" s="40"/>
-      <c r="M57" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="N57" s="40" t="s">
-        <v>704</v>
-      </c>
-      <c r="O57" s="40" t="s">
-        <v>705</v>
-      </c>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
       <c r="P57" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q57" s="40" t="s">
-        <v>707</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="Q57" s="40"/>
       <c r="R57" s="40"/>
       <c r="S57" s="42"/>
       <c r="T57" s="39"/>
     </row>
-    <row r="58" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>708</v>
+        <v>154</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>715</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="I58" s="40"/>
       <c r="J58" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="K58" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="L58" s="40" t="s">
-        <v>718</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
       <c r="M58" s="40" t="s">
-        <v>719</v>
-      </c>
-      <c r="N58" s="40" t="s">
-        <v>720</v>
-      </c>
-      <c r="O58" s="40" t="s">
-        <v>721</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
       <c r="P58" s="40" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q58" s="40" t="s">
-        <v>723</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="Q58" s="40"/>
       <c r="R58" s="40"/>
       <c r="S58" s="42" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="T58" s="39"/>
     </row>
-    <row r="59" spans="1:20" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="204" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>86</v>
+        <v>753</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>725</v>
+        <v>244</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>729</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>726</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>730</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="40" t="s">
-        <v>731</v>
-      </c>
+      <c r="J59" s="40"/>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
-      <c r="M59" s="40" t="s">
-        <v>732</v>
-      </c>
+      <c r="M59" s="40"/>
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
-      <c r="P59" s="40" t="s">
-        <v>733</v>
-      </c>
+      <c r="P59" s="40"/>
       <c r="Q59" s="40"/>
       <c r="R59" s="40"/>
-      <c r="S59" s="42" t="s">
-        <v>734</v>
-      </c>
+      <c r="S59" s="42"/>
       <c r="T59" s="39"/>
     </row>
-    <row r="60" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="153" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -8677,42 +9034,50 @@
       <c r="M60" s="40"/>
       <c r="N60" s="40"/>
       <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
+      <c r="P60" s="40" t="s">
+        <v>763</v>
+      </c>
       <c r="Q60" s="40"/>
       <c r="R60" s="40"/>
       <c r="S60" s="42"/>
       <c r="T60" s="39"/>
     </row>
-    <row r="61" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>743</v>
+        <v>767</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
+      <c r="H61" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>769</v>
+      </c>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="40" t="s">
+        <v>771</v>
+      </c>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
       <c r="N61" s="40"/>
       <c r="O61" s="40"/>
       <c r="P61" s="40" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="Q61" s="40"/>
       <c r="R61" s="40"/>
@@ -8721,396 +9086,422 @@
     </row>
     <row r="62" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>746</v>
+        <v>85</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>116</v>
+        <v>773</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>750</v>
-      </c>
-      <c r="G62" s="40"/>
+        <v>777</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>778</v>
+      </c>
       <c r="H62" s="40" t="s">
-        <v>192</v>
+        <v>779</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>751</v>
-      </c>
-      <c r="J62" s="40"/>
+        <v>780</v>
+      </c>
+      <c r="J62" s="40" t="s">
+        <v>781</v>
+      </c>
       <c r="K62" s="40" t="s">
-        <v>752</v>
-      </c>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
+        <v>782</v>
+      </c>
+      <c r="L62" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="N62" s="40" t="s">
+        <v>785</v>
+      </c>
       <c r="O62" s="40"/>
       <c r="P62" s="40" t="s">
-        <v>753</v>
-      </c>
-      <c r="Q62" s="40"/>
+        <v>786</v>
+      </c>
+      <c r="Q62" s="40" t="s">
+        <v>787</v>
+      </c>
       <c r="R62" s="40"/>
       <c r="S62" s="42"/>
       <c r="T62" s="39"/>
     </row>
-    <row r="63" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
-        <v>85</v>
+        <v>788</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>429</v>
+        <v>154</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>758</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="G63" s="40"/>
       <c r="H63" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="I63" s="40" t="s">
-        <v>760</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="I63" s="40"/>
       <c r="J63" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40" t="s">
-        <v>762</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="L63" s="40"/>
       <c r="M63" s="40"/>
-      <c r="N63" s="40" t="s">
-        <v>763</v>
-      </c>
+      <c r="N63" s="40"/>
       <c r="O63" s="40"/>
-      <c r="P63" s="40" t="s">
-        <v>764</v>
-      </c>
-      <c r="Q63" s="40" t="s">
-        <v>765</v>
-      </c>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
       <c r="S63" s="42"/>
       <c r="T63" s="39"/>
     </row>
-    <row r="64" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
-        <v>766</v>
+        <v>87</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>770</v>
-      </c>
-      <c r="G64" s="40"/>
+        <v>799</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>800</v>
+      </c>
       <c r="H64" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="I64" s="40"/>
+        <v>801</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>802</v>
+      </c>
       <c r="J64" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="K64" s="40" t="s">
-        <v>773</v>
-      </c>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
+        <v>803</v>
+      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="M64" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="N64" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="O64" s="40" t="s">
+        <v>807</v>
+      </c>
       <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="42"/>
+      <c r="Q64" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="R64" s="40" t="s">
+        <v>809</v>
+      </c>
+      <c r="S64" s="42" t="s">
+        <v>810</v>
+      </c>
       <c r="T64" s="39"/>
     </row>
-    <row r="65" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
-        <v>774</v>
+        <v>89</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>116</v>
+        <v>589</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="G65" s="40"/>
+        <v>814</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>815</v>
+      </c>
       <c r="H65" s="40" t="s">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
       <c r="J65" s="40" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="K65" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
+        <v>819</v>
+      </c>
+      <c r="L65" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="M65" s="40" t="s">
+        <v>821</v>
+      </c>
       <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
+      <c r="O65" s="40" t="s">
+        <v>822</v>
+      </c>
       <c r="P65" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="42"/>
+        <v>823</v>
+      </c>
+      <c r="Q65" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="R65" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="S65" s="42" t="s">
+        <v>826</v>
+      </c>
       <c r="T65" s="39"/>
     </row>
-    <row r="66" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
-        <v>87</v>
+        <v>827</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>784</v>
+        <v>828</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>786</v>
+        <v>830</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="H66" s="40" t="s">
-        <v>789</v>
-      </c>
-      <c r="I66" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="J66" s="40" t="s">
-        <v>791</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="40"/>
-      <c r="L66" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="M66" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="N66" s="40" t="s">
-        <v>794</v>
-      </c>
-      <c r="O66" s="40" t="s">
-        <v>795</v>
-      </c>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40" t="s">
-        <v>796</v>
-      </c>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q66" s="40"/>
       <c r="R66" s="40"/>
-      <c r="S66" s="42" t="s">
-        <v>797</v>
-      </c>
+      <c r="S66" s="42"/>
       <c r="T66" s="39"/>
     </row>
-    <row r="67" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="s">
-        <v>89</v>
+        <v>833</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>579</v>
+        <v>244</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>801</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>802</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="G67" s="40"/>
       <c r="H67" s="40" t="s">
-        <v>803</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>804</v>
-      </c>
-      <c r="J67" s="40" t="s">
-        <v>805</v>
-      </c>
-      <c r="K67" s="40" t="s">
-        <v>806</v>
-      </c>
-      <c r="L67" s="40" t="s">
-        <v>807</v>
-      </c>
-      <c r="M67" s="40" t="s">
-        <v>808</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
       <c r="N67" s="40"/>
-      <c r="O67" s="40" t="s">
-        <v>809</v>
-      </c>
-      <c r="P67" s="40" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q67" s="40" t="s">
-        <v>811</v>
-      </c>
-      <c r="R67" s="40" t="s">
-        <v>812</v>
-      </c>
-      <c r="S67" s="42" t="s">
-        <v>813</v>
-      </c>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="42"/>
       <c r="T67" s="39"/>
     </row>
-    <row r="68" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
-        <v>814</v>
+        <v>88</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
+        <v>842</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="J68" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="L68" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="M68" s="40" t="s">
+        <v>849</v>
+      </c>
+      <c r="N68" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="O68" s="40" t="s">
+        <v>851</v>
+      </c>
       <c r="P68" s="40" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q68" s="40"/>
+        <v>852</v>
+      </c>
+      <c r="Q68" s="40" t="s">
+        <v>853</v>
+      </c>
       <c r="R68" s="40"/>
       <c r="S68" s="42"/>
       <c r="T68" s="39"/>
     </row>
     <row r="69" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>822</v>
+        <v>856</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
+        <v>860</v>
+      </c>
+      <c r="I69" s="40" t="s">
+        <v>859</v>
+      </c>
+      <c r="J69" s="40" t="s">
+        <v>861</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>862</v>
+      </c>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
       <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
+      <c r="P69" s="40" t="s">
+        <v>863</v>
+      </c>
       <c r="Q69" s="40"/>
       <c r="R69" s="40"/>
       <c r="S69" s="42"/>
       <c r="T69" s="39"/>
     </row>
-    <row r="70" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
-        <v>826</v>
+        <v>864</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
+        <v>865</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>866</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>867</v>
+      </c>
       <c r="F70" s="40" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="40" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="J70" s="40"/>
+        <v>869</v>
+      </c>
+      <c r="J70" s="40" t="s">
+        <v>871</v>
+      </c>
       <c r="K70" s="40" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
       <c r="N70" s="40"/>
       <c r="O70" s="40"/>
       <c r="P70" s="40" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="Q70" s="40"/>
       <c r="R70" s="40"/>
@@ -9119,513 +9510,497 @@
     </row>
     <row r="71" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>370</v>
+        <v>874</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="G71" s="40"/>
+        <v>878</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>879</v>
+      </c>
       <c r="H71" s="40" t="s">
-        <v>837</v>
+        <v>880</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>838</v>
+        <v>881</v>
       </c>
       <c r="J71" s="40" t="s">
-        <v>839</v>
+        <v>882</v>
       </c>
       <c r="K71" s="40" t="s">
-        <v>840</v>
-      </c>
-      <c r="L71" s="40" t="s">
-        <v>841</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="L71" s="40"/>
       <c r="M71" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="N71" s="40" t="s">
-        <v>843</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="N71" s="40"/>
       <c r="O71" s="40" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="Q71" s="40" t="s">
-        <v>846</v>
-      </c>
+        <v>886</v>
+      </c>
+      <c r="Q71" s="40"/>
       <c r="R71" s="40"/>
       <c r="S71" s="42"/>
       <c r="T71" s="39"/>
     </row>
     <row r="72" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
-        <v>847</v>
+        <v>91</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>274</v>
+        <v>636</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>851</v>
-      </c>
-      <c r="G72" s="40"/>
+        <v>890</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>891</v>
+      </c>
       <c r="H72" s="40" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="J72" s="40" t="s">
-        <v>854</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>855</v>
-      </c>
+        <v>894</v>
+      </c>
+      <c r="K72" s="40"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
+      <c r="M72" s="58" t="s">
+        <v>895</v>
+      </c>
       <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40" t="s">
-        <v>856</v>
-      </c>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
+      <c r="O72" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="R72" s="40" t="s">
+        <v>898</v>
+      </c>
       <c r="S72" s="42"/>
       <c r="T72" s="39"/>
     </row>
     <row r="73" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
-        <v>857</v>
+        <v>92</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>116</v>
+        <v>899</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>858</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>859</v>
+        <v>900</v>
+      </c>
+      <c r="D73" s="58" t="s">
+        <v>901</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>861</v>
-      </c>
-      <c r="G73" s="40"/>
+        <v>903</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>904</v>
+      </c>
       <c r="H73" s="40" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="I73" s="40" t="s">
-        <v>862</v>
-      </c>
-      <c r="J73" s="40" t="s">
-        <v>864</v>
+        <v>906</v>
+      </c>
+      <c r="J73" s="58" t="s">
+        <v>907</v>
       </c>
       <c r="K73" s="40" t="s">
-        <v>865</v>
+        <v>908</v>
       </c>
       <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
+      <c r="M73" s="58" t="s">
+        <v>909</v>
+      </c>
       <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
+      <c r="O73" s="40" t="s">
+        <v>910</v>
+      </c>
       <c r="P73" s="40" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="42"/>
+        <v>911</v>
+      </c>
+      <c r="Q73" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="R73" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="S73" s="42" t="s">
+        <v>914</v>
+      </c>
       <c r="T73" s="39"/>
     </row>
-    <row r="74" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
-        <v>867</v>
+        <v>93</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>370</v>
+        <v>103</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>868</v>
+        <v>915</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>869</v>
+        <v>916</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>870</v>
+        <v>917</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>871</v>
+        <v>918</v>
       </c>
       <c r="G74" s="40"/>
       <c r="H74" s="40" t="s">
-        <v>873</v>
+        <v>919</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>872</v>
+        <v>920</v>
       </c>
       <c r="J74" s="40" t="s">
-        <v>874</v>
+        <v>921</v>
       </c>
       <c r="K74" s="40" t="s">
-        <v>875</v>
-      </c>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
+        <v>922</v>
+      </c>
+      <c r="L74" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="M74" s="40" t="s">
+        <v>924</v>
+      </c>
       <c r="N74" s="40"/>
       <c r="O74" s="40"/>
       <c r="P74" s="40" t="s">
-        <v>876</v>
+        <v>925</v>
       </c>
       <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
+      <c r="R74" s="40" t="s">
+        <v>926</v>
+      </c>
       <c r="S74" s="42"/>
       <c r="T74" s="39"/>
     </row>
-    <row r="75" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
-        <v>90</v>
+        <v>927</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>878</v>
+        <v>929</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>880</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>882</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="40" t="s">
-        <v>883</v>
+        <v>932</v>
       </c>
       <c r="J75" s="40" t="s">
-        <v>884</v>
+        <v>933</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>885</v>
+        <v>934</v>
       </c>
       <c r="L75" s="40"/>
-      <c r="M75" s="40" t="s">
-        <v>886</v>
-      </c>
+      <c r="M75" s="40"/>
       <c r="N75" s="40"/>
-      <c r="O75" s="40" t="s">
-        <v>887</v>
-      </c>
+      <c r="O75" s="40"/>
       <c r="P75" s="40" t="s">
-        <v>888</v>
+        <v>935</v>
       </c>
       <c r="Q75" s="40"/>
       <c r="R75" s="40"/>
       <c r="S75" s="42"/>
       <c r="T75" s="39"/>
     </row>
-    <row r="76" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>326</v>
+        <v>874</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>889</v>
+        <v>936</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>890</v>
+        <v>937</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>891</v>
+        <v>938</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>892</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>893</v>
-      </c>
+        <v>939</v>
+      </c>
+      <c r="G76" s="40"/>
       <c r="H76" s="40" t="s">
-        <v>894</v>
+        <v>940</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>895</v>
+        <v>941</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>896</v>
+        <v>942</v>
       </c>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="58" t="s">
-        <v>897</v>
+      <c r="M76" s="40" t="s">
+        <v>943</v>
       </c>
       <c r="N76" s="40"/>
-      <c r="O76" s="40" t="s">
-        <v>898</v>
-      </c>
+      <c r="O76" s="40"/>
       <c r="P76" s="40"/>
       <c r="Q76" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="R76" s="40" t="s">
-        <v>900</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="R76" s="40"/>
       <c r="S76" s="42"/>
       <c r="T76" s="39"/>
     </row>
-    <row r="77" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
-        <v>92</v>
+        <v>945</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>901</v>
+        <v>244</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="D77" s="58" t="s">
-        <v>903</v>
+        <v>946</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>947</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>904</v>
+        <v>948</v>
       </c>
       <c r="F77" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>906</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="G77" s="40"/>
       <c r="H77" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="I77" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="J77" s="58" t="s">
-        <v>909</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>910</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
       <c r="L77" s="40"/>
-      <c r="M77" s="58" t="s">
-        <v>911</v>
-      </c>
+      <c r="M77" s="40"/>
       <c r="N77" s="40"/>
-      <c r="O77" s="40" t="s">
-        <v>912</v>
-      </c>
+      <c r="O77" s="40"/>
       <c r="P77" s="40" t="s">
-        <v>913</v>
-      </c>
-      <c r="Q77" s="40" t="s">
-        <v>914</v>
-      </c>
-      <c r="R77" s="40" t="s">
-        <v>915</v>
-      </c>
-      <c r="S77" s="42" t="s">
-        <v>916</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="42"/>
       <c r="T77" s="39"/>
     </row>
-    <row r="78" spans="1:20" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
-        <v>93</v>
+        <v>952</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>917</v>
+        <v>114</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>918</v>
+        <v>953</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>919</v>
+        <v>954</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>920</v>
+        <v>955</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>921</v>
+        <v>956</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40" t="s">
-        <v>922</v>
+        <v>958</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>923</v>
+        <v>957</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>924</v>
+        <v>959</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>925</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>926</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>927</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
       <c r="N78" s="40"/>
       <c r="O78" s="40"/>
       <c r="P78" s="40" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="Q78" s="40"/>
-      <c r="R78" s="40" t="s">
-        <v>929</v>
-      </c>
+      <c r="R78" s="40"/>
       <c r="S78" s="42"/>
       <c r="T78" s="39"/>
     </row>
-    <row r="79" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
-        <v>930</v>
+        <v>962</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>931</v>
+        <v>963</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>932</v>
+        <v>964</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>933</v>
+        <v>965</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>934</v>
+        <v>966</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
-      <c r="I79" s="40" t="s">
-        <v>935</v>
-      </c>
-      <c r="J79" s="40" t="s">
-        <v>936</v>
-      </c>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
       <c r="N79" s="40"/>
       <c r="O79" s="40"/>
-      <c r="P79" s="40" t="s">
-        <v>937</v>
-      </c>
+      <c r="P79" s="40"/>
       <c r="Q79" s="40"/>
       <c r="R79" s="40"/>
       <c r="S79" s="42"/>
       <c r="T79" s="39"/>
     </row>
-    <row r="80" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>938</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="C80" s="40"/>
       <c r="D80" s="40" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>941</v>
-      </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40" t="s">
-        <v>942</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>971</v>
+      </c>
+      <c r="H80" s="40"/>
       <c r="I80" s="40" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="K80" s="40"/>
       <c r="L80" s="40"/>
       <c r="M80" s="40" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="N80" s="40"/>
-      <c r="O80" s="40"/>
+      <c r="O80" s="40" t="s">
+        <v>975</v>
+      </c>
       <c r="P80" s="40"/>
-      <c r="Q80" s="40" t="s">
-        <v>946</v>
-      </c>
+      <c r="Q80" s="40"/>
       <c r="R80" s="40"/>
       <c r="S80" s="42"/>
       <c r="T80" s="39"/>
     </row>
-    <row r="81" spans="1:20" ht="255" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
-        <v>947</v>
+        <v>96</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>116</v>
+        <v>976</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>951</v>
-      </c>
-      <c r="G81" s="40"/>
+        <v>980</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>981</v>
+      </c>
       <c r="H81" s="40" t="s">
-        <v>952</v>
-      </c>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
+        <v>982</v>
+      </c>
+      <c r="I81" s="40" t="s">
+        <v>983</v>
+      </c>
+      <c r="J81" s="40" t="s">
+        <v>984</v>
+      </c>
       <c r="K81" s="40"/>
       <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40" t="s">
-        <v>953</v>
-      </c>
+      <c r="M81" s="40" t="s">
+        <v>985</v>
+      </c>
+      <c r="N81" s="40" t="s">
+        <v>986</v>
+      </c>
+      <c r="O81" s="40" t="s">
+        <v>987</v>
+      </c>
+      <c r="P81" s="40"/>
       <c r="Q81" s="40"/>
       <c r="R81" s="40"/>
       <c r="S81" s="42"/>
@@ -9633,335 +10008,353 @@
     </row>
     <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
-        <v>954</v>
+        <v>101</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>116</v>
+        <v>988</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>957</v>
+        <v>991</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="G82" s="40"/>
       <c r="H82" s="40" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="I82" s="40" t="s">
-        <v>959</v>
+        <v>994</v>
       </c>
       <c r="J82" s="40" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="K82" s="40" t="s">
-        <v>962</v>
-      </c>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
+        <v>996</v>
+      </c>
+      <c r="L82" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="N82" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="O82" s="40" t="s">
+        <v>1000</v>
+      </c>
       <c r="P82" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="Q82" s="40"/>
+        <v>1001</v>
+      </c>
+      <c r="Q82" s="40" t="s">
+        <v>1002</v>
+      </c>
       <c r="R82" s="40"/>
-      <c r="S82" s="42"/>
+      <c r="S82" s="42" t="s">
+        <v>1003</v>
+      </c>
       <c r="T82" s="39"/>
     </row>
-    <row r="83" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
-        <v>964</v>
+        <v>68</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>965</v>
+        <v>1004</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>966</v>
+        <v>1005</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>968</v>
-      </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="42"/>
+        <v>1007</v>
+      </c>
+      <c r="G83" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I83" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J83" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K83" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L83" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M83" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N83" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O83" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P83" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q83" s="40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R83" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S83" s="42" t="s">
+        <v>1020</v>
+      </c>
       <c r="T83" s="39"/>
     </row>
-    <row r="84" spans="1:20" ht="255" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>969</v>
-      </c>
-      <c r="C84" s="40"/>
+        <v>1021</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>1022</v>
+      </c>
       <c r="D84" s="40" t="s">
-        <v>970</v>
+        <v>1023</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>971</v>
+        <v>1024</v>
       </c>
       <c r="F84" s="40" t="s">
-        <v>972</v>
-      </c>
-      <c r="G84" s="40" t="s">
-        <v>973</v>
-      </c>
-      <c r="H84" s="40"/>
+        <v>1025</v>
+      </c>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40" t="s">
+        <v>1026</v>
+      </c>
       <c r="I84" s="40" t="s">
-        <v>974</v>
+        <v>1027</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>975</v>
-      </c>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
+        <v>1028</v>
+      </c>
+      <c r="K84" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L84" s="40" t="s">
+        <v>1030</v>
+      </c>
       <c r="M84" s="40" t="s">
-        <v>976</v>
-      </c>
-      <c r="N84" s="40"/>
+        <v>1031</v>
+      </c>
+      <c r="N84" s="40" t="s">
+        <v>1032</v>
+      </c>
       <c r="O84" s="40" t="s">
-        <v>977</v>
-      </c>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
+        <v>1033</v>
+      </c>
+      <c r="P84" s="40" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q84" s="40" t="s">
+        <v>1035</v>
+      </c>
       <c r="R84" s="40"/>
       <c r="S84" s="42"/>
       <c r="T84" s="39"/>
     </row>
     <row r="85" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>978</v>
+        <v>1036</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>979</v>
+        <v>1037</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>980</v>
+        <v>1038</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>981</v>
+        <v>1039</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>982</v>
+        <v>1040</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>983</v>
+        <v>1041</v>
       </c>
       <c r="H85" s="40" t="s">
-        <v>984</v>
+        <v>1042</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>985</v>
+        <v>1043</v>
       </c>
       <c r="J85" s="40" t="s">
-        <v>986</v>
+        <v>1044</v>
       </c>
       <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
+      <c r="L85" s="40" t="s">
+        <v>1045</v>
+      </c>
       <c r="M85" s="40" t="s">
-        <v>987</v>
+        <v>1046</v>
       </c>
       <c r="N85" s="40" t="s">
-        <v>988</v>
+        <v>1047</v>
       </c>
       <c r="O85" s="40"/>
-      <c r="P85" s="40"/>
-      <c r="Q85" s="40"/>
+      <c r="P85" s="40" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q85" s="40" t="s">
+        <v>1049</v>
+      </c>
       <c r="R85" s="40"/>
       <c r="S85" s="42"/>
       <c r="T85" s="39"/>
     </row>
-    <row r="86" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>103</v>
+        <v>1050</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>989</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>990</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="C86" s="40"/>
       <c r="D86" s="40" t="s">
-        <v>991</v>
+        <v>1052</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>992</v>
+        <v>1053</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>993</v>
+        <v>1054</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40" t="s">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>995</v>
-      </c>
-      <c r="J86" s="40" t="s">
-        <v>996</v>
-      </c>
-      <c r="K86" s="40" t="s">
-        <v>997</v>
-      </c>
-      <c r="L86" s="40" t="s">
-        <v>998</v>
-      </c>
-      <c r="M86" s="40" t="s">
-        <v>999</v>
-      </c>
-      <c r="N86" s="40" t="s">
-        <v>1000</v>
-      </c>
-      <c r="O86" s="40" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P86" s="40" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Q86" s="40" t="s">
-        <v>1003</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
       <c r="R86" s="40"/>
-      <c r="S86" s="42" t="s">
-        <v>1004</v>
-      </c>
+      <c r="S86" s="42"/>
       <c r="T86" s="39"/>
     </row>
-    <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
-        <v>68</v>
+        <v>1057</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>1005</v>
+        <v>1058</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>1006</v>
+        <v>1059</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>1007</v>
+        <v>1060</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G87" s="40" t="s">
-        <v>1009</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="G87" s="40"/>
       <c r="H87" s="40" t="s">
-        <v>1010</v>
+        <v>1063</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J87" s="40" t="s">
-        <v>1012</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L87" s="40" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M87" s="40" t="s">
-        <v>1015</v>
-      </c>
-      <c r="N87" s="40" t="s">
-        <v>1016</v>
-      </c>
-      <c r="O87" s="40" t="s">
-        <v>1017</v>
-      </c>
+        <v>1062</v>
+      </c>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
       <c r="P87" s="40" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Q87" s="40" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R87" s="40" t="s">
-        <v>1020</v>
-      </c>
-      <c r="S87" s="42" t="s">
-        <v>1021</v>
-      </c>
+        <v>1064</v>
+      </c>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="42"/>
       <c r="T87" s="39"/>
     </row>
     <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>1022</v>
+        <v>1065</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>1023</v>
+        <v>1066</v>
       </c>
       <c r="E88" s="40" t="s">
-        <v>1024</v>
+        <v>1067</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G88" s="40"/>
+        <v>1068</v>
+      </c>
+      <c r="G88" s="40" t="s">
+        <v>1069</v>
+      </c>
       <c r="H88" s="40" t="s">
-        <v>1026</v>
+        <v>1070</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>1027</v>
+        <v>1071</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>1028</v>
+        <v>1072</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>1029</v>
+        <v>1073</v>
       </c>
       <c r="L88" s="40" t="s">
-        <v>1030</v>
+        <v>1074</v>
       </c>
       <c r="M88" s="40" t="s">
-        <v>1031</v>
+        <v>1075</v>
       </c>
       <c r="N88" s="40" t="s">
-        <v>1032</v>
+        <v>1076</v>
       </c>
       <c r="O88" s="40" t="s">
-        <v>1033</v>
+        <v>1077</v>
       </c>
       <c r="P88" s="40" t="s">
-        <v>1034</v>
+        <v>1078</v>
       </c>
       <c r="Q88" s="40" t="s">
-        <v>1035</v>
+        <v>1079</v>
       </c>
       <c r="R88" s="40"/>
       <c r="S88" s="42"/>
@@ -9969,411 +10362,335 @@
     </row>
     <row r="89" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>1036</v>
+        <v>1080</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>1037</v>
+        <v>1081</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>1038</v>
+        <v>1082</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>1039</v>
+        <v>1083</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>1040</v>
+        <v>1084</v>
       </c>
       <c r="G89" s="40" t="s">
-        <v>1041</v>
+        <v>1085</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>1042</v>
+        <v>1086</v>
       </c>
       <c r="I89" s="40" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>1044</v>
+        <v>1088</v>
       </c>
       <c r="K89" s="40"/>
       <c r="L89" s="40" t="s">
-        <v>1045</v>
+        <v>1089</v>
       </c>
       <c r="M89" s="40" t="s">
-        <v>1046</v>
+        <v>1090</v>
       </c>
       <c r="N89" s="40" t="s">
-        <v>1047</v>
-      </c>
-      <c r="O89" s="40"/>
+        <v>1091</v>
+      </c>
+      <c r="O89" s="40" t="s">
+        <v>1092</v>
+      </c>
       <c r="P89" s="40" t="s">
-        <v>1048</v>
+        <v>1093</v>
       </c>
       <c r="Q89" s="40" t="s">
-        <v>1049</v>
-      </c>
-      <c r="R89" s="40"/>
-      <c r="S89" s="42"/>
+        <v>1094</v>
+      </c>
+      <c r="R89" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="S89" s="42" t="s">
+        <v>1096</v>
+      </c>
       <c r="T89" s="39"/>
     </row>
-    <row r="90" spans="1:20" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>98</v>
+        <v>1097</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C90" s="40"/>
+        <v>1051</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>1098</v>
+      </c>
       <c r="D90" s="40" t="s">
-        <v>1051</v>
+        <v>1099</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>1052</v>
+        <v>1100</v>
       </c>
       <c r="F90" s="40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G90" s="40" t="s">
-        <v>1054</v>
-      </c>
+        <v>1101</v>
+      </c>
+      <c r="G90" s="40"/>
       <c r="H90" s="40" t="s">
-        <v>1055</v>
+        <v>1102</v>
       </c>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="K90" s="40" t="s">
+        <v>1103</v>
+      </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
       <c r="O90" s="40"/>
       <c r="P90" s="40" t="s">
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="Q90" s="40"/>
       <c r="R90" s="40"/>
       <c r="S90" s="42"/>
       <c r="T90" s="39"/>
     </row>
-    <row r="91" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>1057</v>
+        <v>72</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>116</v>
+        <v>456</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>1058</v>
+        <v>1105</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>1059</v>
+        <v>1106</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>1060</v>
+        <v>1107</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G91" s="40"/>
+        <v>1108</v>
+      </c>
+      <c r="G91" s="40" t="s">
+        <v>1109</v>
+      </c>
       <c r="H91" s="40" t="s">
-        <v>1063</v>
+        <v>1110</v>
       </c>
       <c r="I91" s="40" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="40"/>
-      <c r="O91" s="40"/>
+        <v>1111</v>
+      </c>
+      <c r="J91" s="40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K91" s="40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L91" s="40" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M91" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N91" s="40" t="s">
+        <v>1116</v>
+      </c>
+      <c r="O91" s="40" t="s">
+        <v>1117</v>
+      </c>
       <c r="P91" s="40" t="s">
-        <v>1064</v>
-      </c>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="40"/>
+        <v>1118</v>
+      </c>
+      <c r="Q91" s="40" t="s">
+        <v>1119</v>
+      </c>
+      <c r="R91" s="40" t="s">
+        <v>1120</v>
+      </c>
       <c r="S91" s="42"/>
       <c r="T91" s="39"/>
     </row>
-    <row r="92" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>1036</v>
+        <v>899</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>1065</v>
+        <v>1121</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>1066</v>
+        <v>1122</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>1067</v>
+        <v>1123</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G92" s="40"/>
+        <v>1124</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>1125</v>
+      </c>
       <c r="H92" s="40" t="s">
-        <v>1070</v>
+        <v>1126</v>
       </c>
       <c r="I92" s="40" t="s">
-        <v>1069</v>
+        <v>1127</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>1071</v>
+        <v>1128</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
+        <v>1129</v>
+      </c>
+      <c r="L92" s="40" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M92" s="40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="N92" s="40" t="s">
+        <v>1132</v>
+      </c>
       <c r="O92" s="40"/>
       <c r="P92" s="40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="Q92" s="40"/>
+        <v>1133</v>
+      </c>
+      <c r="Q92" s="40" t="s">
+        <v>1134</v>
+      </c>
       <c r="R92" s="40"/>
       <c r="S92" s="42"/>
       <c r="T92" s="39"/>
     </row>
     <row r="93" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>100</v>
+        <v>1135</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>1074</v>
+        <v>1136</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>1075</v>
+        <v>1137</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>1076</v>
+        <v>1138</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>1078</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="G93" s="40"/>
       <c r="H93" s="40" t="s">
-        <v>1079</v>
+        <v>1141</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="J93" s="40" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40" t="s">
-        <v>1082</v>
-      </c>
-      <c r="M93" s="40" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N93" s="40" t="s">
-        <v>1084</v>
-      </c>
-      <c r="O93" s="40" t="s">
-        <v>1085</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
       <c r="P93" s="40" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q93" s="40" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R93" s="40" t="s">
-        <v>1088</v>
-      </c>
-      <c r="S93" s="42" t="s">
-        <v>1089</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="42"/>
       <c r="T93" s="39"/>
     </row>
-    <row r="94" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D94" s="40" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G94" s="40" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H94" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I94" s="40" t="s">
-        <v>1096</v>
-      </c>
-      <c r="J94" s="40" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K94" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="L94" s="40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="M94" s="40" t="s">
-        <v>1100</v>
-      </c>
-      <c r="N94" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="O94" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="P94" s="40" t="s">
-        <v>1102</v>
-      </c>
-      <c r="Q94" s="40" t="s">
-        <v>1103</v>
-      </c>
-      <c r="R94" s="40" t="s">
-        <v>1104</v>
-      </c>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="40"/>
       <c r="S94" s="42"/>
       <c r="T94" s="39"/>
     </row>
-    <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D95" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G95" s="40" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H95" s="40" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I95" s="40" t="s">
-        <v>1111</v>
-      </c>
-      <c r="J95" s="40" t="s">
-        <v>1112</v>
-      </c>
-      <c r="K95" s="40" t="s">
-        <v>1113</v>
-      </c>
-      <c r="L95" s="40" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M95" s="40" t="s">
-        <v>1115</v>
-      </c>
-      <c r="N95" s="40" t="s">
-        <v>1116</v>
-      </c>
+    <row r="95" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="59" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
       <c r="O95" s="40"/>
-      <c r="P95" s="40" t="s">
-        <v>1117</v>
-      </c>
-      <c r="Q95" s="40" t="s">
-        <v>1118</v>
-      </c>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
       <c r="S95" s="42"/>
       <c r="T95" s="39"/>
     </row>
-    <row r="96" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="39" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>1123</v>
-      </c>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
       <c r="G96" s="40"/>
-      <c r="H96" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I96" s="40" t="s">
-        <v>1124</v>
-      </c>
-      <c r="J96" s="40" t="s">
-        <v>1126</v>
-      </c>
-      <c r="K96" s="40" t="s">
-        <v>1127</v>
-      </c>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
       <c r="O96" s="40"/>
-      <c r="P96" s="40" t="s">
-        <v>1128</v>
-      </c>
-      <c r="Q96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="42"/>
       <c r="R96" s="40"/>
-      <c r="S96" s="42"/>
+      <c r="S96" s="40"/>
       <c r="T96" s="39"/>
     </row>
-    <row r="97" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>116</v>
-      </c>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="40"/>
-      <c r="D97" s="40" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E97" s="40" t="s">
-        <v>1130</v>
-      </c>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
-      <c r="H97" s="40" t="s">
-        <v>1131</v>
-      </c>
+      <c r="H97" s="40"/>
       <c r="I97" s="40"/>
       <c r="J97" s="40"/>
       <c r="K97" s="40"/>
@@ -10381,12 +10698,10 @@
       <c r="M97" s="40"/>
       <c r="N97" s="40"/>
       <c r="O97" s="40"/>
-      <c r="P97" s="40" t="s">
-        <v>1132</v>
-      </c>
-      <c r="Q97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="42"/>
       <c r="R97" s="40"/>
-      <c r="S97" s="42"/>
+      <c r="S97" s="40"/>
       <c r="T97" s="39"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -10406,33 +10721,31 @@
       <c r="N98" s="40"/>
       <c r="O98" s="40"/>
       <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
+      <c r="Q98" s="42"/>
       <c r="R98" s="40"/>
-      <c r="S98" s="42"/>
+      <c r="S98" s="40"/>
       <c r="T98" s="39"/>
     </row>
-    <row r="99" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="60"/>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="40"/>
+      <c r="K99" s="40"/>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
       <c r="N99" s="40"/>
       <c r="O99" s="40"/>
       <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
+      <c r="Q99" s="42"/>
       <c r="R99" s="40"/>
-      <c r="S99" s="42"/>
+      <c r="S99" s="40"/>
       <c r="T99" s="39"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -16663,7 +16976,7 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A99:K99"/>
+    <mergeCell ref="A95:K95"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="P1:Q1"/>

--- a/data/CoronavirusUpdate_AllCountries_Public.xlsx
+++ b/data/CoronavirusUpdate_AllCountries_Public.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="0" windowWidth="25200" windowHeight="12045"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="25200" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Country Updates" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="1346">
   <si>
     <t>Covid19 Update by Country</t>
   </si>
@@ -629,7 +629,7 @@
 </t>
   </si>
   <si>
-    <t>27-Apr-2020 (Last updated: 29-Apr-2020)</t>
+    <t>27-Apr-2020 (Last updated: 30-Apr-2020)</t>
   </si>
   <si>
     <t>The government has ordered complete confinement of the population from 20 March until 10 May. Police is controlling the streets and non-compliance with measures is prosecuted as criminal offence. As of 27 April, provincial governments have the authority to decide on exemptions to the national quarantine, if certain epidemiological criteria are fulfilled, but certain activities remain closed nation-wide (such as school classes, public events, shopping malls, restaurants and bars, recreational and touristic activities, and interregional public transport). Women and members of the LGBT community are explicitly exempt from the quarantine in case they need to report charges due to domestic violence.</t>
@@ -1125,7 +1125,7 @@
     <t xml:space="preserve">Airlines have been granted 12 months to reimburse customers for cancelled flights. </t>
   </si>
   <si>
-    <t>15-Apr-2020 (Last updated: 23-Apr-2020)</t>
+    <t>15-Apr-2020 (Last updated: 30-Apr-2020)</t>
   </si>
   <si>
     <t>State of emergency declared on 13 March. National Assembly approved on 3 April a one-month extension of the state of emergency until 13 May.</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">*March 20: Ban on gatherings of more than 50 people; restrictions on opening of markets, restaurants, cinemas, and other entertainment centres; recommendations to follow basic protective measures and social distancing.
 *March 19: Suspension of religious ceremonies, starting March 20.
 *March 19: Restrictions of marriage celebrations in Ouagadougou, starting March 19.
-* Suspension of National Assembly plenary sessions, starting March 16.
+*Suspension of National Assembly plenary sessions, starting March 16.
 </t>
   </si>
   <si>
@@ -1331,11 +1331,12 @@
     <t>* March, 31 : Electricity bills relief for one million vulnerable households (months of April and May) and deferred payments for the other households.</t>
   </si>
   <si>
-    <t>27-Apr-2020 (Last updated: 28-Apr-2020)</t>
-  </si>
-  <si>
-    <t>Provinces and territories have, through the annoncement of legal states of emergency and other measures, introduced regulation on social distancing, compulsory closure of businesses and strong public health advice for people to remain at home. Most of the key meaures were taken mid to late of March 2020.  
-Saskatchewan unveils a reopening plan (23 April). It is the first  province to announce such a plan. The 5-phase reopening will start 4 May.  https://www.saskatchewan.ca/government/news-and-media/2020/april/23/reopen-saskatchewan-plan</t>
+    <t>27-Apr-2020 (Last updated: 01-May-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provinces and territories have, through the annoncement of legal states of emergency and other measures, introduced regulation on social distancing, compulsory closure of businesses and strong public health advice for people to remain at home. Most of the key meaures were taken mid to late of March 2020.  
+Saskatchewan unveils a reopening plan (23 April). It is the first  province to announce such a plan. The 5-phase reopening will start 4 May.  https://www.saskatchewan.ca/government/news-and-media/2020/april/23/reopen-saskatchewan-plan
+Quebec and Ontario unveil plans to lift containment (27 April). https://www.theglobeandmail.com/canada/article-quebec-ontario-take-different-paths-to-reopening-provinces-from </t>
   </si>
   <si>
     <t xml:space="preserve">Tighter international travel restrictions introduced, including agreement with U.S. to ban all but essential border traffic (18 March). </t>
@@ -1678,9 +1679,6 @@
     <t>Vulnerable families can suspend the payment of public services for the month of April.</t>
   </si>
   <si>
-    <t>14-Apr-2020 (Last updated: 14-Apr-2020)</t>
-  </si>
-  <si>
     <t>- National state of emergency declared on 16 March, 10 days after the first case was reported.
 - As of March 24, private vehicles will not be allowed to be in traffic between 10 pm and 5 am.
 - Government announced new restrictions to be in effect until 30 April. For detailed descriptions see https://www.presidencia.go.cr/comunicados/2020/04/nuevas-medidas-de-restriccion-aplicaran-del-13-al-30-de-abril/</t>
@@ -1706,9 +1704,15 @@
 </t>
   </si>
   <si>
-    <t>-Theatres, bars, clubs and cinemas are closed. 
+    <t xml:space="preserve">-Theatres, bars, clubs and cinemas are closed. 
 - Establishments with operating permits should work at 50% of capacity.
-- For detailed description of restricted operating guidelines see https://www.presidencia.go.cr/comunicados/2020/04/nuevas-medidas-de-restriccion-aplicaran-del-13-al-30-de-abril/</t>
+- For detailed description of restricted operating guidelines see https://www.presidencia.go.cr/comunicados/2020/04/nuevas-medidas-de-restriccion-aplicaran-del-13-al-30-de-abril/
+- On April 27, Government revised some of the shutdown measures: 
+- Until 11 May, cinemas and theatres will operate between 5 am and 7 pm by maintaining a principle of social distance of 2 meters between individuals.
+- Gyms and swimming pools will start operating at 25% capacity between 5 am and 7 pm.
+- Beauty salons, barber shops and retailers of motor vehicles and motorcycles will operate at 50% and during weekends between 5 am and 7 pm.
+- For detailed description of restricted operating guidelines see https://www.presidencia.go.cr/comunicados/2020/04/gobierno-anuncia-nuevas-medidas-para-el-funcionamiento-del-pais/
+</t>
   </si>
   <si>
     <t>- CRC 14.5 billion: three-month moratorium on the payment of Value Added Tax, Income Tax and customs duties, all for formally constituted companies. Approved by Congress on 19 March 2020. The taxes deferred would have to be paid by end-December 2020.
@@ -1727,7 +1731,8 @@
 - Partnership between the CCSS and the private sector for home delivery of medicines. The service will be provided at no cost at 47 CCSS health centres in different regions of the country for two weeks initially.
 - Five private entities can now conduct COVID-19 tests in addition to public laboratories, which as of 26 March have a capacity of 550 tests a day.
 - The Comptroller General of the Republic authorized a direct purchase of more than USD 2 million worth for equipment of all kinds that will be placed in CENARE and other centres throughout the country.
-- The approved measures so far do not have a significant economic impact.</t>
+- The approved measures so far do not have a significant economic impact.
+- On 24 April, the Government announced that telephone follow-ups and supplementary services will be provided to more than 900 000 individuals over 60 years old.</t>
   </si>
   <si>
     <t xml:space="preserve">- On 9 April, the Government announced the Bono Proteger programme, which aims a total budget of CRC 296 billion (USD 520 million). The approved part of the Bono Proteger programme is CRC 150 billion. An additional CRC 125 billion (under the extraordinary budget proposed by the finance ministry) is yet to be approved by the legislature. The program entails direct cash transfers for three months to individuals who lost their job or faced reduced working hours due to Covid-19 crisis. Applications will only be collected electronically and applicants will sign an affidavit as a statement of good faith, not to leave out workers in the informal sector. For workers who lost their jobs, the payments will be CRC 125 000 (USD 220). For employees whose working hours were reduced by 50% as per the new law No. 9832, the payment will also be reduced by half. Government aims to reach out to 680 000 beneficiaries among which 10% are in poverty.
@@ -1738,8 +1743,9 @@
 </t>
   </si>
   <si>
-    <t>- A new quarantine insurance for tourists is introduced to help the tourism sector.
-- Commercial and industrial clients of state-owned electricity entity, the Costa Rican Electricity Institute, will be able to request the benefit of paying half of their energy consumption during March, April and May. The collection of the remaining 50% must be paid in equal instalments from July to December 2020. This moratorium will be for the entire industrial and commercial sector with a consumption greater than or equal to 2 000 kilowatt hours per month. About 12 000 customers will benefit.</t>
+    <t xml:space="preserve">- A new quarantine insurance for tourists is introduced to help the tourism sector.
+- Commercial and industrial clients of state-owned electricity entity, the Costa Rican Electricity Institute, will be able to request the benefit of paying half of their energy consumption during March, April and May. The collection of the remaining 50% must be paid in equal instalments from July to December 2020. This moratorium will be for the entire industrial and commercial sector with a consumption greater than or equal to 2 000 kilowatt hours per month. About 12 000 customers will benefit.
+- On 17 April, Government announced the Alivio programme, an inter-institutional effort of the Costa Rican Foreign Trade Promoter (PROCOMER), the Development Banking System (SBD) and the National Learning Institute (INA). The programme will provide 200 SMEs USD 5.6 million upon rigorous evaluation procedure. For more information, see www.programaalivio.com. </t>
   </si>
   <si>
     <t xml:space="preserve">- CRC 14.5 billion: three-month moratorium on the payment of Value Added Tax, Income Tax and customs duties, all for formally constituted companies. Approved by Congress on 19 March 2020. The taxes deferred would have to be paid by end-December 2020.
@@ -1770,7 +1776,46 @@
 - A new law, No. 9831, regulates maximum commissions charged by service providers on the processing of transactions that use payment devices and the operation of the payment card system, to promote its efficiency and security, and guarantee the lowest possible cost for the affiliates. The central bank will be responsible for issuing the regulation of this law and monitoring its compliance.</t>
   </si>
   <si>
-    <t>24-Apr-2020 (Last updated: 24-Apr-2020)</t>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>30-Apr-2020 (Last updated: 30-Apr-2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 19 March, the Civil Protection Authority introduced a ban on public gatherings and closure of all non-essential commercial and social activity including sports events and religious gatherings. Teleworking is encouraged for all businesses where possible. The lockdown is expected to be gradually eased in the coming weeks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 19 March Croatia temporarily closed its borders to all except nationals and residents. This restriction was extended in April and is presently valid until 18 May. On 24 March, the Civil Protection Authority introduced a ban on travel between cities. As of 20 April, restrictions on movement inside individual counties have been lifted for most counties. Movement between counties is still forbidden. From 27 April, country-wide transport is gradually restarting. Country-wide travel is expected to resume from 11 May. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 16 March, the Government closed all educational institutions. Distance learning for primary education is delivered through public service broadcasts. Primary education is expected to partially resume from 11 May. </t>
+  </si>
+  <si>
+    <t>On 19 March, the Civil Protection Authority introduced a ban on public gatherings and closure of all non-essential commercial and social activity including sports events and religious gatherings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As of 27 April, businesses selling goods and services may reopen as long as they are not inside shopping malls, or rely on close human contact. Libraries, museums, galleries, antique stores and bookstores may reopen as well. </t>
+  </si>
+  <si>
+    <t>On 17 March, the Government announced measures of a combined worth of over HRK 30 billion (around EUR 3.9 billion) to support the economy in coping with the effects of the pandemic. These include: Interventional procurement of critically important sanitary equipment (disinfection equipment, soap, masks etc.), authorised delays in tax payments, purchasing of surpluses of potentially threatened businesses (agricultural or industrial goods), measures to support the tourism industry and aid for preserving jobs in affected sectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government is making efforts to procure additional health equipment for hospitals (masks, ventilators, etc.). </t>
+  </si>
+  <si>
+    <t>From 23 March, the Employment Agency has made available special subsidies to employers, to cover salaries of full-time and part-time workers in accommodation, food and beverage, transportation and storage and other sectors in which workers are prevented from attending work due to confinement measures. With the April measures, the Government increased this support from HRK 3250 per worker to HRK 4000. The total payment for March amounted to HRK 1.55 billion.</t>
+  </si>
+  <si>
+    <t>On 1 April, the Government announced an exemption on payment of income tax and contributions for entrepreneurs with an annual income of less than HRK 7.5 million (representing 93% of firms), whose revenue declined by more than 50%. Companies with an annual income above the threshold will be partially exempted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Croatian Bank for Reconstruction and Development (HBOR) allows for moratoriums and loan extensions on debts towards it, as well as new liquidity loans to assure basic expenses of businesses. The total value of the measures is estimated at around HRK 13.5 billion. </t>
+  </si>
+  <si>
+    <t>On 23 March, the CNB reduced its mandatory reserve requirements from 12% to 9%, lowering the total amount of mandatory reserve by HRK 10.45 billion (EUR 1.3 billion). The CNB also responded by purchasing government bonds and selling foreign exchange to maintain exchange rate stability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 20 March, the Croatian National Bank (CNB) adjusted its regulatory framework and monitoring activities in order to support the liquidity of financial institutions. </t>
   </si>
   <si>
     <t>On April 23, the government has decided to accelerate the easing of emergency measures.
@@ -1834,7 +1879,7 @@
   </si>
   <si>
     <t xml:space="preserve">The government has approved financial contributions for the self-employed and employees currently at home to ensure childcare as compensation for loss of earnings (due to schools closure). The state will pay CZK 424 per day (up to 31 days, maximum roughly EUR 500) to all self-employed persons and 60% of reduced assessment base to employees for taking care of children aged 6 to 13 (on condition that a second member of the family no longer receives the care allowance).
-The government also approved on March 31 a targeted employment support programme (Antivirus, launched April 6), to compensate for all or part of salary costs for the time of the quarantine or emergency measures (from 12 March to the end of April). Employees will receive all or part of their wages, subsidised by the state, depending on the exact reason and situation of reduced activity. For example, employees ordered into quarantine will receive 60 % of their salaries, while employees working in firms that had to stop operations by a government order will be compensated in full. In both cases the government will reimburse the employer 80% of the employee compensation (up to CZK 39 000 per employee). Employees in firms facing inputs supply issues or drop in sales will receive 60-100% of their salaries, with the state reimbursing 60% of the costs (up to CZK 29 000 per employee). The estimated total costs of the program is 33bn CZK (0.6 % of GDP).
+The government also approved on March 31 a targeted employment support programme (Antivirus, launched April 6), to compensate for all or part of salary costs for the time of the quarantine or emergency measures (from 12 March to the end of April; extended to end of May (on april 27)). Employees will receive all or part of their wages, subsidised by the state, depending on the exact reason and situation of reduced activity. For example, employees ordered into quarantine will receive 60 % of their salaries, while employees working in firms that had to stop operations by a government order will be compensated in full. In both cases the government will reimburse the employer 80% of the employee compensation (up to CZK 39 000 per employee). Employees in firms facing inputs supply issues or drop in sales will receive 60-100% of their salaries, with the state reimbursing 60% of the costs (up to CZK 29 000 per employee). The estimated total costs of the program is 33bn CZK (0.6 % of GDP).
 The self-employed who prove that they have been economically damaged by the crisis measures will receive a one-off financial assistance of CZK 25 000 (non-taxable) (approved by the government on March 31, pending parliamentary approval).
 The Government released CZK 3.3 billion for the 2020 Rural Development Program. This funding should help entrepreneurs in agriculture, food and forestry while fighting coronavirus crisis. The main reason for this support is ensuring the Czech food independency. The Government has also increased funds by CZK 1 bn for the Support and Guarantee Farm and Forestry Fund, to provide farmers and foresters with more liquidity (delay of loan repayments).                                                                                                                       </t>
   </si>
@@ -1844,7 +1889,7 @@
 Exemption of the VAT on goods that are supplied free of charge (e.g. test kits and diagnostic test tools for COVID-19, protective clothing, thermometers, disinfectants and sterilisation products, other medical devices and medical supplies) and the goods used to manufacture these goods.           </t>
   </si>
   <si>
-    <t>The government approved on March 31 a targeted employment support programme (Antivirus, launched April 6), to compensate for all or part of salary costs for the time of the quarantine or emergency measures (from 12 March to the end of April). Employees will receive all or part of their wages, subsidised by the state, depending on the exact reason and situation of reduced activity. For example, employees ordered into quarantine will receive 60 % of their salaries, while employees working in firms that had to stop operations by a government order will be compensated in full. In both cases the government will reimburse the employer 80% of the employee compensation (up to CZK 39 000 per employee). Employees in firms facing inputs supply issues or drop in sales will receive 60-100% of their salaries, with the state reimbursing 60% of the costs (up to CZK 29 000 per employee). The estimated total costs of the program is 33bn CZK (0.6 % of GDP).
+    <t>The government approved on March 31 a targeted employment support programme (Antivirus, launched April 6), to compensate for all or part of salary costs for the time of the quarantine or emergency measures (from 12 March to the end of April; extended to end of May (on april 27)). Employees will receive all or part of their wages, subsidised by the state, depending on the exact reason and situation of reduced activity. For example, employees ordered into quarantine will receive 60 % of their salaries, while employees working in firms that had to stop operations by a government order will be compensated in full. In both cases the government will reimburse the employer 80% of the employee compensation (up to CZK 39 000 per employee). Employees in firms facing inputs supply issues or drop in sales will receive 60-100% of their salaries, with the state reimbursing 60% of the costs (up to CZK 29 000 per employee). The estimated total costs of the program is 33bn CZK (0.6 % of GDP).
 The parliament passed a bill (April 8) that allows for individuals and companies affected by the coronavirus to delay paying their rents, and introduces a ban on evictions of companies/individuals unable to pay rents.
 Other programmes include: COVID Technology Program 19 (subsidy for projects directly linked to the fight against the further spread of coronavirus through the acquisition of new technological equipment and facilities, CZK 300 million in total); Czech Rise Up Program (encourage the introduction of new solutions to fight the coronavirus crisis by supporting innovative companies, including start-ups, CZK 200 million in total); Emergency package for Czech exporters and other support to exporters.</t>
   </si>
@@ -1966,7 +2011,7 @@
     <t>DOM</t>
   </si>
   <si>
-    <t>23-Apr-2020 (Last updated: 29-Apr-2020)</t>
+    <t>23-Apr-2020 (Last updated: 30-Apr-2020)</t>
   </si>
   <si>
     <t>• The night curfew (from 5pm to 6am) remains in force. 
@@ -1986,8 +2031,7 @@
     <t xml:space="preserve">• All economic sectors, whenever possible, must implement remote work. Within the Public Administration, employees will be alternated at 50% per week, except for those that are essential. </t>
   </si>
   <si>
-    <t xml:space="preserve">• Total expenditure of DOP 32062.5 million approx. (equivalent to around USD 595 million) to cover the cost of the announced measures to support employment in the formal and informal sectors and other measures to support the health sector. A total of 5.2 million Dominicans, half of the population, will be protected by the FASE (Employee Solidarity Assistance Fund) and “Quedate en casa” programs.
-</t>
+    <t>• Total expenditure of DOP 32062.5 million approx. (equivalent to around USD 595 million) to cover the cost of the announced measures to support employment in the formal and informal sectors and other measures to support the health sector. A total of 5.2 million Dominicans, half of the population, will be protected by the FASE (Employee Solidarity Assistance Fund) and “Quedate en casa” programs.</t>
   </si>
   <si>
     <t>• No cost of testing COVID19 to test people that (1) have two or more symptoms, (2) are older than 59 y-o, and (3) have a weak health condition.
@@ -1998,10 +2042,10 @@
 • 70,000 new homes will enter the temporary “Stay at Home” program, which will include informal workers such as saloneras, motoconchistas, taxi drivers, chiriperos, civil society organizations working with HIV / AIDS, artisans, pedlars, street vendors, among others [since April 23].</t>
   </si>
   <si>
-    <t xml:space="preserve">• Urgent facilities will be granted, to make the payment of advance commitments of the entire productive sector more flexible, in three installments immediately after the emergency period. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• FASE (Employee Solidarity Assistance Fund) continues to support companies to keep jobs. This fund will pay DOP 8500 of the salaries for those formal workers that had to stop working. </t>
+    <t>• Urgent facilities will be granted, to make the payment of advance commitments of the entire productive sector more flexible, in three installments immediately after the emergency period.</t>
+  </si>
+  <si>
+    <t>• FASE (Employee Solidarity Assistance Fund) continues to support companies to keep jobs. This fund will pay DOP 8500 of the salaries for those formal workers that had to stop working.</t>
   </si>
   <si>
     <t>• Payment of the annual income tax (to be done in April by certain companies) was divided into 4 payments. The DGII will temporarily stop applying the rate of the Advance Price Agreements to the hotel sector [since March 17].</t>
@@ -2089,6 +2133,7 @@
   </si>
   <si>
     <t>* March 22: President Al-Sisi announced the allocation of 100 billion EGP (USD 6.4 billion equivalent to 2% of GDP) to fund a comprehensive plan to combat the coronavirus. Half of the budget is allocated to the tourism sector while the rest will support poor families and the stock market through a stock purchase programme by the Egyptian Central Bank (USD 1.3 billion). 
+*The government also introduced a six-month extension for credit repayments targeting all individuals and businesses, and the cancellation of the ATM withdrawal fees. 
 *The cost of transactions in the EGX will be reduced from 0.15% to 0.125% and from 0.15% to 0.05% for non-residents and Egyptian residents, respectively. All spot transactions on EGX will be exempt from stamp duty.
 *The Ministry of Finance lifted the Administrative detention for taxpayers in return for payment of 10% of the tax due and to settle the outstanding tax due through the Dispute Resolution Committee. The Egyptian Tax Authority has also lifted the means of payment to allow cash or cheque payment of taxes due for fiscal year 2019/2020.</t>
   </si>
@@ -2098,16 +2143,14 @@
 * March 25: WHO delegation concludes COVID-19 technical mission to Egypt, as a result of which alternative mechanisms for testing patients were identified through the establishment of 27 laboratories across the country and additional 4 university laboratories.</t>
   </si>
   <si>
-    <t xml:space="preserve">* March 22: The government announces that pensioners will get five overdue bonuses (amounting to 80% of the basic salary), as well as a 14% annual bonus as of the fiscal year 2020/2021.
+    <t>* March 22: The government announces that pensioners will get five overdue bonuses (amounting to 80% of the basic salary), as well as a 14% annual bonus as of the fiscal year 2020/2021.
 *The Ministry of Workforce has allocated EGP 50 million (USD 2.9 million) for irregular workers, including women, who lost their job due to the coronavirus. Around 300,000 beneficiaries will receive EGP 500 (around USD 32) in cash. 
 *The government increased payments to women community leaders in rural areas from EGP 350 to EGP 900 per month to ensure gender equity.
-*Expansion of the Takaful and Karama social protection programmes to an additional 60,000 households, where women already represent 88% of the programmes’ beneficiaries
-*The government also introduced a six-month extension for credit repayments targeting all individuals and businesses, and the cancellation of the ATM withdrawal fees. </t>
+*Expansion of the Takaful and Karama social protection programmes to an additional 60,000 households, where women already represent 88% of the programmes’ beneficiaries.</t>
   </si>
   <si>
     <t>*The price of natural gas and electricity has been reduced for industrial use. Natural gas for industrial use will be priced at USD 4.50 for mmbtu (one million British thermal units), down from USD 5.50, while electricity for heavy industry will be priced at 0.10 EGP (USD 0.0064) per kilowatt hour, down from 1.10 EGP. The price of electricity for other industries will be kept stable for three to five years. The government also postponed repayment of loans for SMEs.
 *Capital gains tax has been postponed until further notice. 
-*Withholding tax on dividends paid by listed companies in EGX will be reduced from 10 percent to 5 percent.
 *The Ministry of Finance lifted the Administrative detention for taxpayers in return for payment of 10% of the tax due and to settle the outstanding tax due through the Dispute Resolution Committee. The ETA has also lifted the means of payment to allow cash or cheque payment of taxes due for FY 2019/2020. 
 *The stamp duty on transactions in the EGX will be reduced from 0.15 percent to 0.125% and from 0.15% to 0.05% for non-residents and Egyptian residents, respectively. All spot transactions on EGX will be exempt from stamp duty. 
 *Personal income tax: introducing a progressive system instead of the current credit system, where income is subject to progressive income tax rates between 2.5% to 25% with additional rules applied to individuals who earn a higher income.
@@ -2123,19 +2166,22 @@
   <si>
     <t>*March 26: The Egypt`s Central Bank cut interest rates to historic lows, reducing the overnight deposit rate by 300 basis points to 9.25% and the lending rate to 10.25%. The preferential interest rate on loans to SMEs, industry, tourism and housing for low-income and middle-class families, has been reduced from 10%  to 8%. 
 *March 29: The Central Bank announced a series of new limits on cash withdrawals and deposits to avoid overcrowding, in particular during payroll and pension disbursement. A daily limit of 10,000 Egyptian pounds (around 630 USD) for individuals and 50,000 (around 3180 USD) for businesses is applied until further notice, while fees on electronic transactions have been lifted for six months to encourage people to rely on electronic payment methods and bank transfers instead of using cash. 
-*The limit for electronic payments via mobile phones has been raised to EGP 30,000/day and EGP 100,000/month for individuals, and to EGP 40,000/day and EGP 200,000/per week for corporations. 
+*The limit for electronic payments via mobile phones has been raised to EGP 30,000/day and EGP 100,000/month for individuals, and to EGP 40,000/day and EGP 200,000/per week for corporations.
 * A new debt relief initiative for individuals at risk of default has also been announced. It will waive marginal interest on debt under EGP 1 million if customers make a 50% payment. 
 The regulations issued last year requiring banks to obtain detailed information of borrowers have been relaxed.
 * The central bank has also launched an EGP 20 billion stock-purchase program. </t>
   </si>
   <si>
     <t xml:space="preserve">*The Central Bank introduced credit lines for tourism enterprises to facilitate paying of salaries and financial dues for suppliers. Such credit lines can be paid over a maximum of two years with a six-month grace period. 
-*The Financial Regulatory Agency (FRA) announced a set of measures to aid micro-finance activity, including introducing free financial services for regular clients, postponing 50% of payments with no penalty, and reducing the administrative fees for current finances. 
+*The Financial Regulatory Agency (FRA) announced a set of measures to aid micro-finance activity, including introducing free financial services for regular clients, postponing 50% of payments with no penalty, and reducing the administrative fees for current finances.
 *The FRA extended deadline for the EGX listed companies to submit their financial statements for 4Q 2019 to 15 June 2020 (original deadline 30 April). The FRA requested mortgage lenders, factoring and leasing companies to grant six-month grace period upon request by clients.
 *The National Bank of Egypt and Bank Misr announced a one-year deposit program with a 15% interest rate.  </t>
   </si>
   <si>
     <t>SLV</t>
+  </si>
+  <si>
+    <t>27-Apr-2020 (Last updated: 29-Apr-2020)</t>
   </si>
   <si>
     <t>* March 14: State of Emergency declared, extended for 15 days on April 13 and for 17 days on April 29. Certain Constitutional rights temporarily restricted by law for 30 days.
@@ -2330,11 +2376,14 @@
     <t>EU</t>
   </si>
   <si>
+    <t>30-Apr-2020 (Last updated: 01-May-2020)</t>
+  </si>
+  <si>
     <t>On March 17, EU member states agreed to restrict non-essential travel to the European Union for an initial period of 30 days, prolonged until 15 May, with exceptions mainly for EU and British citizens, long-time residents, cross-border commuters, health care workers and workers delivering goods. Movement of goods is not to be affected. With regard to internal border controls in the Schengen area, member states have endorsed the guidelines proposed by the Commission on border management, which call inter alia for proportionality and non-discrimination between own nationals and resident EU citizens.</t>
   </si>
   <si>
     <t>• The EUR 37 billion Coronavirus Response Investment Initiative (CRII; proposed on 13 March, in force since 1 April) will accelerate the implementation of cohesion policy (total country allocations for the 2014-2020 period remain unchanged). Member States will not have to pay back to the EU budget unspent pre-financing received from structural funds (about EUR 8 billion). Instead, they will be able to use it as national co-financing for the next tranches of their structural fund allocations (about EUR 29 billion). Investment for fostering the crisis response capacities in public health services and some financing of working capital in SMEs will become eligible.
-• The Coronavirus Response Investment Initiative Plus (CRII+), proposed on 2 April, complements the CRII by further enhancing flexibility in the use of cohesion funds. This enhanced flexibility is inter alia provided through transfer possibilities across the three cohesion policy funds (the European Regional Development Fund, European Social Fund and Cohesion Fund), transfers between the different categories of regions (e.g. less vs more developed), flexibility regarding thematic concentration, the possibility for a 100% EU co-financing rate for the accounting year 2020-2021, and simplified procedural steps.
+• The Coronavirus Response Investment Initiative Plus (CRII+), proposed on 2 April and in force since 24 April, complements the CRII by further enhancing flexibility in the use of cohesion funds. This enhanced flexibility is inter alia provided through transfer possibilities across the three cohesion policy funds (the European Regional Development Fund, European Social Fund and Cohesion Fund), transfers between the different categories of regions (e.g. less vs more developed), flexibility regarding thematic concentration, the possibility for a 100% EU co-financing rate for the accounting year 2020-2021, and simplified procedural steps.
 • Maximum flexibility will be deployed in the application of the Stability and Growth Pact by activating for the first time (on 23 March) the general escape clause in case of a severe economic downturn for the euro area or EU as a whole.
 • The scope of the EU Solidarity Fund has been extended to cover major public health emergencies and possible advance payments from this Fund have been increased (proposal on 13 March, in force since 1 April). Up to EUR 800 million is available in 2020.
 • At the request of Member States, the European Globalisation Adjustment Fund could be mobilised to support dismissed workers and those self-employed (up to EUR 179 million available in 2020)
@@ -2355,7 +2404,10 @@
     <t xml:space="preserve">• The ECB took several measures to support bank lending and liquidity throughout the euro area:
 o 12 March: lowering the interest rate applied in targeted longer-term refinancing operations (TLTRO III) during the period from June 2020 to June 2021 (25 basis points below the average rate applied in the Eurosystem’s main refinancing operations).
 o 12 March: conducting additional longer-term refinancing operations (LTROs) temporarily (with an interest rate equal to the average rate on the deposit facility, -0.50% currently).
-o 18 March, further detailed on 7 April: easing collateral standards to give easier access to ECB liquidity, by adjusting the main risk parameters of the collateral framework.
+o 18 March, further detailed on 7 April: easing collateral standards to give easier access to ECB liquidity, by adjusting the main risk parameters of the collateral framework. These measures, due to remain in place until September 2021, include expanding the use of credit claims as collateral, reducing collateral valuation haircuts and taking a number of other temporary steps, such as a waiver to accept Greek sovereign debt instruments as collateral.
+o 22 April: adopting temporary measures, due to remain in place until September 2021, to mitigate the effect on collateral availability of possible rating downgrades. More specifically, the ECB will grandfather the eligibility of marketable assets and the issuers of such assets that fulfilled minimum credit quality requirements on 7 April 2020 in the event of downgrades, as long as the ratings remain at or above BB.
+o 30 April: reducing further the interest rate applied in targeted longer-term refinancing operations (TLTRO III) until June 2021, to 50 basis points below the average rate on the main refinancing operations.
+o 30 April: conducting a new series of non-targeted pandemic emergency longer-term refinancing operations (PELTROs). These will consist of seven additional refinancing operations commencing in May 2020 and maturing in a staggered sequence between July and September 2021. They will be carried out as fixed rate tender procedures with full allotment, with an interest rate that is 25 basis points below the average rate on the main refinancing operations.
 • The ECB also took measures to reinforce the asset purchase programme (APP):
 o 12 March: adding a temporary envelope of additional net asset purchases of €120 billion until the end of the year.
 o 18 March: furthermore, launching a new temporary asset purchase programme of private and public sector securities (Pandemic Emergency Purchase Programme, PEPP) with an overall envelope of EUR 750 billion until the end of 2020. Together, both envelopes amount to 7.3% of euro area GDP. Some self-imposed purchase limits will not apply to the PEPP.
@@ -2635,9 +2687,6 @@
 *March 18: Monetary policy rate was reduced to 14.5% from 16% (eight year low).</t>
   </si>
   <si>
-    <t>13-Apr-2020 (Last updated: 23-Apr-2020)</t>
-  </si>
-  <si>
     <t>From March 23, only movements for prescribed purposes are permitted (essential employment, food shopping, health). 
 14-day home restriction on anyone entering Greece</t>
   </si>
@@ -2666,10 +2715,13 @@
   </si>
   <si>
     <t>14 April: PM announces one-off allowance of EUR 400 for 155000 long-term unemployed. 
+For private sector employees whose labour contract has been suspended, the fraction of their Easter bonus that corresponds to the period of suspension will be covered by the state budget. 
 20 March: Firms can reduce their employees’ work time to a minimum of 2 weeks per month, for at least 50% of all employees within a firm, on the condition that they do not dismiss any workers. The measure can be applied for up to 6 months.
+EUR 600 training voucher for liberal professionals. 180000 estimated beneficaries. 
 19 March: Extension of the regular unemployment benefit payment, as well as extension of the long-term unemployment benefit and the unemployment benefit to freelancers and self-employed workers, for two months.
-11 March: Allowance of 800 euros for self employed, freelancers, individual businesses and employers up to 5 employees and affected by the coronavirus crisis based on specific NACE codes
-Allowance of 800 euros for employees of firms affected by the coronavirus crisis, whose labour contracts have been suspended based on specific NACE codes. This covers 1.7 million private sector workers (81% of private sector employees). 
+Special leave scheme 25% funded by the state, for parents of children younger than 15 who are not in school.
+11 March: Allowance of 800 euros for self employed, freelancers, individual businesses (520 000 indiviiduals) and employers of up to 20 employees (90 000 individuals) and affected by the coronavirus crisis based on specific NACE codes
+Allowance of 800 euros for employees of firms affected by the coronavirus crisis, whose labour contracts have been suspended based on specific NACE codes, covering 1.7 million private sector workers (81% of private sector employees). These amounts apply from mid-March to the end of April, with EUR 533 will be granted for May. 
 Introduction of special purpose leave only for workers with children attending to schools (while schools are closed), the cost of which will be shared between the state, the firm and the employee.</t>
   </si>
   <si>
@@ -2690,8 +2742,8 @@
 2) Suspension of SSC payments due by the end-March until October 31 for businesses, self-employed persons and sole proprietorships affected by the coronavirus crisis based on specific NACE codes. Suspended payments will be paid in 4 installments of equal amount without interest and surcharges.</t>
   </si>
   <si>
-    <t xml:space="preserve">April 3: A scheme for the support of the economy through the issuance of guarantees by the Hellenic Development Bank has been approved under the E.U. temporary framework for state aid. The scheme will partially guarantee eligible working capital loans, with the total exposure of the Hellenic Development Bank capped at 40% of the volume of loans issued by a financial intermediary. Solvent SMEs will receive grants of up to EUR 800 000 per company to cover interest on fixed-maturity loans, bonds, or overdrafts. The total size of the scheme will amount to EUR 2 billion.
-18 March:  Business financing supported through a refundable advance payment. </t>
+    <t>April 3: A scheme for the support of the economy through the issuance of guarantees by the Hellenic Development Bank has been approved under the E.U. temporary framework for state aid. The scheme will partially guarantee eligible working capital loans, with the total exposure of the Hellenic Development Bank capped at 40% of the volume of loans issued by a financial intermediary. Solvent SMEs will receive grants of up to EUR 800 000 per company to cover interest on fixed-maturity loans, bonds, or overdrafts. The total size of the scheme will amount to EUR 2 billion.
+18 March:  A refundable advance payment will be provided to businesses affected by the crisis and whose loans are performing, on the basis of turnover reduction or other factors. The advance will be a fraction of loss in turnover and can over five years following a one-year grace period and at a low interest rate (EUR 2 billion).</t>
   </si>
   <si>
     <t xml:space="preserve">The ECB has committed to “do everything necessary within its mandate” to support the economy through this shock. To preserve bank lending and liquidity, the ECB will temporarily conduct additional longer-term refinancing operations (LTROs) and lower the interest rate applied in targeted longer-term refinancing operations (TLTRO III). Furthermore, the ECB has expanded its asset purchase programme by an overall EUR 870 billion (7.3% of euro area GDP) until the end of 2020, while opening the door to freeing its self-imposed limits. Greece's government bonds are included as eligible assets for this programme. </t>
@@ -2918,7 +2970,7 @@
     <t>Reduction of the countercyclical capital buffer on financial institutions from 2% to 0% and the deposit institutions average reserve requirement from 1% to 0%.</t>
   </si>
   <si>
-    <t>28-Apr-2020 (Last updated: 28-Apr-2020)</t>
+    <t>28-Apr-2020 (Last updated: 01-May-2020)</t>
   </si>
   <si>
     <t>April 14: The nation-wide lockdown is extended till May 3. A conditional withdrawal of the lockdown is allowed from April 20 where the virus spread has either been contained or prevented. Some states have announced that they wil not relax the lockdown -- including Delhi for at least one week and Telangana till May 7.</t>
@@ -2931,7 +2983,7 @@
   <si>
     <t xml:space="preserve">All educational institutions to remain closed, following the extension of the lockdown extended on April 14 till May 3.   
 March 20: All educational institutions in almost all states closed for all teaching staffs as well as non-teaching staff till March 31st. 
-March 25: Following nation-wide lockdown since March 25, all the educational institutions will remain completely closed for the period of 21 days ie. till April 15th. 
+March 25: Following nation-wide lockdown since March 25, all the educational institutions will remain completely closed for the period of 21 days i.e. till April 15th. 
 </t>
   </si>
   <si>
@@ -2939,7 +2991,7 @@
 </t>
   </si>
   <si>
-    <t>All activities are suspended since March 25 except shops dealing with essential commodities like perishables, groceries and dairy. The government has announced a gradual exit strategy to mitigate the economic and social costs of the lockdown. Since 20 April, some parts of the economy, including agriculture, logistics, infrastructure, e-commerce and factories located in rural areas, plantation activities sucha as tea with maximum of 50% workers, have been allowed to return to work in areas where no covid-19 cases have been detected (so-called green zones). Construction activities for those roads, irrigation projects, buildings and industrial projects where workers are available on site have been allowed. The government has also allowed people to take up jobs under the National Rural Employment Guarantee Act (MGNREGA), a large rural public job programme targeting the poor in rural areas. Services provided by self-employed people such as electricians, electronics repairers, plumbers, motor mechanics and carpenters, have been allowed to operate. Exemptions given from April 20 are not applicable in COVID-19 hotspots or containment zones.</t>
+    <t>All activities are suspended since March 25 except shops dealing with essential commodities like perishables, groceries and dairy. The government has announced a gradual exit strategy to mitigate the economic and social costs of the lockdown. Since 20 April, some parts of the economy, including agriculture, logistics, infrastructure, e-commerce and factories located in rural areas, plantation activities such as tea with maximum of 50% workers, have been allowed to return to work in areas where no covid-19 cases have been detected (so-called green zones). Construction activities for those roads, irrigation projects, buildings and industrial projects where workers are available on site, have been allowed. The government has also allowed people to take up jobs under the National Rural Employment Guarantee Act (MGNREGA), a public employment programme targeting the poor in rural areas. Services provided by self-employed people such as electricians, electronics repairers, plumbers, motor mechanics and carpenters, have been allowed to operate. Exemptions given from April 20 are not applicable in COVID-19 hotspots or containment zones.</t>
   </si>
   <si>
     <t xml:space="preserve">On March 26, the central government a INR 1.7 trillion rupees (USD 23 billion) aimed at ensuring that families belonging to poor and lower to middle income groups are able to carry out their daily lives smoothly under the lockdown.
@@ -2948,47 +3000,48 @@
 have been making fund allocations as per their requirements. </t>
   </si>
   <si>
-    <t>The export restrictions on 26 pharma products (active pharma ingredients and formulations) introduced on March 3 were removed for 24 of them on April 5. Paracetamol and Hydroxychloroquine are the two exceptions. On April 17, the government lifted export restrictions on paracetamol formulations with immediate effect. On April 5, the government placed restrictions on the export of most diagnostic testing kits.
-On March 19, hospitals were asked to defer elective surgeries and the government capped the price of sanitizer bottles and banned exports of masks, ventilator machines and also textiles used to make masks. 
-On March 24, the government announced an emergency health fund of INR 150 billion (USD 2 billion) for treating COVID-19 patients and strengthening the medical infrastructure of the country including for rapidly ramping up the number of testing facilities, Personal Protective Equipment (PPE), Isolation Beds, ICU beds, Ventilators and other essential equipment announced. Training of medical and paramedical manpower will also be undertaken. Some states (including Gujarat, Assam, Jharkhand, Rajasthan, Goa, Karnataka, MP and J&amp;K) are setting up hospitals dedicated for the management of COVID-19. A large number of laboratories have been included in the ICMR network of COVID-19 testing and private lab chains have registered with ICMR to increase testing capacity. On April 8, the Supreme court ruling ordered that all covid-19 tests must be provided for free. 
-'The March 26 central government package includes insurance cover of INR 5 million per health worker fighting COVID-19 to be provided under Insurance Scheme.
+    <t>On March 19, hospitals were asked to defer elective surgeries and the government capped the price of sanitizer bottles and banned exports of masks, ventilator machines and also textiles used to make masks. 
+On March 24, the government announced an emergency health fund of INR 150 billion (USD 2 billion) for treating COVID-19 patients and strengthening the medical infrastructure including for rapidly ramping up the number of testing facilities, personal protective equipment, isolation beds, intensive care unit beds, ventilators and other essential equipment. Training of medical and paramedical manpower will also be undertaken. Some states (including Gujarat, Assam, Jharkhand, Rajasthan, Goa, Karnataka, MP and J&amp;K) are setting up hospitals dedicated for the management of COVID-19. A large number of laboratories have been included in the ICMR network of COVID-19 testing and private lab chains have registered with ICMR to increase testing capacity. On April 8, the Supreme court ruling ordered that all covid-19 tests must be provided for free. 
+The March 26 central government package includes insurance cover of INR 5 million per health worker fighting COVID-19 to be provided under Insurance Scheme.
+'The export restrictions on 26 pharma products (active pharma ingredients and formulations) introduced on March 3 were removed for 24 of them on April 5. Paracetamol and Hydroxychloroquine are the two exceptions. On April 17, the government lifted export restrictions on paracetamol formulations with immediate effect. On April 5, the government placed restrictions on the export of most diagnostic testing kits.
 April 7: India lifted restrictions on exports of 24 drugs amid coronavirus and allowed limited exports of hydroxychloroquine and paracetamol. It also placed restrictions on the export of most diagnostic testing kits.
 April 10: The government launched a mobile app (Aarogya Setu) to help people identify their risk of contracting covid-19, by tracking and contact tracing, and to connect people to health care services.</t>
   </si>
   <si>
-    <t xml:space="preserve">The central government package announced on March 26 largely focus on people, targeting low- and middle-income groups. Major provisions in the package includes :
-- 800 million poor people will to get 5 kg wheat or rice and 1 kg of preferred pulses for free every month for the next three months
+    <t xml:space="preserve">The central government package announced on March 26 largely focuses on people, targeting low- and middle-income groups. Major provisions in the package includes :
+- 800 million poor people to get 5 kg wheat or rice and 1 kg of preferred pulses for free every month for the next three months
 - 200 million women Jan Dhan account holders to get INR 500 per month for next three months
 - Increase in wage for workers engaged in the rural public employment programme (MNREGA) to INR 202 a day from INR 182 to benefit 136.2 million families
 - An ex-gratia of INR 1,000 to 30 million poor senior citizen, poor widows and poor disabled
-- Central Government has given orders to State Governments to use Building and Construction Workers Welfare Fund to provide relief to Construction Workers
-Before March 26, some states and cities had introduced measures. As an example, the state government of Bihar announced it will bear the entire expenses incurred on the treatment of the coronavirus patients and will pay a compensation for family in the case of death due to coronavirus.  Union Territory of Delhi announced (March 20) that pensions for the elderly and widows will be doubled, food will be provided for the homeless, 7.5 kg free ration will be provided to 7.2 million beneficiaries. Kerala introduced a INR 200 billion package largely focused on people, including INR 5 billion health package; 2 month welfare pension, INR 20 billion each for loans and emplotment guarantee programme ; direct handout for substistence for families not eligible for welfare pensions; free food grains through ration shops  for needy families etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the fiscal package announced on March 26, the government has committed to pay employee provident fund contributions on behalf of employees and employers (12% each) for the next three months, for formal employees from the organised sector (i.e. firms with more than 10 employees) with up to 100 employees, where 90% of them are earning less than INR15,000 per month. The government is also amending its pension regulations, so that workers can draw up to 75% for their contingency expenditure non-refundable advance or three months of wages in advance, whichever is less. This is intended to benefit 48mn workers. 
-</t>
-  </si>
-  <si>
-    <t>On April 8, the central government announced that all pending income tax refunds up to INR 500000 (about USD 6500) and GST/custom refurnds are to be issued immediately. 
+- Central government has given orders to state governments to use Building and Construction Workers Welfare Fund to provide relief to Construction Workers.
+Before March 26, some states and cities had introduced measures. As an example, the state government of Bihar announced it will bear the entire expenses incurred on the treatment of the coronavirus patients and will pay a compensation for family in the case of death due to coronavirus. Union Territory of Delhi announced (March 20) that pensions for the elderly and widows will be doubled, food will be provided for the homeless, 7.5 kg free ration will be provided to 7.2 million beneficiaries. Kerala introduced a INR 200 billion package largely focused on people, including INR 5 billion health package; 2 month welfare pension, INR 20 billion each for loans and emplotment guarantee programme ; direct handout for substistence for families not eligible for welfare pensions; free food grains through ration shops for needy families etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the fiscal package announced on March 26, the government has committed to pay employee provident fund contributions on behalf of employees and employers (12% each) for the next three months, for formal employees from the organised sector (i.e. firms with more than 10 employees) with up to 100 employees, where 90% of them are earning less than INR 15,000 per month. The government is also amending its pension regulations, so that workers can draw up to 75% for their contingency expenditure non-refundable advance or three months of wages in advance, whichever is less. This is intended to benefit 48 million workers. 
+</t>
+  </si>
+  <si>
+    <t>On April 8, the central government announced that all pending income tax refunds up to INR 500000 (about USD 6500) and GST/custom refunds are to be issued immediately. 
 On March 24, the deadline for filing returns of goods and services tax for March, April and May has been extended till June 30. For companies with less than INR 50 million turnover, no interest, penalty or late fee will be charged on late GST return filing. For companies with turnover of over INR 50 million, no late fee and penalty will be charged on late GST return filing; interest rate was reduced to 9%. 
 On March 26, the central government announced it will front-load INR 2,000 paid to farmers in first week of April under existing PM Kisan Yojana to benefit 87 million farmers.</t>
   </si>
   <si>
-    <t xml:space="preserve">- The Monetary Policy Committee of the Reserve Bank of India on March 27 delivered a 75 basis points reduction in the policy repo rate and announced an accommodative stance of monetary policy as long as necessary to revive growth, while keeping inflation within the target. 
-- The Reserve Bank of India announced on March 27 several liquidity measures to combat the adverse impacts of covid-19, including: long-term repo operations targeted to reduce banks’ cost of funds for up to INR 1 trillion, simultaneous purchase and sale of securities under open market operations, reduction in the cash reserve ratio requirements and exemption from cash reserve ratio (CRR) requirements to incentivise lending to specific sectors (retail loans for automobiles, residential housing and loans to micro, small and medium enterprises).
-- The Reserve Bank conducted two 6-month US Dollar/INR sell/buy swap auction on March 16 and March 23, 2020, which cumulatively provided dollar liquidity of USD 2.71 billion.
-On April 17, the Reserve Bank of India (RBI) announced additional measures to promote new lending and mitigate financial market stress:
+    <t xml:space="preserve">- The Monetary Policy Committee of the Reserve Bank of India (RBI) on March 27 delivered a 75 basis points reduction in the policy repo rate and announced an accommodative stance of monetary policy as long as necessary to revive growth, while keeping inflation within the target. 
+- The RBI announced on March 27 several liquidity measures to combat the adverse impacts of covid-19, including: long-term repo operations targeted to reduce banks’ cost of funds for up to INR 1 trillion, simultaneous purchase and sale of securities under open market operations, reduction in the cash reserve ratio requirements and exemption from cash reserve ratio requirements to incentivise lending to specific sectors (retail loans for automobiles, residential housing and loans to micro, small and medium enterprises).
+- The RBI conducted two 6-month US Dollar/INR sell/buy swap auction on March 16 and March 23, 2020, which cumulatively provided dollar liquidity of USD 2.71 billion.
+On April 17, the RBI announced additional measures to promote new lending and mitigate financial market stress:
 • It cut the reverse repo rate by 25bp from 4.0% to 3.75% to increase incentives for banks to lend more to businesses and individuals instead of letting their cash with the Reserve Bank.
 • It will conduct new targeted long-term repo operations, with the objective of making it easier for non-bank financial companies (which tend to lend more to small business and informal workers than banks) and micro-finance institutions to raise money. 
+On April 27, the RBI announced a special liquidity facility for mutual funds for up to INR 500bn (USD 6.7bn).
 </t>
   </si>
   <si>
     <t>- In a relief to small and medium enterprises facing the threat of insolvency because of COVID-19, the threshold for invoking insolvency has been raised 100-fold to INR 10 million. If the situation continues beyond 30th April, the government may consider suspending relevant sections under the Insolvency and Bankruptcy Code for six months to avoid companies from being forced into insolvency proceedings under such force majeure causes of default.
 - 3-months moratorium on debt-servicing of all term loans outstanding and deferment of interest to be paid on working capital loans for 3 months. Such deferment will not impact the credit history of the borrower.
-April 17: Regulatory norms are being softened, with a temporary reduction in the liquidity coverage ratio for banks and an extension in bankruptcy resolution timelines from 210 days to 300 days. The Resersve Bank of India (RBI) offered temporary forbearance, or moratoriums, on assets considered standard as of 1 March 2020. For those assets, the 90-day non-performing loan norm shall exclude the moratorium period, meaning that assets considered standard on 1 March 2020 would continue to be considered standard until 31 May 2020, even if no repayment is made during the period. Non-bank financial corporations can also grant such moratoriums on repayments.
+April 17: Regulatory norms are being softened, with a temporary reduction in the liquidity coverage ratio for banks and an extension in bankruptcy resolution timelines from 210 days to 300 days. The Reserve Bank of India (RBI) offered temporary forbearance, or moratoriums, on assets considered standard as of 1 March 2020. For those assets, the 90-day non-performing loan norm shall exclude the moratorium period, meaning that assets considered standard on 1 March 2020 would continue to be considered standard until 31 May 2020, even if no repayment is made during the period. Non-bank financial corporations can also grant such moratoriums on repayments.
 • The RBI asked banks not to pay further dividends for the fiscal year 2019-20 (ending in March 2020).
 • The RBI increased the temporary loans limit of states by 60% from an already increased 30% (announced on 1 April 2020), providing states with an additional channel to borrow from the RBI, instead of relying on additional market borrowings.
-• April 27: The RBI set up a INR 500 billion facility to provide liquidity to mutual funds. It will channel funds to banks, through repo operations, which should be used to extend loans to mutual funds or buy assets from them.</t>
+April 27: The RBI set up a INR 500 billion facility to provide liquidity to mutual funds. It will channel funds to banks, through repo operations, which should be used to extend loans to mutual funds or buy assets from them.</t>
   </si>
   <si>
     <t>From 10 April, there are large-scale social restrictions in Jakarta implying stricter rules for outdoor activities such as obligation of masks and reduced transportation. On 14 April, 10 more regions (mostly around Jakarta and one in Riau) are authorised to impose large-scale social restrictions. On 22 April, 23 areas are under large-scale social restrictions.</t>
@@ -3114,7 +3167,7 @@
     <t>ISR*</t>
   </si>
   <si>
-    <t>26-Apr-2020 (Last updated: 26-Apr-2020)</t>
+    <t>01-May-2020 (Last updated: 01-May-2020)</t>
   </si>
   <si>
     <t>• Since 19 April, workplace restrictions eased with around 30% of employees in the private sector being physically allowed to go to work (from 15% since 1 April). Workplaces meeting certain standards (e.g. on hygiene and distancing) can employ a larger number of employees.
@@ -3126,13 +3179,13 @@
 'Since 12 March all non-Israelis will be barred completely from entering Israel unless they can demonstrate that they have a place to self-isolate in Israel for 14 days. This extends previous measures that were confined to travellers from most affected countries in Asia and Europe. </t>
   </si>
   <si>
-    <t>Since 19 April special education programmes are allowed to operate. All other educational institutions including pre-schools and kindergartens are closed (since 13 March).</t>
+    <t xml:space="preserve">Since 19 April special education programmes are allowed to operate. From 3 May general schools to reopen grades 1-3 and 11-12 and ultra-orthodox schools grades 6-12. Other grades are to reopen by 1 June. Pre-schools are expected to reopen on 10 May. Universities remain closed. </t>
   </si>
   <si>
     <t xml:space="preserve">Since 19 April certain public gatherings, e.g. for weddings (up to 10 people), outdoor prayers (up to 19 people) are allowed. Beaches, parks, playgrounds and municipal sports areas remain closed  </t>
   </si>
   <si>
-    <t xml:space="preserve">• Since 26 April most shops on streets are allowed to open if they meet certain hygiene and social distancing standards. Restaurants take-aways are allowed. Shopping malls remain closed. 
+    <t xml:space="preserve">• Since 26 April most shops on streets are allowed to open if they meet certain hygiene and social distancing standards. Restaurants take-aways are allowed. From May 3 shopping malls and hotels for domestic tourism are allowed to reopen. 
 '• Since 19 April, workplace restrictions eased with around 30% of employees in the private sector being physically allowed to go to work (from 15% since 1 April). Workplaces meeting a defined standard ("purple badge", e.g. on hygiene and distancing) can employ a larger number of employees.
 </t>
   </si>
@@ -3333,6 +3386,103 @@
     <t xml:space="preserve">- On 17 March, the Financial Service Agency (FSA) issued a public communication that reassures that regulatory capital and liquidity buffers can be used, as needed, to support the businesses affected by the Covid-19 outbreak. </t>
   </si>
   <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>* Declaration of the state of emergency, currently extended until 11th of May.
+* March, 19: The government ordered a quarantine regime in the country's two largest cities, Nur-Sultan and Almaty. The rules will limit movement in and out of the cities.
+* April, 3: The quarantine regime in Nur-Sultan and Almaty is extended until 13 April. A quarantine is introduced in Shymkent, starting from 4 April at 9 PM.
+*April 21: The quarantine regime has been strengthened: visits to nearby stores and supermarkets will now only be allowed for one family member once every three days.
+* April 27: The quarantine regime is extended until 11 May. The government is preparing a plan to ease the measures in cities and regions where the situation with the virus is under control. 
+*April 30: the city of Almaty announced that Almaty residents are authorised to move to their countryside houses (datcha) and to go to city's playgrounds and parks under certain time and people restrictions.</t>
+  </si>
+  <si>
+    <t>* Closure of borders to non-citizens. Flights from coronavirus-affected countries are progressively suspended. Passenger rail services have been shut down.
+*The visa exemption for 56 countries (including EU – and France) has been suspended until 1 November.
+*April 27: Flights between Nur-Sultan and Almaty will start operating starting from 1st of May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Schools, except for kindergartens, are closed.
+* April 27: the schooling has been moved online, and will last after May 11, however technical difficulties have been reported.
+</t>
+  </si>
+  <si>
+    <t>* March, 12 : Public events are cancelled, including the Nowruz celebrations. 
+* April 27: Public places willl continue to be closed after May 11</t>
+  </si>
+  <si>
+    <t>* Non-essential businesses have been closed in many places, and working hours of public transport limited. 
+*Exports of key food products have been banned, while imports of food products and freight have been maintained and a cap on food prices introduced
+*On 30 March, the Ministry of Agriculture lifted an existing ban on flour exports, but introduced quotas for the export of wheat and flour for the time of quarantine, now expanded until September 2020 
+*April 21:  Kazakhstan bans livestock export for 6 months.
+* April 27: The State Commission On Ensuring the State of Emergency is preparing a list of businesses that will resume their activities, which includes industrial enterprises, construction and road construction companies, transport companies, banks and public service centres.</t>
+  </si>
+  <si>
+    <t>*The government announced a total anti-crisis package excluding tax breaks and local support will amount to KZT 4.4 trillion tenge (roughly USD 10bn or 6-7% of GDP), now increased to 5.9 trillion tenges (circa 8.8% of GDP)
+'* March, 18 : VAT is to be scrapped for imports of agrarian goods. The government announced that it has begun taking steps to ensure duty-free import of "socially important food products".
+* March, 18: Around 7 000 producers of agricultural goods are to be exempted from land tax payments.
+* The government is setting aside KZT 300 billion Tenge (607 million EUR) for infrastructure spending to create 120 000 jobs, exclusively for Kazakh nationals.
+* April 27: A total of 5.9 trillion tenge has been allocated to support individuals and enterprises during the outbreak
+* International financial institutions have provided financial support to the government (Asian Development Bank, World Bank)</t>
+  </si>
+  <si>
+    <t>* The disinfection of the main cities is done by the army.
+* The granting of free medical service -  in the framework of the compulsory health insurance - from April 1 to July 1, to all Kazakhstan citizens.
+*April 20: A hospital dedicated to treatment of coronavirus patients was completed in Nur-Sultan, after 13 days of construction only. It cost $12.8 million and has a capacity of 280 beds. As of April 27, there were 43 patients in the new clinic. 
+* Wage premium and bonuses will be paid to medical staff (hospitals, ambulances, public agencies).
+* Public budget financed the purchase of medical equipment to provent the spread of the pandemic, including protective equipment, laboratory equipment, disinfectants and medical devices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* The National Social Security Fund grants wage subsidies, channelled through firms to employees of MSMEs on unpaid leave (KZT 42 500 tenge a month, or 95 USD), until the end of the emergency situation. As of April 27, this has already benefited 4.25m workers. The payment has been extended to the second month of the quarantine.
+*  10% increase in retirement pensions and state benefits.  
+*  Employees who lost jobs due to the confinement will be compensated at 40% of their former salaries for a duration of up to 6 months. 
+*An additional KZT 1 trillion will be allocated to support employment under an “Employment Roadmap” program.
+* Children and adults from low-income families receiving Targeted Social Assistance (TSA), disabled people, and parents engaged in caring for a disabled child will receive food baskets. As of April 27, more than 570 000 people receievd food baskets. The food baskets will cover at least 1.1 million citizens.
+* The authorities have sent SMS messages to thousands of eligible citizens inviting them to provide the information needed to facilitate their transfers. This is reckoned to be quicker and easier than sending cheques or leaving it to citizens to take the initiative to apply for assistance.
+* The Ministry of Labor and Social Affairs has developed a roadmap for employment, which provides for the creation of more than 240,000 jobs. 
+* In April and May, more than 1.6 million people will receive assistance to pay utilities bills. </t>
+  </si>
+  <si>
+    <t>The current drop in global demand for extractive goods and commodity prices has already forced the government to revise its state budget for 2020, with a planned cut of 1.25bn USD budget spending.
+'* March, 17: Major retail outlets, cinemas, theatres, sports facilities and other businesses being forced to curtail activities will be exempted from property taxes for one year and interest on loans for one quarter.</t>
+  </si>
+  <si>
+    <t>* March, 18: Banks will be required to allow businesses and entrepreneurs experiencing liquidity problems to defer repayment on loans until after June 15.
+* Firms with a drop in turnover of more than 40% can get cash support to cover part of their fixed costs (up to 80%); full compensation of fixed costs will be provided to firms forced to close temporarily due to the lockdown. 
+* Public budget rules have been relaxed to encourage frontloading of public consumption and payments to private firms.
+*Specific help for SMEs to finance their working capital (KZT 600 billion) have been announced.</t>
+  </si>
+  <si>
+    <t>* Deferral of all tax and social payments for SMEs until 1 June.
+* VAT rate has been reduced from 12% to 8% until 1 October 2020 for sectors of tourism, catering, hotel business, large retail facilities, shopping centers, cinemas, theaters, exhibitions and sports and fitness facilities, trade entities, with the exception of food and drugstores, transportation services, consulting services and information technology. 
+* April 27: Tax incentive measures covered more than 270 000 companies and individual entrepreneurs</t>
+  </si>
+  <si>
+    <t>* Banks have been asked to allow loan repayments deferrals until mid-June and refrain from charging penalties for borrowers affected by the emergency.  
+* April 27: More than 1.6 million citizens and 11 500 SMEs received deferral on loan payments in the amount of 360 billion tenge</t>
+  </si>
+  <si>
+    <t>*Subsidized lending will be provided under the state program (“Economy of Simple Things”, KZT 1 trillion): the reserve of state-issued credit for the output of staple goods is to rise from KZT600bn ($1.5 billion) to KZT1trn. Interest on that credit is being cut from 13-15% to 6%.</t>
+  </si>
+  <si>
+    <t>* March, 16 : The National Bank of Kazakhstan decided to maintain the base rate at 12% and the interest rate corridor at +/- 1.5 percentage points.
+* April, 3 : Reduction of the base rate to 9.5%, with +/- 2 percentage points of corridor.
+* Foreign exchange controls for SOEs have been introduced to support the tenge.
+*The NBK has allowed the tenge to depreciate by over 15 percent since March 9, intervening in the market to mitigate excessive volatility. Amid pressures, the NBK introduced a limit on bid-ask spread and lowered the ceiling of FX purchase without supporting import documents (from $100,000 to $50,000) for the duration of the state of emergency.  
+* April 21: The NBK set temporary limits on the amount of cash that legal entities are permitted to withdraw from their bank accounts. The new measure will be effective starting from 1 June 2020 until 31 December 2020. Limits for small businesses are set at KZT 20m, for medium-sized enterprises - KZT 120m and for large enterprises - KZT 150m.</t>
+  </si>
+  <si>
+    <t>* Risk weights for SME exposure in tenge have been lowered from 75 to 50% and those for forex loans from 200 to 100%.
+*April 20: Kazakhstan’s financial regulator has recommended that local banks and insurers avoid using their accumulated profit for dividend payouts and share buybacks this year.</t>
+  </si>
+  <si>
+    <t>*Residents in Almaty can defer utility payments for March and April until the end of 2020 with no fines or penalty
+* Reimbursement of utilities expenses for April and May in amount of KZT15,000 will be provided for socially vulnerable groups of population</t>
+  </si>
+  <si>
+    <t>For the duration of the state of emergency and quarantine, state bodies (eg. Investment Fund of Kazakhstan) have suspended the calculation of rental payments for real estate for SMEs without additional charges.</t>
+  </si>
+  <si>
     <t>KEN</t>
   </si>
   <si>
@@ -3529,21 +3679,18 @@
     <t xml:space="preserve">*The authorities are working on a preparedness plan, including support to health care workers, purchase and repair of health equipment, procurement of drugs and other medical supplies, deployment of surge staff to contact tracing activities, border areas, rapid response teams, training,, planning, communications and information sharing, staffing and equipping laboratories, and logistical and supply support. </t>
   </si>
   <si>
-    <t>18-Apr-2020 (Last updated: 18-Apr-2020)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - All travellers from all countries have to undergo mandatory quarantine for two weeks upon arrival, except from: members of official delegations, diplomats and special couriers working on transit trains and who have no COVID-19 symptoms; crew members, who are employed in Lithuanian companies engaged in international commercial transportation, or engaged in international commercial transportation by all the means of transport, and who have no COVID-19 symptoms (isolation is mandatory from the day of arrival in Lithuania until the day of departure from its territory, but not longer than 14 days). 
  - The National Center for Public Health under the Ministry of Health is organising a screening for symptoms of COVID-19 of all persons returning from foreign countries at the international crossing points.
 - Self-quarantine for those infected, with symptoms and who have had contacts with infected.
 - For those who do not have a safe place for self-isolation, municipalities may provide facilities.                                                      - A new tool was introduced (a virtual conversation robot) to facilitate the provision of reliable and up-to-date information on emergency, quarantine and coronavirus.                                                     </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Foreigners are not allowed to enter the country. Exceptions include crews employed in Lithuanian companies engaged in international commercial transport or engaged in international commercial transport by any means of transport (unless they are found to have COVID-19 symptoms), foreigners who are immediate family members (parents, children, spouses, foster parents) to Lithuanian citizens, persons entitled to reside in Lithuania, diplomatic staff, NATO personnel.                                                                                                                                                            - Cruise ship access to Klaipeda seaport is prohibited.                                                                                                                                                                                      - From April 4 2020,  it is prohibited to transport passengers and/or passenger cars to Lithuania by ferries, except for the ferry on the route Kiel (Germany)/Klaipėda (Lithuania)/Kiel (Germany).  In exceptional cases,  the decision on the permit shall be made by the government.                                                                                                                                                       - From 4 April 2020 flights for the carriage of passengers to, and from international airports of Lithuania, shall be performed only upon obtaining a permit.                                                                     - Lithuanian consulates worldwide suspended acceptance and processing of visa applications, including visa applications in representation of another Schengen states.
+    <t xml:space="preserve"> - Foreigners are not allowed to enter the country. Exceptions include crews employed in Lithuanian companies engaged in international commercial transport or engaged in international commercial transport by any means of transport (unless they are found to have COVID-19 symptoms), foreigners who are immediate family members (parents, children, spouses, foster parents) to Lithuanian citizens, persons entitled to reside in Lithuania, diplomatic staff, NATO personnel, and health care specialists coming to provide transplant services.                                                                                                                                                            - Cruise ship access to Klaipeda seaport is prohibited.                                                                                                                                                                                      - From April 4 2020,  it is prohibited to transport passengers and/or passenger cars to Lithuania by ferries, except for the ferry on the route Kiel (Germany)/Klaipėda (Lithuania)/Kiel (Germany).  In exceptional cases,  the decision on the permit shall be made by the government.                                                                                                                                                       - From 4 April 2020 flights for the carriage of passengers to, and from international airports of Lithuania, shall be performed only upon obtaining a permit.                                                                     - Lithuanian consulates worldwide suspended acceptance and processing of visa applications, including visa applications in representation of another Schengen states.
 - Transit through the territory of Lithuania of persons returning to their country of residence and of crew members performing international commercial transport activities in all types of vehicles without the required stop is permitted. 
-                                                                                                                                                                                                                                                                                                                                                                                               The above restrictions are in effect between 16 and 27 April 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - On 12 March 2020 the government decided to close all educational institutions, announcing compulsory two-week school holidays in educational institutions (kindergartens, schools, universities, colleges, non-formal education institutions, etc.) for a period of 14 days as a precautionary measure (from 13 March – as a recommendation; from 16 March till 30 March – compulsory suspension/obligatory measure).                                                                                                - On 30 March distance learning was introduced in Lithuania. The period of distance learning in schools, vocational education and higher education institutions depends on the quarantine period (prolonged to 27th April). Distance learning is recommended for preschool and pre-primary education institutions but some kindergartens can operate and provide services for parents/families in need (i.e., doctors, police officers), upon municipality  decision.</t>
+                                                                                                                                                                                                                                                                                                                                                                                               The above restrictions are in effect between 16 March and 11 May 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - On 12 March 2020 the government decided to close all educational institutions, announcing compulsory two-week school holidays in educational institutions (kindergartens, schools, universities, colleges, non-formal education institutions, etc.) for a period of 14 days as a precautionary measure (from 13 March – as a recommendation; from 16 March till 30 March – compulsory suspension/obligatory measure).                                                                                                - On 30 March distance learning was introduced in Lithuania. The period of distance learning in schools, vocational education and higher education institutions depends on the quarantine period. Distance learning is recommended for preschool and pre-primary education institutions but some kindergartens can operate and provide services for parents/families in need (i.e., doctors, police officers), upon municipality  decision.</t>
   </si>
   <si>
     <t xml:space="preserve">-All the events are prohibited throughout Lithuania. 
@@ -3551,7 +3698,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- All shops are closed with the exemption of supermarkets, pharmacies and certain small businesses that fall under the provisional framework for easing quarantine measures. The government approved on 15 Apri the first stage of easing quarantine measures for businesses, with the provisional timeline for other stages to be confirmed at a later date. Measures apply to small businesses, including non-food retailers and shops providing certain services such as  key makers; shoe repair services; laundry shops and dry-cleaners and rental shops. The shops will need to have direct access from the street, service providers should limit face-to-face contact to 20 minutes, and ensure a density of one client per 10 square metres. Only one person can be served at a time.
+    <t xml:space="preserve">- All shops are closed with the exemption of supermarkets, pharmacies and certain small businesses that fall under the provisional framework for easing quarantine measures. The government approved on 15 April the first stage of easing quarantine measures for businesses. Measures apply to small businesses, including non-food retailers and shops providing certain services such as  key makers; shoe repair services; laundry shops and dry-cleaners and rental shops. The shops will need to have direct access from the street, service providers should limit face-to-face contact to 20 minutes, and ensure a density of one client per 10 square metres. Only one person can be served at a time   - On 27 April, the government approved the second stage of easing quarantine measures for businesses. Measures apply to outdoor catering establishments, beauty services, specialised training/examination which cannot be conducted remotely, outdoor leisure/sports activities; shopping malls and supermarkets (stores are no longer required to have an entrance from the outside), and certain cultural/entertainment facilities. Businesses engaged in these activities must comply with the established requirements for the protection of public health. Individuals that belong to risk groups shall be subject to more stringent requirements (e.g. prohibition of sale).   
 </t>
   </si>
   <si>
@@ -3586,10 +3733,10 @@
 - Postponement of the payments date of tax arrears for the affected tax payers.
 - Exemption from fines and default interest for failure to comply with tax obligations on time.                                                                                                                                   -  Postponement of submission (and payment of) personal income tax returns and advanced corporate income tax returns.                              
  - Relief from import duties and VAT exemption on importation granted for goods needed to combat the effects of the COVID-19 outbreak pursuant to Commission’s decision.                                                                                                                                                                                    -  Possibility for business customers to defer or arrange the payments in instalments to the public provider of electricity and gas.
- - Recommendation for the municipalities to offer the possibility of deferring or arranging the payment of public utility charges and payments for heat in instalments.                                             -  A draft law on the COVID-19 impact on insolvency of legal persons was submitted to Parliament on 8 April. The law includes: suspension of the debtor's duty to file for bankruptcy or restructuring proceedings for the period of three months after the end of quarantine period; creditor’s right to file for bankruptcy or restructuring proceedings is limited for the quarantine period; suspended calculation of term when the debtor is not able to carry out the approved restructuring plan and as a result the restructuring could be terminated – for the period of three months after the end of quarantine period.                                                                                  -  On 14 April the government approved the temporary provision of rental subsidies to business. The subsidies are to be paid during the quarantine period and the two months thereafter. The total amount available for rental subsidies is estimated up to EUR 100 million.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems:  EUR 287 million for loans; EUR 145 million for risk capital investment;  EUR 23 million for compensations of loans and leasing contracts interests (during the payment holiday up to 6 months); EUR 100 million for a Business Support Fund, and EUR 50 million for payable invoices loans.                                                          - A new borrowing instrument enables SMEs to apply for soft loans on the condition that they have run out of working capital due to disruptions in settlements with purchasers whose activities have been terminated or restricted due to quarantine. The maximum loan amount will be up to EUR 100 thousand.</t>
+ - Recommendation for the municipalities to offer the possibility of deferring or arranging the payment of public utility charges and payments for heat in instalments.                                             -  A new law adopted by Parliament on 21 April 2020 regarding the COVID-19 impact on insolvency of legal persons was submitted to Parliament on 8 April. The law includes: suspension of the debtor's duty to file for bankruptcy or restructuring proceedings for the period of three months after the end of quarantine period; creditor’s right to file for bankruptcy or restructuring proceedings is limited for the quarantine period; suspended calculation of term when the debtor is not able to carry out the approved restructuring plan and as a result the restructuring could be terminated – for the period of three months after the end of quarantine period.                                                                                  -  On 14 April the government approved the temporary provision of rental subsidies to business. The subsidies are to be paid during the quarantine period and the two months thereafter. The total amount available for rental subsidies is estimated up to EUR 100 million.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems:  EUR 287 million for loans; EUR 145 million for risk capital investment;  EUR 23 million for compensations of loans and leasing contracts interests (during the payment holiday up to 6 months); EUR 100 million for a Business Support Fund, and EUR 50 million for payable invoices loans.                                                          - A new borrowing instrument enables SMEs to apply for soft loans on the condition that they have run out of working capital due to disruptions in settlements with purchasers whose activities have been terminated or restricted due to quarantine. The maximum loan amount will be up to EUR 100 thousand.                                       - Starting from 24 April young firms (SMEs established less than 3 years ago) may get soft loans under the measure "Loans to the businesses most affected by COVID-19". Loans under this measure are easier to apply for, and are available to companies that have lost 30% or more of their turnover due to the COVID-19 outbreak. The maximum loan amount per firm has increased tenfold and now may reach up to EUR 1 million.                                      </t>
   </si>
   <si>
     <t>-  Allocation of EUR 1.3 billion to the firms facing liquidity and financial problems: EUR 851 million for state guaranties
@@ -3975,6 +4122,9 @@
     <t>MNE</t>
   </si>
   <si>
+    <t>23-Apr-2020 (Last updated: 29-Apr-2020)</t>
+  </si>
+  <si>
     <t xml:space="preserve">*March, 30: the National Coordination Body for Infectious Diseases announced a curfew from 19h to 5h, while on the weekends, it extends from Saturday at 13h to Monday at 5h00.
 * April 15: The National Coordination Body for Communicable Diseases agreed to extend the application of several temporary measures adopted in last month, including: prohibition for foreigners to enter the country, compulsory self-isolation for all Montenegrin nationals, as well as for foreigners who have permanent or temporary residence in Montenegro, ban on providing catering services, closure of catering facilities. The curfew is maintained. </t>
   </si>
@@ -4392,6 +4542,7 @@
 -         Change in corporate tax regulations so that companies that are lossmaking can re-allocate their loss towards previous years’ taxed surplus
 -         Change in tax regulations so that owners of lossmaking companies can postpone payments of wealth  tax. 
 -         Reduction in the low VAT rate, which includes passenger transport, accommodation and parts of the cultural sector, from 12 to 8 per cent until 31 October.
+A tax support package for the oil and gas sector was announced (30 April). https://www.regjeringen.no/en/aktuelt/package-of-measures-to-support-the-oil-and-gas-industry-and-the-supply-industry/id2700656/?utm_source=www.regjeringen.no&amp;utm_medium=epost&amp;utm_campaign=nyhetsvarsel%2001.05.2020&amp;utm_content=Energy 
 </t>
   </si>
   <si>
@@ -4657,7 +4808,7 @@
 - On 16 March, the Central Bank announced the provision of liquidity-providing repo operations to the banking system, the provision of TLTRO-type refinancing of non-financial corporate loans and large scale Treasury-bond purchases.  - On 16 March, the Systemic Risk Board waived banks' contributions to the systemic risk buffer, reducing bank capital requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">Public containment has been implemented on the 19th of March after the announcement of the State of Emergency on the 18th of March. It was extended on the 03/04 and again on the 16/04. More than two people are allowed to go outside without restrictions (i.e. for a short walk, for physical exercise, for basic goods shopping or to go to the pharmacy) if they don't belong to the risk group (+70 years old/severe diseases). People also may go to work, if it’s not possible to work from home. </t>
+    <t xml:space="preserve">Public containment has been implemented on the 19th of March after the announcement of the State of Emergency on the 18th of March. It was extended on the 03/04 and again on the 16/04 and will last until 2/5. More than two people are allowed to go outside without restrictions (i.e. for a short walk, for physical exercise, for basic goods shopping or to go to the pharmacy) if they don't belong to the risk group (+70 years old/severe diseases). People also may go to work, if it’s not possible to work from home. </t>
   </si>
   <si>
     <t xml:space="preserve">Border control with Spain through mutual agreement started on 17/3. Suspended air, rail and river connections. 
@@ -4694,9 +4845,10 @@
 - National Contingency and Response Plan for Disease. 
 - Extensive testing implemented across the country, and proactive tracing of potential positives. 
 - Specific programme for nursing homes testing since 30/3. Two new diagnostic centres have been established since 30/3.
-- Measures to support mental health and tackle domestic violence.
+- Measures to support mental health and tackle domestic violence including public campaigns, support lines and extension of two more emergency facilities.
 - Research 4 COVID-19: support to innovative solutions of rapid implementation in the NHS in response to the pandemic (1.5 million EUR).
-- AI 4 COVID: Data Science and Artificial Intelligence in Public Administration (3 million EUR).
+- AI 4 COVID: Data Science and Artificial Intelligence in Public Administration (3 million EUR). 
+- Science 4 COVID-19 platform launched on 4/4, with ideas, publications and initiatives from the scientific community for cooperative work to tackle COVID-19.
 - University labs developing prototypes for test kits and innovation centres developing ventilators and textile equipment to cope with country’s needs and capacitate the industry 
 - The Portuguese government has been developing three areas of action, the commitment with the Joint Procurement Agreements developed by the European Commission, the purchase of protective equiment on international markets and the use of the national capacity and availability in production of protective equipment and medical equipment to support the breathing of patients.</t>
   </si>
@@ -4707,9 +4859,12 @@
 - Training subsidy of 50% of prior earnings, up to minimum wage, plus the cost of training, for workers without occupation as a result of the Covid-19 crisis.
 - The equivalent of 14 days sick absence leave for workers who have to self-isolate or isolate their children or grandchildren, as a prophylactic measure with 100% renumeration.
 - Extraordinary extension of unemployment benefits and all benefits of the Social Security system which lasts until the end of containment measures.
+- Extraordinary support to maintain jobs after the end of lay-off or closure of the establishment by Health Authority (first-month wages supported, up to limit of one min wage per worker).
+- Companies are exempted from Social Security contributions in lay-off or closure determined by the Health Authority, as well as on the first month after the resumption of activity.
 - Social benefits for those supporting social and health entities (re-insertion social programmes).
 - Reinforced powers of Authority for Labour Conditions (ACT) to act against irregular dismissals.
 - Suspension of social security lien foreclosures for 3 months.
+- Emergency support financing to artists and cultural entities most affected (€1 million).
 </t>
   </si>
   <si>
@@ -4721,19 +4876,15 @@
   </si>
   <si>
     <t xml:space="preserve">3.7 billion state-backed credit guarantees are provided by firms in total out of which:
-- €400 million are direct state guaranteed credit support to companies that are most affected (increased from initially €200 million) and for microenterprises in the tourism sector (€60 million). 
-- state guaranteed credit through the banking system: for restaurants (€600 million, €270 million for SMEs), tourism (€200 million, €75 million for SME), tourism accommodation (€900 million, €300 million for SME), industry (€ 1.300 million, €400 million for SME), fishing and aquiculture sectors (€20 million).
+- €400 million are direct state guaranteed credit support to companies that are most affected (increased from initially €200 million): microenterprises in the tourism sector (€60 million) and companies operating in the social economy sector (€165 million),  
+- State guaranteed credit through the banking system: for restaurants (€600 million, €270 million for SMEs), travel agencies (€200 million), tourism accommodation (€900 million, €300 million for SME), industry (€ 1.300 million, €400 million for SME), fishing and aquiculture sectors (€20 million).
 - Increased ceilings for export credit insurance schemes for metallurgic, mould, metal and mechanical industries (€100 million), construction abroad (€100 million), short-term exports (€50 million). 
 - Suspension of termination of rental contracts and possible moratorium in case of income loss.
 - Suspension of termination of essential services (water, electricity, natural gas, telecom).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smaller credit institutions, under the supervision of Banco de Portugal and not the ECB, can temporarily operate with a lower level of minimum capital requirements and lower levels of liquidity than usual.
--Rescheduling of banking loans, with maturities extended due in the next 6 months until 30/9, with a moratory on capital and interest, and maturities extended for extra 6 months, applicable to: 1) housing credit for families most affected (unemployed, laid-off, in prophylactic isolation or ill due to COVID-19); 2) loans to firms, self-employed and social institutions. Exceptions apply. 
-- Suspension of taxes for businesses on POS payments by main banks (digital payments with no minimum value for transaction). Higher max limit for contactless transactions.
-- Banco de Portugal has decided that new personal credit with maturities of up to two years, granted from 1 April until 30 September 2020, and duly identified as intended to mitigate households’ temporary liquidity shortage situations will not have to comply with the DSTI ratio threshold and is also exempted from the recommendation of regular principal and interest payments.
-- Banco de Portugal has approved a Circular Letter implementing the Guidelines of the EBA on legislative and non-legislative moratoria on loan repayments  (EBA/GL/2020/02). </t>
+- €25 million fiscal package to support the entrepreneurship ecosystem </t>
+  </si>
+  <si>
+    <t>The Portuguese government has approved a six-month moratorium on bank loan repayments for families and companies affected by the coronavirus outbreak. The Banco de Portugal (BdP) has relaxed some aspects of its macroprudential measures for consumer credit . In addition, BdP has announced a series of measures directed to less significant banks under its supervision, in line with the initiatives undertaken by the ECB and the EBA. These include the possibility to temporary operate below selected capital and liquidity requirements; a recommendation to restrict dividend distributions; extension of deadlines of some reporting obligations; and rescheduling of on-site inspections and the stress test exercise.</t>
   </si>
   <si>
     <t>On 26th of March, the Portuguese government announced that people who are repaying a housing loan/mortgage can delay their repayments until September 30 2020 without consequences. 
@@ -4803,6 +4954,9 @@
   </si>
   <si>
     <t>SMEs obtaining an emergency certificate can benefit from an extension of the payment deadlines for utilities services (electricity, natural gas, water, telephone and internet services) and rents. Penalties related to delays in the execution of public contracts are suspended during the state of emergency period.</t>
+  </si>
+  <si>
+    <t>28-Apr-2020 (Last updated: 28-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">Several regions, including the most affected Moscow and St. Petersburg regions, have ordered a curfew and a digital permit system when using transportation . No countrywide lockdown </t>
@@ -5371,7 +5525,13 @@
 </t>
   </si>
   <si>
-    <t>• Suspension of all non-essential work from March 30 to April 9, inclusive.</t>
+    <t>On April 28, a plan for a gradual transition with four phases was announced, with each phase set to last at least 2 weeks. Decisions will be based on regional conditions.
+• Phase 0 (from May 4): Preparation phase, ability to go outside for exercise and walks, individual training for professional sportsmen, reopen small businesses that can take bookings (restaurants that offer take-way food and places, and hardware stores) and hairdressers.
+• Phase 1 (from May 10): Interregional trips not allowed until end-June but mobility within regions allowed; recommended use of masks on public transport, social contact between people in the same region if not vulnerable (elderly or underlying conditions) but the limit on the number of people yet to be determined, open up sidewalk cafes (30% of capacity limit) and hotels (except common areas) and religious sites (30% capacity limit). Public transport capacity will rise to 80%.
+• Phase 2 (at least 2 weeks after Phase 1):  Open up bars and restaurants with inside seating, cinemas, theatres, monuments and exhibition centres (30% capacity limit), allow cultural events such as concerts (1/3 capacity), outdoor events up to 400 people, if seated. Visit to people in homes with disabilities, but not the elderly. Schools will not open fully until September, but schools will offer classes to children under the age of six if parents require it to be able to go to work and so that students can complete their university entrance exams. Open shopping centres (except recreational areas). 
+• Phase 3 (at least 2 weeks after Phase 2, likely mid-June): Relaxation of mobility restrictions further, recommend to use masks outside and public transport, visit senior homes (under some yet to be set conditions), open bars, cinemas and theatres (50% capacity limit), allow shoppers to enter shops (with limits on capacity of 50%, 2 meter social distancing rules).
+• Phase 4 (the new normality stage, likely end-June): End of social and economic restrictions. Mobility across regions, public transport capacity will rise to 100%.
+'• Suspension of all non-essential work from March 30 to April 9, inclusive.</t>
   </si>
   <si>
     <t xml:space="preserve">EUR 134 billion (of which EUR 102 billion is loan guarantees and EUR 18.6 billion refers to increased liquidity from tax deferrals, etc). Health (EUR 4.6 billion), labour market measures (EUR 3.8 billion), social measures (EUR 1.2 billion) and the rest of the economic measures (EUR 4.3 billion), which amounts to around 1.1% of GDP. </t>
@@ -5484,7 +5644,7 @@
 • A three-month moratorium on mortgage payments to the self-employed affected by the crisis.</t>
   </si>
   <si>
-    <t>14-Apr-2020 (Last updated: 15-Apr-2020)</t>
+    <t>14-Apr-2020 (Last updated: 30-Apr-2020)</t>
   </si>
   <si>
     <t xml:space="preserve">Since early March, everyone with symptoms of respiratory infection, even mild ones, was urged to avoid social contacts, both at work and in private, and throughout the country. On 16 March, the health authority (Folkhälsomyndigheten) recommended as much as possible isolating people over 70 and working from home. </t>
@@ -5502,7 +5662,7 @@
 </t>
   </si>
   <si>
-    <t>The government has presented three comprehensive packages amounting to SEK 661.8 billion (about EUR 62.1 billion, nearly 13% of GDP), including liquidity provisions and credit guarantees if these are used by firms to the maximum.</t>
+    <t>Total government support in 2020 amounts to a total of SEK 735bn (14.6% of GDP), including SEK 170bn (3.4% of GDP) in budget measures, SEK 335bn (6.6% of GDP) in liquidity measures and SEK 230bn (4.6% of GDP) in guarantees (assuming these are used to the maximum).</t>
   </si>
   <si>
     <t>- The central government will compensate municipalities and regions for extraordinary measures and extra costs in health and medical care associated with the COVID-19 virus. On 2 April, the amount was raised to SEK 3bn from SEK 2bn. 
@@ -5526,7 +5686,8 @@
 o Measures targeting small enterprises: 100% of the taxable profits of sole proprietors and partners in Swedish partnerships for 2019, up to SEK 1 million, can be set aside in the tax allocation reserve, which can then be set off against possible future losses. VAT reported by sole proprietors annually from 27 December 2019 to 17 January 2021 will be eligible to deferral, with interest. These measures will provide a maximum liquidity reinforcement of more than SEK 20 billion.</t>
   </si>
   <si>
-    <t xml:space="preserve">Announced on 25 March: Temporary discount for rental costs in vulnerable sectors, such as durable consumer goods, hotels, restaurants and certain other activities, with the government covering 50% of the rental reduction up to 50% of the fixed rent (estimated cost: SEK 5 billion).
+    <t xml:space="preserve">- On 30 April, the government announced a SEK 39bn (0.8% of GDP) package to support businesses based on loss of turnover. The amount may vary between 22.5% and 75% of the  fixed costs excluding wage costs for March and April 2020. Eligible firms are those with a turnover of at least SEK 250 000 during the past financial year and a loss of turnover of at least 30%. Almost 180 000 businesses may be entitled.
+- Announced on 25 March: Temporary discount for rental costs in vulnerable sectors, such as durable consumer goods, hotels, restaurants and certain other activities, with the government covering 50% of the rental reduction up to 50% of the fixed rent (estimated cost: SEK 5 billion).
 - On 20 March, the government announced support amounting to SEK 500 million (EUR 45 million ; 0.01% of GDP) for cultural activities that lose revenue as a result of the restriction on public events and the same amount for sports. </t>
   </si>
   <si>
@@ -5699,17 +5860,21 @@
 - March 31: Extension of the lockdown has been announced until April 20.
 - April 17: The government adopts a decree-law to fix fines in case of violation of the curfew or confinement. This fine is TND 50 (around 16 EUR) but could increase to TND 100 in the event of recurrence and should be paid within a period not exceeding ten days. The same legislative decree will also make it possible to take additional measures concerning the movement of people and putting them under surveillance in the event of contamination or suspected contamination. Fines for not respecting these provisions are between TND 1,000 and 5,000 and could double in the case of recurrence.
 - April 19: Extension of the lockdown has been announced until May 03. The government plans a progressive easing of the confinement restrictions depending on sectors, regions and other specificities after May 03. A few industrial sectors will be allowed to resume operations at the end of the confinement, such as the automotive, textile and ago-food sectors.
-- April 22: The government makes an announcement that period of deconfinement will be spread over 4 phases from starting from May 04 until the end of June 2020. The procedure of deconfinement will revolve around 5 axes: The application of health measures and preventive standards; The adaptation of the transport system; The application of prior authorizations; The strengthening of control mechanisms; The revision of working hours to avoid congestion in workplaces and transport.
+- April 22: The government makes an announcement that period of deconfinement will be spread over several phases from starting from May 04 until the end of June 2020. The procedure of deconfinement will revolve around 5 axes: The application of health measures and preventive standards; The adaptation of the transport system; The application of prior authorizations; The strengthening of control mechanisms; The revision of working hours to avoid congestion in workplaces and transport.
 - April 23: The Ministry of Local Affairs announces that additional sanitary measures will been taken during the holy month of Ramadan (starting April 24) to ensure hygiene in markets and businesses operating in the open air.
-- April 25: The Minister of Commerce announces that clothing shops will be among the shops to open again after May 04, taking into account the sanitary restrictions.</t>
+- April 25: The Minister of Commerce announces that clothing shops will be among the shops to open again after May 04, taking into account the sanitary restrictions.
+- April 29: The government announces that the deconfinement will be done gradually in three stages. The first stage will start on May 04 and will end on May 24. The second stage will run from May 24 to June 04, while the third stage will run from June 04 to June 14. In first instance, deconfinement will exclude persons aged 65 and above, children below 15 years, pregnant women, persons with a fragile health condition and chronically ill people. Strict safety and protection instructions should be following such as the use of masks, social distancing, avoiding public transport and guaranteeing the transportation of employees. Masks will be freely made available to low-income households. Companies and businesses can hire or hire a person who will be able to enforce health regulations. Workplaces will also have to be sterilized while respecting social distancing. The sectors affected by the deconfinement of May 4 are artisans, import/export sectors and sectors that cannot work remotely. Shops can reopen as of May 11.
+- May 01: The Minister of Public Affairs announces that public sector workers will work based on a system of alternation during the first stage of deconfinement (May 04 - 24). The daily number of workers present at the workplace should not exceed 50% of the total staff and public sector workers must obtain prior authorization to travel to work places.</t>
   </si>
   <si>
     <t>- March 13: Maritime borders are closed. 14 days of quarantine for travellers coming from specific countries (e.g., China, Italy, Iran, France and several other countries).
 - March 16: Aerial and land borders are closed. Borders remain open for repatriation of Tunisian citizens and trade in goods.
-- April 08: Further confinement measures are adopted by the government: These measures will improve the process of granting traffic circulation permits during the confinement period; In addition, all travelling between governorates is prohibited.</t>
-  </si>
-  <si>
-    <t>- March 12: Schools have been closed and remain closed since then.</t>
+- April 08: Further confinement measures are adopted by the government: These measures will improve the process of granting traffic circulation permits during the confinement period; In addition, all travelling between governorates is prohibited.
+- April 30: The Minister of Transport announces new provisions concerning (public) transport including taxis starting when the deconfinement period starts on May 04. Drivers and passengers will have the obligation to wear a protective mask. Individual taxis will be allowed to transport two people, but only placed in the back side (this was one person during the confinement period). Collective and hire taxis will also be authorized to resume their operations, with only half of the passengers and an tariff revised upwards. This rising tariffs are in place to share the burden between taxi owners and their clients. The Tunisian Transport Company (Transtu) announced new preventive measures that will be in place as of May 04 in the different governorates of Greater Tunis to reduce transport capacity by 50%.</t>
+  </si>
+  <si>
+    <t>- March 12: Schools have been closed and remain closed since then.
+- April 29: The Minister of Education announces the end of the 2019-2020 school year for all levels of education except for students in the final year of high school (baccalaureate) who will resume courses to complete the program and candidates for the end of basic education exam (9th year) and students participating in the access to the concours competitions. Students for the baccalaureate exam will resume classes from May 28 to June 23 and exams are scheduled between July 08 and 15 in a reduced format (for example, no sports exam).</t>
   </si>
   <si>
     <t>- March 13: The government announces the following measures: banning of all gatherings in crowded places, workdays are shortened to five hours, all sports events are suspended, and the use of smoking pipes is prohibited.
@@ -5721,7 +5886,7 @@
     <t>- March 24: The Ministry of Industry and SMEs announces that companies can submit a request to obtain special authorisation to continue operations under a limited format (15% maximum of employees) to perform or produce only essential services and goods for the economy, for example within the energy, food, cargo transportation, health and medecines sectors.</t>
   </si>
   <si>
-    <t>- March 21: The government announces a series of economic and fiscal measures amounting to an estimated TND 2,500 million.
+    <t xml:space="preserve">- March 21: The government announces a series of economic and fiscal measures amounting to an estimated TND 2,500 million.
 - March 25: Italy provides a EUR 50 million (around TND 157 million) loan to the BCT to support Tunisian companies and cushion the socio-economic impact of the crisis.
 - March 31: The EBRD announces an allocation of EUR 400 million (around TND 1,280 million) to support Tunisia’s financial companies, SMEs and public institutions.
 - April 03: The government announces a series of complementary economic and fiscal measures to an estimated TND 500 million.
@@ -5730,7 +5895,9 @@
 - April 10: The IMF announces the approval of the USD 745 million (around TND 2,200 million) emergency assistance loan to provide additional resources for the health sector, social safety nets, and businesses hit by the crisis. It will also ensure an adequate level of international reserves.
 - April 15: The Ministry of Professional Training and Employment announces that the French l’Agence francaise de développement (AFD) will make an envelope available of USD 9 million (around TND 26 million) to support employment.
 - April 17: US AID announces to make a total envelope available of TND 1 billion (around EUR 315 million) for the coming five years to support Tunisia's economy and its democracy.
-- April 22: The European Commission adopts a macro-financial assistance (MFA) package of EUR 3 billion for 10 partner countries. The amount allocated to Tunisia will be EUR 600 million (TND 1.9 billion). The MFA funds will be made available for 12 months in the form of loans on highly favourable terms to help cover immediate, urgent financing needs. The first instalment could be as soon as possible, whereas the second instalment is expected to take place in 2020Q4 or 2021Q1.</t>
+- April 22: The European Commission adopts a macro-financial assistance (MFA) package of EUR 3 billion for 10 partner countries. The amount allocated to Tunisia will be EUR 600 million (TND 1.9 billion). The MFA funds will be made available for 12 months in the form of loans on highly favourable terms to help cover immediate, urgent financing needs. The first instalment could be as soon as possible, whereas the second instalment is expected to take place in 2020Q4 or 2021Q1.
+- April 30: The World Bank announces to make available an additional envelope of TND 62 million (around EUR 20 million) for Tunisia to be used by the Ministry of Health for the acquisition of medical treatment and equipment to the fight the Covid-19 virus. The announcement comes in addition to the announced help in the beginning of April.
+</t>
   </si>
   <si>
     <t>- March 21: The government announces that an envelope of TND 500 million will be created to strengthen the strategic reserves of, among other things, medicines.
@@ -5746,7 +5913,9 @@
 - April 20: The Tunisian Hotel Federation announces that 6,230 hotel rooms, in hotels across the country, are made available to the Ministry of Health for medical teams and repatriated Tunisians citizens who are put into a sanitary isolation.
 - April 23: The Ministry of Industry and SMEs announces the start of a new online platform to register supply and demand needs for medical equipment. Tunisian companies can register and indicate their help to produce medical equipment and their potential capacity.
 - April 25: The Ministry of Health announces the launch of a digital training and learning platform on the coronavirus, for the benefit of healthcare professionals and the general public. This is a joint collaboration between the Ministry of Health and the World Health Organization (WHO).
-- April 27: The Ministry of Human Rights announces the launch of a web application to help stranded foreigners in Tunisia. It is aimed at foreigners in fragile financial situations, for example, students, emigrants and asylum seekers. The application will make it possible to receive requests for assistance and donations.</t>
+- April 27: The Ministry of Human Rights announces the launch of a web application to help stranded foreigners in Tunisia. It is aimed at foreigners in fragile financial situations, for example, students, emigrants and asylum seekers. The application will make it possible to receive requests for assistance and donations.
+- April 29: The Ministry of Health announces the arrival of 10 tons of medical equipment from Qatar.
+- April 30: The French Ministry of Europe and Foreign Affairs, announced a donation of medical equipment (including protective suits and surgical gloves) to the Tunisian Ministries of Internal Affairs and Foreign Affairs.</t>
   </si>
   <si>
     <t>- March 21: The government announces an envelope of TND 150 million for social assistance.
@@ -5781,10 +5950,10 @@
 - The temporary social measures to protect businesses and their employees affected by the total lockdown: provisional and exceptional indemnities as well as the deferral of payment of contributions payable by employers in the statutory social security scheme for 2020Q2, for three months without penalties for a delay. This decree-law defines affected companies as being those companies affiliated to the National Social Security Fund (CNSS) and whose activity is temporarily interrupted because of total lockdown.</t>
   </si>
   <si>
-    <t xml:space="preserve">- March 21: The government announces the following economic and fiscal support measure for businesses, in particular SMEs, include:
+    <t>- March 21: The government announces the following economic and fiscal support measure for businesses, in particular SMEs, include:
 - Creation of an investment fund of TND 500 million to strengthen companies’ capital and safeguard jobs and another TND 100 million fund to facilitate share redemption.
 - April 17: The government announces a reform plan for the public airline company Tunisair, including financial support, to prepare it to the post Covid-19 era.
-</t>
+- April 28: Tunisair announces an exceptional and temporary reduction of 50% in the salaries of its employees based abroad.</t>
   </si>
   <si>
     <t>- March 21: The government announces the following series of economic and fiscal measures mostly for firms:
@@ -5934,6 +6103,88 @@
 *April 6: At the April Monetary Policy Committee (MPC) meeting, the Bank of Uganda (BoU), as expected, cut the Central Bank Rate (CBR) by 100 bps to an all-time low of 8%. This rate cut forms part of the central bank’s broader monetary policy stimulus aimed at softening the impact of Covid-19 on the economy. Other concrete measures introduced include: (i) Directing that all Supervised Financial Institutions (SFIs) defer the payments of dividends and bonus for at least 90 days effective March 2020 to ensure adequate capital buffers are maintained; (ii) provision of liquidity to commercial banks for a longer period through issuance of reverse Repurchase Agreements (REPOs) of up to 60 days at the CBR, with opportunity to roll over; (iii) Purchase of Treasury Bonds held by Microfinance Deposit taking Institutions (MDIs) and Credit Institutions (CIs) in order to ease their liquidity distress; (iv) Grant exceptional permission to SFIs to restructure loans of corporate and individual customers that have been affected by the pandemic, on a case by case basis effective April 2020. </t>
   </si>
   <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>24-Apr-2020 (Last updated: 28-Apr-2020)</t>
+  </si>
+  <si>
+    <t>• A ban on being in public areas without a mask and/or walking in groups of more than two people is currently in force. (3 April)  
+• Citizens over the age of 60 have been ordered to stay at home. (April 3-24th, may be renewed)
+• Government guidance has been issued to work from home (March 18-?), although some essential workers are exempted. (April 8-?)</t>
+  </si>
+  <si>
+    <t>• Non-citizens are banned from entering the country (except for diplomats and permanent residents). (16 March-11 May)
+• Domestic and international air and rail travel is prohibited, but citizens who cross the border on foot or by car can still re-enter Ukraine  (17 March-11 May), observation in hospital for possible COVID-19 symptoms is mandatory for new arrivals. (April 8-?)
+• Ukrainian citizens are prohibited from leaving the country for tourist travel. (24 March-?)
+• Checkpoints are in force at regional borders to limit interregional mobility. (April 3)</t>
+  </si>
+  <si>
+    <t>• All schools, universities and other educational institutions are currently closed. (17 March-?)
+• Online classes for children currently in quarantine are being provided via the Ministry of Education YouTube channel. (6 April-?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Cafes, restaurants, gyms, shopping malls and entertainment venues have been ordered to close, while public transport has been limited. Mass and religious gatherings are banned, although churches remain open. Grocery stores, pharmacies, banks and gas stations remain open. (17 March-?)
+• Citizens are prohibited from visiting parks, squares, recreation areas, forest parks and coastal zones, except for the purposes of walking pets (individually). A fine of between UAH 17 000 and UAH 34 000 will be applied to those breaking the rules (3 April-11 May) From 11 May, parks and public gardens will reopen.
+</t>
+  </si>
+  <si>
+    <t>• Employees working in construction, waste collection and storage, building materials traders and workers in the postal industry are permitted to go to work. Added to this are certain categories of civil servants, MPs and elected local government officials, judges, servicemen and employees of the Armed Forces. Others must work from home. (April 8)
+• Critical workers in energy, chemicals, transport, information and communication technologies, electronic communications, banking, finance and also the defence industry are exempted from isolation, as are workers in strategically important companies, health and rescue workers and workers who provide basic goods and services to support the life of the population (eg food production, agriculture). Masks are compulsory in public places. (April 8)
+• Wholesale and retail non-food stores will be allowed to open from 11 May.</t>
+  </si>
+  <si>
+    <t>• As a result of amendments to the 2020 state buget of COVID-19, the budget deficit is to be increased by UAH 202 billion, to UAH 298.4 billion (from UAH 96.3 billion), revenues are to be reduced by UAH 119.75 billion, to UAH 975.8 billion (from UAH 1.096 trillion), and expenditures are to be increased by UAH 82.4 billion, to UAH 1.266 trillion (from UAH 1.184 trillion). (13 April) 
+It should be noted that the budget assumes  Ukraine's annualised GDP will fall by -3.9% in 2020, which is  more optimistic than the -4.8% which was recently forecast by the Prime Minister.</t>
+  </si>
+  <si>
+    <t>• The state budget has been amended to allocate an additional UAH 64.7 billion in funding for payments to healthcare workers, medical equipment purchases, and cash assistance to the families of medical workers. (13 April)
+• To support households, parliament has adopted legislation that allows households to deduct the expense of COVID-19 medicine from the calculation of personal income tax. 
+• Funding for the Ministry of Health has been increased by UAH 16.4 billion to help limit the spread of COVID-19. (13 April)
+• Medicines, medical devices and other equipment used to prevent or combat COVID-19 have been exempt from import duties and VAT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Quarantine has become legal grounds for claiming unemployment benefits, while the Unemployment Social Insurance Fund has been increased to support this change.
+(30 March) 
+• An additional UAH 29.7 billion has been provided to the pension fund. This will support the indexation of pensions in May, and a one-time UAH 1,000 cash payment to pensioners with a pension of less than UAH 5,000. (20 March)
+• A one-time additional cash transfer will be made to current beneficiaries of child disability payments. (20 March)
+• Eligibility requirements for the Guaranteed Minimum Income programme have been relaxed to extend the duration of payments and enable simplified enrolment online.
+• Administrative requirements for enrolment in the Housing Utilities Subsidy programme (energy social assistance) have been simplified. </t>
+  </si>
+  <si>
+    <t>• PrivatBank, the largest state-owned bank, has announced a credit holiday for SMEs until the end of May. (26 March)</t>
+  </si>
+  <si>
+    <t>• Entrepreneurs have been exempted from having to pay social contributions in March and April. (30 March) 
+• No penalties will be applied for late or incomplete payment of the Single Social Contribution (SSC) tax, as well as late reporting on the SSC for the periods from 1 to 31 March and from 1 April to 30 April 2020. 
+• The requirement to pay tax in March and April on commercial real estate and land has been suspended by Parliament. (30 March)
+• An exemption from penalties for violations of tax legislation committed during the period from March 1 to May 31, 2020. This exemption will not apply to the rules of calculation, declaration, payment of VAT, excise tax and rent, as well as violations of the rules of accounting, production and circulation of fuel or alcohol in excise warehouses. (30 March)
+• A moratorium on tax audits and inspections has been introduced for period March 18 – May 31, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The government has expanded the affordable loans ”5-7-9” credit subsidy and guarantee scheme (launched in February 2020): the maximum amount of loan was increased to UAH 3 million (about $100,000), the annual income limit to UAH 100 million ($ 3.7 million), and the uses has expanded to include COVID-19 crisis related production as well as production costs (e.g., wages, rent, etc.). A second program for entrepreneurs and medium-sized firms is being developed. (30 March)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The National Bank of Ukraine has sold foreign currency at various intervals to mitigate excessive fluctuations in the foreign exchange rate.
+• The NBU cut the key interest rate by 100bps to 10%. (March 12)
+• The NBU has introduced a long-term refinancing mechanism for banks for up to 5 years, in addition to standard short-term refinancing instruments. (19 March)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The NBU has launched various initiatives to support banks during the crisis, including postponing stress testing and the introduction of capital buffers and cancelling field checks (17 March)
+• The NBU has modified the calculation of reserve requirements (effective April 11) so as to free up additional domestic currency liquidity
+• Penalties on clients not servicing loans during the period March 1 to April 30 should not apply if there are reasonable grounds
+</t>
+  </si>
+  <si>
+    <t>• A moratorium on penalties and disconnection of consumers who are late on utility payments will be in place for the duration of the quarantine.
+• Administrative requirements for enrolment in the Housing Utilities Subsidy programme (energy social assistance) have been simplified.</t>
+  </si>
+  <si>
+    <t>• The NBU has signalled it will allow Ukrainians to postpone mortgage payments until quarantine restrictions are lifted.</t>
+  </si>
+  <si>
     <t>• Economy-wide lockdown since 23 March.</t>
   </si>
   <si>
@@ -5999,33 +6250,26 @@
     <t>• Businesses and self-employed people will also be able to negotiate bespoke 'Time to Pay' arrangements with HMRC in the event that they may otherwise struggle, or need more time, to pay their taxes (11 March).</t>
   </si>
   <si>
-    <t>48 states have issued stay at home orders</t>
+    <t>42 states have stay at home orders in place</t>
   </si>
   <si>
     <t xml:space="preserve">On 11 March, all foreign nationals on flights from China, Iran and Europe are barred entry. American nationals visiting these places must return to designated 
  Current State Department guidance – Level 4 health advisory alert – advises Americans not to travel.  </t>
   </si>
   <si>
-    <t xml:space="preserve">schools have been closed in all  states. </t>
-  </si>
-  <si>
-    <t>Limits on sizes of gatherings and on operation of bars and restaurants in place in most states</t>
-  </si>
-  <si>
-    <t>Limits on operation of bars and restaurants in place in most states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congress passed an emergency $8.3 billion spending bill and a subsequent bill that is assumed to be worth $108 billion. The CARES Act will have total cost of around $2 trillion or 9% of GDP. </t>
-  </si>
-  <si>
-    <t>- Of the emergency package $3 billion was for research (vaccine), over 2$ billion for prevention and response and $1 billion for medical supplies
-- Protection for vulnerable people: Measures to cover costs of testing for non-insured any American if a doctor deems it necessary, while Medicare Part B  covers the cost of the test.
-- Reduction of regulatory barriers to the use of telemedicine, such as easing restrictions on reimbursement of consultations done by telephone or videoconference, which currently limit its use
-- Encourage home hospitalization with distance monitoring
-- Increased cleaning of public transportation facilities, such as metro transit, buses, boats
-- Consideration of the use of artificial intelligence to track the spread of the virus, give early warnings about its evolution outbreak, and predict where the virus may appear next.
-The CARES Act makes $340 billion in supplemental appropriations. This includes $117 billion for hostipals and veterans’ care, $45 billlion for FEMA, $30 billion for K-12 education, $25 billion for mass transit, and $25 billion for nutrition.
-The Center for Medicare and Medicaid Services issued a national emergency order to permit doctors to treat patients in states where they don’t have a licence to practice. Four states have decided to wave occupational licensing restrictions or issue temporary licences for medical personnel.</t>
+    <t xml:space="preserve">Schools have been closed in all states. </t>
+  </si>
+  <si>
+    <t>Limits on sizes of gatherings in place in all but one state.</t>
+  </si>
+  <si>
+    <t>Non essential businesses are closed in most states. In 22 states this only covers some businesses and in 3 states only guidance is provided.</t>
+  </si>
+  <si>
+    <t>Congress passed an emergency $8.3 billion spending bill and a subsequent bill that is assumed to be worth $108 billion. The CARES Act will have total cost of around $2 trillion or 9% of GDP. The Paycheck Protection Program and Health Care Enhancement Act approprated an additional $484 billion (2% of GDP).</t>
+  </si>
+  <si>
+    <t>- Of the emergency package $3 billion was for research (vaccine), over 2$ billion for prevention and response and $1 billion for medical supplies</t>
   </si>
   <si>
     <t xml:space="preserve">The Families First Coronavirus Response Act – was largely targeted to support workers and social assistance.  The bill provides for free testing for the coronavirus, 2 weeks paid sick leave (capped) and then additional paid sick leave for workers with children for up to 3 months. Additional resources were devoted to providing food for households with low income. Money was also targeted to support the expected increase of unemployment insurance, which is administered by the states. The bill also increases Medicaid payments to states. 
@@ -6052,7 +6296,7 @@
 The Federal Reserve resumed large scale asset purchases with the purchases of treasury securities and agency mortgage backed securities will be unlimited. The federal reserve has also announced the intention to revive the programmes from the great financial crisis that will allow it to purchase assets backed by student, car and credit-card loans, as well as loans to businesses through the Small Business Administration. Furthmore, a new programme lending directly to small business will be introduced. </t>
   </si>
   <si>
-    <t>The Federal Reserve has  introduced a suite of measures to prevent credit markets seizing up. This includes pumping liquidity into the reserve purchase market, putting in place funding facilities (for commercial paper, primary dealers and money market mutal funds), actively intervening in bond markets (including municipal bond markets which have been stressed), reducing reserve requirements, relaxing caital buffers and encouraging big banks to use the deposit window.
+    <t>The Federal Reserve has introduced a suite of measures to prevent credit markets seizing up. This includes pumping liquidity into the reserve purchase market, putting in place funding facilities (for commercial paper, primary dealers and money market mutal funds), actively intervening in bond markets (including municipal bond markets which have been stressed), reducing reserve requirements, relaxing caital buffers and encouraging big banks to use the deposit window.
 The Federal Reserve has  established temporary dollar liquidity arrangements (swap lines) with a number of other central banks. These are designed to reduce strains in dollar funding markets and thereby ease resulting strains on the supply of credit to households and businesses, both domestically and abroad.
 The Department of Housing and Urban Development have imposed a 60 day morintorium on evictions and foreclosures for single family homeowners with Federal Housing Administration insured mortgages.</t>
   </si>
@@ -7988,57 +8232,57 @@
         <v>64</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="D24" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="E24" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="G24" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="H24" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="I24" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="J24" s="37" t="s">
         <v>360</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>361</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="M24" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="N24" s="37" t="s">
         <v>363</v>
-      </c>
-      <c r="N24" s="37" t="s">
-        <v>364</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q24" s="36" t="s">
         <v>365</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>366</v>
       </c>
       <c r="R24" s="36"/>
       <c r="S24" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>368</v>
@@ -8052,7 +8296,7 @@
       <c r="E25" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="58" t="s">
         <v>372</v>
       </c>
       <c r="G25" s="40" t="s">
@@ -8061,444 +8305,460 @@
       <c r="H25" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="M25" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="P25" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="Q25" s="58" t="s">
         <v>380</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q25" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="R25" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="S25" s="42" t="s">
-        <v>385</v>
-      </c>
+      <c r="R25" s="40"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36" t="s">
+      <c r="I26" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="J26" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="K26" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="L26" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="M26" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="N26" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="O26" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43" t="s">
+      <c r="P26" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="Q26" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="N26" s="43" t="s">
+      <c r="R26" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="O26" s="43" t="s">
+      <c r="S26" s="38" t="s">
         <v>397</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="H27" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="I27" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="J27" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="M27" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="N27" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="O27" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="P27" s="40" t="s">
         <v>410</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="Q27" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="R27" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="S27" s="42" t="s">
         <v>413</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="42" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="E28" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="F28" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="G28" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="H28" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="I28" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="J28" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="K28" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="L28" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="K28" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="37"/>
       <c r="M28" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="N28" s="37" t="s">
-        <v>427</v>
-      </c>
+      <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="38" t="s">
         <v>428</v>
-      </c>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="E29" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="F29" s="40" t="s">
         <v>433</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="G29" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="H29" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="I29" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="J29" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="I29" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="J29" s="41" t="s">
-        <v>439</v>
-      </c>
       <c r="K29" s="41" t="s">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="N29" s="41"/>
+        <v>438</v>
+      </c>
+      <c r="N29" s="41" t="s">
+        <v>439</v>
+      </c>
       <c r="O29" s="41"/>
       <c r="P29" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="S29" s="42" t="s">
         <v>442</v>
-      </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="42" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="E30" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="F30" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="G30" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="H30" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="I30" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="J30" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="J30" s="43" t="s">
+      <c r="K30" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="K30" s="43" t="s">
+      <c r="L30" s="43"/>
+      <c r="M30" s="43" t="s">
         <v>453</v>
-      </c>
-      <c r="L30" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="M30" s="43" t="s">
-        <v>455</v>
       </c>
       <c r="N30" s="43"/>
       <c r="O30" s="43"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>457</v>
-      </c>
+      <c r="P30" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
       <c r="S30" s="38" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="40" t="s">
+      <c r="E31" s="40" t="s">
         <v>460</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="F31" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40" t="s">
+      <c r="G31" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="42"/>
+      <c r="Q31" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="R31" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="32" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>463</v>
+        <v>115</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>465</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>466</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="E32" s="36"/>
       <c r="F32" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>469</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>472</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="N32" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="O32" s="43" t="s">
-        <v>476</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>478</v>
-      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="38"/>
     </row>
     <row r="33" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>476</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="F33" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="G33" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="H33" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="I33" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="J33" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="K33" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>489</v>
+      </c>
       <c r="P33" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q33" s="40"/>
+        <v>490</v>
+      </c>
+      <c r="Q33" s="40" t="s">
+        <v>491</v>
+      </c>
       <c r="R33" s="40"/>
       <c r="S33" s="42"/>
     </row>
     <row r="34" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C34" s="36"/>
+        <v>493</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>494</v>
+      </c>
       <c r="D34" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>490</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="37"/>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
@@ -8506,389 +8766,383 @@
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
       <c r="P34" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>492</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="38"/>
     </row>
     <row r="35" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>494</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="C35" s="40"/>
       <c r="D35" s="40" t="s">
-        <v>495</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>498</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="41" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="J35" s="41" t="s">
-        <v>501</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>503</v>
-      </c>
-      <c r="M35" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="N35" s="41" t="s">
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="O35" s="41" t="s">
+      <c r="Q35" s="40" t="s">
         <v>506</v>
-      </c>
-      <c r="P35" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q35" s="40" t="s">
-        <v>508</v>
       </c>
       <c r="R35" s="40"/>
       <c r="S35" s="42"/>
     </row>
     <row r="36" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="E36" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="F36" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="G36" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="H36" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37" t="s">
+      <c r="I36" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="J36" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="K36" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="K36" s="37" t="s">
+      <c r="L36" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="L36" s="37" t="s">
+      <c r="M36" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="N36" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="N36" s="37" t="s">
+      <c r="O36" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="O36" s="37" t="s">
+      <c r="P36" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="P36" s="36"/>
       <c r="Q36" s="36" t="s">
         <v>522</v>
       </c>
       <c r="R36" s="36"/>
-      <c r="S36" s="38" t="s">
-        <v>523</v>
-      </c>
+      <c r="S36" s="38"/>
     </row>
     <row r="37" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="E37" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="F37" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="I37" s="40" t="s">
         <v>529</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="J37" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="40" t="s">
+      <c r="K37" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="Q37" s="40"/>
+      <c r="L37" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>534</v>
+      </c>
+      <c r="O37" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40" t="s">
+        <v>536</v>
+      </c>
       <c r="R37" s="40"/>
-      <c r="S37" s="42"/>
+      <c r="S37" s="42" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="38" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
-        <v>66</v>
+        <v>538</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>543</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="R38" s="36" t="s">
+      <c r="P38" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="S38" s="38" t="s">
-        <v>546</v>
-      </c>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="38"/>
     </row>
     <row r="39" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>547</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="E39" s="40" t="s">
         <v>548</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="F39" s="40" t="s">
         <v>549</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="G39" s="40" t="s">
         <v>550</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="H39" s="40" t="s">
         <v>551</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="I39" s="40" t="s">
         <v>552</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="J39" s="40" t="s">
         <v>553</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40" t="s">
+      <c r="K39" s="40" t="s">
         <v>554</v>
       </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
+      <c r="L39" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>557</v>
+      </c>
       <c r="O39" s="40"/>
-      <c r="P39" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="42"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="R39" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="S39" s="42" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="40" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>73</v>
+        <v>561</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>562</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H40" s="36"/>
       <c r="I40" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="N40" s="36" t="s">
         <v>568</v>
       </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="36"/>
       <c r="P40" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="Q40" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="S40" s="38" t="s">
-        <v>571</v>
-      </c>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="38"/>
     </row>
     <row r="41" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="40" t="s">
+      <c r="F41" s="40" t="s">
         <v>573</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="G41" s="40" t="s">
         <v>574</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="H41" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="I41" s="40" t="s">
         <v>576</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40" t="s">
+      <c r="J41" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="K41" s="40" t="s">
         <v>578</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="L41" s="40" t="s">
         <v>579</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="M41" s="40" t="s">
         <v>580</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
+      <c r="N41" s="40" t="s">
+        <v>581</v>
+      </c>
       <c r="O41" s="40"/>
       <c r="P41" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="42"/>
+        <v>582</v>
+      </c>
+      <c r="Q41" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="R41" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="S41" s="42" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="42" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>583</v>
+        <v>157</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="H42" s="36"/>
+        <v>589</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36" t="s">
+        <v>590</v>
+      </c>
       <c r="I42" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
+        <v>591</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>593</v>
+      </c>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
       <c r="P42" s="36" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
@@ -8896,149 +9150,139 @@
     </row>
     <row r="43" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
-        <v>74</v>
+        <v>595</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>597</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="H43" s="40"/>
       <c r="I43" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="J43" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="K43" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="L43" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="M43" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="N43" s="40" t="s">
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="O43" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40" t="s">
-        <v>605</v>
-      </c>
+      <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
-      <c r="S43" s="42" t="s">
-        <v>606</v>
-      </c>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="E44" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="F44" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="G44" s="36" t="s">
         <v>609</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>610</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="I44" s="36" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36" t="s">
+      <c r="J44" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="K44" s="36" t="s">
         <v>613</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="L44" s="36" t="s">
         <v>614</v>
       </c>
-      <c r="K44" s="36" t="s">
+      <c r="M44" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="L44" s="36" t="s">
+      <c r="N44" s="36" t="s">
         <v>616</v>
       </c>
-      <c r="M44" s="36" t="s">
+      <c r="O44" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="N44" s="36" t="s">
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36" t="s">
         <v>618</v>
       </c>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36" t="s">
+      <c r="R44" s="36"/>
+      <c r="S44" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="Q44" s="36" t="s">
-        <v>620</v>
-      </c>
-      <c r="R44" s="36"/>
-      <c r="S44" s="38"/>
     </row>
     <row r="45" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="D45" s="40" t="s">
         <v>622</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="E45" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="F45" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="G45" s="40"/>
+      <c r="H45" s="40" t="s">
         <v>625</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="I45" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="J45" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="K45" s="40" t="s">
         <v>628</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="L45" s="40" t="s">
         <v>629</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="M45" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40" t="s">
+      <c r="N45" s="40" t="s">
         <v>631</v>
       </c>
-      <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40" t="s">
         <v>632</v>
@@ -9051,41 +9295,39 @@
     </row>
     <row r="46" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>637</v>
-      </c>
-      <c r="G46" s="36" t="s">
         <v>638</v>
       </c>
+      <c r="G46" s="57" t="s">
+        <v>639</v>
+      </c>
       <c r="H46" s="36" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>642</v>
-      </c>
-      <c r="L46" s="36" t="s">
         <v>643</v>
       </c>
+      <c r="L46" s="36"/>
       <c r="M46" s="36" t="s">
         <v>644</v>
       </c>
@@ -9094,16 +9336,18 @@
       <c r="P46" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="Q46" s="36"/>
+      <c r="Q46" s="36" t="s">
+        <v>646</v>
+      </c>
       <c r="R46" s="36"/>
       <c r="S46" s="38"/>
     </row>
     <row r="47" spans="1:19" s="39" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>647</v>
@@ -9138,1055 +9382,1075 @@
       <c r="M47" s="40" t="s">
         <v>657</v>
       </c>
-      <c r="N47" s="40" t="s">
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="O47" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="P47" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q47" s="40" t="s">
-        <v>660</v>
-      </c>
-      <c r="R47" s="40" t="s">
-        <v>661</v>
-      </c>
-      <c r="S47" s="42" t="s">
-        <v>659</v>
-      </c>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="42"/>
     </row>
     <row r="48" spans="1:19" s="35" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>660</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="E48" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="F48" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="G48" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="H48" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="I48" s="36" t="s">
         <v>666</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="J48" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="G48" s="36" t="s">
+      <c r="K48" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="L48" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="M48" s="36" t="s">
         <v>670</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="N48" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="K48" s="36" t="s">
+      <c r="O48" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="L48" s="36" t="s">
+      <c r="P48" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48" s="36" t="s">
         <v>673</v>
       </c>
-      <c r="M48" s="36" t="s">
+      <c r="R48" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36" t="s">
+      <c r="S48" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="P48" s="36" t="s">
+      <c r="B49" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="Q48" s="36" t="s">
+      <c r="C49" s="40" t="s">
         <v>677</v>
       </c>
-      <c r="R48" s="36" t="s">
+      <c r="D49" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="S48" s="38"/>
-    </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="39" t="s">
+      <c r="E49" s="40" t="s">
         <v>679</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="F49" s="40" t="s">
         <v>680</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="G49" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="H49" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="I49" s="40" t="s">
         <v>683</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="J49" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="K49" s="40" t="s">
         <v>685</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="L49" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="M49" s="40" t="s">
         <v>687</v>
-      </c>
-      <c r="K49" s="40" t="s">
-        <v>688</v>
-      </c>
-      <c r="L49" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="M49" s="40" t="s">
-        <v>690</v>
       </c>
       <c r="N49" s="40"/>
       <c r="O49" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="P49" s="40" t="s">
         <v>689</v>
       </c>
-      <c r="P49" s="40"/>
       <c r="Q49" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="R49" s="40" t="s">
         <v>691</v>
-      </c>
-      <c r="R49" s="40" t="s">
-        <v>692</v>
       </c>
       <c r="S49" s="42"/>
       <c r="T49" s="39"/>
     </row>
     <row r="50" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="D50" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="E50" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="F50" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="G50" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="G50" s="40" t="s">
+      <c r="H50" s="40" t="s">
         <v>698</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="I50" s="40" t="s">
         <v>699</v>
       </c>
-      <c r="I50" s="40" t="s">
+      <c r="J50" s="40" t="s">
         <v>700</v>
       </c>
-      <c r="J50" s="40" t="s">
+      <c r="K50" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="K50" s="40"/>
       <c r="L50" s="40" t="s">
         <v>702</v>
       </c>
       <c r="M50" s="40" t="s">
         <v>703</v>
       </c>
-      <c r="N50" s="40" t="s">
+      <c r="N50" s="40"/>
+      <c r="O50" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="O50" s="40" t="s">
-        <v>704</v>
-      </c>
-      <c r="P50" s="40" t="s">
+      <c r="R50" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="Q50" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="R50" s="40"/>
       <c r="S50" s="42"/>
       <c r="T50" s="39"/>
     </row>
     <row r="51" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="C51" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="40" t="s">
+      <c r="D51" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="E51" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="F51" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="G51" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="H51" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="I51" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="J51" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="K51" s="40"/>
+      <c r="L51" s="40" t="s">
         <v>715</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="M51" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
+      <c r="N51" s="40" t="s">
+        <v>717</v>
+      </c>
+      <c r="O51" s="40" t="s">
+        <v>717</v>
+      </c>
       <c r="P51" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q51" s="40"/>
+        <v>718</v>
+      </c>
+      <c r="Q51" s="40" t="s">
+        <v>719</v>
+      </c>
       <c r="R51" s="40"/>
       <c r="S51" s="42"/>
       <c r="T51" s="39"/>
     </row>
     <row r="52" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>297</v>
+        <v>501</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L52" s="40" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M52" s="40" t="s">
-        <v>729</v>
-      </c>
-      <c r="N52" s="40"/>
+        <v>731</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>732</v>
+      </c>
       <c r="O52" s="40" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="P52" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="42"/>
+        <v>734</v>
+      </c>
+      <c r="Q52" s="40" t="s">
+        <v>735</v>
+      </c>
+      <c r="R52" s="40" t="s">
+        <v>736</v>
+      </c>
+      <c r="S52" s="42" t="s">
+        <v>737</v>
+      </c>
       <c r="T52" s="39"/>
     </row>
-    <row r="53" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
-        <v>84</v>
+        <v>738</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>732</v>
+        <v>115</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>736</v>
-      </c>
-      <c r="G53" s="40"/>
+        <v>742</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>743</v>
+      </c>
       <c r="H53" s="40" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="I53" s="40" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="J53" s="40" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>740</v>
-      </c>
-      <c r="L53" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="M53" s="40" t="s">
-        <v>742</v>
-      </c>
-      <c r="N53" s="40" t="s">
-        <v>743</v>
-      </c>
-      <c r="O53" s="40" t="s">
-        <v>744</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
       <c r="P53" s="40" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q53" s="40" t="s">
-        <v>746</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="Q53" s="40"/>
       <c r="R53" s="40"/>
       <c r="S53" s="42"/>
       <c r="T53" s="39"/>
     </row>
-    <row r="54" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>752</v>
-      </c>
-      <c r="H54" s="40"/>
+        <v>754</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>755</v>
+      </c>
       <c r="I54" s="40" t="s">
-        <v>753</v>
-      </c>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
+        <v>756</v>
+      </c>
+      <c r="J54" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="L54" s="40" t="s">
+        <v>759</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>760</v>
+      </c>
       <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
+      <c r="O54" s="40" t="s">
+        <v>761</v>
+      </c>
+      <c r="P54" s="40" t="s">
+        <v>762</v>
+      </c>
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
       <c r="S54" s="42"/>
       <c r="T54" s="39"/>
     </row>
-    <row r="55" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="306" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>759</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="G55" s="40"/>
       <c r="H55" s="40" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="I55" s="40" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="J55" s="40" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="K55" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="L55" s="40"/>
+        <v>771</v>
+      </c>
+      <c r="L55" s="40" t="s">
+        <v>772</v>
+      </c>
       <c r="M55" s="40" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="N55" s="40" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="O55" s="40" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="P55" s="40" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="Q55" s="40" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="R55" s="40"/>
       <c r="S55" s="42"/>
       <c r="T55" s="39"/>
     </row>
-    <row r="56" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
-        <v>83</v>
+        <v>778</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>769</v>
+        <v>196</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>774</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>775</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="H56" s="40"/>
       <c r="I56" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>777</v>
-      </c>
-      <c r="K56" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="L56" s="40" t="s">
-        <v>779</v>
-      </c>
-      <c r="M56" s="40" t="s">
-        <v>780</v>
-      </c>
-      <c r="N56" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="O56" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="P56" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q56" s="40" t="s">
         <v>784</v>
       </c>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
       <c r="R56" s="40"/>
-      <c r="S56" s="42" t="s">
+      <c r="S56" s="42"/>
+      <c r="T56" s="39"/>
+    </row>
+    <row r="57" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="T56" s="39"/>
-    </row>
-    <row r="57" spans="1:20" ht="344.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="40" t="s">
+      <c r="D57" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="E57" s="40" t="s">
         <v>787</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="F57" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="F57" s="40" t="s">
+      <c r="G57" s="40" t="s">
         <v>789</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>786</v>
       </c>
       <c r="H57" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="I57" s="40"/>
+      <c r="I57" s="40" t="s">
+        <v>791</v>
+      </c>
       <c r="J57" s="40" t="s">
-        <v>791</v>
-      </c>
-      <c r="K57" s="40"/>
+        <v>792</v>
+      </c>
+      <c r="K57" s="40" t="s">
+        <v>793</v>
+      </c>
       <c r="L57" s="40"/>
       <c r="M57" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
+        <v>794</v>
+      </c>
+      <c r="N57" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="O57" s="40" t="s">
+        <v>796</v>
+      </c>
       <c r="P57" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q57" s="40"/>
+        <v>797</v>
+      </c>
+      <c r="Q57" s="40" t="s">
+        <v>798</v>
+      </c>
       <c r="R57" s="40"/>
-      <c r="S57" s="42" t="s">
-        <v>794</v>
-      </c>
+      <c r="S57" s="42"/>
       <c r="T57" s="39"/>
     </row>
-    <row r="58" spans="1:20" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
-        <v>795</v>
+        <v>83</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F58" s="40" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>801</v>
-      </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
+        <v>804</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="J58" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="L58" s="40" t="s">
+        <v>809</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>810</v>
+      </c>
+      <c r="N58" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="O58" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="P58" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q58" s="40" t="s">
+        <v>814</v>
+      </c>
       <c r="R58" s="40"/>
-      <c r="S58" s="42"/>
+      <c r="S58" s="42" t="s">
+        <v>815</v>
+      </c>
       <c r="T58" s="39"/>
     </row>
-    <row r="59" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
-        <v>802</v>
+        <v>86</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>803</v>
+        <v>157</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="F59" s="40" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>809</v>
-      </c>
-      <c r="I59" s="40" t="s">
-        <v>810</v>
-      </c>
-      <c r="J59" s="40"/>
+        <v>820</v>
+      </c>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40" t="s">
+        <v>821</v>
+      </c>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
+      <c r="M59" s="40" t="s">
+        <v>822</v>
+      </c>
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="40" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="Q59" s="40"/>
       <c r="R59" s="40"/>
-      <c r="S59" s="42"/>
+      <c r="S59" s="42" t="s">
+        <v>824</v>
+      </c>
       <c r="T59" s="39"/>
     </row>
-    <row r="60" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>115</v>
+        <v>826</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="F60" s="40" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="H60" s="40"/>
-      <c r="I60" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>819</v>
-      </c>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="40"/>
-      <c r="L60" s="40" t="s">
-        <v>820</v>
-      </c>
+      <c r="L60" s="40"/>
       <c r="M60" s="40"/>
-      <c r="N60" s="40" t="s">
-        <v>821</v>
-      </c>
+      <c r="N60" s="40"/>
       <c r="O60" s="40"/>
-      <c r="P60" s="40" t="s">
-        <v>822</v>
-      </c>
+      <c r="P60" s="40"/>
       <c r="Q60" s="40"/>
       <c r="R60" s="40"/>
       <c r="S60" s="42"/>
       <c r="T60" s="39"/>
     </row>
-    <row r="61" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
-        <v>85</v>
+        <v>832</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="I61" s="40" t="s">
-        <v>830</v>
-      </c>
-      <c r="J61" s="40" t="s">
-        <v>831</v>
-      </c>
-      <c r="K61" s="40" t="s">
-        <v>832</v>
-      </c>
-      <c r="L61" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="M61" s="40" t="s">
-        <v>834</v>
-      </c>
-      <c r="N61" s="40" t="s">
-        <v>835</v>
-      </c>
+        <v>840</v>
+      </c>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
       <c r="O61" s="40"/>
       <c r="P61" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="Q61" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="R61" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="S61" s="42" t="s">
-        <v>839</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="42"/>
       <c r="T61" s="39"/>
     </row>
-    <row r="62" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>403</v>
+        <v>115</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="I62" s="40"/>
+        <v>846</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40" t="s">
+        <v>848</v>
+      </c>
       <c r="J62" s="40" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40" t="s">
-        <v>847</v>
-      </c>
+      <c r="L62" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="M62" s="40"/>
       <c r="N62" s="40" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
+      <c r="P62" s="40" t="s">
+        <v>852</v>
+      </c>
       <c r="Q62" s="40"/>
       <c r="R62" s="40"/>
-      <c r="S62" s="42" t="s">
-        <v>849</v>
-      </c>
+      <c r="S62" s="42"/>
       <c r="T62" s="39"/>
     </row>
     <row r="63" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
-        <v>850</v>
+        <v>85</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>493</v>
+        <v>853</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="I63" s="40" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="J63" s="40" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K63" s="40" t="s">
-        <v>859</v>
-      </c>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
+        <v>862</v>
+      </c>
+      <c r="L63" s="40" t="s">
+        <v>863</v>
+      </c>
+      <c r="M63" s="40" t="s">
+        <v>864</v>
+      </c>
       <c r="N63" s="40" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="O63" s="40"/>
       <c r="P63" s="40" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="Q63" s="40" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="R63" s="40" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="S63" s="42" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="T63" s="39"/>
     </row>
-    <row r="64" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>871</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="N64" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="42" t="s">
+        <v>880</v>
+      </c>
+      <c r="T64" s="39"/>
+    </row>
+    <row r="65" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>886</v>
+      </c>
+      <c r="H65" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="K65" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q65" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="R65" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="S65" s="42" t="s">
+        <v>895</v>
+      </c>
+      <c r="T65" s="39"/>
+    </row>
+    <row r="66" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B66" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="40" t="s">
-        <v>865</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>866</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>867</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>868</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="H64" s="40" t="s">
-        <v>870</v>
-      </c>
-      <c r="I64" s="40" t="s">
-        <v>871</v>
-      </c>
-      <c r="J64" s="40" t="s">
-        <v>872</v>
-      </c>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="M64" s="40" t="s">
-        <v>874</v>
-      </c>
-      <c r="N64" s="40" t="s">
-        <v>875</v>
-      </c>
-      <c r="O64" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40" t="s">
-        <v>877</v>
-      </c>
-      <c r="R64" s="40" t="s">
-        <v>878</v>
-      </c>
-      <c r="S64" s="42" t="s">
-        <v>879</v>
-      </c>
-      <c r="T64" s="39"/>
-    </row>
-    <row r="65" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="39" t="s">
+      <c r="C66" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>900</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="M66" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="N66" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="O66" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="R66" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="S66" s="42" t="s">
+        <v>910</v>
+      </c>
+      <c r="T66" s="39"/>
+    </row>
+    <row r="67" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>880</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>882</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>883</v>
-      </c>
-      <c r="G65" s="40" t="s">
-        <v>884</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>885</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>886</v>
-      </c>
-      <c r="J65" s="40" t="s">
-        <v>887</v>
-      </c>
-      <c r="K65" s="40" t="s">
-        <v>888</v>
-      </c>
-      <c r="L65" s="40" t="s">
-        <v>889</v>
-      </c>
-      <c r="M65" s="40" t="s">
+      <c r="B67" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="L67" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="M67" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40" t="s">
-        <v>890</v>
-      </c>
-      <c r="P65" s="40" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q65" s="40" t="s">
-        <v>892</v>
-      </c>
-      <c r="R65" s="40" t="s">
-        <v>893</v>
-      </c>
-      <c r="S65" s="42" t="s">
-        <v>894</v>
-      </c>
-      <c r="T65" s="39"/>
-    </row>
-    <row r="66" spans="1:20" ht="255" x14ac:dyDescent="0.2">
-      <c r="A66" s="39" t="s">
-        <v>895</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>896</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>897</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>898</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="G66" s="40" t="s">
-        <v>901</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="Q66" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="R66" s="40"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="39"/>
-    </row>
-    <row r="67" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="39" t="s">
-        <v>904</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>905</v>
-      </c>
-      <c r="C67" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="F67" s="40" t="s">
-        <v>909</v>
-      </c>
-      <c r="G67" s="40" t="s">
-        <v>910</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="I67" s="40" t="s">
-        <v>912</v>
-      </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
       <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
+      <c r="O67" s="40" t="s">
+        <v>921</v>
+      </c>
       <c r="P67" s="40" t="s">
-        <v>913</v>
-      </c>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="42"/>
+        <v>922</v>
+      </c>
+      <c r="Q67" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="R67" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S67" s="42" t="s">
+        <v>925</v>
+      </c>
       <c r="T67" s="39"/>
     </row>
-    <row r="68" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="255" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>916</v>
-      </c>
-      <c r="D68" s="40"/>
+        <v>928</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>929</v>
+      </c>
       <c r="E68" s="40" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>918</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40" t="s">
-        <v>919</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>920</v>
-      </c>
-      <c r="J68" s="40" t="s">
-        <v>921</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="40"/>
-      <c r="L68" s="40" t="s">
-        <v>922</v>
-      </c>
-      <c r="M68" s="40" t="s">
-        <v>923</v>
-      </c>
-      <c r="N68" s="40" t="s">
-        <v>924</v>
-      </c>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="40"/>
       <c r="P68" s="40" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="Q68" s="40" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="R68" s="40"/>
       <c r="S68" s="42"/>
@@ -10194,238 +10458,220 @@
     </row>
     <row r="69" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
-        <v>88</v>
+        <v>935</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>142</v>
+        <v>936</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="H69" s="40" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="I69" s="40" t="s">
-        <v>933</v>
-      </c>
-      <c r="J69" s="40" t="s">
-        <v>934</v>
-      </c>
-      <c r="K69" s="40" t="s">
-        <v>935</v>
-      </c>
-      <c r="L69" s="40" t="s">
-        <v>936</v>
-      </c>
-      <c r="M69" s="40" t="s">
-        <v>937</v>
-      </c>
-      <c r="N69" s="40" t="s">
-        <v>938</v>
-      </c>
-      <c r="O69" s="40" t="s">
-        <v>939</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
       <c r="P69" s="40" t="s">
-        <v>940</v>
-      </c>
-      <c r="Q69" s="40" t="s">
-        <v>941</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="Q69" s="40"/>
       <c r="R69" s="40"/>
       <c r="S69" s="42"/>
       <c r="T69" s="39"/>
     </row>
     <row r="70" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>944</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>945</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="D70" s="40"/>
       <c r="E70" s="40" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>947</v>
-      </c>
-      <c r="G70" s="40" t="s">
-        <v>948</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="G70" s="40"/>
       <c r="H70" s="40" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J70" s="40" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
+      <c r="L70" s="40" t="s">
+        <v>953</v>
+      </c>
       <c r="M70" s="40" t="s">
-        <v>952</v>
-      </c>
-      <c r="N70" s="40"/>
+        <v>954</v>
+      </c>
+      <c r="N70" s="40" t="s">
+        <v>955</v>
+      </c>
       <c r="O70" s="40"/>
       <c r="P70" s="40" t="s">
-        <v>953</v>
-      </c>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40" t="s">
-        <v>954</v>
-      </c>
-      <c r="S70" s="42" t="s">
-        <v>955</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="Q70" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="R70" s="40"/>
+      <c r="S70" s="42"/>
       <c r="T70" s="39"/>
     </row>
-    <row r="71" spans="1:20" ht="318.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
-        <v>956</v>
+        <v>88</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>196</v>
+        <v>501</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E71" s="40" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>960</v>
-      </c>
-      <c r="G71" s="40"/>
+        <v>961</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>962</v>
+      </c>
       <c r="H71" s="40" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="I71" s="40" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="J71" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="K71" s="40"/>
+        <v>965</v>
+      </c>
+      <c r="K71" s="40" t="s">
+        <v>966</v>
+      </c>
       <c r="L71" s="40" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M71" s="40" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="N71" s="40" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="O71" s="40" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="P71" s="40" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q71" s="40"/>
+        <v>971</v>
+      </c>
+      <c r="Q71" s="40" t="s">
+        <v>972</v>
+      </c>
       <c r="R71" s="40"/>
       <c r="S71" s="42"/>
       <c r="T71" s="39"/>
     </row>
-    <row r="72" spans="1:20" ht="344.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="F72" s="40" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="G72" s="40" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="J72" s="40" t="s">
-        <v>978</v>
-      </c>
-      <c r="K72" s="40" t="s">
-        <v>979</v>
-      </c>
-      <c r="L72" s="40" t="s">
-        <v>980</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
       <c r="M72" s="40" t="s">
-        <v>981</v>
-      </c>
-      <c r="N72" s="40" t="s">
-        <v>982</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="N72" s="40"/>
       <c r="O72" s="40"/>
       <c r="P72" s="40" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q72" s="40"/>
       <c r="R72" s="40" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S72" s="42" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="T72" s="39"/>
     </row>
-    <row r="73" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="318.75" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
-        <v>90</v>
+        <v>987</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>986</v>
+        <v>196</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>990</v>
-      </c>
-      <c r="G73" s="40" t="s">
         <v>991</v>
       </c>
+      <c r="G73" s="40"/>
       <c r="H73" s="40" t="s">
         <v>992</v>
       </c>
@@ -10435,506 +10681,524 @@
       <c r="J73" s="40" t="s">
         <v>994</v>
       </c>
-      <c r="K73" s="40" t="s">
+      <c r="K73" s="40"/>
+      <c r="L73" s="40" t="s">
         <v>995</v>
       </c>
-      <c r="L73" s="40"/>
       <c r="M73" s="40" t="s">
         <v>996</v>
       </c>
-      <c r="N73" s="40"/>
+      <c r="N73" s="40" t="s">
+        <v>997</v>
+      </c>
       <c r="O73" s="40" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="P73" s="40" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="Q73" s="40"/>
       <c r="R73" s="40"/>
       <c r="S73" s="42"/>
       <c r="T73" s="39"/>
     </row>
-    <row r="74" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="344.25" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
-        <v>91</v>
+        <v>1000</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>257</v>
+        <v>1001</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="J74" s="40" t="s">
-        <v>1006</v>
-      </c>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="58" t="s">
-        <v>1007</v>
-      </c>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40" t="s">
-        <v>1008</v>
-      </c>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40" t="s">
         <v>1009</v>
       </c>
+      <c r="K74" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L74" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M74" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N74" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q74" s="40"/>
       <c r="R74" s="40" t="s">
-        <v>1010</v>
-      </c>
-      <c r="S74" s="42"/>
+        <v>1015</v>
+      </c>
+      <c r="S74" s="42" t="s">
+        <v>1016</v>
+      </c>
       <c r="T74" s="39"/>
     </row>
     <row r="75" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D75" s="58" t="s">
-        <v>1013</v>
+        <v>1018</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>1019</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="H75" s="40" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J75" s="58" t="s">
-        <v>1019</v>
+        <v>1024</v>
+      </c>
+      <c r="J75" s="40" t="s">
+        <v>1025</v>
       </c>
       <c r="K75" s="40" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="L75" s="40"/>
-      <c r="M75" s="58" t="s">
-        <v>1021</v>
+      <c r="M75" s="40" t="s">
+        <v>1027</v>
       </c>
       <c r="N75" s="40"/>
       <c r="O75" s="40" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="P75" s="40" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q75" s="40" t="s">
-        <v>1024</v>
-      </c>
-      <c r="R75" s="40" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S75" s="42" t="s">
-        <v>1026</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="42"/>
       <c r="T75" s="39"/>
     </row>
-    <row r="76" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>621</v>
+        <v>310</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F76" s="40" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>1035</v>
-      </c>
-      <c r="L76" s="40" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M76" s="40" t="s">
         <v>1037</v>
       </c>
-      <c r="N76" s="40" t="s">
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="58" t="s">
         <v>1038</v>
       </c>
+      <c r="N76" s="40"/>
       <c r="O76" s="40" t="s">
         <v>1039</v>
       </c>
-      <c r="P76" s="40" t="s">
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40" t="s">
         <v>1040</v>
       </c>
-      <c r="Q76" s="40" t="s">
+      <c r="R76" s="40" t="s">
         <v>1041</v>
-      </c>
-      <c r="R76" s="40" t="s">
-        <v>1042</v>
       </c>
       <c r="S76" s="42"/>
       <c r="T76" s="39"/>
     </row>
-    <row r="77" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>1043</v>
       </c>
-      <c r="B77" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="40" t="s">
+      <c r="D77" s="58" t="s">
         <v>1044</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="E77" s="40" t="s">
         <v>1045</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="F77" s="40" t="s">
         <v>1046</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="G77" s="40" t="s">
         <v>1047</v>
       </c>
-      <c r="G77" s="40" t="s">
+      <c r="H77" s="40" t="s">
         <v>1048</v>
       </c>
-      <c r="H77" s="40"/>
       <c r="I77" s="40" t="s">
         <v>1049</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="58" t="s">
         <v>1050</v>
       </c>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40" t="s">
+      <c r="K77" s="40" t="s">
         <v>1051</v>
       </c>
-      <c r="M77" s="40" t="s">
+      <c r="L77" s="40"/>
+      <c r="M77" s="58" t="s">
         <v>1052</v>
       </c>
       <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
+      <c r="O77" s="40" t="s">
+        <v>1053</v>
+      </c>
       <c r="P77" s="40" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="42"/>
+        <v>1054</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>1055</v>
+      </c>
+      <c r="R77" s="40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S77" s="42" t="s">
+        <v>1057</v>
+      </c>
       <c r="T77" s="39"/>
     </row>
-    <row r="78" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>986</v>
+        <v>1058</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G78" s="40"/>
+        <v>1062</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>1063</v>
+      </c>
       <c r="H78" s="40" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>1060</v>
-      </c>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
+        <v>1066</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L78" s="40" t="s">
+        <v>1068</v>
+      </c>
       <c r="M78" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
+        <v>1069</v>
+      </c>
+      <c r="N78" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O78" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P78" s="40" t="s">
+        <v>1072</v>
+      </c>
       <c r="Q78" s="40" t="s">
-        <v>1062</v>
-      </c>
-      <c r="R78" s="40"/>
+        <v>1073</v>
+      </c>
+      <c r="R78" s="40" t="s">
+        <v>1074</v>
+      </c>
       <c r="S78" s="42"/>
       <c r="T78" s="39"/>
     </row>
-    <row r="79" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="G79" s="40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>1069</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="H79" s="40"/>
       <c r="I79" s="40" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>1071</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>1072</v>
-      </c>
-      <c r="L79" s="40"/>
+        <v>1082</v>
+      </c>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40" t="s">
+        <v>1083</v>
+      </c>
       <c r="M79" s="40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="N79" s="40" t="s">
-        <v>1074</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="N79" s="40"/>
       <c r="O79" s="40"/>
       <c r="P79" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="Q79" s="40" t="s">
-        <v>269</v>
-      </c>
+        <v>1085</v>
+      </c>
+      <c r="Q79" s="40"/>
       <c r="R79" s="40"/>
       <c r="S79" s="42"/>
       <c r="T79" s="39"/>
     </row>
-    <row r="80" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
-        <v>1076</v>
+        <v>94</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>310</v>
+        <v>1017</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="E80" s="40" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="F80" s="40" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="I80" s="40" t="s">
-        <v>1082</v>
+        <v>1091</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="K80" s="40"/>
-      <c r="L80" s="40" t="s">
-        <v>1084</v>
-      </c>
+      <c r="L80" s="40"/>
       <c r="M80" s="40" t="s">
-        <v>1085</v>
-      </c>
-      <c r="N80" s="40" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O80" s="40" t="s">
-        <v>1087</v>
-      </c>
-      <c r="P80" s="40" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Q80" s="40"/>
+        <v>1093</v>
+      </c>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40" t="s">
+        <v>1094</v>
+      </c>
       <c r="R80" s="40"/>
       <c r="S80" s="42"/>
       <c r="T80" s="39"/>
     </row>
-    <row r="81" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>607</v>
+        <v>196</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="F81" s="40" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G81" s="40"/>
+        <v>1099</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>1100</v>
+      </c>
       <c r="H81" s="40" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="I81" s="40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
+        <v>1102</v>
+      </c>
+      <c r="J81" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>1104</v>
+      </c>
       <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
+      <c r="M81" s="40" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N81" s="40" t="s">
+        <v>1106</v>
+      </c>
       <c r="O81" s="40"/>
       <c r="P81" s="40" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Q81" s="40"/>
+        <v>1107</v>
+      </c>
+      <c r="Q81" s="40" t="s">
+        <v>269</v>
+      </c>
       <c r="R81" s="40"/>
       <c r="S81" s="42"/>
       <c r="T81" s="39"/>
     </row>
     <row r="82" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
-        <v>95</v>
+        <v>1108</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="C82" s="40"/>
+      <c r="C82" s="40" t="s">
+        <v>1109</v>
+      </c>
       <c r="D82" s="40" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="F82" s="40" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G82" s="40" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H82" s="40"/>
+        <v>1112</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40" t="s">
+        <v>1113</v>
+      </c>
       <c r="I82" s="40" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="J82" s="40" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
+      <c r="L82" s="40" t="s">
+        <v>1116</v>
+      </c>
       <c r="M82" s="40" t="s">
-        <v>1103</v>
-      </c>
-      <c r="N82" s="40"/>
+        <v>1117</v>
+      </c>
+      <c r="N82" s="40" t="s">
+        <v>1118</v>
+      </c>
       <c r="O82" s="40" t="s">
-        <v>1104</v>
-      </c>
-      <c r="P82" s="40"/>
+        <v>1119</v>
+      </c>
+      <c r="P82" s="40" t="s">
+        <v>1120</v>
+      </c>
       <c r="Q82" s="40"/>
       <c r="R82" s="40"/>
       <c r="S82" s="42"/>
       <c r="T82" s="39"/>
     </row>
-    <row r="83" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="382.5" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
-        <v>96</v>
+        <v>1121</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>1105</v>
+        <v>620</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>1107</v>
+        <v>1123</v>
       </c>
       <c r="E83" s="40" t="s">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="F83" s="40" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>1110</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="G83" s="40"/>
       <c r="H83" s="40" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J83" s="40" t="s">
-        <v>1113</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="J83" s="40"/>
       <c r="K83" s="40"/>
       <c r="L83" s="40"/>
-      <c r="M83" s="40" t="s">
-        <v>1114</v>
-      </c>
-      <c r="N83" s="40" t="s">
-        <v>1115</v>
-      </c>
-      <c r="O83" s="40" t="s">
-        <v>1116</v>
-      </c>
-      <c r="P83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40" t="s">
+        <v>1128</v>
+      </c>
       <c r="Q83" s="40"/>
       <c r="R83" s="40"/>
       <c r="S83" s="42"/>
@@ -10942,258 +11206,236 @@
     </row>
     <row r="84" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>1118</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C84" s="40"/>
       <c r="D84" s="40" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="F84" s="40" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40" t="s">
-        <v>1122</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H84" s="40"/>
       <c r="I84" s="40" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>1124</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="L84" s="40" t="s">
-        <v>1126</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
       <c r="M84" s="40" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N84" s="40" t="s">
-        <v>1128</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="N84" s="40"/>
       <c r="O84" s="40" t="s">
-        <v>1129</v>
-      </c>
-      <c r="P84" s="40" t="s">
-        <v>1130</v>
-      </c>
-      <c r="Q84" s="40" t="s">
-        <v>1131</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
       <c r="R84" s="40"/>
-      <c r="S84" s="42" t="s">
-        <v>1132</v>
-      </c>
+      <c r="S84" s="42"/>
       <c r="T84" s="39"/>
     </row>
     <row r="85" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>621</v>
+        <v>1137</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="F85" s="40" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G85" s="40"/>
+        <v>1141</v>
+      </c>
+      <c r="G85" s="40" t="s">
+        <v>1142</v>
+      </c>
       <c r="H85" s="40" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="J85" s="40" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K85" s="40" t="s">
-        <v>1140</v>
-      </c>
+        <v>1145</v>
+      </c>
+      <c r="K85" s="40"/>
       <c r="L85" s="40"/>
       <c r="M85" s="40" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="N85" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O85" s="40"/>
-      <c r="P85" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Q85" s="40" t="s">
-        <v>1144</v>
-      </c>
+        <v>1147</v>
+      </c>
+      <c r="O85" s="40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
       <c r="R85" s="40"/>
-      <c r="S85" s="42" t="s">
-        <v>1145</v>
-      </c>
+      <c r="S85" s="42"/>
       <c r="T85" s="39"/>
     </row>
     <row r="86" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>403</v>
+        <v>1149</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E86" s="40" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="F86" s="40" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G86" s="40" t="s">
-        <v>1150</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="G86" s="40"/>
       <c r="H86" s="40" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="J86" s="40" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="K86" s="40" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="L86" s="40" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="N86" s="40" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="O86" s="40" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="P86" s="40" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="Q86" s="40" t="s">
-        <v>1160</v>
-      </c>
-      <c r="R86" s="40" t="s">
-        <v>1161</v>
-      </c>
+        <v>1163</v>
+      </c>
+      <c r="R86" s="40"/>
       <c r="S86" s="42" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="T86" s="39"/>
     </row>
     <row r="87" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>1163</v>
+        <v>1058</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G87" s="40"/>
       <c r="H87" s="40" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L87" s="40" t="s">
         <v>1172</v>
       </c>
+      <c r="L87" s="40"/>
       <c r="M87" s="40" t="s">
         <v>1173</v>
       </c>
       <c r="N87" s="40" t="s">
         <v>1174</v>
       </c>
-      <c r="O87" s="40" t="s">
+      <c r="O87" s="40"/>
+      <c r="P87" s="40" t="s">
         <v>1175</v>
       </c>
-      <c r="P87" s="40" t="s">
+      <c r="Q87" s="40" t="s">
         <v>1176</v>
       </c>
-      <c r="Q87" s="40" t="s">
+      <c r="R87" s="40"/>
+      <c r="S87" s="42" t="s">
         <v>1177</v>
       </c>
-      <c r="R87" s="40"/>
-      <c r="S87" s="42"/>
       <c r="T87" s="39"/>
     </row>
     <row r="88" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B88" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="40" t="s">
         <v>1178</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>1179</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="E88" s="40" t="s">
         <v>1180</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="F88" s="40" t="s">
         <v>1181</v>
       </c>
-      <c r="F88" s="40" t="s">
+      <c r="G88" s="40" t="s">
         <v>1182</v>
       </c>
-      <c r="G88" s="40" t="s">
+      <c r="H88" s="40" t="s">
         <v>1183</v>
       </c>
-      <c r="H88" s="40" t="s">
+      <c r="I88" s="40" t="s">
         <v>1184</v>
       </c>
-      <c r="I88" s="40" t="s">
+      <c r="J88" s="40" t="s">
         <v>1185</v>
       </c>
-      <c r="J88" s="40" t="s">
+      <c r="K88" s="40" t="s">
         <v>1186</v>
       </c>
-      <c r="K88" s="40"/>
       <c r="L88" s="40" t="s">
         <v>1187</v>
       </c>
@@ -11203,223 +11445,221 @@
       <c r="N88" s="40" t="s">
         <v>1189</v>
       </c>
-      <c r="O88" s="40"/>
+      <c r="O88" s="40" t="s">
+        <v>1190</v>
+      </c>
       <c r="P88" s="40" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Q88" s="40" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R88" s="40"/>
-      <c r="S88" s="42"/>
+        <v>1192</v>
+      </c>
+      <c r="R88" s="40" t="s">
+        <v>1193</v>
+      </c>
+      <c r="S88" s="42" t="s">
+        <v>1194</v>
+      </c>
       <c r="T88" s="39"/>
     </row>
-    <row r="89" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
-        <v>1192</v>
+        <v>97</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="40"/>
+        <v>1195</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>1196</v>
+      </c>
       <c r="D89" s="40" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="G89" s="40"/>
       <c r="H89" s="40" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
+        <v>1200</v>
+      </c>
+      <c r="I89" s="40" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J89" s="40" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K89" s="40" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L89" s="40" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M89" s="40" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N89" s="40" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O89" s="40" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P89" s="40" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q89" s="40" t="s">
+        <v>1209</v>
+      </c>
       <c r="R89" s="40"/>
       <c r="S89" s="42"/>
       <c r="T89" s="39"/>
     </row>
-    <row r="90" spans="1:20" ht="408" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
-        <v>1197</v>
+        <v>60</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
       <c r="F90" s="40" t="s">
-        <v>1202</v>
-      </c>
-      <c r="G90" s="40"/>
+        <v>1214</v>
+      </c>
+      <c r="G90" s="40" t="s">
+        <v>1215</v>
+      </c>
       <c r="H90" s="40" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
       <c r="J90" s="40" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K90" s="40" t="s">
-        <v>1206</v>
-      </c>
+        <v>1218</v>
+      </c>
+      <c r="K90" s="40"/>
       <c r="L90" s="40" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
       <c r="M90" s="40" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N90" s="40"/>
+        <v>1220</v>
+      </c>
+      <c r="N90" s="40" t="s">
+        <v>1221</v>
+      </c>
       <c r="O90" s="40"/>
       <c r="P90" s="40" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
       <c r="Q90" s="40" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R90" s="40" t="s">
-        <v>1211</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="R90" s="40"/>
       <c r="S90" s="42"/>
       <c r="T90" s="39"/>
     </row>
-    <row r="91" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="331.5" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
-        <v>98</v>
+        <v>1224</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>1212</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C91" s="40"/>
       <c r="D91" s="40" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E91" s="40" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G91" s="40" t="s">
-        <v>1216</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="G91" s="40"/>
       <c r="H91" s="40" t="s">
-        <v>1217</v>
-      </c>
-      <c r="I91" s="40" t="s">
-        <v>1218</v>
-      </c>
-      <c r="J91" s="40" t="s">
-        <v>1219</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>1220</v>
-      </c>
-      <c r="L91" s="40" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M91" s="40" t="s">
-        <v>1222</v>
-      </c>
-      <c r="N91" s="40" t="s">
-        <v>1223</v>
-      </c>
-      <c r="O91" s="40" t="s">
-        <v>1224</v>
-      </c>
-      <c r="P91" s="40" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q91" s="40" t="s">
-        <v>1226</v>
-      </c>
+        <v>1228</v>
+      </c>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
       <c r="R91" s="40"/>
       <c r="S91" s="42"/>
       <c r="T91" s="39"/>
     </row>
-    <row r="92" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" ht="408" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
-        <v>99</v>
+        <v>1229</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>310</v>
+        <v>1230</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G92" s="40" t="s">
-        <v>1231</v>
-      </c>
+        <v>1234</v>
+      </c>
+      <c r="G92" s="40"/>
       <c r="H92" s="40" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="I92" s="40" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K92" s="40"/>
+        <v>1237</v>
+      </c>
+      <c r="K92" s="40" t="s">
+        <v>1238</v>
+      </c>
       <c r="L92" s="40" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="M92" s="40" t="s">
-        <v>1236</v>
-      </c>
-      <c r="N92" s="40" t="s">
-        <v>1237</v>
-      </c>
-      <c r="O92" s="40" t="s">
-        <v>1238</v>
-      </c>
+        <v>1240</v>
+      </c>
+      <c r="N92" s="40"/>
+      <c r="O92" s="40"/>
       <c r="P92" s="40" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="Q92" s="40" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="R92" s="40" t="s">
-        <v>1241</v>
-      </c>
-      <c r="S92" s="42" t="s">
-        <v>1242</v>
-      </c>
+        <v>1243</v>
+      </c>
+      <c r="S92" s="42"/>
       <c r="T92" s="39"/>
     </row>
     <row r="93" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
-        <v>1243</v>
+        <v>98</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>115</v>
+        <v>676</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>1244</v>
@@ -11439,253 +11679,355 @@
       <c r="H93" s="40" t="s">
         <v>1249</v>
       </c>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
+      <c r="I93" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J93" s="40" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K93" s="40" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L93" s="40" t="s">
+        <v>1253</v>
+      </c>
       <c r="M93" s="40" t="s">
-        <v>1250</v>
-      </c>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
+        <v>1254</v>
+      </c>
+      <c r="N93" s="40" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O93" s="40" t="s">
+        <v>1256</v>
+      </c>
       <c r="P93" s="40" t="s">
-        <v>1251</v>
-      </c>
-      <c r="Q93" s="40"/>
+        <v>1257</v>
+      </c>
+      <c r="Q93" s="40" t="s">
+        <v>1258</v>
+      </c>
       <c r="R93" s="40"/>
       <c r="S93" s="42"/>
       <c r="T93" s="39"/>
     </row>
     <row r="94" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>509</v>
+        <v>310</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="I94" s="40" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
       <c r="J94" s="40" t="s">
-        <v>1259</v>
-      </c>
-      <c r="K94" s="40" t="s">
-        <v>1260</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="K94" s="40"/>
       <c r="L94" s="40" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="M94" s="40" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="N94" s="40" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="O94" s="40" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="P94" s="40" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="Q94" s="40" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="R94" s="40" t="s">
-        <v>1267</v>
-      </c>
-      <c r="S94" s="42"/>
+        <v>1273</v>
+      </c>
+      <c r="S94" s="42" t="s">
+        <v>1274</v>
+      </c>
       <c r="T94" s="39"/>
     </row>
     <row r="95" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
-        <v>100</v>
+        <v>1275</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>1011</v>
+        <v>115</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="H95" s="40" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I95" s="40" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J95" s="40" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K95" s="40" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L95" s="40" t="s">
-        <v>1277</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N95" s="40" t="s">
-        <v>1279</v>
-      </c>
+        <v>1282</v>
+      </c>
+      <c r="N95" s="40"/>
       <c r="O95" s="40"/>
       <c r="P95" s="40" t="s">
-        <v>1280</v>
-      </c>
-      <c r="Q95" s="40" t="s">
-        <v>1281</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
       <c r="S95" s="42"/>
       <c r="T95" s="39"/>
     </row>
     <row r="96" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="B96" s="39" t="s">
-        <v>905</v>
+        <v>1285</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="H96" s="40" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="I96" s="40" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="J96" s="40" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K96" s="40" t="s">
-        <v>1291</v>
-      </c>
+        <v>1293</v>
+      </c>
+      <c r="K96" s="40"/>
       <c r="L96" s="40" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="M96" s="40" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N96" s="40"/>
+        <v>1295</v>
+      </c>
+      <c r="N96" s="40" t="s">
+        <v>1296</v>
+      </c>
       <c r="O96" s="40"/>
       <c r="P96" s="40" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
+        <v>1297</v>
+      </c>
+      <c r="Q96" s="40" t="s">
+        <v>1298</v>
+      </c>
+      <c r="R96" s="40" t="s">
+        <v>1299</v>
+      </c>
       <c r="S96" s="42" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="T96" s="39"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
-      <c r="N97" s="40"/>
-      <c r="O97" s="40"/>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40"/>
+    <row r="97" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F97" s="40" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G97" s="40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I97" s="40" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J97" s="40" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K97" s="40" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L97" s="40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M97" s="40" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N97" s="40" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O97" s="40" t="s">
+        <v>1313</v>
+      </c>
+      <c r="P97" s="40" t="s">
+        <v>1314</v>
+      </c>
+      <c r="Q97" s="40" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R97" s="40" t="s">
+        <v>1316</v>
+      </c>
       <c r="S97" s="42"/>
       <c r="T97" s="39"/>
     </row>
-    <row r="98" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="59" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
+    <row r="98" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G98" s="40" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H98" s="40" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I98" s="40" t="s">
+        <v>1323</v>
+      </c>
+      <c r="J98" s="40" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K98" s="40" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L98" s="40" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M98" s="40" t="s">
+        <v>1327</v>
+      </c>
+      <c r="N98" s="40" t="s">
+        <v>1328</v>
+      </c>
       <c r="O98" s="40"/>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
+      <c r="P98" s="40" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Q98" s="40" t="s">
+        <v>1330</v>
+      </c>
       <c r="R98" s="40"/>
       <c r="S98" s="42"/>
       <c r="T98" s="39"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="40"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="40"/>
+    <row r="99" spans="1:20" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="39" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>936</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G99" s="40" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I99" s="40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J99" s="40" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K99" s="40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L99" s="40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="M99" s="40" t="s">
+        <v>1342</v>
+      </c>
       <c r="N99" s="40"/>
       <c r="O99" s="40"/>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="42"/>
+      <c r="P99" s="40" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q99" s="40"/>
       <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
+      <c r="S99" s="42" t="s">
+        <v>1344</v>
+      </c>
       <c r="T99" s="39"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -11705,31 +12047,33 @@
       <c r="N100" s="40"/>
       <c r="O100" s="40"/>
       <c r="P100" s="40"/>
-      <c r="Q100" s="42"/>
+      <c r="Q100" s="40"/>
       <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
+      <c r="S100" s="42"/>
       <c r="T100" s="39"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
+    <row r="101" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="59" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="60"/>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
       <c r="N101" s="40"/>
       <c r="O101" s="40"/>
       <c r="P101" s="40"/>
-      <c r="Q101" s="42"/>
+      <c r="Q101" s="40"/>
       <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
+      <c r="S101" s="42"/>
       <c r="T101" s="39"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -17916,7 +18260,7 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A98:K98"/>
+    <mergeCell ref="A101:K101"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="P1:Q1"/>
@@ -18002,6 +18346,173 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<CtFieldPriority xmlns="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/" xmlns:i="http://www.w3.org/2001/XMLSchema-instance">
+  <PriorityFields xmlns:a="http://schemas.microsoft.com/2003/10/Serialization/Arrays">
+    <a:string>Title</a:string>
+    <a:string>OECDCountry</a:string>
+    <a:string>OECDTopic</a:string>
+    <a:string>OECDKeywords</a:string>
+  </PriorityFields>
+</CtFieldPriority>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>OECDListFormCollapsible</Display>
+  <Edit>OECDListFormCollapsible</Edit>
+  <New>OECDListFormCollapsible</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <OECDPinnedBy xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDPinnedBy>
+    <OECDYear xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareTopicTaxHTField0>
+    <OECDProjectManager xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2570</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectManager>
+    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareCountryTaxHTField0>
+    <OECDProjectLookup xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">34</OECDProjectLookup>
+    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDSharingStatus xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
+    <bc65155f859f476689f41d2e239f3b65 xmlns="464847da-6e18-4144-8ad5-5857903e06b6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bc65155f859f476689f41d2e239f3b65>
+    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">(n/a)</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">3adabb5f-45b7-4a20-bdde-219e8d9477af</TermId>
+        </TermInfo>
+      </Terms>
+    </eSharePWBTaxHTField0>
+    <DocumentSetDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <eShareHorizProjTaxHTField0 xmlns="464847da-6e18-4144-8ad5-5857903e06b6" xsi:nil="true"/>
+    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
+      <Value>407</Value>
+      <Value>43</Value>
+    </TaxCatchAll>
+    <OECDCommunityDocumentURL xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
+    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
+    <OECDMainProject xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
+    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
+    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareKeywordsTaxHTField0>
+    <OECDCommunityDocumentID xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
+    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eShareCommitteeTaxHTField0>
+    <OECDTagsCache xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <OECDExpirationDate xmlns="464847da-6e18-4144-8ad5-5857903e06b6" xsi:nil="true"/>
+    <k521ff600dac4d78b40e1e44ce493525 xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ECO/FO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0421869f-dd6d-4a57-aa68-f68dc47925ad</TermId>
+        </TermInfo>
+      </Terms>
+    </k521ff600dac4d78b40e1e44ce493525>
+    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
+    <OECDAllRelatedUsers xmlns="464847da-6e18-4144-8ad5-5857903e06b6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </OECDAllRelatedUsers>
+    <OECDProjectMembers xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
+      <UserInfo>
+        <DisplayName>ELGHADHAB Penny, ECO</DisplayName>
+        <AccountId>83</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PURTELL Susan, ECO</DisplayName>
+        <AccountId>71</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>STOKLE Wendy, ECO</DisplayName>
+        <AccountId>65</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>MEYER ZU SCHLOCHTERN Casper, ECO</DisplayName>
+        <AccountId>410</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>ROUZET Dorothee, ECO</DisplayName>
+        <AccountId>1937</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LEHNER Lukas, ECO</DisplayName>
+        <AccountId>2050</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>CALDERA SANCHEZ Aida, ECO</DisplayName>
+        <AccountId>217</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>ORLIANGE Patrice, ECO</DisplayName>
+        <AccountId>523</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>RENAULT Theodore, ECO</DisplayName>
+        <AccountId>2160</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SANCHEZ CHICO Ana, ECO</DisplayName>
+        <AccountId>4043</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>KERGOZOU Nikki, ECO</DisplayName>
+        <AccountId>4243</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>SAKHA Sahra, ECO/CS6</DisplayName>
+        <AccountId>2266</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </OECDProjectMembers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Working Document" ma:contentTypeID="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE5299500A4858B360C6A491AA753F8BCA47AA91000293773D153AD3C41920164F348570E54" ma:contentTypeVersion="636" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="0bfc57893e241645835596e3f8eeb575">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xmlns:ns3="464847da-6e18-4144-8ad5-5857903e06b6" xmlns:ns4="ca82dde9-3436-4d3d-bddd-d31447390034" xmlns:ns5="b028c3f4-2795-4946-841c-2e1644b148e5" xmlns:ns6="c9f238dd-bb73-4aef-a7a5-d644ad823e52" xmlns:ns7="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a0e943a6fb82b0cdedfd54b095a035f0" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18466,179 +18977,59 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC52A47-A61F-42E0-94F2-FBF5841382A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<CtFieldPriority xmlns="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/" xmlns:i="http://www.w3.org/2001/XMLSchema-instance">
-  <PriorityFields xmlns:a="http://schemas.microsoft.com/2003/10/Serialization/Arrays">
-    <a:string>Title</a:string>
-    <a:string>OECDCountry</a:string>
-    <a:string>OECDTopic</a:string>
-    <a:string>OECDKeywords</a:string>
-  </PriorityFields>
-</CtFieldPriority>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDC1966D-AEEE-4E10-9BEE-C216D79D91DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/2003/10/Serialization/Arrays"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>OECDListFormCollapsible</Display>
-  <Edit>OECDListFormCollapsible</Edit>
-  <New>OECDListFormCollapsible</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B5256F7-22B5-46B0-B045-19A03C09C5A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <OECDPinnedBy xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDPinnedBy>
-    <OECDYear xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <eShareTopicTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareTopicTaxHTField0>
-    <OECDProjectManager xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2570</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectManager>
-    <eShareCountryTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareCountryTaxHTField0>
-    <OECDProjectLookup xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">34</OECDProjectLookup>
-    <OECDKimProvenance xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDSharingStatus xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
-    <bc65155f859f476689f41d2e239f3b65 xmlns="464847da-6e18-4144-8ad5-5857903e06b6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bc65155f859f476689f41d2e239f3b65>
-    <eSharePWBTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">(n/a)</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">3adabb5f-45b7-4a20-bdde-219e8d9477af</TermId>
-        </TermInfo>
-      </Terms>
-    </eSharePWBTaxHTField0>
-    <DocumentSetDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OECDMeetingDate xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <eShareHorizProjTaxHTField0 xmlns="464847da-6e18-4144-8ad5-5857903e06b6" xsi:nil="true"/>
-    <TaxCatchAll xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">
-      <Value>407</Value>
-      <Value>43</Value>
-    </TaxCatchAll>
-    <OECDCommunityDocumentURL xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
-    <OECDKimBussinessContext xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xsi:nil="true"/>
-    <OECDMainProject xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
-    <OECDKimStatus xmlns="54c4cd27-f286-408f-9ce0-33c1e0f3ab39">Draft</OECDKimStatus>
-    <eShareKeywordsTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareKeywordsTaxHTField0>
-    <OECDCommunityDocumentID xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
-    <eShareCommitteeTaxHTField0 xmlns="c9f238dd-bb73-4aef-a7a5-d644ad823e52">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eShareCommitteeTaxHTField0>
-    <OECDTagsCache xmlns="b028c3f4-2795-4946-841c-2e1644b148e5" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <OECDExpirationDate xmlns="464847da-6e18-4144-8ad5-5857903e06b6" xsi:nil="true"/>
-    <k521ff600dac4d78b40e1e44ce493525 xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ECO/FO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0421869f-dd6d-4a57-aa68-f68dc47925ad</TermId>
-        </TermInfo>
-      </Terms>
-    </k521ff600dac4d78b40e1e44ce493525>
-    <OECDlanguage xmlns="ca82dde9-3436-4d3d-bddd-d31447390034">English</OECDlanguage>
-    <OECDAllRelatedUsers xmlns="464847da-6e18-4144-8ad5-5857903e06b6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </OECDAllRelatedUsers>
-    <OECDProjectMembers xmlns="b028c3f4-2795-4946-841c-2e1644b148e5">
-      <UserInfo>
-        <DisplayName>ELGHADHAB Penny, ECO</DisplayName>
-        <AccountId>83</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PURTELL Susan, ECO</DisplayName>
-        <AccountId>71</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>STOKLE Wendy, ECO</DisplayName>
-        <AccountId>65</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>MEYER ZU SCHLOCHTERN Casper, ECO</DisplayName>
-        <AccountId>410</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>ROUZET Dorothee, ECO</DisplayName>
-        <AccountId>1937</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LEHNER Lukas, ECO</DisplayName>
-        <AccountId>2050</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>CALDERA SANCHEZ Aida, ECO</DisplayName>
-        <AccountId>217</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>ORLIANGE Patrice, ECO</DisplayName>
-        <AccountId>523</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>RENAULT Theodore, ECO</DisplayName>
-        <AccountId>2160</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SANCHEZ CHICO Ana, ECO</DisplayName>
-        <AccountId>4043</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>KERGOZOU Nikki, ECO</DisplayName>
-        <AccountId>4243</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>SAKHA Sahra, ECO/CS6</DisplayName>
-        <AccountId>2266</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </OECDProjectMembers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1C341D-6FA9-4B5A-A365-612C10D072E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b028c3f4-2795-4946-841c-2e1644b148e5"/>
+    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="464847da-6e18-4144-8ad5-5857903e06b6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32731671-94FF-442B-B0B8-AA545F9D4C66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18662,57 +19053,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C1A283-A8EA-4048-AF2B-2917C9EA7881}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC52A47-A61F-42E0-94F2-FBF5841382A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDC1966D-AEEE-4E10-9BEE-C216D79D91DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/2003/10/Serialization/Arrays"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B5256F7-22B5-46B0-B045-19A03C09C5A2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A1C341D-6FA9-4B5A-A365-612C10D072E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9f238dd-bb73-4aef-a7a5-d644ad823e52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ca82dde9-3436-4d3d-bddd-d31447390034"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b028c3f4-2795-4946-841c-2e1644b148e5"/>
-    <ds:schemaRef ds:uri="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="464847da-6e18-4144-8ad5-5857903e06b6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>